--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A89F94-A926-4CB8-9873-7E622F1018E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F5A93-9036-4F08-8CE9-6F4EC3077AFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CFCA93-134A-4C41-B463-12BD2BC37BA8}"/>
   </bookViews>
@@ -359,10 +359,10 @@
     <t>Посещаемость</t>
   </si>
   <si>
-    <t/>
+    <t>н</t>
   </si>
   <si>
-    <t>н</t>
+    <t/>
   </si>
   <si>
     <t>лк</t>
@@ -427,7 +427,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +519,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -781,7 +788,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
@@ -843,12 +850,117 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -873,111 +985,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -1294,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE93198-BB7A-4126-91BE-F4F0185F4DE6}">
-  <dimension ref="A1:BA47"/>
+  <dimension ref="A1:BE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8:AZ38"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1:BE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1327,126 +1335,140 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AI1" s="40" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AI1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AX1" s="5" t="s">
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="72" t="s">
         <v>3</v>
       </c>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AX2" s="5">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72">
         <v>2</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="AY2" s="72">
         <f>AU39/hour</f>
         <v>0</v>
       </c>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
     </row>
     <row r="3" ht="18" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -1463,27 +1485,27 @@
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
@@ -1498,241 +1520,284 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AX3" s="5">
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72">
         <f>AU39/2</f>
         <v>0</v>
       </c>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
     </row>
     <row r="4" ht="17.4" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="49" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="51"/>
-      <c r="AI4" s="45" t="s">
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="52"/>
+      <c r="AI4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="46" t="s">
+      <c r="AJ4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="49" t="s">
+      <c r="AK4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="46" t="s">
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="46" t="s">
+      <c r="AV4" s="47" t="s">
         <v>17</v>
       </c>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="57"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="58"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="72"/>
+      <c r="AX5" s="72"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="72"/>
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="72"/>
+      <c r="BD5" s="72"/>
+      <c r="BE5" s="72"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="59" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="59" t="s">
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="AG6" s="60"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
+      <c r="AG6" s="61"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="72"/>
+      <c r="AX6" s="72"/>
+      <c r="AY6" s="72"/>
+      <c r="AZ6" s="72"/>
+      <c r="BA6" s="72"/>
+      <c r="BB6" s="72"/>
+      <c r="BC6" s="72"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
     </row>
     <row r="7">
-      <c r="A7" s="65"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="62"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AZ7" s="5" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="63"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="72" t="s">
         <v>20</v>
       </c>
+      <c r="BA7" s="72"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
     </row>
     <row r="8">
       <c r="A8" s="7">
@@ -1742,22 +1807,22 @@
         <v>21</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -1780,40 +1845,48 @@
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
-      <c r="AD8" s="27">
+      <c r="AD8" s="42">
         <v>2</v>
       </c>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="27">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="28"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="42">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="43"/>
       <c r="AI8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="AJ8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="37" t="s">
+      <c r="AK8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="39"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="32"/>
       <c r="AU8" s="25">
-        <f>IF( AK8 ="", 0, $AX$2)</f>
+        <f ref="AU8:AU38" t="shared" si="0">IF( AK8 ="", 0, $AX$2)</f>
         <v>0</v>
       </c>
       <c r="AV8" s="25"/>
-      <c r="AZ8" s="5" t="str">
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72" t="str">
         <f>IF( AD8="", "",((($AU$39-(AD8+AF8))/$AU$39)))</f>
       </c>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
     </row>
     <row r="9">
       <c r="A9" s="7">
@@ -1821,25 +1894,25 @@
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="G9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -1862,66 +1935,74 @@
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="27">
+      <c r="AD9" s="42">
         <v>2</v>
       </c>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="27">
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="42">
         <v>4</v>
       </c>
-      <c r="AG9" s="28"/>
+      <c r="AG9" s="43"/>
       <c r="AI9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="AJ9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AK9" s="37" t="s">
+      <c r="AK9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="39"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="32"/>
       <c r="AU9" s="25">
-        <f>IF( AK9 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV9" s="25"/>
-      <c r="AZ9" s="5" t="str">
-        <f ref="AZ9:AZ38" t="shared" si="0">IF( AD9="", "",((($AU$39-(AD9+AF9))/$AU$39)))</f>
-      </c>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72" t="str">
+        <f ref="AZ9:AZ38" t="shared" si="1">IF( AD9="", "",((($AU$39-(AD9+AF9))/$AU$39)))</f>
+      </c>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
     </row>
     <row r="10">
       <c r="A10" s="7">
-        <f ref="A10:A36" t="shared" si="1">A9+1</f>
+        <f ref="A10:A36" t="shared" si="2">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="H10" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -1944,66 +2025,74 @@
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
-      <c r="AD10" s="27">
+      <c r="AD10" s="42">
         <v>2</v>
       </c>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="27">
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="42">
         <v>2</v>
       </c>
-      <c r="AG10" s="28"/>
+      <c r="AG10" s="43"/>
       <c r="AI10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="AJ10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="37" t="s">
+      <c r="AK10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
-      <c r="AT10" s="39"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="32"/>
       <c r="AU10" s="25">
-        <f>IF( AK10 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV10" s="25"/>
-      <c r="AZ10" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="72"/>
+      <c r="BE10" s="72"/>
     </row>
     <row r="11">
       <c r="A11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="G11" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -2026,44 +2115,52 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
-      <c r="AD11" s="27">
+      <c r="AD11" s="42">
         <v>2</v>
       </c>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="27">
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="42">
         <v>0</v>
       </c>
-      <c r="AG11" s="28"/>
+      <c r="AG11" s="43"/>
       <c r="AI11" s="25" t="s">
         <v>11</v>
       </c>
       <c r="AJ11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AK11" s="37" t="s">
+      <c r="AK11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="39"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="32"/>
       <c r="AU11" s="25">
-        <f>IF( AK11 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV11" s="25"/>
-      <c r="AZ11" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="72"/>
+      <c r="BD11" s="72"/>
+      <c r="BE11" s="72"/>
     </row>
     <row r="12">
       <c r="A12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B12" s="15"/>
@@ -2094,40 +2191,48 @@
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="28"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="43"/>
       <c r="AI12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="AJ12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AK12" s="37" t="s">
+      <c r="AK12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="39"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="32"/>
       <c r="AU12" s="25">
-        <f>IF( AK12 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV12" s="25"/>
-      <c r="AZ12" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+      <c r="BD12" s="72"/>
+      <c r="BE12" s="72"/>
     </row>
     <row r="13">
       <c r="A13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B13" s="15"/>
@@ -2158,40 +2263,48 @@
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="28"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="43"/>
       <c r="AI13" s="25" t="s">
         <v>9</v>
       </c>
       <c r="AJ13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AK13" s="37" t="s">
+      <c r="AK13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="39"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="32"/>
       <c r="AU13" s="25">
-        <f>IF( AK13 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV13" s="25"/>
-      <c r="AZ13" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="72"/>
+      <c r="BD13" s="72"/>
+      <c r="BE13" s="72"/>
     </row>
     <row r="14">
       <c r="A14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B14" s="15"/>
@@ -2222,40 +2335,48 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="15"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="28"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="43"/>
       <c r="AI14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="AJ14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AK14" s="37" t="s">
+      <c r="AK14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="39"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="32"/>
       <c r="AU14" s="25">
-        <f>IF( AK14 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV14" s="25"/>
-      <c r="AZ14" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="72"/>
+      <c r="BD14" s="72"/>
+      <c r="BE14" s="72"/>
     </row>
     <row r="15">
       <c r="A15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B15" s="15"/>
@@ -2286,34 +2407,42 @@
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="15"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="28"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="43"/>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="39"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="32"/>
       <c r="AU15" s="25">
-        <f>IF( AK15 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV15" s="25"/>
-      <c r="AZ15" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="72"/>
+      <c r="BD15" s="72"/>
+      <c r="BE15" s="72"/>
     </row>
     <row r="16">
       <c r="A16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B16" s="15"/>
@@ -2344,34 +2473,42 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="28"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="43"/>
       <c r="AI16" s="25"/>
       <c r="AJ16" s="25"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="39"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="32"/>
       <c r="AU16" s="25">
-        <f>IF( AK16 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV16" s="25"/>
-      <c r="AZ16" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
     </row>
     <row r="17">
       <c r="A17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B17" s="15"/>
@@ -2402,34 +2539,42 @@
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="28"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="43"/>
       <c r="AI17" s="25"/>
       <c r="AJ17" s="25"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="39"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="32"/>
       <c r="AU17" s="25">
-        <f>IF( AK17 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV17" s="25"/>
-      <c r="AZ17" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="72"/>
+      <c r="BD17" s="72"/>
+      <c r="BE17" s="72"/>
     </row>
     <row r="18">
       <c r="A18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B18" s="15"/>
@@ -2460,34 +2605,42 @@
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="28"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="43"/>
       <c r="AI18" s="25"/>
       <c r="AJ18" s="25"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="39"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="32"/>
       <c r="AU18" s="25">
-        <f>IF( AK18 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV18" s="25"/>
-      <c r="AZ18" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="72"/>
+      <c r="BD18" s="72"/>
+      <c r="BE18" s="72"/>
     </row>
     <row r="19">
       <c r="A19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B19" s="15"/>
@@ -2518,34 +2671,42 @@
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="28"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="43"/>
       <c r="AI19" s="25"/>
       <c r="AJ19" s="25"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="39"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="32"/>
       <c r="AU19" s="25">
-        <f>IF( AK19 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV19" s="25"/>
-      <c r="AZ19" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="72"/>
+      <c r="BE19" s="72"/>
     </row>
     <row r="20">
       <c r="A20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B20" s="15"/>
@@ -2576,34 +2737,42 @@
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="28"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="43"/>
       <c r="AI20" s="25"/>
       <c r="AJ20" s="25"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="39"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="32"/>
       <c r="AU20" s="25">
-        <f>IF( AK20 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV20" s="25"/>
-      <c r="AZ20" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="72"/>
+      <c r="BE20" s="72"/>
     </row>
     <row r="21">
       <c r="A21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B21" s="15"/>
@@ -2634,34 +2803,42 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="28"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="43"/>
       <c r="AI21" s="25"/>
       <c r="AJ21" s="25"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="39"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="32"/>
       <c r="AU21" s="25">
-        <f>IF( AK21 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV21" s="25"/>
-      <c r="AZ21" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="72"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA21" s="72"/>
+      <c r="BB21" s="72"/>
+      <c r="BC21" s="72"/>
+      <c r="BD21" s="72"/>
+      <c r="BE21" s="72"/>
     </row>
     <row r="22">
       <c r="A22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B22" s="15"/>
@@ -2692,34 +2869,42 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="28"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="43"/>
       <c r="AI22" s="25"/>
       <c r="AJ22" s="25"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="39"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="32"/>
       <c r="AU22" s="25">
-        <f>IF( AK22 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV22" s="25"/>
-      <c r="AZ22" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW22" s="72"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA22" s="72"/>
+      <c r="BB22" s="72"/>
+      <c r="BC22" s="72"/>
+      <c r="BD22" s="72"/>
+      <c r="BE22" s="72"/>
     </row>
     <row r="23">
       <c r="A23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B23" s="15"/>
@@ -2750,34 +2935,42 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="28"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="43"/>
       <c r="AI23" s="25"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="39"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="32"/>
       <c r="AU23" s="25">
-        <f>IF( AK23 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV23" s="25"/>
-      <c r="AZ23" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA23" s="72"/>
+      <c r="BB23" s="72"/>
+      <c r="BC23" s="72"/>
+      <c r="BD23" s="72"/>
+      <c r="BE23" s="72"/>
     </row>
     <row r="24">
       <c r="A24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B24" s="15"/>
@@ -2808,34 +3001,42 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="28"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="43"/>
       <c r="AI24" s="25"/>
       <c r="AJ24" s="25"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="39"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="32"/>
       <c r="AU24" s="25">
-        <f>IF( AK24 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV24" s="25"/>
-      <c r="AZ24" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW24" s="72"/>
+      <c r="AX24" s="72"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA24" s="72"/>
+      <c r="BB24" s="72"/>
+      <c r="BC24" s="72"/>
+      <c r="BD24" s="72"/>
+      <c r="BE24" s="72"/>
     </row>
     <row r="25">
       <c r="A25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B25" s="15"/>
@@ -2866,30 +3067,38 @@
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="28"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="43"/>
       <c r="AI25" s="25"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="38"/>
-      <c r="AS25" s="38"/>
-      <c r="AT25" s="39"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="32"/>
       <c r="AU25" s="25">
-        <f>IF( AK25 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV25" s="25"/>
-      <c r="AZ25" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA25" s="72"/>
+      <c r="BB25" s="72"/>
+      <c r="BC25" s="72"/>
+      <c r="BD25" s="72"/>
+      <c r="BE25" s="72"/>
     </row>
     <row r="26">
       <c r="A26" s="7">
@@ -2924,34 +3133,42 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="28"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="43"/>
       <c r="AI26" s="25"/>
       <c r="AJ26" s="25"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="39"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="32"/>
       <c r="AU26" s="25">
-        <f>IF( AK26 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV26" s="25"/>
-      <c r="AZ26" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA26" s="72"/>
+      <c r="BB26" s="72"/>
+      <c r="BC26" s="72"/>
+      <c r="BD26" s="72"/>
+      <c r="BE26" s="72"/>
     </row>
     <row r="27">
       <c r="A27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B27" s="15"/>
@@ -2982,34 +3199,42 @@
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="28"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="43"/>
       <c r="AI27" s="25"/>
       <c r="AJ27" s="25"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="39"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="32"/>
       <c r="AU27" s="25">
-        <f>IF( AK27 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV27" s="25"/>
-      <c r="AZ27" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA27" s="72"/>
+      <c r="BB27" s="72"/>
+      <c r="BC27" s="72"/>
+      <c r="BD27" s="72"/>
+      <c r="BE27" s="72"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B28" s="15"/>
@@ -3040,34 +3265,42 @@
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="28"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="43"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="25"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="39"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="32"/>
       <c r="AU28" s="25">
-        <f>IF( AK28 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV28" s="25"/>
-      <c r="AZ28" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA28" s="72"/>
+      <c r="BB28" s="72"/>
+      <c r="BC28" s="72"/>
+      <c r="BD28" s="72"/>
+      <c r="BE28" s="72"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B29" s="15"/>
@@ -3098,34 +3331,42 @@
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="28"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="43"/>
       <c r="AI29" s="25"/>
       <c r="AJ29" s="25"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
-      <c r="AT29" s="39"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="32"/>
       <c r="AU29" s="25">
-        <f>IF( AK29 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV29" s="25"/>
-      <c r="AZ29" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA29" s="72"/>
+      <c r="BB29" s="72"/>
+      <c r="BC29" s="72"/>
+      <c r="BD29" s="72"/>
+      <c r="BE29" s="72"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B30" s="15"/>
@@ -3156,34 +3397,42 @@
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="28"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="43"/>
       <c r="AI30" s="25"/>
       <c r="AJ30" s="25"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="39"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="32"/>
       <c r="AU30" s="25">
-        <f>IF( AK30 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV30" s="25"/>
-      <c r="AZ30" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA30" s="72"/>
+      <c r="BB30" s="72"/>
+      <c r="BC30" s="72"/>
+      <c r="BD30" s="72"/>
+      <c r="BE30" s="72"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B31" s="15"/>
@@ -3214,30 +3463,38 @@
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="28"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="43"/>
       <c r="AI31" s="25"/>
       <c r="AJ31" s="25"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
-      <c r="AS31" s="38"/>
-      <c r="AT31" s="39"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="32"/>
       <c r="AU31" s="25">
-        <f>IF( AK31 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV31" s="25"/>
-      <c r="AZ31" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA31" s="72"/>
+      <c r="BB31" s="72"/>
+      <c r="BC31" s="72"/>
+      <c r="BD31" s="72"/>
+      <c r="BE31" s="72"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
@@ -3272,34 +3529,42 @@
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="28"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="43"/>
       <c r="AI32" s="25"/>
       <c r="AJ32" s="25"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="39"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="32"/>
       <c r="AU32" s="25">
-        <f>IF( AK32 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV32" s="25"/>
-      <c r="AZ32" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA32" s="72"/>
+      <c r="BB32" s="72"/>
+      <c r="BC32" s="72"/>
+      <c r="BD32" s="72"/>
+      <c r="BE32" s="72"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B33" s="15"/>
@@ -3330,34 +3595,42 @@
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="28"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="43"/>
       <c r="AI33" s="25"/>
       <c r="AJ33" s="25"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="39"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="32"/>
       <c r="AU33" s="25">
-        <f>IF( AK33 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV33" s="25"/>
-      <c r="AZ33" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA33" s="72"/>
+      <c r="BB33" s="72"/>
+      <c r="BC33" s="72"/>
+      <c r="BD33" s="72"/>
+      <c r="BE33" s="72"/>
     </row>
     <row r="34">
       <c r="A34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B34" s="15"/>
@@ -3388,34 +3661,42 @@
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="28"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="43"/>
       <c r="AI34" s="25"/>
       <c r="AJ34" s="25"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="38"/>
-      <c r="AT34" s="39"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="32"/>
       <c r="AU34" s="25">
-        <f>IF( AK34 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV34" s="25"/>
-      <c r="AZ34" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA34" s="72"/>
+      <c r="BB34" s="72"/>
+      <c r="BC34" s="72"/>
+      <c r="BD34" s="72"/>
+      <c r="BE34" s="72"/>
     </row>
     <row r="35">
       <c r="A35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B35" s="15"/>
@@ -3446,34 +3727,42 @@
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="28"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="43"/>
       <c r="AI35" s="25"/>
       <c r="AJ35" s="25"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="38"/>
-      <c r="AN35" s="38"/>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="38"/>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="38"/>
-      <c r="AS35" s="38"/>
-      <c r="AT35" s="39"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="32"/>
       <c r="AU35" s="25">
-        <f>IF( AK35 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV35" s="25"/>
-      <c r="AZ35" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA35" s="72"/>
+      <c r="BB35" s="72"/>
+      <c r="BC35" s="72"/>
+      <c r="BD35" s="72"/>
+      <c r="BE35" s="72"/>
     </row>
     <row r="36">
       <c r="A36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B36" s="15"/>
@@ -3504,30 +3793,38 @@
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="28"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="43"/>
       <c r="AI36" s="25"/>
       <c r="AJ36" s="25"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="38"/>
-      <c r="AM36" s="38"/>
-      <c r="AN36" s="38"/>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="38"/>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="38"/>
-      <c r="AS36" s="38"/>
-      <c r="AT36" s="39"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="32"/>
       <c r="AU36" s="25">
-        <f>IF( AK36 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV36" s="25"/>
-      <c r="AZ36" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW36" s="72"/>
+      <c r="AX36" s="72"/>
+      <c r="AY36" s="72"/>
+      <c r="AZ36" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA36" s="72"/>
+      <c r="BB36" s="72"/>
+      <c r="BC36" s="72"/>
+      <c r="BD36" s="72"/>
+      <c r="BE36" s="72"/>
     </row>
     <row r="37" ht="18" customHeight="1">
       <c r="A37" s="7">
@@ -3561,30 +3858,38 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="28"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="43"/>
       <c r="AI37" s="25"/>
       <c r="AJ37" s="25"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="38"/>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="38"/>
-      <c r="AQ37" s="38"/>
-      <c r="AR37" s="38"/>
-      <c r="AS37" s="38"/>
-      <c r="AT37" s="39"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="32"/>
       <c r="AU37" s="25">
-        <f>IF( AK37 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV37" s="25"/>
-      <c r="AZ37" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW37" s="72"/>
+      <c r="AX37" s="72"/>
+      <c r="AY37" s="72"/>
+      <c r="AZ37" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA37" s="72"/>
+      <c r="BB37" s="72"/>
+      <c r="BC37" s="72"/>
+      <c r="BD37" s="72"/>
+      <c r="BE37" s="72"/>
     </row>
     <row r="38">
       <c r="A38" s="7"/>
@@ -3616,30 +3921,38 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="28"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="43"/>
       <c r="AI38" s="25"/>
       <c r="AJ38" s="25"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="38"/>
-      <c r="AS38" s="38"/>
-      <c r="AT38" s="39"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="32"/>
       <c r="AU38" s="25">
-        <f>IF( AK38 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV38" s="25"/>
-      <c r="AZ38" s="5" t="str">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="AW38" s="72"/>
+      <c r="AX38" s="72"/>
+      <c r="AY38" s="72"/>
+      <c r="AZ38" s="72" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BA38" s="72"/>
+      <c r="BB38" s="72"/>
+      <c r="BC38" s="72"/>
+      <c r="BD38" s="72"/>
+      <c r="BE38" s="72"/>
     </row>
     <row r="39" ht="18" customHeight="1">
       <c r="A39" s="9"/>
@@ -3671,36 +3984,43 @@
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="28"/>
-      <c r="AI39" s="69" t="s">
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="43"/>
+      <c r="AI39" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AJ39" s="70"/>
-      <c r="AK39" s="70"/>
-      <c r="AL39" s="70"/>
-      <c r="AM39" s="70"/>
-      <c r="AN39" s="70"/>
-      <c r="AO39" s="70"/>
-      <c r="AP39" s="70"/>
-      <c r="AQ39" s="70"/>
-      <c r="AR39" s="70"/>
-      <c r="AS39" s="70"/>
-      <c r="AT39" s="71"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="35"/>
       <c r="AU39" s="26">
         <f>SUM(AU8:AU38)</f>
         <v>0</v>
       </c>
       <c r="AV39" s="13"/>
-      <c r="AZ39" s="5" t="s">
+      <c r="AW39" s="72"/>
+      <c r="AX39" s="72"/>
+      <c r="AY39" s="72"/>
+      <c r="AZ39" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="BA39" s="5" t="e">
+      <c r="BA39" s="72" t="e">
         <f>AVERAGE(AZ8:AZ38)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="BB39" s="72"/>
+      <c r="BC39" s="72"/>
+      <c r="BD39" s="72"/>
+      <c r="BE39" s="72"/>
     </row>
     <row r="40" ht="18" customHeight="1">
       <c r="A40" s="9"/>
@@ -3732,10 +4052,10 @@
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
-      <c r="AD40" s="29" t="s">
+      <c r="AD40" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AE40" s="30"/>
+      <c r="AE40" s="65"/>
       <c r="AF40" s="16"/>
       <c r="AG40" s="17"/>
       <c r="AI40" s="4"/>
@@ -3783,18 +4103,18 @@
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="32"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="67"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="20"/>
       <c r="AI41" s="14" t="s">
         <v>31</v>
       </c>
       <c r="AJ41" s="14"/>
-      <c r="AK41" s="68" t="s">
+      <c r="AK41" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AL41" s="68"/>
+      <c r="AL41" s="29"/>
       <c r="AM41" s="14"/>
       <c r="AN41" s="14"/>
       <c r="AO41" s="14"/>
@@ -3836,8 +4156,8 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="32"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="67"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="20"/>
       <c r="AI42" s="4" t="s">
@@ -3887,11 +4207,11 @@
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
       <c r="AC43" s="10"/>
-      <c r="AD43" s="33" t="e">
+      <c r="AD43" s="68" t="e">
         <f>BA39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="34"/>
+      <c r="AE43" s="69"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="20"/>
       <c r="AI43" s="4" t="s">
@@ -4056,15 +4376,15 @@
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
-      <c r="AN46" s="66" t="s">
+      <c r="AN46" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AO46" s="66"/>
-      <c r="AT46" s="67" t="s">
+      <c r="AO46" s="27"/>
+      <c r="AT46" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AU46" s="67"/>
-      <c r="AV46" s="67"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="28"/>
     </row>
     <row r="47">
       <c r="AN47" s="6"/>
@@ -4072,57 +4392,75 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="AN46:AO46"/>
-    <mergeCell ref="AT46:AV46"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK33:AT33"/>
-    <mergeCell ref="AK34:AT34"/>
-    <mergeCell ref="AK35:AT35"/>
-    <mergeCell ref="AK37:AT37"/>
-    <mergeCell ref="AK38:AT38"/>
-    <mergeCell ref="AI39:AT39"/>
-    <mergeCell ref="AK32:AT32"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AK28:AT28"/>
-    <mergeCell ref="AK29:AT29"/>
-    <mergeCell ref="AK30:AT30"/>
-    <mergeCell ref="AK31:AT31"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AK36:AT36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AI1:AV1"/>
     <mergeCell ref="AI2:AV2"/>
     <mergeCell ref="S4:S7"/>
@@ -4147,75 +4485,57 @@
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="N4:N7"/>
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AK36:AT36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK32:AT32"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AK29:AT29"/>
+    <mergeCell ref="AK30:AT30"/>
+    <mergeCell ref="AK31:AT31"/>
+    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="AT46:AV46"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK33:AT33"/>
+    <mergeCell ref="AK34:AT34"/>
+    <mergeCell ref="AK35:AT35"/>
+    <mergeCell ref="AK37:AT37"/>
+    <mergeCell ref="AK38:AT38"/>
+    <mergeCell ref="AI39:AT39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="3.937007874015748E-2" top="0" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Русский язык</t>
+    <t>Высшая математика</t>
   </si>
   <si>
     <t xml:space="preserve">_____________________________________________________________________________________________________________________________ </t>
@@ -362,22 +362,19 @@
     <t>ЛР</t>
   </si>
   <si>
+    <t>н</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>л</t>
   </si>
   <si>
-    <t>Правила</t>
+    <t>Аналитическая геометрия</t>
   </si>
   <si>
     <t>лр</t>
-  </si>
-  <si>
-    <t>пз</t>
-  </si>
-  <si>
-    <t>н</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -1568,12 +1565,8 @@
       <c r="C4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -1840,7 +1833,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1873,7 +1866,7 @@
       </c>
       <c r="AE8" s="33"/>
       <c r="AF8" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="33"/>
       <c r="AH8" s="27"/>
@@ -1881,10 +1874,10 @@
         <v>9</v>
       </c>
       <c r="AJ8" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
@@ -1928,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
@@ -1964,7 +1957,7 @@
       </c>
       <c r="AE9" s="33"/>
       <c r="AF9" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="27"/>
@@ -1972,10 +1965,10 @@
         <v>9</v>
       </c>
       <c r="AJ9" s="25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK9" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
@@ -2019,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2059,15 +2052,9 @@
       </c>
       <c r="AG10" s="33"/>
       <c r="AH10" s="27"/>
-      <c r="AI10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK10" s="42" t="s">
-        <v>24</v>
-      </c>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="42"/>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
       <c r="AN10" s="43"/>
@@ -2110,10 +2097,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2149,15 +2136,9 @@
         <v>0</v>
       </c>
       <c r="AG11" s="33"/>
-      <c r="AI11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ11" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK11" s="42" t="s">
-        <v>24</v>
-      </c>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="42"/>
       <c r="AL11" s="43"/>
       <c r="AM11" s="43"/>
       <c r="AN11" s="43"/>
@@ -2200,10 +2181,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2284,10 +2265,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2368,10 +2349,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2452,10 +2433,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2488,7 +2469,7 @@
       </c>
       <c r="AE15" s="33"/>
       <c r="AF15" s="32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="33"/>
       <c r="AI15" s="25"/>
@@ -2563,13 +2544,9 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
-      <c r="AD16" s="32">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="32"/>
       <c r="AE16" s="33"/>
-      <c r="AF16" s="32">
-        <v>0</v>
-      </c>
+      <c r="AF16" s="32"/>
       <c r="AG16" s="33"/>
       <c r="AI16" s="25"/>
       <c r="AJ16" s="25"/>
@@ -4313,7 +4290,7 @@
       <c r="AF39" s="32"/>
       <c r="AG39" s="33"/>
       <c r="AI39" s="74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ39" s="75"/>
       <c r="AK39" s="75"/>
@@ -4335,14 +4312,14 @@
       <c r="AX39" s="27"/>
       <c r="AY39" s="27"/>
       <c r="AZ39" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA39" s="27" t="e">
         <f>AVERAGE(AZ8:AZ38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BB39" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC39" s="27">
         <f>SUM(BC8:BC38)</f>
@@ -4389,7 +4366,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE40" s="35"/>
       <c r="AF40" s="16"/>
@@ -4454,7 +4431,7 @@
       <c r="AF41" s="19"/>
       <c r="AG41" s="20"/>
       <c r="AI41" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ41" s="14"/>
       <c r="AK41" s="73">
@@ -4518,7 +4495,7 @@
       <c r="AF42" s="19"/>
       <c r="AG42" s="20"/>
       <c r="AI42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="29"/>
@@ -4582,7 +4559,7 @@
       <c r="AF43" s="19"/>
       <c r="AG43" s="20"/>
       <c r="AI43" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ43" s="28">
         <f>BC39</f>
@@ -4646,7 +4623,7 @@
       <c r="AF44" s="19"/>
       <c r="AG44" s="20"/>
       <c r="AI44" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ44" s="31">
         <f>BD39</f>
@@ -4700,7 +4677,7 @@
       <c r="AF45" s="19"/>
       <c r="AG45" s="20"/>
       <c r="AI45" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ45" s="31">
         <f>BE39</f>
@@ -4708,18 +4685,18 @@
       </c>
       <c r="AK45" s="4"/>
       <c r="AL45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM45" s="4"/>
       <c r="AN45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
       <c r="AS45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
@@ -4763,11 +4740,11 @@
       <c r="AJ46" s="29"/>
       <c r="AK46" s="4"/>
       <c r="AN46" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO46" s="71"/>
       <c r="AT46" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B110F8-F81B-40B7-AE7D-08BBC69CAB7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302BB25-7D97-49A6-9831-181AE34AE2BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CFCA93-134A-4C41-B463-12BD2BC37BA8}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -326,6 +326,9 @@
     <t>15.10.2020</t>
   </si>
   <si>
+    <t>23.10.2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
   </si>
   <si>
@@ -375,6 +378,12 @@
   </si>
   <si>
     <t>лр</t>
+  </si>
+  <si>
+    <t>пз</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дифференциальное и интегральное исчисления</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -1320,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE93198-BB7A-4126-91BE-F4F0185F4DE6}">
   <dimension ref="A1:BF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6:AH12"/>
+    <sheetView tabSelected="1" topLeftCell="AF3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8:AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1565,7 +1574,9 @@
       <c r="C4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -1592,20 +1603,20 @@
       <c r="AB4" s="47"/>
       <c r="AC4" s="47"/>
       <c r="AD4" s="54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE4" s="55"/>
       <c r="AF4" s="55"/>
       <c r="AG4" s="56"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ4" s="51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" s="54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL4" s="55"/>
       <c r="AM4" s="55"/>
@@ -1617,10 +1628,10 @@
       <c r="AS4" s="55"/>
       <c r="AT4" s="56"/>
       <c r="AU4" s="51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV4" s="51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW4" s="27"/>
       <c r="AX4" s="27"/>
@@ -1724,11 +1735,11 @@
       <c r="AB6" s="48"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE6" s="65"/>
       <c r="AF6" s="64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG6" s="65"/>
       <c r="AH6" s="27"/>
@@ -1810,18 +1821,18 @@
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
       <c r="AZ7" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA7" s="27"/>
       <c r="BB7" s="27"/>
       <c r="BC7" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD7" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BE7" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BF7" s="27"/>
     </row>
@@ -1830,12 +1841,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1874,10 +1887,10 @@
         <v>9</v>
       </c>
       <c r="AJ8" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK8" s="42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
@@ -1921,12 +1934,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1957,7 +1972,7 @@
       </c>
       <c r="AE9" s="33"/>
       <c r="AF9" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="27"/>
@@ -1965,10 +1980,10 @@
         <v>9</v>
       </c>
       <c r="AJ9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" s="42" t="s">
         <v>26</v>
-      </c>
-      <c r="AK9" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
@@ -2012,12 +2027,14 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2052,9 +2069,15 @@
       </c>
       <c r="AG10" s="33"/>
       <c r="AH10" s="27"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="42"/>
+      <c r="AI10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK10" s="42" t="s">
+        <v>29</v>
+      </c>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
       <c r="AN10" s="43"/>
@@ -2097,12 +2120,14 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2181,12 +2206,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2265,12 +2292,14 @@
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2349,12 +2378,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2433,12 +2464,14 @@
         <v>8</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -4290,7 +4323,7 @@
       <c r="AF39" s="32"/>
       <c r="AG39" s="33"/>
       <c r="AI39" s="74" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ39" s="75"/>
       <c r="AK39" s="75"/>
@@ -4312,14 +4345,14 @@
       <c r="AX39" s="27"/>
       <c r="AY39" s="27"/>
       <c r="AZ39" s="27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BA39" s="27" t="e">
         <f>AVERAGE(AZ8:AZ38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BB39" s="27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BC39" s="27">
         <f>SUM(BC8:BC38)</f>
@@ -4366,7 +4399,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE40" s="35"/>
       <c r="AF40" s="16"/>
@@ -4431,7 +4464,7 @@
       <c r="AF41" s="19"/>
       <c r="AG41" s="20"/>
       <c r="AI41" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AJ41" s="14"/>
       <c r="AK41" s="73">
@@ -4495,7 +4528,7 @@
       <c r="AF42" s="19"/>
       <c r="AG42" s="20"/>
       <c r="AI42" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="29"/>
@@ -4559,7 +4592,7 @@
       <c r="AF43" s="19"/>
       <c r="AG43" s="20"/>
       <c r="AI43" s="30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AJ43" s="28">
         <f>BC39</f>
@@ -4623,7 +4656,7 @@
       <c r="AF44" s="19"/>
       <c r="AG44" s="20"/>
       <c r="AI44" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AJ44" s="31">
         <f>BD39</f>
@@ -4677,7 +4710,7 @@
       <c r="AF45" s="19"/>
       <c r="AG45" s="20"/>
       <c r="AI45" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AJ45" s="31">
         <f>BE39</f>
@@ -4685,18 +4718,18 @@
       </c>
       <c r="AK45" s="4"/>
       <c r="AL45" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AM45" s="4"/>
       <c r="AN45" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
       <c r="AS45" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
@@ -4740,11 +4773,11 @@
       <c r="AJ46" s="29"/>
       <c r="AK46" s="4"/>
       <c r="AN46" s="71" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AO46" s="71"/>
       <c r="AT46" s="72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>
@@ -4901,8 +4934,8 @@
     <mergeCell ref="AD24:AE24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="3.937007874015748E-2" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageSetup paperSize="8" scale="97" orientation="landscape" horizontalDpi="4294967293"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -6,18 +6,18 @@
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="1" r:id="rId1"/>
-    <sheet name="Программирование" sheetId="2" r:id="rId2"/>
+    <sheet name="Высшая математика" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Титульник!$A$1:$I$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Программирование!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика'!$A$1:$AU$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Программирование</t>
+    <t>Высшая математика</t>
   </si>
   <si>
     <t>____________семестр</t>
@@ -60,9 +60,6 @@
       </rPr>
       <t xml:space="preserve"> № п.п.</t>
     </r>
-  </si>
-  <si>
-    <t>16.11.2020</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -99,15 +96,6 @@
   </si>
   <si>
     <t>ЛР</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>лр</t>
-  </si>
-  <si>
-    <t>Основы asp.net core</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -939,9 +927,7 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -970,19 +956,19 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
@@ -994,10 +980,10 @@
       <c r="AR4" s="16"/>
       <c r="AS4" s="17"/>
       <c r="AT4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="AU4" s="19" t="s">
-        <v>13</v>
       </c>
       <c r="BJ4" s="7"/>
     </row>
@@ -1082,11 +1068,11 @@
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE6" s="30"/>
       <c r="AF6" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" s="30"/>
       <c r="AH6" s="18"/>
@@ -1154,16 +1140,16 @@
       <c r="AT7" s="35"/>
       <c r="AU7" s="35"/>
       <c r="AY7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BB7" s="3" t="s">
+      <c r="BC7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BD7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="BD7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="BJ7" s="7"/>
     </row>
@@ -1171,9 +1157,7 @@
       <c r="A8" s="36">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -1209,15 +1193,9 @@
         <v>0</v>
       </c>
       <c r="AG8" s="39"/>
-      <c r="AH8" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI8" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ8" s="41" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="41"/>
       <c r="AK8" s="42"/>
       <c r="AL8" s="42"/>
       <c r="AM8" s="42"/>
@@ -1254,9 +1232,7 @@
         <f>A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -1331,9 +1307,7 @@
         <f ref="A10:A36" t="shared" si="5">A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -1408,9 +1382,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -1485,9 +1457,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -1562,9 +1532,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -1639,9 +1607,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -1716,9 +1682,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -1793,9 +1757,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -1870,9 +1832,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="37"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -1947,9 +1907,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -2024,9 +1982,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -2054,13 +2010,9 @@
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
-      <c r="AD19" s="38">
-        <v>0</v>
-      </c>
+      <c r="AD19" s="38"/>
       <c r="AE19" s="39"/>
-      <c r="AF19" s="38">
-        <v>0</v>
-      </c>
+      <c r="AF19" s="38"/>
       <c r="AG19" s="39"/>
       <c r="AH19" s="40"/>
       <c r="AI19" s="40"/>
@@ -3476,7 +3428,7 @@
       <c r="AF39" s="38"/>
       <c r="AG39" s="39"/>
       <c r="AH39" s="46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
@@ -3495,14 +3447,14 @@
       </c>
       <c r="AU39" s="50"/>
       <c r="AY39" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ39" s="3" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BB39" s="3">
         <f>SUM(BB8:BB38)</f>
@@ -3549,13 +3501,13 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="51" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE40" s="52"/>
       <c r="AF40" s="53"/>
       <c r="AG40" s="54"/>
       <c r="AH40" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="55">
@@ -3609,7 +3561,7 @@
       <c r="AF41" s="58"/>
       <c r="AG41" s="59"/>
       <c r="AH41" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI41" s="12"/>
       <c r="AJ41" s="60"/>
@@ -3660,7 +3612,7 @@
       <c r="AF42" s="58"/>
       <c r="AG42" s="59"/>
       <c r="AH42" s="61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI42" s="62">
         <f>BB39</f>
@@ -3717,7 +3669,7 @@
       <c r="AF43" s="58"/>
       <c r="AG43" s="59"/>
       <c r="AH43" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI43" s="66">
         <f>BC39</f>
@@ -3771,7 +3723,7 @@
       <c r="AF44" s="58"/>
       <c r="AG44" s="59"/>
       <c r="AH44" s="61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI44" s="66">
         <f>BD39</f>
@@ -3779,18 +3731,18 @@
       </c>
       <c r="AJ44" s="12"/>
       <c r="AK44" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL44" s="12"/>
       <c r="AM44" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AN44" s="12"/>
       <c r="AO44" s="12"/>
       <c r="AP44" s="12"/>
       <c r="AQ44" s="12"/>
       <c r="AR44" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AS44" s="12"/>
       <c r="AT44" s="12"/>
@@ -3834,11 +3786,11 @@
       <c r="AI45" s="60"/>
       <c r="AJ45" s="12"/>
       <c r="AM45" s="69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AN45" s="69"/>
       <c r="AS45" s="70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AT45" s="70"/>
       <c r="AU45" s="70"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -6,18 +6,18 @@
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="1" r:id="rId1"/>
-    <sheet name="Высшая математика" sheetId="2" r:id="rId2"/>
+    <sheet name="Программирование" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Титульник!$A$1:$I$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Программирование!$A$1:$AU$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Высшая математика</t>
+    <t>Программирование</t>
   </si>
   <si>
     <t>____________семестр</t>
@@ -60,6 +60,9 @@
       </rPr>
       <t xml:space="preserve"> № п.п.</t>
     </r>
+  </si>
+  <si>
+    <t>01.12.2020</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -96,6 +99,21 @@
   </si>
   <si>
     <t>ЛР</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>лр</t>
+  </si>
+  <si>
+    <t>Вводная</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>н</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -927,9 +945,15 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -956,19 +980,19 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
@@ -980,10 +1004,10 @@
       <c r="AR4" s="16"/>
       <c r="AS4" s="17"/>
       <c r="AT4" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU4" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BJ4" s="7"/>
     </row>
@@ -1068,11 +1092,11 @@
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE6" s="30"/>
       <c r="AF6" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" s="30"/>
       <c r="AH6" s="18"/>
@@ -1140,16 +1164,16 @@
       <c r="AT7" s="35"/>
       <c r="AU7" s="35"/>
       <c r="AY7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BJ7" s="7"/>
     </row>
@@ -1157,9 +1181,15 @@
       <c r="A8" s="36">
         <v>1</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -1193,9 +1223,15 @@
         <v>0</v>
       </c>
       <c r="AG8" s="39"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="41"/>
+      <c r="AH8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ8" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AK8" s="42"/>
       <c r="AL8" s="42"/>
       <c r="AM8" s="42"/>
@@ -1232,9 +1268,15 @@
         <f>A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -1268,9 +1310,15 @@
         <v>0</v>
       </c>
       <c r="AG9" s="39"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
+      <c r="AH9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ9" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AK9" s="42"/>
       <c r="AL9" s="42"/>
       <c r="AM9" s="42"/>
@@ -1307,9 +1355,15 @@
         <f ref="A10:A36" t="shared" si="5">A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -1343,9 +1397,15 @@
         <v>0</v>
       </c>
       <c r="AG10" s="39"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="41"/>
+      <c r="AH10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ10" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AK10" s="42"/>
       <c r="AL10" s="42"/>
       <c r="AM10" s="42"/>
@@ -1382,9 +1442,15 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -1457,9 +1523,15 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -1532,9 +1604,15 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -1565,7 +1643,7 @@
       </c>
       <c r="AE13" s="39"/>
       <c r="AF13" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG13" s="39"/>
       <c r="AH13" s="40"/>
@@ -1607,9 +1685,15 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -1682,9 +1766,15 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -1757,9 +1847,15 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -1790,7 +1886,7 @@
       </c>
       <c r="AE16" s="39"/>
       <c r="AF16" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG16" s="39"/>
       <c r="AH16" s="40"/>
@@ -1832,9 +1928,15 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -1935,13 +2037,9 @@
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
-      <c r="AD18" s="38">
-        <v>0</v>
-      </c>
+      <c r="AD18" s="38"/>
       <c r="AE18" s="39"/>
-      <c r="AF18" s="38">
-        <v>0</v>
-      </c>
+      <c r="AF18" s="38"/>
       <c r="AG18" s="39"/>
       <c r="AH18" s="40"/>
       <c r="AI18" s="40"/>
@@ -3428,7 +3526,7 @@
       <c r="AF39" s="38"/>
       <c r="AG39" s="39"/>
       <c r="AH39" s="46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
@@ -3447,14 +3545,14 @@
       </c>
       <c r="AU39" s="50"/>
       <c r="AY39" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ39" s="3" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BB39" s="3">
         <f>SUM(BB8:BB38)</f>
@@ -3501,13 +3599,13 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="51" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE40" s="52"/>
       <c r="AF40" s="53"/>
       <c r="AG40" s="54"/>
       <c r="AH40" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="55">
@@ -3561,7 +3659,7 @@
       <c r="AF41" s="58"/>
       <c r="AG41" s="59"/>
       <c r="AH41" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI41" s="12"/>
       <c r="AJ41" s="60"/>
@@ -3612,7 +3710,7 @@
       <c r="AF42" s="58"/>
       <c r="AG42" s="59"/>
       <c r="AH42" s="61" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AI42" s="62">
         <f>BB39</f>
@@ -3669,7 +3767,7 @@
       <c r="AF43" s="58"/>
       <c r="AG43" s="59"/>
       <c r="AH43" s="61" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI43" s="66">
         <f>BC39</f>
@@ -3723,7 +3821,7 @@
       <c r="AF44" s="58"/>
       <c r="AG44" s="59"/>
       <c r="AH44" s="61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AI44" s="66">
         <f>BD39</f>
@@ -3731,18 +3829,18 @@
       </c>
       <c r="AJ44" s="12"/>
       <c r="AK44" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL44" s="12"/>
       <c r="AM44" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN44" s="12"/>
       <c r="AO44" s="12"/>
       <c r="AP44" s="12"/>
       <c r="AQ44" s="12"/>
       <c r="AR44" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AS44" s="12"/>
       <c r="AT44" s="12"/>
@@ -3786,11 +3884,11 @@
       <c r="AI45" s="60"/>
       <c r="AJ45" s="12"/>
       <c r="AM45" s="69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AN45" s="69"/>
       <c r="AS45" s="70" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AT45" s="70"/>
       <c r="AU45" s="70"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -62,7 +62,7 @@
     </r>
   </si>
   <si>
-    <t>01.12.2020</t>
+    <t>20.12.2020</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -101,19 +101,34 @@
     <t>ЛР</t>
   </si>
   <si>
+    <t>КСР</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>лр</t>
-  </si>
-  <si>
-    <t>Вводная</t>
+    <t>Б</t>
   </si>
   <si>
     <t>л</t>
   </si>
   <si>
-    <t>н</t>
+    <t>Тема3</t>
+  </si>
+  <si>
+    <t>пз</t>
+  </si>
+  <si>
+    <t>Тема2</t>
+  </si>
+  <si>
+    <t>кср</t>
+  </si>
+  <si>
+    <t>Тема1</t>
+  </si>
+  <si>
+    <t>НБ</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -150,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">       _________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -КСР </t>
   </si>
   <si>
     <t>Подпись</t>
@@ -163,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -235,6 +253,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF3F3F3F"/>
@@ -272,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -510,13 +535,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
@@ -546,7 +582,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,7 +603,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -600,7 +636,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="17" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -614,7 +650,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,7 +672,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -682,7 +720,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
@@ -694,20 +732,23 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -726,11 +767,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE55F0E2-A87C-42E2-AC13-5C32171B64B8}">
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -742,37 +783,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE93198-BB7A-4126-91BE-F4F0185F4DE6}">
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="51" zoomScaleNormal="58" zoomScaleSheetLayoutView="51" workbookViewId="0">
-      <selection activeCell="BJ8" sqref="BJ8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="58" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AX33" sqref="AX33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="5.44140625" customWidth="1" style="3"/>
-    <col min="2" max="7" bestFit="1" width="2.109375" customWidth="1" style="3"/>
-    <col min="8" max="8" width="2.109375" customWidth="1" style="3"/>
-    <col min="9" max="19" bestFit="1" width="2.109375" customWidth="1" style="3"/>
-    <col min="20" max="20" bestFit="1" width="2.5546875" customWidth="1" style="3"/>
-    <col min="21" max="29" bestFit="1" width="2.109375" customWidth="1" style="3"/>
-    <col min="30" max="30" bestFit="1" width="8.6640625" customWidth="1" style="3"/>
-    <col min="31" max="32" width="7.44140625" customWidth="1" style="3"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1" style="3"/>
-    <col min="34" max="34" width="12.44140625" customWidth="1" style="3"/>
-    <col min="35" max="39" width="8.88671875" customWidth="1" style="3"/>
-    <col min="40" max="40" width="7.44140625" customWidth="1" style="3"/>
-    <col min="41" max="41" hidden="1" width="1.44140625" customWidth="1" style="3"/>
-    <col min="42" max="42" hidden="1" width="10.6640625" customWidth="1" style="3"/>
-    <col min="43" max="43" hidden="1" width="5.33203125" customWidth="1" style="3"/>
-    <col min="44" max="44" width="5.88671875" customWidth="1" style="3"/>
-    <col min="45" max="45" width="3.6640625" customWidth="1" style="3"/>
-    <col min="46" max="46" width="8.88671875" customWidth="1" style="3"/>
-    <col min="47" max="47" width="14.77734375" customWidth="1" style="3"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1" style="3"/>
-    <col min="51" max="51" width="8.88671875" customWidth="1" style="3"/>
-    <col min="52" max="52" bestFit="1" width="10.5546875" customWidth="1" style="3"/>
-    <col min="53" max="53" width="8.88671875" customWidth="1" style="3"/>
-    <col min="54" max="54" bestFit="1" width="10.5546875" customWidth="1" style="3"/>
-    <col min="55" max="16384" width="8.88671875" customWidth="1" style="3"/>
+    <col min="1" max="1" bestFit="1" width="5.42578125" customWidth="1" style="3"/>
+    <col min="2" max="7" bestFit="1" width="2.140625" customWidth="1" style="3"/>
+    <col min="8" max="8" width="2.140625" customWidth="1" style="3"/>
+    <col min="9" max="19" bestFit="1" width="2.140625" customWidth="1" style="3"/>
+    <col min="20" max="20" bestFit="1" width="2.5703125" customWidth="1" style="3"/>
+    <col min="21" max="29" bestFit="1" width="2.140625" customWidth="1" style="3"/>
+    <col min="30" max="30" bestFit="1" width="8.7109375" customWidth="1" style="3"/>
+    <col min="31" max="32" width="7.42578125" customWidth="1" style="3"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1" style="3"/>
+    <col min="34" max="34" width="12.42578125" customWidth="1" style="3"/>
+    <col min="35" max="39" width="8.85546875" customWidth="1" style="3"/>
+    <col min="40" max="40" width="7.42578125" customWidth="1" style="3"/>
+    <col min="41" max="41" hidden="1" width="1.42578125" customWidth="1" style="3"/>
+    <col min="42" max="42" hidden="1" width="10.7109375" customWidth="1" style="3"/>
+    <col min="43" max="43" hidden="1" width="5.28515625" customWidth="1" style="3"/>
+    <col min="44" max="44" width="5.85546875" customWidth="1" style="3"/>
+    <col min="45" max="45" width="3.7109375" customWidth="1" style="3"/>
+    <col min="46" max="46" width="8.85546875" customWidth="1" style="3"/>
+    <col min="47" max="47" width="14.7109375" customWidth="1" style="3"/>
+    <col min="48" max="50" width="8.85546875" customWidth="1" style="3"/>
+    <col min="51" max="51" width="8.85546875" customWidth="1" style="3"/>
+    <col min="52" max="52" bestFit="1" width="10.5703125" customWidth="1" style="3"/>
+    <col min="53" max="53" width="8.85546875" customWidth="1" style="3"/>
+    <col min="54" max="54" bestFit="1" width="10.5703125" customWidth="1" style="3"/>
+    <col min="55" max="16384" width="8.85546875" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="4" customFormat="1">
@@ -941,7 +982,7 @@
       <c r="AU3" s="12"/>
       <c r="BJ3" s="7"/>
     </row>
-    <row r="4" ht="17.4" customHeight="1" s="4" customFormat="1">
+    <row r="4" ht="17.45" customHeight="1" s="4" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -954,7 +995,9 @@
       <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1175,6 +1218,9 @@
       <c r="BD7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="BE7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="BJ7" s="7"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4" customFormat="1">
@@ -1182,15 +1228,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="37"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
@@ -1216,7 +1264,7 @@
       <c r="AB8" s="37"/>
       <c r="AC8" s="37"/>
       <c r="AD8" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="39"/>
       <c r="AF8" s="38">
@@ -1227,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="AI8" s="40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" s="41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK8" s="42"/>
       <c r="AL8" s="42"/>
@@ -1242,23 +1290,26 @@
       <c r="AR8" s="42"/>
       <c r="AS8" s="43"/>
       <c r="AT8" s="40">
-        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="40"/>
       <c r="AY8" s="3" t="str">
         <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
       </c>
       <c r="BB8" s="3">
-        <f>IF( AI8="л", 2,0)</f>
+        <f>IF( AI8="л", AT8,0)</f>
         <v>0</v>
       </c>
       <c r="BC8" s="3">
-        <f>IF( AI8="пз", 2,0)</f>
+        <f>IF( AI8="пз", AT8,0)</f>
         <v>0</v>
       </c>
       <c r="BD8" s="3">
-        <f>IF( AI8="лр", 2,0)</f>
+        <f>IF( AI8="лр", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="3">
+        <f>IF( AI8="кср", AT8,0)</f>
         <v>0</v>
       </c>
       <c r="BJ8" s="7"/>
@@ -1269,15 +1320,17 @@
         <v>2</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
@@ -1314,10 +1367,10 @@
         <v>7</v>
       </c>
       <c r="AI9" s="40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ9" s="41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK9" s="42"/>
       <c r="AL9" s="42"/>
@@ -1329,42 +1382,47 @@
       <c r="AR9" s="42"/>
       <c r="AS9" s="43"/>
       <c r="AT9" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="40"/>
       <c r="AY9" s="3" t="str">
         <f t="shared" si="1"/>
       </c>
       <c r="BB9" s="3">
-        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", 2,0)</f>
+        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
         <v>0</v>
       </c>
       <c r="BC9" s="3">
-        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", 2,0)</f>
+        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
         <v>0</v>
       </c>
       <c r="BD9" s="3">
-        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", 2,0)</f>
+        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="3">
+        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
         <v>0</v>
       </c>
       <c r="BJ9" s="7"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A10" s="36">
-        <f ref="A10:A36" t="shared" si="5">A9+1</f>
+        <f ref="A10:A36" t="shared" si="6">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
@@ -1401,10 +1459,10 @@
         <v>7</v>
       </c>
       <c r="AI10" s="40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AJ10" s="41" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AK10" s="42"/>
       <c r="AL10" s="42"/>
@@ -1416,8 +1474,7 @@
       <c r="AR10" s="42"/>
       <c r="AS10" s="43"/>
       <c r="AT10" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU10" s="40"/>
       <c r="AY10" s="3" t="str">
@@ -1435,23 +1492,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ10" s="7"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A11" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -1484,9 +1547,15 @@
         <v>0</v>
       </c>
       <c r="AG11" s="39"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="41"/>
+      <c r="AH11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ11" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="AK11" s="42"/>
       <c r="AL11" s="42"/>
       <c r="AM11" s="42"/>
@@ -1497,8 +1566,7 @@
       <c r="AR11" s="42"/>
       <c r="AS11" s="43"/>
       <c r="AT11" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="40"/>
       <c r="AY11" s="3" t="str">
@@ -1516,23 +1584,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ11" s="7"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A12" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -1578,7 +1652,7 @@
       <c r="AR12" s="42"/>
       <c r="AS12" s="43"/>
       <c r="AT12" s="40">
-        <f t="shared" si="0"/>
+        <f ref="AT12:AT38" t="shared" si="0">IF(AJ12="",0,$AW$2)</f>
         <v>0</v>
       </c>
       <c r="AU12" s="40"/>
@@ -1597,23 +1671,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ12" s="7"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A13" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
@@ -1643,7 +1723,7 @@
       </c>
       <c r="AE13" s="39"/>
       <c r="AF13" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="39"/>
       <c r="AH13" s="40"/>
@@ -1678,23 +1758,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ13" s="7"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A14" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -1724,7 +1810,7 @@
       </c>
       <c r="AE14" s="39"/>
       <c r="AF14" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG14" s="39"/>
       <c r="AH14" s="40"/>
@@ -1759,23 +1845,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ14" s="7"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A15" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -1805,7 +1897,7 @@
       </c>
       <c r="AE15" s="39"/>
       <c r="AF15" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="39"/>
       <c r="AH15" s="40"/>
@@ -1840,23 +1932,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ15" s="7"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A16" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -1886,7 +1984,7 @@
       </c>
       <c r="AE16" s="39"/>
       <c r="AF16" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="39"/>
       <c r="AH16" s="40"/>
@@ -1921,23 +2019,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ16" s="7"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A17" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
@@ -2002,11 +2106,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ17" s="7"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A18" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B18" s="37"/>
@@ -2073,11 +2181,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ18" s="7"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A19" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B19" s="37"/>
@@ -2144,11 +2256,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ19" s="7"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A20" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B20" s="37"/>
@@ -2215,11 +2331,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ20" s="7"/>
     </row>
     <row r="21" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A21" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B21" s="37"/>
@@ -2286,11 +2406,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ21" s="7"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A22" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B22" s="37"/>
@@ -2357,11 +2481,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ22" s="7"/>
     </row>
     <row r="23" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A23" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B23" s="37"/>
@@ -2428,11 +2556,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ23" s="7"/>
     </row>
     <row r="24" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A24" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B24" s="37"/>
@@ -2499,11 +2631,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ24" s="7"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A25" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B25" s="37"/>
@@ -2570,6 +2706,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ25" s="7"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="4" customFormat="1">
@@ -2641,11 +2781,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE26" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ26" s="7"/>
     </row>
     <row r="27" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A27" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B27" s="37"/>
@@ -2712,11 +2856,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE27" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ27" s="7"/>
     </row>
     <row r="28" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A28" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B28" s="37"/>
@@ -2783,11 +2931,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ28" s="7"/>
     </row>
     <row r="29" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A29" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B29" s="37"/>
@@ -2854,11 +3006,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ29" s="7"/>
     </row>
     <row r="30" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A30" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B30" s="37"/>
@@ -2925,11 +3081,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE30" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ30" s="7"/>
     </row>
     <row r="31" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A31" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B31" s="37"/>
@@ -2996,6 +3156,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE31" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ31" s="7"/>
     </row>
     <row r="32" ht="15" customHeight="1" s="4" customFormat="1">
@@ -3067,11 +3231,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE32" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ32" s="7"/>
     </row>
     <row r="33" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A33" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B33" s="37"/>
@@ -3138,11 +3306,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE33" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ33" s="7"/>
     </row>
     <row r="34" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A34" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B34" s="37"/>
@@ -3209,11 +3381,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE34" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ34" s="7"/>
     </row>
     <row r="35" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A35" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B35" s="37"/>
@@ -3280,11 +3456,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE35" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ35" s="7"/>
     </row>
     <row r="36" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="A36" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B36" s="37"/>
@@ -3351,6 +3531,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE36" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ36" s="7"/>
     </row>
     <row r="37" ht="18" customHeight="1" s="4" customFormat="1">
@@ -3419,6 +3603,10 @@
       </c>
       <c r="BD37" s="3">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="7"/>
@@ -3489,6 +3677,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="BE38" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="BJ38" s="7"/>
     </row>
     <row r="39" ht="18" customHeight="1" s="4" customFormat="1">
@@ -3526,7 +3718,7 @@
       <c r="AF39" s="38"/>
       <c r="AG39" s="39"/>
       <c r="AH39" s="46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
@@ -3545,14 +3737,14 @@
       </c>
       <c r="AU39" s="50"/>
       <c r="AY39" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AZ39" s="3" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BB39" s="3">
         <f>SUM(BB8:BB38)</f>
@@ -3564,6 +3756,10 @@
       </c>
       <c r="BD39" s="3">
         <f>SUM(BD8:BD38)</f>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="3">
+        <f>SUM(BE8:BE38)</f>
         <v>0</v>
       </c>
       <c r="BJ39" s="7"/>
@@ -3599,13 +3795,13 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="51" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AE40" s="52"/>
       <c r="AF40" s="53"/>
       <c r="AG40" s="54"/>
       <c r="AH40" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="55">
@@ -3659,7 +3855,7 @@
       <c r="AF41" s="58"/>
       <c r="AG41" s="59"/>
       <c r="AH41" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI41" s="12"/>
       <c r="AJ41" s="60"/>
@@ -3710,7 +3906,7 @@
       <c r="AF42" s="58"/>
       <c r="AG42" s="59"/>
       <c r="AH42" s="61" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AI42" s="62">
         <f>BB39</f>
@@ -3767,7 +3963,7 @@
       <c r="AF43" s="58"/>
       <c r="AG43" s="59"/>
       <c r="AH43" s="61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI43" s="66">
         <f>BC39</f>
@@ -3821,7 +4017,7 @@
       <c r="AF44" s="58"/>
       <c r="AG44" s="59"/>
       <c r="AH44" s="61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AI44" s="66">
         <f>BD39</f>
@@ -3829,18 +4025,18 @@
       </c>
       <c r="AJ44" s="12"/>
       <c r="AK44" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AL44" s="12"/>
       <c r="AM44" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN44" s="12"/>
       <c r="AO44" s="12"/>
       <c r="AP44" s="12"/>
       <c r="AQ44" s="12"/>
       <c r="AR44" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AS44" s="12"/>
       <c r="AT44" s="12"/>
@@ -3880,159 +4076,185 @@
       <c r="AE45" s="58"/>
       <c r="AF45" s="58"/>
       <c r="AG45" s="59"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="60"/>
+      <c r="AH45" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI45" s="69">
+        <f>BE39</f>
+        <v>0</v>
+      </c>
       <c r="AJ45" s="12"/>
-      <c r="AM45" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN45" s="69"/>
-      <c r="AS45" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT45" s="70"/>
-      <c r="AU45" s="70"/>
+      <c r="AM45" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN45" s="70"/>
+      <c r="AS45" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT45" s="71"/>
+      <c r="AU45" s="71"/>
     </row>
     <row r="46" ht="15" customHeight="1" s="4" customFormat="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71"/>
-      <c r="AD46" s="71"/>
-      <c r="AE46" s="71"/>
-      <c r="AF46" s="71"/>
-      <c r="AG46" s="71"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
     </row>
     <row r="47" ht="15" customHeight="1" s="4" customFormat="1">
-      <c r="A47" s="72">
+      <c r="A47" s="73">
         <v>1</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="72"/>
-      <c r="AC47" s="72"/>
-      <c r="AD47" s="72"/>
-      <c r="AE47" s="72"/>
-      <c r="AF47" s="72"/>
-      <c r="AG47" s="72"/>
-      <c r="AH47" s="73">
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="74">
         <v>2</v>
       </c>
-      <c r="AI47" s="73"/>
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="73"/>
-      <c r="AL47" s="73"/>
-      <c r="AM47" s="73"/>
-      <c r="AN47" s="73"/>
-      <c r="AO47" s="73"/>
-      <c r="AP47" s="73"/>
-      <c r="AQ47" s="73"/>
-      <c r="AR47" s="73"/>
-      <c r="AS47" s="73"/>
-      <c r="AT47" s="73"/>
-      <c r="AU47" s="73"/>
+      <c r="AI47" s="74"/>
+      <c r="AJ47" s="74"/>
+      <c r="AK47" s="74"/>
+      <c r="AL47" s="74"/>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="74"/>
+      <c r="AP47" s="74"/>
+      <c r="AQ47" s="74"/>
+      <c r="AR47" s="74"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="74"/>
+      <c r="AU47" s="74"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AH47:AU47"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AJ36:AS36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AH1:AU1"/>
     <mergeCell ref="AH2:AU2"/>
     <mergeCell ref="S4:S7"/>
@@ -4057,77 +4279,56 @@
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="N4:N7"/>
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AJ8:AS8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AJ30:AS30"/>
+    <mergeCell ref="AJ31:AS31"/>
+    <mergeCell ref="AJ20:AS20"/>
+    <mergeCell ref="AJ9:AS9"/>
+    <mergeCell ref="AJ10:AS10"/>
+    <mergeCell ref="AJ11:AS11"/>
+    <mergeCell ref="AJ12:AS12"/>
+    <mergeCell ref="AJ13:AS13"/>
+    <mergeCell ref="AJ14:AS14"/>
+    <mergeCell ref="AJ15:AS15"/>
+    <mergeCell ref="AJ16:AS16"/>
+    <mergeCell ref="AJ17:AS17"/>
+    <mergeCell ref="AJ18:AS18"/>
+    <mergeCell ref="AJ19:AS19"/>
+    <mergeCell ref="AJ21:AS21"/>
+    <mergeCell ref="AJ22:AS22"/>
+    <mergeCell ref="AJ23:AS23"/>
+    <mergeCell ref="AJ24:AS24"/>
+    <mergeCell ref="AJ25:AS25"/>
+    <mergeCell ref="AJ26:AS26"/>
+    <mergeCell ref="AJ27:AS27"/>
+    <mergeCell ref="AJ28:AS28"/>
+    <mergeCell ref="AJ29:AS29"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AJ33:AS33"/>
+    <mergeCell ref="AJ34:AS34"/>
+    <mergeCell ref="AJ35:AS35"/>
+    <mergeCell ref="AJ37:AS37"/>
+    <mergeCell ref="AJ38:AS38"/>
+    <mergeCell ref="AH39:AS39"/>
+    <mergeCell ref="AJ32:AS32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Министерство образования и науки РФ</t>
   </si>
@@ -280,10 +280,16 @@
     <t>20.12.2020</t>
   </si>
   <si>
+    <t>10.01.2021</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>Б</t>
+  </si>
+  <si>
+    <t>НБ</t>
   </si>
   <si>
     <t>л</t>
@@ -304,7 +310,34 @@
     <t>Тема1</t>
   </si>
   <si>
-    <t>НБ</t>
+    <t>лр</t>
+  </si>
+  <si>
+    <t>лр1</t>
+  </si>
+  <si>
+    <t>лр2</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>лктест</t>
+  </si>
+  <si>
+    <t>ЛРтест</t>
+  </si>
+  <si>
+    <t>ПЗтест</t>
+  </si>
+  <si>
+    <t>КСРтест</t>
   </si>
   <si>
     <t>Философия</t>
@@ -9560,17 +9593,39 @@
       <c r="E4" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
+      <c r="F4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="103" t="s">
+        <v>78</v>
+      </c>
       <c r="Q4" s="103"/>
       <c r="R4" s="103"/>
       <c r="S4" s="103"/>
@@ -9790,28 +9845,50 @@
         <v>1</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
+      <c r="F8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="115" t="s">
+        <v>81</v>
+      </c>
       <c r="Q8" s="115"/>
       <c r="R8" s="115"/>
       <c r="S8" s="115"/>
@@ -9830,17 +9907,17 @@
       </c>
       <c r="AE8" s="117"/>
       <c r="AF8" s="117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG8" s="117"/>
       <c r="AH8" s="118" t="s">
         <v>77</v>
       </c>
       <c r="AI8" s="118" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ8" s="118" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AK8" s="118"/>
       <c r="AL8" s="118"/>
@@ -9882,28 +9959,50 @@
         <v>2</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q9" s="121"/>
       <c r="R9" s="121"/>
       <c r="S9" s="121"/>
@@ -9929,10 +10028,10 @@
         <v>77</v>
       </c>
       <c r="AI9" s="118" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ9" s="118" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK9" s="118"/>
       <c r="AL9" s="118"/>
@@ -9974,28 +10073,50 @@
         <v>3</v>
       </c>
       <c r="B10" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q10" s="121"/>
       <c r="R10" s="121"/>
       <c r="S10" s="121"/>
@@ -10021,10 +10142,10 @@
         <v>77</v>
       </c>
       <c r="AI10" s="118" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AJ10" s="118" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AK10" s="118"/>
       <c r="AL10" s="118"/>
@@ -10066,28 +10187,50 @@
         <v>4</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
+        <v>79</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="124" t="s">
+        <v>79</v>
+      </c>
       <c r="Q11" s="124"/>
       <c r="R11" s="124"/>
       <c r="S11" s="124"/>
@@ -10113,10 +10256,10 @@
         <v>77</v>
       </c>
       <c r="AI11" s="118" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AJ11" s="118" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AK11" s="118"/>
       <c r="AL11" s="118"/>
@@ -10158,28 +10301,50 @@
         <v>5</v>
       </c>
       <c r="B12" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q12" s="121"/>
       <c r="R12" s="121"/>
       <c r="S12" s="121"/>
@@ -10201,9 +10366,15 @@
         <v>0</v>
       </c>
       <c r="AG12" s="122"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
+      <c r="AH12" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI12" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ12" s="118" t="s">
+        <v>89</v>
+      </c>
       <c r="AK12" s="118"/>
       <c r="AL12" s="118"/>
       <c r="AM12" s="118"/>
@@ -10214,8 +10385,7 @@
       <c r="AR12" s="118"/>
       <c r="AS12" s="118"/>
       <c r="AT12" s="119">
-        <f ref="AT12:AT38" t="shared" si="0">IF(AJ12="",0,$AW$2)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU12" s="118"/>
       <c r="AY12" s="90" t="str">
@@ -10245,28 +10415,50 @@
         <v>6</v>
       </c>
       <c r="B13" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q13" s="121"/>
       <c r="R13" s="121"/>
       <c r="S13" s="121"/>
@@ -10288,9 +10480,15 @@
         <v>0</v>
       </c>
       <c r="AG13" s="122"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
+      <c r="AH13" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI13" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ13" s="118" t="s">
+        <v>90</v>
+      </c>
       <c r="AK13" s="118"/>
       <c r="AL13" s="118"/>
       <c r="AM13" s="118"/>
@@ -10301,8 +10499,7 @@
       <c r="AR13" s="118"/>
       <c r="AS13" s="118"/>
       <c r="AT13" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" s="118"/>
       <c r="AY13" s="90" t="str">
@@ -10332,28 +10529,50 @@
         <v>7</v>
       </c>
       <c r="B14" s="121" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q14" s="121"/>
       <c r="R14" s="121"/>
       <c r="S14" s="121"/>
@@ -10375,9 +10594,15 @@
         <v>2</v>
       </c>
       <c r="AG14" s="122"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
+      <c r="AH14" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI14" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ14" s="118" t="s">
+        <v>91</v>
+      </c>
       <c r="AK14" s="118"/>
       <c r="AL14" s="118"/>
       <c r="AM14" s="118"/>
@@ -10388,8 +10613,7 @@
       <c r="AR14" s="118"/>
       <c r="AS14" s="118"/>
       <c r="AT14" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AU14" s="118"/>
       <c r="AY14" s="90" t="str">
@@ -10419,28 +10643,50 @@
         <v>8</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q15" s="121"/>
       <c r="R15" s="121"/>
       <c r="S15" s="121"/>
@@ -10462,9 +10708,15 @@
         <v>2</v>
       </c>
       <c r="AG15" s="122"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
+      <c r="AH15" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI15" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ15" s="118" t="s">
+        <v>92</v>
+      </c>
       <c r="AK15" s="118"/>
       <c r="AL15" s="118"/>
       <c r="AM15" s="118"/>
@@ -10475,8 +10727,7 @@
       <c r="AR15" s="118"/>
       <c r="AS15" s="118"/>
       <c r="AT15" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="118"/>
       <c r="AY15" s="90" t="str">
@@ -10506,28 +10757,50 @@
         <v>9</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q16" s="121"/>
       <c r="R16" s="121"/>
       <c r="S16" s="121"/>
@@ -10546,12 +10819,18 @@
       </c>
       <c r="AE16" s="122"/>
       <c r="AF16" s="122">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG16" s="122"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
+      <c r="AH16" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI16" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ16" s="118" t="s">
+        <v>93</v>
+      </c>
       <c r="AK16" s="118"/>
       <c r="AL16" s="118"/>
       <c r="AM16" s="118"/>
@@ -10562,8 +10841,7 @@
       <c r="AR16" s="118"/>
       <c r="AS16" s="118"/>
       <c r="AT16" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU16" s="118"/>
       <c r="AY16" s="90" t="str">
@@ -10593,28 +10871,50 @@
         <v>10</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
+        <v>79</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="121" t="s">
+        <v>79</v>
+      </c>
       <c r="Q17" s="121"/>
       <c r="R17" s="121"/>
       <c r="S17" s="121"/>
@@ -10629,16 +10929,22 @@
       <c r="AB17" s="121"/>
       <c r="AC17" s="127"/>
       <c r="AD17" s="122">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE17" s="122"/>
       <c r="AF17" s="122">
         <v>0</v>
       </c>
       <c r="AG17" s="122"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
+      <c r="AH17" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI17" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ17" s="118" t="s">
+        <v>91</v>
+      </c>
       <c r="AK17" s="118"/>
       <c r="AL17" s="118"/>
       <c r="AM17" s="118"/>
@@ -10649,8 +10955,7 @@
       <c r="AR17" s="118"/>
       <c r="AS17" s="118"/>
       <c r="AT17" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AU17" s="118"/>
       <c r="AY17" s="90" t="str">
@@ -10711,9 +11016,15 @@
       <c r="AE18" s="122"/>
       <c r="AF18" s="122"/>
       <c r="AG18" s="122"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
+      <c r="AH18" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI18" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ18" s="118" t="s">
+        <v>94</v>
+      </c>
       <c r="AK18" s="118"/>
       <c r="AL18" s="118"/>
       <c r="AM18" s="118"/>
@@ -10724,8 +11035,7 @@
       <c r="AR18" s="118"/>
       <c r="AS18" s="118"/>
       <c r="AT18" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU18" s="118"/>
       <c r="AY18" s="90" t="str">
@@ -10786,9 +11096,15 @@
       <c r="AE19" s="122"/>
       <c r="AF19" s="122"/>
       <c r="AG19" s="122"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
+      <c r="AH19" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI19" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ19" s="118" t="s">
+        <v>95</v>
+      </c>
       <c r="AK19" s="118"/>
       <c r="AL19" s="118"/>
       <c r="AM19" s="118"/>
@@ -10799,8 +11115,7 @@
       <c r="AR19" s="118"/>
       <c r="AS19" s="118"/>
       <c r="AT19" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU19" s="118"/>
       <c r="AY19" s="90" t="str">
@@ -10861,9 +11176,15 @@
       <c r="AE20" s="122"/>
       <c r="AF20" s="122"/>
       <c r="AG20" s="122"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
+      <c r="AH20" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI20" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ20" s="118" t="s">
+        <v>96</v>
+      </c>
       <c r="AK20" s="118"/>
       <c r="AL20" s="118"/>
       <c r="AM20" s="118"/>
@@ -10874,8 +11195,7 @@
       <c r="AR20" s="118"/>
       <c r="AS20" s="118"/>
       <c r="AT20" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AU20" s="118"/>
       <c r="AY20" s="90" t="str">
@@ -10936,9 +11256,15 @@
       <c r="AE21" s="122"/>
       <c r="AF21" s="122"/>
       <c r="AG21" s="122"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
+      <c r="AH21" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI21" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ21" s="118" t="s">
+        <v>97</v>
+      </c>
       <c r="AK21" s="118"/>
       <c r="AL21" s="118"/>
       <c r="AM21" s="118"/>
@@ -10949,8 +11275,7 @@
       <c r="AR21" s="118"/>
       <c r="AS21" s="118"/>
       <c r="AT21" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AU21" s="118"/>
       <c r="AY21" s="90" t="str">
@@ -11011,9 +11336,15 @@
       <c r="AE22" s="122"/>
       <c r="AF22" s="122"/>
       <c r="AG22" s="122"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
+      <c r="AH22" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI22" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ22" s="118" t="s">
+        <v>91</v>
+      </c>
       <c r="AK22" s="118"/>
       <c r="AL22" s="118"/>
       <c r="AM22" s="118"/>
@@ -11024,8 +11355,7 @@
       <c r="AR22" s="118"/>
       <c r="AS22" s="118"/>
       <c r="AT22" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="118"/>
       <c r="AY22" s="90" t="str">
@@ -11099,7 +11429,7 @@
       <c r="AR23" s="118"/>
       <c r="AS23" s="118"/>
       <c r="AT23" s="119">
-        <f t="shared" si="0"/>
+        <f ref="AT23:AT38" t="shared" si="0">IF(AJ23="",0,$AW$2)</f>
         <v>0</v>
       </c>
       <c r="AU23" s="118"/>
@@ -13009,7 +13339,7 @@
       <c r="K2" s="97"/>
       <c r="L2" s="97"/>
       <c r="M2" s="97" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N2" s="97"/>
       <c r="O2" s="97"/>
@@ -16370,12 +16700,12 @@
   <sheetData>
     <row r="1" ht="22.9" customHeight="1" s="3" customFormat="1">
       <c r="A1" s="155" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B1" s="155"/>
       <c r="C1" s="11"/>
       <c r="D1" s="23" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -16387,20 +16717,20 @@
     </row>
     <row r="2" ht="19.9" customHeight="1" s="3" customFormat="1">
       <c r="A2" s="156" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="15" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -6,23 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Начало" sheetId="1" r:id="rId1"/>
-    <sheet name="Высшая математика" sheetId="2" r:id="rId3"/>
-    <sheet name="Программирование" sheetId="3" r:id="rId4"/>
-    <sheet name="Философия" sheetId="4" r:id="rId5"/>
-    <sheet name="Конец" sheetId="5" r:id="rId6"/>
+    <sheet name="Тестовый" sheetId="2" r:id="rId3"/>
+    <sheet name="Конец" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Программирование!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Философия!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Конец!$A$1:$F$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Тестовый!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Конец!$A$1:$F$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Министерство образования и науки РФ</t>
   </si>
@@ -162,7 +158,7 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Высшая математика</t>
+    <t>Тестовый</t>
   </si>
   <si>
     <t>____________семестр</t>
@@ -191,6 +187,9 @@
       </rPr>
       <t xml:space="preserve"> № п.п.</t>
     </r>
+  </si>
+  <si>
+    <t>11.01.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -230,6 +229,21 @@
   </si>
   <si>
     <t>КСР</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>лр</t>
+  </si>
+  <si>
+    <t>ЛрДр</t>
+  </si>
+  <si>
+    <t>НБ</t>
+  </si>
+  <si>
+    <t>ЛрЦелые</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -272,75 +286,6 @@
   </si>
   <si>
     <t>Ф.И.О.</t>
-  </si>
-  <si>
-    <t>Программирование</t>
-  </si>
-  <si>
-    <t>20.12.2020</t>
-  </si>
-  <si>
-    <t>10.01.2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>НБ</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>Тема3</t>
-  </si>
-  <si>
-    <t>пз</t>
-  </si>
-  <si>
-    <t>Тема2</t>
-  </si>
-  <si>
-    <t>кср</t>
-  </si>
-  <si>
-    <t>Тема1</t>
-  </si>
-  <si>
-    <t>лр</t>
-  </si>
-  <si>
-    <t>лр1</t>
-  </si>
-  <si>
-    <t>лр2</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>проверка</t>
-  </si>
-  <si>
-    <t>тест</t>
-  </si>
-  <si>
-    <t>лктест</t>
-  </si>
-  <si>
-    <t>ЛРтест</t>
-  </si>
-  <si>
-    <t>ПЗтест</t>
-  </si>
-  <si>
-    <t>КСРтест</t>
-  </si>
-  <si>
-    <t>Философия</t>
   </si>
   <si>
     <t>Замечания преподавателей</t>
@@ -6131,8 +6076,12 @@
       <c r="A4" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
+      <c r="B4" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>49</v>
+      </c>
       <c r="D4" s="103"/>
       <c r="E4" s="103"/>
       <c r="F4" s="103"/>
@@ -6160,19 +6109,19 @@
       <c r="AB4" s="103"/>
       <c r="AC4" s="104"/>
       <c r="AD4" s="105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE4" s="105"/>
       <c r="AF4" s="105"/>
       <c r="AG4" s="105"/>
       <c r="AH4" s="105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ4" s="105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK4" s="105"/>
       <c r="AL4" s="105"/>
@@ -6184,10 +6133,10 @@
       <c r="AR4" s="105"/>
       <c r="AS4" s="105"/>
       <c r="AT4" s="106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU4" s="105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BJ4" s="96"/>
     </row>
@@ -6272,11 +6221,11 @@
       <c r="AB6" s="108"/>
       <c r="AC6" s="109"/>
       <c r="AD6" s="110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="110"/>
       <c r="AF6" s="110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG6" s="110"/>
       <c r="AH6" s="105"/>
@@ -6344,19 +6293,19 @@
       <c r="AT7" s="106"/>
       <c r="AU7" s="105"/>
       <c r="AY7" s="90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB7" s="90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BC7" s="90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD7" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE7" s="90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BJ7" s="96"/>
     </row>
@@ -6364,8 +6313,12 @@
       <c r="A8" s="114">
         <v>1</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
+      <c r="B8" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>63</v>
+      </c>
       <c r="D8" s="115"/>
       <c r="E8" s="115"/>
       <c r="F8" s="115"/>
@@ -6400,9 +6353,15 @@
         <v>0</v>
       </c>
       <c r="AG8" s="117"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="118"/>
+      <c r="AH8" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ8" s="118" t="s">
+        <v>65</v>
+      </c>
       <c r="AK8" s="118"/>
       <c r="AL8" s="118"/>
       <c r="AM8" s="118"/>
@@ -6413,8 +6372,7 @@
       <c r="AR8" s="118"/>
       <c r="AS8" s="118"/>
       <c r="AT8" s="119">
-        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AU8" s="118"/>
       <c r="AY8" s="90" t="str">
@@ -6443,8 +6401,12 @@
         <f>A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>66</v>
+      </c>
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="121"/>
@@ -6476,12 +6438,18 @@
       </c>
       <c r="AE9" s="122"/>
       <c r="AF9" s="122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="122"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
+      <c r="AH9" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" s="118" t="s">
+        <v>67</v>
+      </c>
       <c r="AK9" s="118"/>
       <c r="AL9" s="118"/>
       <c r="AM9" s="118"/>
@@ -6492,8 +6460,7 @@
       <c r="AR9" s="118"/>
       <c r="AS9" s="118"/>
       <c r="AT9" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AU9" s="118"/>
       <c r="AY9" s="90" t="str">
@@ -6522,8 +6489,12 @@
         <f ref="A10:A36" t="shared" si="6">A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
+      <c r="B10" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>63</v>
+      </c>
       <c r="D10" s="121"/>
       <c r="E10" s="121"/>
       <c r="F10" s="121"/>
@@ -6558,9 +6529,15 @@
         <v>0</v>
       </c>
       <c r="AG10" s="122"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
+      <c r="AH10" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ10" s="118" t="s">
+        <v>65</v>
+      </c>
       <c r="AK10" s="118"/>
       <c r="AL10" s="118"/>
       <c r="AM10" s="118"/>
@@ -6571,8 +6548,7 @@
       <c r="AR10" s="118"/>
       <c r="AS10" s="118"/>
       <c r="AT10" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AU10" s="118"/>
       <c r="AY10" s="90" t="str">
@@ -6601,8 +6577,12 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
+      <c r="B11" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" s="124"/>
       <c r="E11" s="124"/>
       <c r="F11" s="124"/>
@@ -6637,9 +6617,15 @@
         <v>0</v>
       </c>
       <c r="AG11" s="126"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
+      <c r="AH11" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ11" s="118" t="s">
+        <v>67</v>
+      </c>
       <c r="AK11" s="118"/>
       <c r="AL11" s="118"/>
       <c r="AM11" s="118"/>
@@ -6650,8 +6636,7 @@
       <c r="AR11" s="118"/>
       <c r="AS11" s="118"/>
       <c r="AT11" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AU11" s="118"/>
       <c r="AY11" s="90" t="str">
@@ -6680,8 +6665,12 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="121"/>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
@@ -6729,7 +6718,7 @@
       <c r="AR12" s="118"/>
       <c r="AS12" s="118"/>
       <c r="AT12" s="119">
-        <f t="shared" si="0"/>
+        <f ref="AT12:AT38" t="shared" si="0">IF(AJ12="",0,$AW$2)</f>
         <v>0</v>
       </c>
       <c r="AU12" s="118"/>
@@ -6759,8 +6748,12 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
+      <c r="B13" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="121"/>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
@@ -6838,8 +6831,12 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>63</v>
+      </c>
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="121"/>
@@ -6917,8 +6914,12 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
+      <c r="B15" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="121"/>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
@@ -6996,8 +6997,12 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
+      <c r="B16" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="121"/>
@@ -7075,8 +7080,12 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
+      <c r="B17" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>66</v>
+      </c>
       <c r="D17" s="121"/>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
@@ -7108,7 +7117,7 @@
       </c>
       <c r="AE17" s="122"/>
       <c r="AF17" s="122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17" s="122"/>
       <c r="AH17" s="118"/>
@@ -8755,7 +8764,7 @@
       <c r="AF39" s="122"/>
       <c r="AG39" s="122"/>
       <c r="AH39" s="133" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AI39" s="133"/>
       <c r="AJ39" s="133"/>
@@ -8774,14 +8783,14 @@
       </c>
       <c r="AU39" s="135"/>
       <c r="AY39" s="90" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AZ39" s="90" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="90" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BB39" s="90">
         <f>SUM(BB8:BB38)</f>
@@ -8832,13 +8841,13 @@
       <c r="AB40" s="131"/>
       <c r="AC40" s="131"/>
       <c r="AD40" s="136" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AE40" s="137"/>
       <c r="AF40" s="138"/>
       <c r="AG40" s="139"/>
       <c r="AH40" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="140">
@@ -8892,7 +8901,7 @@
       <c r="AF41" s="138"/>
       <c r="AG41" s="139"/>
       <c r="AH41" s="14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="141"/>
@@ -8943,7 +8952,7 @@
       <c r="AF42" s="138"/>
       <c r="AG42" s="139"/>
       <c r="AH42" s="75" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AI42" s="142">
         <f>BB39</f>
@@ -9000,7 +9009,7 @@
       <c r="AF43" s="138"/>
       <c r="AG43" s="139"/>
       <c r="AH43" s="75" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AI43" s="146">
         <f>BC39</f>
@@ -9054,7 +9063,7 @@
       <c r="AF44" s="138"/>
       <c r="AG44" s="139"/>
       <c r="AH44" s="75" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI44" s="146">
         <f>BD39</f>
@@ -9066,14 +9075,14 @@
       </c>
       <c r="AL44" s="14"/>
       <c r="AM44" s="14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AN44" s="14"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
       <c r="AQ44" s="14"/>
       <c r="AR44" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AS44" s="14"/>
       <c r="AT44" s="14"/>
@@ -9114,7 +9123,7 @@
       <c r="AF45" s="138"/>
       <c r="AG45" s="139"/>
       <c r="AH45" s="75" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI45" s="149">
         <f>BE39</f>
@@ -9122,11 +9131,11 @@
       </c>
       <c r="AJ45" s="14"/>
       <c r="AM45" s="150" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AN45" s="150"/>
       <c r="AS45" s="151" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AT45" s="151"/>
       <c r="AU45" s="151"/>
@@ -9375,7311 +9384,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI51" sqref="AI51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="5.42578125" customWidth="1" style="90"/>
-    <col min="2" max="7" bestFit="1" width="2.140625" customWidth="1" style="90"/>
-    <col min="8" max="8" width="2.140625" customWidth="1" style="90"/>
-    <col min="9" max="19" bestFit="1" width="2.140625" customWidth="1" style="90"/>
-    <col min="20" max="20" bestFit="1" width="2.5703125" customWidth="1" style="90"/>
-    <col min="21" max="29" bestFit="1" width="2.140625" customWidth="1" style="90"/>
-    <col min="30" max="30" bestFit="1" width="8.7109375" customWidth="1" style="90"/>
-    <col min="31" max="32" width="7.42578125" customWidth="1" style="90"/>
-    <col min="33" max="33" width="8.7109375" customWidth="1" style="90"/>
-    <col min="34" max="34" width="12.42578125" customWidth="1" style="90"/>
-    <col min="35" max="39" width="8.85546875" customWidth="1" style="90"/>
-    <col min="40" max="40" width="7.42578125" customWidth="1" style="90"/>
-    <col min="41" max="41" hidden="1" width="1.42578125" customWidth="1" style="90"/>
-    <col min="42" max="42" hidden="1" width="10.7109375" customWidth="1" style="90"/>
-    <col min="43" max="43" hidden="1" width="5.28515625" customWidth="1" style="90"/>
-    <col min="44" max="44" width="5.85546875" customWidth="1" style="90"/>
-    <col min="45" max="45" width="3.7109375" customWidth="1" style="90"/>
-    <col min="46" max="46" width="8.85546875" customWidth="1" style="90"/>
-    <col min="47" max="47" width="14.7109375" customWidth="1" style="90"/>
-    <col min="48" max="50" width="8.85546875" customWidth="1" style="90"/>
-    <col min="51" max="51" width="8.85546875" customWidth="1" style="90"/>
-    <col min="52" max="52" bestFit="1" width="10.5703125" customWidth="1" style="90"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1" style="90"/>
-    <col min="54" max="54" bestFit="1" width="10.5703125" customWidth="1" style="90"/>
-    <col min="55" max="16384" width="8.85546875" customWidth="1" style="90"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A1" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="95"/>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="95"/>
-      <c r="AU1" s="95"/>
-      <c r="AW1" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ1" s="96"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A2" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AW2" s="90">
-        <v>2</v>
-      </c>
-      <c r="BJ2" s="96"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A3" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="BJ3" s="96"/>
-    </row>
-    <row r="4" ht="17.45" customHeight="1" s="3" customFormat="1">
-      <c r="A4" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI4" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ4" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU4" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="96"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="105"/>
-      <c r="BJ5" s="96"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="105"/>
-      <c r="BJ6" s="96"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="105"/>
-      <c r="AY7" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB7" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD7" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE7" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ7" s="96"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A8" s="114">
-        <v>1</v>
-      </c>
-      <c r="B8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="117">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="117">
-        <v>10</v>
-      </c>
-      <c r="AG8" s="117"/>
-      <c r="AH8" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI8" s="118" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ8" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="118"/>
-      <c r="AM8" s="118"/>
-      <c r="AN8" s="118"/>
-      <c r="AO8" s="118"/>
-      <c r="AP8" s="118"/>
-      <c r="AQ8" s="118"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="118"/>
-      <c r="AT8" s="119">
-        <v>2</v>
-      </c>
-      <c r="AU8" s="118"/>
-      <c r="AY8" s="90" t="str">
-        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
-      </c>
-      <c r="BB8" s="90">
-        <f>IF( AI8="л", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="90">
-        <f>IF( AI8="пз", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="90">
-        <f>IF( AI8="лр", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="90">
-        <f>IF( AI8="кср", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="96"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A9" s="120">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI9" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ9" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="118"/>
-      <c r="AN9" s="118"/>
-      <c r="AO9" s="118"/>
-      <c r="AP9" s="118"/>
-      <c r="AQ9" s="118"/>
-      <c r="AR9" s="118"/>
-      <c r="AS9" s="118"/>
-      <c r="AT9" s="119">
-        <v>2</v>
-      </c>
-      <c r="AU9" s="118"/>
-      <c r="AY9" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB9" s="90">
-        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="90">
-        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="90">
-        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="90">
-        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="96"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A10" s="120">
-        <f ref="A10:A36" t="shared" si="6">A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI10" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ10" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="118"/>
-      <c r="AO10" s="118"/>
-      <c r="AP10" s="118"/>
-      <c r="AQ10" s="118"/>
-      <c r="AR10" s="118"/>
-      <c r="AS10" s="118"/>
-      <c r="AT10" s="119">
-        <v>2</v>
-      </c>
-      <c r="AU10" s="118"/>
-      <c r="AY10" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB10" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="96"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A11" s="123">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="126">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="126">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI11" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ11" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="118"/>
-      <c r="AT11" s="119">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="118"/>
-      <c r="AY11" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB11" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="96"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A12" s="120">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI12" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ12" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
-      <c r="AQ12" s="118"/>
-      <c r="AR12" s="118"/>
-      <c r="AS12" s="118"/>
-      <c r="AT12" s="119">
-        <v>0.1</v>
-      </c>
-      <c r="AU12" s="118"/>
-      <c r="AY12" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB12" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD12" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="96"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A13" s="120">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI13" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ13" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="118"/>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="AU13" s="118"/>
-      <c r="AY13" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB13" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD13" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="96"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A14" s="120">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI14" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ14" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="119">
-        <v>1.4</v>
-      </c>
-      <c r="AU14" s="118"/>
-      <c r="AY14" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB14" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="96"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A15" s="120">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="122">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="122"/>
-      <c r="AH15" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI15" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ15" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="119">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="118"/>
-      <c r="AY15" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB15" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="96"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A16" s="120">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122">
-        <v>6</v>
-      </c>
-      <c r="AG16" s="122"/>
-      <c r="AH16" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI16" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ16" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="119">
-        <v>0.2</v>
-      </c>
-      <c r="AU16" s="118"/>
-      <c r="AY16" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB16" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="96"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A17" s="120">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="122">
-        <v>6</v>
-      </c>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="122"/>
-      <c r="AH17" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI17" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ17" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="119">
-        <v>0.8</v>
-      </c>
-      <c r="AU17" s="118"/>
-      <c r="AY17" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB17" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="96"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A18" s="120">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI18" s="118" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ18" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="118"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="119">
-        <v>0.1</v>
-      </c>
-      <c r="AU18" s="118"/>
-      <c r="AY18" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB18" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="96"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A19" s="120">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI19" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ19" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="118"/>
-      <c r="AT19" s="119">
-        <v>0.2</v>
-      </c>
-      <c r="AU19" s="118"/>
-      <c r="AY19" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB19" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC19" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD19" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="96"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A20" s="120">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI20" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ20" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="119">
-        <v>0.3</v>
-      </c>
-      <c r="AU20" s="118"/>
-      <c r="AY20" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB20" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD20" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="96"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A21" s="120">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI21" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ21" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="119">
-        <v>0.4</v>
-      </c>
-      <c r="AU21" s="118"/>
-      <c r="AY21" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB21" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE21" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="96"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A22" s="120">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="122"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI22" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ22" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
-      <c r="AS22" s="118"/>
-      <c r="AT22" s="119">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="118"/>
-      <c r="AY22" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB22" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="96"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A23" s="120">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="122"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="118"/>
-      <c r="AK23" s="118"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
-      <c r="AQ23" s="118"/>
-      <c r="AR23" s="118"/>
-      <c r="AS23" s="118"/>
-      <c r="AT23" s="119">
-        <f ref="AT23:AT38" t="shared" si="0">IF(AJ23="",0,$AW$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="118"/>
-      <c r="AY23" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB23" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE23" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="96"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A24" s="120">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="118"/>
-      <c r="AJ24" s="118"/>
-      <c r="AK24" s="118"/>
-      <c r="AL24" s="118"/>
-      <c r="AM24" s="118"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="118"/>
-      <c r="AP24" s="118"/>
-      <c r="AQ24" s="118"/>
-      <c r="AR24" s="118"/>
-      <c r="AS24" s="118"/>
-      <c r="AT24" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="118"/>
-      <c r="AY24" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB24" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="96"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A25" s="120">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="118"/>
-      <c r="AK25" s="118"/>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="118"/>
-      <c r="AQ25" s="118"/>
-      <c r="AR25" s="118"/>
-      <c r="AS25" s="118"/>
-      <c r="AT25" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="118"/>
-      <c r="AY25" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB25" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="96"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A26" s="120">
-        <f>A25+1</f>
-        <v>19</v>
-      </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="118"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
-      <c r="AQ26" s="118"/>
-      <c r="AR26" s="118"/>
-      <c r="AS26" s="118"/>
-      <c r="AT26" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="118"/>
-      <c r="AY26" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB26" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD26" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="96"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A27" s="120">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="118"/>
-      <c r="AJ27" s="118"/>
-      <c r="AK27" s="118"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="118"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="118"/>
-      <c r="AQ27" s="118"/>
-      <c r="AR27" s="118"/>
-      <c r="AS27" s="118"/>
-      <c r="AT27" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="118"/>
-      <c r="AY27" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB27" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="96"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A28" s="120">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="118"/>
-      <c r="AJ28" s="118"/>
-      <c r="AK28" s="118"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="118"/>
-      <c r="AQ28" s="118"/>
-      <c r="AR28" s="118"/>
-      <c r="AS28" s="118"/>
-      <c r="AT28" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="118"/>
-      <c r="AY28" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB28" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD28" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="96"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A29" s="120">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AK29" s="118"/>
-      <c r="AL29" s="118"/>
-      <c r="AM29" s="118"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="118"/>
-      <c r="AQ29" s="118"/>
-      <c r="AR29" s="118"/>
-      <c r="AS29" s="118"/>
-      <c r="AT29" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU29" s="118"/>
-      <c r="AY29" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB29" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC29" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD29" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="96"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A30" s="120">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="118"/>
-      <c r="AI30" s="118"/>
-      <c r="AJ30" s="118"/>
-      <c r="AK30" s="118"/>
-      <c r="AL30" s="118"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="118"/>
-      <c r="AP30" s="118"/>
-      <c r="AQ30" s="118"/>
-      <c r="AR30" s="118"/>
-      <c r="AS30" s="118"/>
-      <c r="AT30" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="118"/>
-      <c r="AY30" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB30" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD30" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="96"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A31" s="120">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="118"/>
-      <c r="AI31" s="118"/>
-      <c r="AJ31" s="118"/>
-      <c r="AK31" s="118"/>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="118"/>
-      <c r="AP31" s="118"/>
-      <c r="AQ31" s="118"/>
-      <c r="AR31" s="118"/>
-      <c r="AS31" s="118"/>
-      <c r="AT31" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="118"/>
-      <c r="AY31" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB31" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC31" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD31" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="96"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A32" s="120">
-        <f>A31+1</f>
-        <v>25</v>
-      </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="118"/>
-      <c r="AK32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
-      <c r="AQ32" s="118"/>
-      <c r="AR32" s="118"/>
-      <c r="AS32" s="118"/>
-      <c r="AT32" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU32" s="118"/>
-      <c r="AY32" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB32" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD32" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="96"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A33" s="120">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="118"/>
-      <c r="AI33" s="118"/>
-      <c r="AJ33" s="118"/>
-      <c r="AK33" s="118"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
-      <c r="AQ33" s="118"/>
-      <c r="AR33" s="118"/>
-      <c r="AS33" s="118"/>
-      <c r="AT33" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU33" s="118"/>
-      <c r="AY33" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB33" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD33" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="96"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A34" s="120">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="127"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="118"/>
-      <c r="AL34" s="118"/>
-      <c r="AM34" s="118"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="118"/>
-      <c r="AP34" s="118"/>
-      <c r="AQ34" s="118"/>
-      <c r="AR34" s="118"/>
-      <c r="AS34" s="118"/>
-      <c r="AT34" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="118"/>
-      <c r="AY34" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB34" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD34" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="96"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A35" s="120">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
-      <c r="AC35" s="127"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="118"/>
-      <c r="AI35" s="118"/>
-      <c r="AJ35" s="118"/>
-      <c r="AK35" s="118"/>
-      <c r="AL35" s="118"/>
-      <c r="AM35" s="118"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="118"/>
-      <c r="AP35" s="118"/>
-      <c r="AQ35" s="118"/>
-      <c r="AR35" s="118"/>
-      <c r="AS35" s="118"/>
-      <c r="AT35" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="118"/>
-      <c r="AY35" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB35" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="96"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A36" s="120">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="121"/>
-      <c r="AC36" s="127"/>
-      <c r="AD36" s="122"/>
-      <c r="AE36" s="122"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="122"/>
-      <c r="AH36" s="118"/>
-      <c r="AI36" s="118"/>
-      <c r="AJ36" s="118"/>
-      <c r="AK36" s="118"/>
-      <c r="AL36" s="118"/>
-      <c r="AM36" s="118"/>
-      <c r="AN36" s="118"/>
-      <c r="AO36" s="118"/>
-      <c r="AP36" s="118"/>
-      <c r="AQ36" s="118"/>
-      <c r="AR36" s="118"/>
-      <c r="AS36" s="118"/>
-      <c r="AT36" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="118"/>
-      <c r="AY36" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB36" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="96"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A37" s="120">
-        <v>30</v>
-      </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="121"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="121"/>
-      <c r="W37" s="121"/>
-      <c r="X37" s="121"/>
-      <c r="Y37" s="121"/>
-      <c r="Z37" s="121"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="121"/>
-      <c r="AC37" s="127"/>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="122"/>
-      <c r="AH37" s="118"/>
-      <c r="AI37" s="118"/>
-      <c r="AJ37" s="118"/>
-      <c r="AK37" s="118"/>
-      <c r="AL37" s="118"/>
-      <c r="AM37" s="118"/>
-      <c r="AN37" s="118"/>
-      <c r="AO37" s="118"/>
-      <c r="AP37" s="118"/>
-      <c r="AQ37" s="118"/>
-      <c r="AR37" s="118"/>
-      <c r="AS37" s="118"/>
-      <c r="AT37" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="118"/>
-      <c r="AY37" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB37" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="96"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="129"/>
-      <c r="U38" s="129"/>
-      <c r="V38" s="129"/>
-      <c r="W38" s="129"/>
-      <c r="X38" s="129"/>
-      <c r="Y38" s="129"/>
-      <c r="Z38" s="129"/>
-      <c r="AA38" s="129"/>
-      <c r="AB38" s="129"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="122"/>
-      <c r="AE38" s="122"/>
-      <c r="AF38" s="122"/>
-      <c r="AG38" s="122"/>
-      <c r="AH38" s="118"/>
-      <c r="AI38" s="118"/>
-      <c r="AJ38" s="118"/>
-      <c r="AK38" s="118"/>
-      <c r="AL38" s="118"/>
-      <c r="AM38" s="118"/>
-      <c r="AN38" s="118"/>
-      <c r="AO38" s="118"/>
-      <c r="AP38" s="118"/>
-      <c r="AQ38" s="118"/>
-      <c r="AR38" s="118"/>
-      <c r="AS38" s="118"/>
-      <c r="AT38" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="118"/>
-      <c r="AY38" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB38" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC38" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD38" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="96"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A39" s="131"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="131"/>
-      <c r="U39" s="131"/>
-      <c r="V39" s="131"/>
-      <c r="W39" s="131"/>
-      <c r="X39" s="131"/>
-      <c r="Y39" s="131"/>
-      <c r="Z39" s="131"/>
-      <c r="AA39" s="131"/>
-      <c r="AB39" s="131"/>
-      <c r="AC39" s="132"/>
-      <c r="AD39" s="122"/>
-      <c r="AE39" s="122"/>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="122"/>
-      <c r="AH39" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI39" s="133"/>
-      <c r="AJ39" s="133"/>
-      <c r="AK39" s="133"/>
-      <c r="AL39" s="133"/>
-      <c r="AM39" s="133"/>
-      <c r="AN39" s="133"/>
-      <c r="AO39" s="133"/>
-      <c r="AP39" s="133"/>
-      <c r="AQ39" s="133"/>
-      <c r="AR39" s="133"/>
-      <c r="AS39" s="133"/>
-      <c r="AT39" s="134">
-        <f>SUM(AT8:AT38)</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="135"/>
-      <c r="AY39" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ39" s="90" t="e">
-        <f>AVERAGE(AY8:AY38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA39" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB39" s="90">
-        <f>SUM(BB8:BB38)</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="90">
-        <f>SUM(BC8:BC38)</f>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="90">
-        <f>SUM(BD8:BD38)</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="90">
-        <f>SUM(BE8:BE38)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="96"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A40" s="131"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="131"/>
-      <c r="W40" s="131"/>
-      <c r="X40" s="131"/>
-      <c r="Y40" s="131"/>
-      <c r="Z40" s="131"/>
-      <c r="AA40" s="131"/>
-      <c r="AB40" s="131"/>
-      <c r="AC40" s="131"/>
-      <c r="AD40" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE40" s="137"/>
-      <c r="AF40" s="138"/>
-      <c r="AG40" s="139"/>
-      <c r="AH40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="140">
-        <f>AT39</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="140"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="14"/>
-      <c r="AS40" s="14"/>
-      <c r="AT40" s="14"/>
-      <c r="AU40" s="14"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="131"/>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="131"/>
-      <c r="S41" s="131"/>
-      <c r="T41" s="131"/>
-      <c r="U41" s="131"/>
-      <c r="V41" s="131"/>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="131"/>
-      <c r="AB41" s="131"/>
-      <c r="AC41" s="131"/>
-      <c r="AD41" s="136"/>
-      <c r="AE41" s="137"/>
-      <c r="AF41" s="138"/>
-      <c r="AG41" s="139"/>
-      <c r="AH41" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="141"/>
-      <c r="AK41" s="141"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="14"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
-      <c r="AU41" s="14"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="131"/>
-      <c r="S42" s="131"/>
-      <c r="T42" s="131"/>
-      <c r="U42" s="131"/>
-      <c r="V42" s="131"/>
-      <c r="W42" s="131"/>
-      <c r="X42" s="131"/>
-      <c r="Y42" s="131"/>
-      <c r="Z42" s="131"/>
-      <c r="AA42" s="131"/>
-      <c r="AB42" s="131"/>
-      <c r="AC42" s="131"/>
-      <c r="AD42" s="136"/>
-      <c r="AE42" s="137"/>
-      <c r="AF42" s="138"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI42" s="142">
-        <f>BB39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="14"/>
-      <c r="AN42" s="14"/>
-      <c r="AO42" s="14"/>
-      <c r="AP42" s="14"/>
-      <c r="AQ42" s="14"/>
-      <c r="AR42" s="14"/>
-      <c r="AS42" s="14"/>
-      <c r="AT42" s="14"/>
-      <c r="AU42" s="14"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A43" s="143"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="143"/>
-      <c r="N43" s="143"/>
-      <c r="O43" s="143"/>
-      <c r="P43" s="143"/>
-      <c r="Q43" s="143"/>
-      <c r="R43" s="143"/>
-      <c r="S43" s="143"/>
-      <c r="T43" s="143"/>
-      <c r="U43" s="143"/>
-      <c r="V43" s="143"/>
-      <c r="W43" s="143"/>
-      <c r="X43" s="143"/>
-      <c r="Y43" s="143"/>
-      <c r="Z43" s="143"/>
-      <c r="AA43" s="143"/>
-      <c r="AB43" s="143"/>
-      <c r="AC43" s="143"/>
-      <c r="AD43" s="144" t="e">
-        <f>AZ39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43" s="145"/>
-      <c r="AF43" s="138"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI43" s="146">
-        <f>BC39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="14"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="14"/>
-      <c r="AT43" s="14"/>
-      <c r="AU43" s="14"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
-      <c r="N44" s="147"/>
-      <c r="O44" s="147"/>
-      <c r="P44" s="147"/>
-      <c r="Q44" s="147"/>
-      <c r="R44" s="147"/>
-      <c r="S44" s="147"/>
-      <c r="T44" s="147"/>
-      <c r="U44" s="147"/>
-      <c r="V44" s="147"/>
-      <c r="W44" s="147"/>
-      <c r="X44" s="147"/>
-      <c r="Y44" s="147"/>
-      <c r="Z44" s="147"/>
-      <c r="AA44" s="147"/>
-      <c r="AB44" s="147"/>
-      <c r="AC44" s="147"/>
-      <c r="AD44" s="148"/>
-      <c r="AE44" s="138"/>
-      <c r="AF44" s="138"/>
-      <c r="AG44" s="139"/>
-      <c r="AH44" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI44" s="146">
-        <f>BD39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="14"/>
-      <c r="AR44" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A45" s="147"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147"/>
-      <c r="Q45" s="147"/>
-      <c r="R45" s="147"/>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="147"/>
-      <c r="X45" s="147"/>
-      <c r="Y45" s="147"/>
-      <c r="Z45" s="147"/>
-      <c r="AA45" s="147"/>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="147"/>
-      <c r="AD45" s="148"/>
-      <c r="AE45" s="138"/>
-      <c r="AF45" s="138"/>
-      <c r="AG45" s="139"/>
-      <c r="AH45" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI45" s="149">
-        <f>BE39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="14"/>
-      <c r="AM45" s="150" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN45" s="150"/>
-      <c r="AS45" s="151" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT45" s="151"/>
-      <c r="AU45" s="151"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="152"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="152"/>
-      <c r="R46" s="152"/>
-      <c r="S46" s="152"/>
-      <c r="T46" s="152"/>
-      <c r="U46" s="152"/>
-      <c r="V46" s="152"/>
-      <c r="W46" s="152"/>
-      <c r="X46" s="152"/>
-      <c r="Y46" s="152"/>
-      <c r="Z46" s="152"/>
-      <c r="AA46" s="152"/>
-      <c r="AB46" s="152"/>
-      <c r="AC46" s="152"/>
-      <c r="AD46" s="152"/>
-      <c r="AE46" s="152"/>
-      <c r="AF46" s="152"/>
-      <c r="AG46" s="152"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A47" s="153">
-        <v>10</v>
-      </c>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="153"/>
-      <c r="P47" s="153"/>
-      <c r="Q47" s="153"/>
-      <c r="R47" s="153"/>
-      <c r="S47" s="153"/>
-      <c r="T47" s="153"/>
-      <c r="U47" s="153"/>
-      <c r="V47" s="153"/>
-      <c r="W47" s="153"/>
-      <c r="X47" s="153"/>
-      <c r="Y47" s="153"/>
-      <c r="Z47" s="153"/>
-      <c r="AA47" s="153"/>
-      <c r="AB47" s="153"/>
-      <c r="AC47" s="153"/>
-      <c r="AD47" s="153"/>
-      <c r="AE47" s="153"/>
-      <c r="AF47" s="153"/>
-      <c r="AG47" s="153"/>
-      <c r="AH47" s="154">
-        <v>11</v>
-      </c>
-      <c r="AI47" s="154"/>
-      <c r="AJ47" s="154"/>
-      <c r="AK47" s="154"/>
-      <c r="AL47" s="154"/>
-      <c r="AM47" s="154"/>
-      <c r="AN47" s="154"/>
-      <c r="AO47" s="154"/>
-      <c r="AP47" s="154"/>
-      <c r="AQ47" s="154"/>
-      <c r="AR47" s="154"/>
-      <c r="AS47" s="154"/>
-      <c r="AT47" s="154"/>
-      <c r="AU47" s="154"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AJ4:AS7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AD4:AG5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI51" sqref="AI51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="5.42578125" customWidth="1" style="90"/>
-    <col min="2" max="7" bestFit="1" width="2.140625" customWidth="1" style="90"/>
-    <col min="8" max="8" width="2.140625" customWidth="1" style="90"/>
-    <col min="9" max="19" bestFit="1" width="2.140625" customWidth="1" style="90"/>
-    <col min="20" max="20" bestFit="1" width="2.5703125" customWidth="1" style="90"/>
-    <col min="21" max="29" bestFit="1" width="2.140625" customWidth="1" style="90"/>
-    <col min="30" max="30" bestFit="1" width="8.7109375" customWidth="1" style="90"/>
-    <col min="31" max="32" width="7.42578125" customWidth="1" style="90"/>
-    <col min="33" max="33" width="8.7109375" customWidth="1" style="90"/>
-    <col min="34" max="34" width="12.42578125" customWidth="1" style="90"/>
-    <col min="35" max="39" width="8.85546875" customWidth="1" style="90"/>
-    <col min="40" max="40" width="7.42578125" customWidth="1" style="90"/>
-    <col min="41" max="41" hidden="1" width="1.42578125" customWidth="1" style="90"/>
-    <col min="42" max="42" hidden="1" width="10.7109375" customWidth="1" style="90"/>
-    <col min="43" max="43" hidden="1" width="5.28515625" customWidth="1" style="90"/>
-    <col min="44" max="44" width="5.85546875" customWidth="1" style="90"/>
-    <col min="45" max="45" width="3.7109375" customWidth="1" style="90"/>
-    <col min="46" max="46" width="8.85546875" customWidth="1" style="90"/>
-    <col min="47" max="47" width="14.7109375" customWidth="1" style="90"/>
-    <col min="48" max="50" width="8.85546875" customWidth="1" style="90"/>
-    <col min="51" max="51" width="8.85546875" customWidth="1" style="90"/>
-    <col min="52" max="52" bestFit="1" width="10.5703125" customWidth="1" style="90"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1" style="90"/>
-    <col min="54" max="54" bestFit="1" width="10.5703125" customWidth="1" style="90"/>
-    <col min="55" max="16384" width="8.85546875" customWidth="1" style="90"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A1" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="95"/>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="95"/>
-      <c r="AU1" s="95"/>
-      <c r="AW1" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ1" s="96"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A2" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AW2" s="90">
-        <v>2</v>
-      </c>
-      <c r="BJ2" s="96"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A3" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="BJ3" s="96"/>
-    </row>
-    <row r="4" ht="17.45" customHeight="1" s="3" customFormat="1">
-      <c r="A4" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI4" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ4" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU4" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="96"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="105"/>
-      <c r="BJ5" s="96"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="105"/>
-      <c r="BJ6" s="96"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="105"/>
-      <c r="AY7" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB7" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD7" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE7" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ7" s="96"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A8" s="114">
-        <v>1</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="117">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="117"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="118"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="118"/>
-      <c r="AM8" s="118"/>
-      <c r="AN8" s="118"/>
-      <c r="AO8" s="118"/>
-      <c r="AP8" s="118"/>
-      <c r="AQ8" s="118"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="118"/>
-      <c r="AT8" s="119">
-        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="118"/>
-      <c r="AY8" s="90" t="str">
-        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
-      </c>
-      <c r="BB8" s="90">
-        <f>IF( AI8="л", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="90">
-        <f>IF( AI8="пз", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="90">
-        <f>IF( AI8="лр", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="90">
-        <f>IF( AI8="кср", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="96"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A9" s="120">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="118"/>
-      <c r="AN9" s="118"/>
-      <c r="AO9" s="118"/>
-      <c r="AP9" s="118"/>
-      <c r="AQ9" s="118"/>
-      <c r="AR9" s="118"/>
-      <c r="AS9" s="118"/>
-      <c r="AT9" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="118"/>
-      <c r="AY9" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB9" s="90">
-        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="90">
-        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="90">
-        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="90">
-        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="96"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A10" s="120">
-        <f ref="A10:A36" t="shared" si="6">A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="118"/>
-      <c r="AO10" s="118"/>
-      <c r="AP10" s="118"/>
-      <c r="AQ10" s="118"/>
-      <c r="AR10" s="118"/>
-      <c r="AS10" s="118"/>
-      <c r="AT10" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="118"/>
-      <c r="AY10" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB10" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="96"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A11" s="123">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="126">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="126">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="118"/>
-      <c r="AT11" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="118"/>
-      <c r="AY11" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB11" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="96"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A12" s="120">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
-      <c r="AQ12" s="118"/>
-      <c r="AR12" s="118"/>
-      <c r="AS12" s="118"/>
-      <c r="AT12" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="118"/>
-      <c r="AY12" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB12" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD12" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="96"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A13" s="120">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="118"/>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU13" s="118"/>
-      <c r="AY13" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB13" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD13" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="96"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A14" s="120">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="118"/>
-      <c r="AY14" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB14" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="96"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A15" s="120">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="122"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="118"/>
-      <c r="AY15" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB15" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="96"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A16" s="120">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="122"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="118"/>
-      <c r="AY16" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB16" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="96"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A17" s="120">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="122">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="122">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="122"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="118"/>
-      <c r="AY17" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB17" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="96"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A18" s="120">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="118"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="118"/>
-      <c r="AY18" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB18" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="96"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A19" s="120">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="118"/>
-      <c r="AT19" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="118"/>
-      <c r="AY19" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB19" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC19" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD19" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="96"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A20" s="120">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="118"/>
-      <c r="AY20" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB20" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD20" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="96"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A21" s="120">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="118"/>
-      <c r="AY21" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB21" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE21" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="96"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A22" s="120">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="122"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
-      <c r="AS22" s="118"/>
-      <c r="AT22" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="118"/>
-      <c r="AY22" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB22" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="96"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A23" s="120">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="122"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="118"/>
-      <c r="AK23" s="118"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
-      <c r="AQ23" s="118"/>
-      <c r="AR23" s="118"/>
-      <c r="AS23" s="118"/>
-      <c r="AT23" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="118"/>
-      <c r="AY23" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB23" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE23" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="96"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A24" s="120">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="118"/>
-      <c r="AJ24" s="118"/>
-      <c r="AK24" s="118"/>
-      <c r="AL24" s="118"/>
-      <c r="AM24" s="118"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="118"/>
-      <c r="AP24" s="118"/>
-      <c r="AQ24" s="118"/>
-      <c r="AR24" s="118"/>
-      <c r="AS24" s="118"/>
-      <c r="AT24" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="118"/>
-      <c r="AY24" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB24" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="96"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A25" s="120">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="118"/>
-      <c r="AK25" s="118"/>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="118"/>
-      <c r="AQ25" s="118"/>
-      <c r="AR25" s="118"/>
-      <c r="AS25" s="118"/>
-      <c r="AT25" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="118"/>
-      <c r="AY25" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB25" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="96"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A26" s="120">
-        <f>A25+1</f>
-        <v>19</v>
-      </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="118"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
-      <c r="AQ26" s="118"/>
-      <c r="AR26" s="118"/>
-      <c r="AS26" s="118"/>
-      <c r="AT26" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="118"/>
-      <c r="AY26" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB26" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD26" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="96"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A27" s="120">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="118"/>
-      <c r="AJ27" s="118"/>
-      <c r="AK27" s="118"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="118"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="118"/>
-      <c r="AQ27" s="118"/>
-      <c r="AR27" s="118"/>
-      <c r="AS27" s="118"/>
-      <c r="AT27" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="118"/>
-      <c r="AY27" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB27" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="96"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A28" s="120">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="118"/>
-      <c r="AJ28" s="118"/>
-      <c r="AK28" s="118"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="118"/>
-      <c r="AQ28" s="118"/>
-      <c r="AR28" s="118"/>
-      <c r="AS28" s="118"/>
-      <c r="AT28" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="118"/>
-      <c r="AY28" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB28" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD28" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="96"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A29" s="120">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AK29" s="118"/>
-      <c r="AL29" s="118"/>
-      <c r="AM29" s="118"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="118"/>
-      <c r="AQ29" s="118"/>
-      <c r="AR29" s="118"/>
-      <c r="AS29" s="118"/>
-      <c r="AT29" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU29" s="118"/>
-      <c r="AY29" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB29" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC29" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD29" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="96"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A30" s="120">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="118"/>
-      <c r="AI30" s="118"/>
-      <c r="AJ30" s="118"/>
-      <c r="AK30" s="118"/>
-      <c r="AL30" s="118"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="118"/>
-      <c r="AP30" s="118"/>
-      <c r="AQ30" s="118"/>
-      <c r="AR30" s="118"/>
-      <c r="AS30" s="118"/>
-      <c r="AT30" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="118"/>
-      <c r="AY30" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB30" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD30" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="96"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A31" s="120">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="118"/>
-      <c r="AI31" s="118"/>
-      <c r="AJ31" s="118"/>
-      <c r="AK31" s="118"/>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="118"/>
-      <c r="AP31" s="118"/>
-      <c r="AQ31" s="118"/>
-      <c r="AR31" s="118"/>
-      <c r="AS31" s="118"/>
-      <c r="AT31" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="118"/>
-      <c r="AY31" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB31" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC31" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD31" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="96"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A32" s="120">
-        <f>A31+1</f>
-        <v>25</v>
-      </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="118"/>
-      <c r="AK32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
-      <c r="AQ32" s="118"/>
-      <c r="AR32" s="118"/>
-      <c r="AS32" s="118"/>
-      <c r="AT32" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU32" s="118"/>
-      <c r="AY32" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB32" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD32" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="96"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A33" s="120">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="118"/>
-      <c r="AI33" s="118"/>
-      <c r="AJ33" s="118"/>
-      <c r="AK33" s="118"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
-      <c r="AQ33" s="118"/>
-      <c r="AR33" s="118"/>
-      <c r="AS33" s="118"/>
-      <c r="AT33" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU33" s="118"/>
-      <c r="AY33" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB33" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD33" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="96"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A34" s="120">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="127"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="118"/>
-      <c r="AL34" s="118"/>
-      <c r="AM34" s="118"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="118"/>
-      <c r="AP34" s="118"/>
-      <c r="AQ34" s="118"/>
-      <c r="AR34" s="118"/>
-      <c r="AS34" s="118"/>
-      <c r="AT34" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="118"/>
-      <c r="AY34" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB34" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD34" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="96"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A35" s="120">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
-      <c r="AC35" s="127"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="118"/>
-      <c r="AI35" s="118"/>
-      <c r="AJ35" s="118"/>
-      <c r="AK35" s="118"/>
-      <c r="AL35" s="118"/>
-      <c r="AM35" s="118"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="118"/>
-      <c r="AP35" s="118"/>
-      <c r="AQ35" s="118"/>
-      <c r="AR35" s="118"/>
-      <c r="AS35" s="118"/>
-      <c r="AT35" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="118"/>
-      <c r="AY35" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB35" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="96"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A36" s="120">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="121"/>
-      <c r="AC36" s="127"/>
-      <c r="AD36" s="122"/>
-      <c r="AE36" s="122"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="122"/>
-      <c r="AH36" s="118"/>
-      <c r="AI36" s="118"/>
-      <c r="AJ36" s="118"/>
-      <c r="AK36" s="118"/>
-      <c r="AL36" s="118"/>
-      <c r="AM36" s="118"/>
-      <c r="AN36" s="118"/>
-      <c r="AO36" s="118"/>
-      <c r="AP36" s="118"/>
-      <c r="AQ36" s="118"/>
-      <c r="AR36" s="118"/>
-      <c r="AS36" s="118"/>
-      <c r="AT36" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="118"/>
-      <c r="AY36" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB36" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="96"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A37" s="120">
-        <v>30</v>
-      </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="121"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="121"/>
-      <c r="W37" s="121"/>
-      <c r="X37" s="121"/>
-      <c r="Y37" s="121"/>
-      <c r="Z37" s="121"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="121"/>
-      <c r="AC37" s="127"/>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="122"/>
-      <c r="AH37" s="118"/>
-      <c r="AI37" s="118"/>
-      <c r="AJ37" s="118"/>
-      <c r="AK37" s="118"/>
-      <c r="AL37" s="118"/>
-      <c r="AM37" s="118"/>
-      <c r="AN37" s="118"/>
-      <c r="AO37" s="118"/>
-      <c r="AP37" s="118"/>
-      <c r="AQ37" s="118"/>
-      <c r="AR37" s="118"/>
-      <c r="AS37" s="118"/>
-      <c r="AT37" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="118"/>
-      <c r="AY37" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB37" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="96"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="129"/>
-      <c r="U38" s="129"/>
-      <c r="V38" s="129"/>
-      <c r="W38" s="129"/>
-      <c r="X38" s="129"/>
-      <c r="Y38" s="129"/>
-      <c r="Z38" s="129"/>
-      <c r="AA38" s="129"/>
-      <c r="AB38" s="129"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="122"/>
-      <c r="AE38" s="122"/>
-      <c r="AF38" s="122"/>
-      <c r="AG38" s="122"/>
-      <c r="AH38" s="118"/>
-      <c r="AI38" s="118"/>
-      <c r="AJ38" s="118"/>
-      <c r="AK38" s="118"/>
-      <c r="AL38" s="118"/>
-      <c r="AM38" s="118"/>
-      <c r="AN38" s="118"/>
-      <c r="AO38" s="118"/>
-      <c r="AP38" s="118"/>
-      <c r="AQ38" s="118"/>
-      <c r="AR38" s="118"/>
-      <c r="AS38" s="118"/>
-      <c r="AT38" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="118"/>
-      <c r="AY38" s="90" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB38" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC38" s="90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD38" s="90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="96"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A39" s="131"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="131"/>
-      <c r="U39" s="131"/>
-      <c r="V39" s="131"/>
-      <c r="W39" s="131"/>
-      <c r="X39" s="131"/>
-      <c r="Y39" s="131"/>
-      <c r="Z39" s="131"/>
-      <c r="AA39" s="131"/>
-      <c r="AB39" s="131"/>
-      <c r="AC39" s="132"/>
-      <c r="AD39" s="122"/>
-      <c r="AE39" s="122"/>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="122"/>
-      <c r="AH39" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI39" s="133"/>
-      <c r="AJ39" s="133"/>
-      <c r="AK39" s="133"/>
-      <c r="AL39" s="133"/>
-      <c r="AM39" s="133"/>
-      <c r="AN39" s="133"/>
-      <c r="AO39" s="133"/>
-      <c r="AP39" s="133"/>
-      <c r="AQ39" s="133"/>
-      <c r="AR39" s="133"/>
-      <c r="AS39" s="133"/>
-      <c r="AT39" s="134">
-        <f>SUM(AT8:AT38)</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="135"/>
-      <c r="AY39" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ39" s="90" t="e">
-        <f>AVERAGE(AY8:AY38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA39" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB39" s="90">
-        <f>SUM(BB8:BB38)</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="90">
-        <f>SUM(BC8:BC38)</f>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="90">
-        <f>SUM(BD8:BD38)</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="90">
-        <f>SUM(BE8:BE38)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="96"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A40" s="131"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="131"/>
-      <c r="W40" s="131"/>
-      <c r="X40" s="131"/>
-      <c r="Y40" s="131"/>
-      <c r="Z40" s="131"/>
-      <c r="AA40" s="131"/>
-      <c r="AB40" s="131"/>
-      <c r="AC40" s="131"/>
-      <c r="AD40" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE40" s="137"/>
-      <c r="AF40" s="138"/>
-      <c r="AG40" s="139"/>
-      <c r="AH40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="140">
-        <f>AT39</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="140"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="14"/>
-      <c r="AS40" s="14"/>
-      <c r="AT40" s="14"/>
-      <c r="AU40" s="14"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="131"/>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="131"/>
-      <c r="S41" s="131"/>
-      <c r="T41" s="131"/>
-      <c r="U41" s="131"/>
-      <c r="V41" s="131"/>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="131"/>
-      <c r="AB41" s="131"/>
-      <c r="AC41" s="131"/>
-      <c r="AD41" s="136"/>
-      <c r="AE41" s="137"/>
-      <c r="AF41" s="138"/>
-      <c r="AG41" s="139"/>
-      <c r="AH41" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="141"/>
-      <c r="AK41" s="141"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="14"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
-      <c r="AU41" s="14"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="131"/>
-      <c r="S42" s="131"/>
-      <c r="T42" s="131"/>
-      <c r="U42" s="131"/>
-      <c r="V42" s="131"/>
-      <c r="W42" s="131"/>
-      <c r="X42" s="131"/>
-      <c r="Y42" s="131"/>
-      <c r="Z42" s="131"/>
-      <c r="AA42" s="131"/>
-      <c r="AB42" s="131"/>
-      <c r="AC42" s="131"/>
-      <c r="AD42" s="136"/>
-      <c r="AE42" s="137"/>
-      <c r="AF42" s="138"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI42" s="142">
-        <f>BB39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="14"/>
-      <c r="AN42" s="14"/>
-      <c r="AO42" s="14"/>
-      <c r="AP42" s="14"/>
-      <c r="AQ42" s="14"/>
-      <c r="AR42" s="14"/>
-      <c r="AS42" s="14"/>
-      <c r="AT42" s="14"/>
-      <c r="AU42" s="14"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A43" s="143"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="143"/>
-      <c r="N43" s="143"/>
-      <c r="O43" s="143"/>
-      <c r="P43" s="143"/>
-      <c r="Q43" s="143"/>
-      <c r="R43" s="143"/>
-      <c r="S43" s="143"/>
-      <c r="T43" s="143"/>
-      <c r="U43" s="143"/>
-      <c r="V43" s="143"/>
-      <c r="W43" s="143"/>
-      <c r="X43" s="143"/>
-      <c r="Y43" s="143"/>
-      <c r="Z43" s="143"/>
-      <c r="AA43" s="143"/>
-      <c r="AB43" s="143"/>
-      <c r="AC43" s="143"/>
-      <c r="AD43" s="144" t="e">
-        <f>AZ39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43" s="145"/>
-      <c r="AF43" s="138"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI43" s="146">
-        <f>BC39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="14"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="14"/>
-      <c r="AT43" s="14"/>
-      <c r="AU43" s="14"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
-      <c r="N44" s="147"/>
-      <c r="O44" s="147"/>
-      <c r="P44" s="147"/>
-      <c r="Q44" s="147"/>
-      <c r="R44" s="147"/>
-      <c r="S44" s="147"/>
-      <c r="T44" s="147"/>
-      <c r="U44" s="147"/>
-      <c r="V44" s="147"/>
-      <c r="W44" s="147"/>
-      <c r="X44" s="147"/>
-      <c r="Y44" s="147"/>
-      <c r="Z44" s="147"/>
-      <c r="AA44" s="147"/>
-      <c r="AB44" s="147"/>
-      <c r="AC44" s="147"/>
-      <c r="AD44" s="148"/>
-      <c r="AE44" s="138"/>
-      <c r="AF44" s="138"/>
-      <c r="AG44" s="139"/>
-      <c r="AH44" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI44" s="146">
-        <f>BD39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="14"/>
-      <c r="AR44" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A45" s="147"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147"/>
-      <c r="Q45" s="147"/>
-      <c r="R45" s="147"/>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="147"/>
-      <c r="X45" s="147"/>
-      <c r="Y45" s="147"/>
-      <c r="Z45" s="147"/>
-      <c r="AA45" s="147"/>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="147"/>
-      <c r="AD45" s="148"/>
-      <c r="AE45" s="138"/>
-      <c r="AF45" s="138"/>
-      <c r="AG45" s="139"/>
-      <c r="AH45" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI45" s="149">
-        <f>BE39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="14"/>
-      <c r="AM45" s="150" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN45" s="150"/>
-      <c r="AS45" s="151" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT45" s="151"/>
-      <c r="AU45" s="151"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="152"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="152"/>
-      <c r="R46" s="152"/>
-      <c r="S46" s="152"/>
-      <c r="T46" s="152"/>
-      <c r="U46" s="152"/>
-      <c r="V46" s="152"/>
-      <c r="W46" s="152"/>
-      <c r="X46" s="152"/>
-      <c r="Y46" s="152"/>
-      <c r="Z46" s="152"/>
-      <c r="AA46" s="152"/>
-      <c r="AB46" s="152"/>
-      <c r="AC46" s="152"/>
-      <c r="AD46" s="152"/>
-      <c r="AE46" s="152"/>
-      <c r="AF46" s="152"/>
-      <c r="AG46" s="152"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A47" s="153">
-        <v>12</v>
-      </c>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="153"/>
-      <c r="P47" s="153"/>
-      <c r="Q47" s="153"/>
-      <c r="R47" s="153"/>
-      <c r="S47" s="153"/>
-      <c r="T47" s="153"/>
-      <c r="U47" s="153"/>
-      <c r="V47" s="153"/>
-      <c r="W47" s="153"/>
-      <c r="X47" s="153"/>
-      <c r="Y47" s="153"/>
-      <c r="Z47" s="153"/>
-      <c r="AA47" s="153"/>
-      <c r="AB47" s="153"/>
-      <c r="AC47" s="153"/>
-      <c r="AD47" s="153"/>
-      <c r="AE47" s="153"/>
-      <c r="AF47" s="153"/>
-      <c r="AG47" s="153"/>
-      <c r="AH47" s="154">
-        <v>13</v>
-      </c>
-      <c r="AI47" s="154"/>
-      <c r="AJ47" s="154"/>
-      <c r="AK47" s="154"/>
-      <c r="AL47" s="154"/>
-      <c r="AM47" s="154"/>
-      <c r="AN47" s="154"/>
-      <c r="AO47" s="154"/>
-      <c r="AP47" s="154"/>
-      <c r="AQ47" s="154"/>
-      <c r="AR47" s="154"/>
-      <c r="AS47" s="154"/>
-      <c r="AT47" s="154"/>
-      <c r="AU47" s="154"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AJ4:AS7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AD4:AG5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -16700,12 +9404,12 @@
   <sheetData>
     <row r="1" ht="22.9" customHeight="1" s="3" customFormat="1">
       <c r="A1" s="155" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B1" s="155"/>
       <c r="C1" s="11"/>
       <c r="D1" s="23" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -16717,20 +9421,20 @@
     </row>
     <row r="2" ht="19.9" customHeight="1" s="3" customFormat="1">
       <c r="A2" s="156" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="15" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -6,19 +6,21 @@
   </bookViews>
   <sheets>
     <sheet name="Начало" sheetId="1" r:id="rId1"/>
-    <sheet name="Тестовый" sheetId="2" r:id="rId3"/>
-    <sheet name="Конец" sheetId="3" r:id="rId4"/>
+    <sheet name="Высшая математика Cеместр №1" sheetId="2" r:id="rId3"/>
+    <sheet name="Высшая математика Cеместр №2" sheetId="3" r:id="rId4"/>
+    <sheet name="Конец" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Тестовый!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Конец!$A$1:$F$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика Cеместр №1'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Высшая математика Cеместр №2'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Конец!$A$1:$F$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Министерство образования и науки РФ</t>
   </si>
@@ -158,10 +160,10 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Тестовый</t>
+    <t>Высшая математика</t>
   </si>
   <si>
-    <t>____________семестр</t>
+    <t>семестр</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -187,9 +189,6 @@
       </rPr>
       <t xml:space="preserve"> № п.п.</t>
     </r>
-  </si>
-  <si>
-    <t>11.01.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -231,19 +230,10 @@
     <t>КСР</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>лр</t>
-  </si>
-  <si>
-    <t>ЛрДр</t>
-  </si>
-  <si>
     <t>НБ</t>
   </si>
   <si>
-    <t>ЛрЦелые</t>
+    <t/>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -569,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -782,13 +772,22 @@
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal style="thin">
         <color rgb="FF3F3F3F"/>
       </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -811,30 +810,6 @@
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FF3F3F3F"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1201,8 +1176,11 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1219,42 +1197,39 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="24" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="24" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="26" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="27" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1288,13 +1263,13 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="26" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="26" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="27" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="2" applyFill="1" borderId="27" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="2" applyFill="1" borderId="28" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="2" applyFill="1" borderId="29" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1302,7 +1277,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="24" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
@@ -1311,7 +1286,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="30" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="29" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1321,22 +1296,22 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="24" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="24" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -5213,6 +5188,622 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="BP3:BQ5"/>
+    <mergeCell ref="BR3:BS5"/>
+    <mergeCell ref="AV3:AW5"/>
+    <mergeCell ref="AX3:AY5"/>
+    <mergeCell ref="AZ3:BA5"/>
+    <mergeCell ref="BB3:BC5"/>
+    <mergeCell ref="BD3:BE5"/>
+    <mergeCell ref="BF3:BG5"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AM2:AM7"/>
+    <mergeCell ref="AN2:BC2"/>
+    <mergeCell ref="BD2:BS2"/>
+    <mergeCell ref="Q3:AL4"/>
+    <mergeCell ref="AN3:AO5"/>
+    <mergeCell ref="AP3:AQ5"/>
+    <mergeCell ref="AR3:AS5"/>
+    <mergeCell ref="AT3:AU5"/>
+    <mergeCell ref="A4:D9"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="BH3:BI5"/>
+    <mergeCell ref="BJ3:BK5"/>
+    <mergeCell ref="BL3:BM5"/>
+    <mergeCell ref="BN3:BO5"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="BD1:BN1"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:AJ6"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BC6:BC7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BS6:BS7"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E1:G4"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="A10:D14"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="A31:D36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="AK40:AK41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AH40:AH41"/>
+    <mergeCell ref="AI40:AI41"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
     <mergeCell ref="AM47:BC47"/>
     <mergeCell ref="BD47:BS47"/>
     <mergeCell ref="C23:D24"/>
@@ -5237,622 +5828,6 @@
     <mergeCell ref="M41:M42"/>
     <mergeCell ref="N41:N42"/>
     <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="AF40:AF41"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AH40:AH41"/>
-    <mergeCell ref="AI40:AI41"/>
-    <mergeCell ref="AJ40:AJ41"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="AI38:AI39"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="AK40:AK41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="AL38:AL39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AH36:AH37"/>
-    <mergeCell ref="AH38:AH39"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="A31:D36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="AI28:AI29"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="AL28:AL29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="A15:D17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="A10:D14"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="E1:G4"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BS6:BS7"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BC6:BC7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AY6:AY7"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AU6:AU7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:AJ6"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="A4:D9"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="BH3:BI5"/>
-    <mergeCell ref="BJ3:BK5"/>
-    <mergeCell ref="BL3:BM5"/>
-    <mergeCell ref="BN3:BO5"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AW1:BC1"/>
-    <mergeCell ref="BD1:BN1"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="BP3:BQ5"/>
-    <mergeCell ref="BR3:BS5"/>
-    <mergeCell ref="AV3:AW5"/>
-    <mergeCell ref="AX3:AY5"/>
-    <mergeCell ref="AZ3:BA5"/>
-    <mergeCell ref="BB3:BC5"/>
-    <mergeCell ref="BD3:BE5"/>
-    <mergeCell ref="BF3:BG5"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AM2:AM7"/>
-    <mergeCell ref="AN2:BC2"/>
-    <mergeCell ref="BD2:BS2"/>
-    <mergeCell ref="Q3:AL4"/>
-    <mergeCell ref="AN3:AO5"/>
-    <mergeCell ref="AP3:AQ5"/>
-    <mergeCell ref="AR3:AS5"/>
-    <mergeCell ref="AT3:AU5"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
@@ -5873,8 +5848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI51" sqref="AI51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6021,41 +5996,43 @@
       <c r="BJ2" s="96"/>
     </row>
     <row r="3" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A3" s="99" t="s">
-        <v>47</v>
+      <c r="A3" s="99">
+        <v>1</v>
       </c>
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
       <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
+      <c r="F3" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="14"/>
@@ -6073,175 +6050,171 @@
       <c r="BJ3" s="96"/>
     </row>
     <row r="4" ht="17.45" customHeight="1" s="3" customFormat="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105" t="s">
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105" t="s">
+      <c r="AI4" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="105" t="s">
+      <c r="AJ4" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="105" t="s">
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="106" t="s">
+      <c r="AU4" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="AU4" s="105" t="s">
-        <v>55</v>
-      </c>
       <c r="BJ4" s="96"/>
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
       <c r="AC5" s="109"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="105"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="107"/>
       <c r="BJ5" s="96"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="3" customFormat="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
       <c r="AC6" s="109"/>
       <c r="AD6" s="110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="110"/>
       <c r="AF6" s="110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG6" s="110"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="105"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="107"/>
       <c r="BJ6" s="96"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="3" customFormat="1">
@@ -6278,34 +6251,34 @@
       <c r="AE7" s="110"/>
       <c r="AF7" s="110"/>
       <c r="AG7" s="110"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="105"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="107"/>
       <c r="AY7" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB7" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BB7" s="90" t="s">
+      <c r="BC7" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="BC7" s="90" t="s">
+      <c r="BD7" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="BD7" s="90" t="s">
+      <c r="BE7" s="90" t="s">
         <v>61</v>
-      </c>
-      <c r="BE7" s="90" t="s">
-        <v>62</v>
       </c>
       <c r="BJ7" s="96"/>
     </row>
@@ -6314,11 +6287,9 @@
         <v>1</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C8" s="115"/>
       <c r="D8" s="115"/>
       <c r="E8" s="115"/>
       <c r="F8" s="115"/>
@@ -6350,18 +6321,12 @@
       </c>
       <c r="AE8" s="117"/>
       <c r="AF8" s="117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="117"/>
-      <c r="AH8" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI8" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ8" s="118" t="s">
-        <v>65</v>
-      </c>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="118"/>
+      <c r="AJ8" s="118"/>
       <c r="AK8" s="118"/>
       <c r="AL8" s="118"/>
       <c r="AM8" s="118"/>
@@ -6372,7 +6337,8 @@
       <c r="AR8" s="118"/>
       <c r="AS8" s="118"/>
       <c r="AT8" s="119">
-        <v>0.4</v>
+        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
+        <v>0</v>
       </c>
       <c r="AU8" s="118"/>
       <c r="AY8" s="90" t="str">
@@ -6404,9 +6370,7 @@
       <c r="B9" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="121" t="s">
-        <v>66</v>
-      </c>
+      <c r="C9" s="121"/>
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="121"/>
@@ -6438,18 +6402,12 @@
       </c>
       <c r="AE9" s="122"/>
       <c r="AF9" s="122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="122"/>
-      <c r="AH9" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI9" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ9" s="118" t="s">
-        <v>67</v>
-      </c>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
       <c r="AK9" s="118"/>
       <c r="AL9" s="118"/>
       <c r="AM9" s="118"/>
@@ -6460,7 +6418,8 @@
       <c r="AR9" s="118"/>
       <c r="AS9" s="118"/>
       <c r="AT9" s="119">
-        <v>1.6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AU9" s="118"/>
       <c r="AY9" s="90" t="str">
@@ -6492,9 +6451,7 @@
       <c r="B10" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="C10" s="121"/>
       <c r="D10" s="121"/>
       <c r="E10" s="121"/>
       <c r="F10" s="121"/>
@@ -6529,15 +6486,9 @@
         <v>0</v>
       </c>
       <c r="AG10" s="122"/>
-      <c r="AH10" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI10" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ10" s="118" t="s">
-        <v>65</v>
-      </c>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
       <c r="AK10" s="118"/>
       <c r="AL10" s="118"/>
       <c r="AM10" s="118"/>
@@ -6548,7 +6499,8 @@
       <c r="AR10" s="118"/>
       <c r="AS10" s="118"/>
       <c r="AT10" s="119">
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AU10" s="118"/>
       <c r="AY10" s="90" t="str">
@@ -6580,9 +6532,7 @@
       <c r="B11" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="124" t="s">
-        <v>63</v>
-      </c>
+      <c r="C11" s="124"/>
       <c r="D11" s="124"/>
       <c r="E11" s="124"/>
       <c r="F11" s="124"/>
@@ -6617,15 +6567,9 @@
         <v>0</v>
       </c>
       <c r="AG11" s="126"/>
-      <c r="AH11" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI11" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ11" s="118" t="s">
-        <v>67</v>
-      </c>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
       <c r="AK11" s="118"/>
       <c r="AL11" s="118"/>
       <c r="AM11" s="118"/>
@@ -6636,7 +6580,8 @@
       <c r="AR11" s="118"/>
       <c r="AS11" s="118"/>
       <c r="AT11" s="119">
-        <v>1.7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AU11" s="118"/>
       <c r="AY11" s="90" t="str">
@@ -6665,12 +6610,8 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B12" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="121"/>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
@@ -6697,13 +6638,9 @@
       <c r="AA12" s="121"/>
       <c r="AB12" s="121"/>
       <c r="AC12" s="127"/>
-      <c r="AD12" s="122">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="122"/>
       <c r="AE12" s="122"/>
-      <c r="AF12" s="122">
-        <v>0</v>
-      </c>
+      <c r="AF12" s="122"/>
       <c r="AG12" s="122"/>
       <c r="AH12" s="118"/>
       <c r="AI12" s="118"/>
@@ -6718,7 +6655,7 @@
       <c r="AR12" s="118"/>
       <c r="AS12" s="118"/>
       <c r="AT12" s="119">
-        <f ref="AT12:AT38" t="shared" si="0">IF(AJ12="",0,$AW$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU12" s="118"/>
@@ -6748,12 +6685,8 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B13" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="121"/>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
@@ -6780,13 +6713,9 @@
       <c r="AA13" s="121"/>
       <c r="AB13" s="121"/>
       <c r="AC13" s="127"/>
-      <c r="AD13" s="122">
-        <v>0</v>
-      </c>
+      <c r="AD13" s="122"/>
       <c r="AE13" s="122"/>
-      <c r="AF13" s="122">
-        <v>0</v>
-      </c>
+      <c r="AF13" s="122"/>
       <c r="AG13" s="122"/>
       <c r="AH13" s="118"/>
       <c r="AI13" s="118"/>
@@ -6831,12 +6760,8 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B14" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="121"/>
@@ -6863,13 +6788,9 @@
       <c r="AA14" s="121"/>
       <c r="AB14" s="121"/>
       <c r="AC14" s="127"/>
-      <c r="AD14" s="122">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="122"/>
       <c r="AE14" s="122"/>
-      <c r="AF14" s="122">
-        <v>0</v>
-      </c>
+      <c r="AF14" s="122"/>
       <c r="AG14" s="122"/>
       <c r="AH14" s="118"/>
       <c r="AI14" s="118"/>
@@ -6914,12 +6835,8 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B15" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="121"/>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
@@ -6946,13 +6863,9 @@
       <c r="AA15" s="121"/>
       <c r="AB15" s="121"/>
       <c r="AC15" s="127"/>
-      <c r="AD15" s="122">
-        <v>0</v>
-      </c>
+      <c r="AD15" s="122"/>
       <c r="AE15" s="122"/>
-      <c r="AF15" s="122">
-        <v>0</v>
-      </c>
+      <c r="AF15" s="122"/>
       <c r="AG15" s="122"/>
       <c r="AH15" s="118"/>
       <c r="AI15" s="118"/>
@@ -6997,12 +6910,8 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B16" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="121"/>
@@ -7029,13 +6938,9 @@
       <c r="AA16" s="121"/>
       <c r="AB16" s="121"/>
       <c r="AC16" s="127"/>
-      <c r="AD16" s="122">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="122"/>
       <c r="AE16" s="122"/>
-      <c r="AF16" s="122">
-        <v>0</v>
-      </c>
+      <c r="AF16" s="122"/>
       <c r="AG16" s="122"/>
       <c r="AH16" s="118"/>
       <c r="AI16" s="118"/>
@@ -7080,12 +6985,8 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B17" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>66</v>
-      </c>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="121"/>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
@@ -7112,13 +7013,9 @@
       <c r="AA17" s="121"/>
       <c r="AB17" s="121"/>
       <c r="AC17" s="127"/>
-      <c r="AD17" s="122">
-        <v>0</v>
-      </c>
+      <c r="AD17" s="122"/>
       <c r="AE17" s="122"/>
-      <c r="AF17" s="122">
-        <v>2</v>
-      </c>
+      <c r="AF17" s="122"/>
       <c r="AG17" s="122"/>
       <c r="AH17" s="118"/>
       <c r="AI17" s="118"/>
@@ -8764,7 +8661,7 @@
       <c r="AF39" s="122"/>
       <c r="AG39" s="122"/>
       <c r="AH39" s="133" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AI39" s="133"/>
       <c r="AJ39" s="133"/>
@@ -8783,14 +8680,14 @@
       </c>
       <c r="AU39" s="135"/>
       <c r="AY39" s="90" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AZ39" s="90" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="90" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="BB39" s="90">
         <f>SUM(BB8:BB38)</f>
@@ -8841,13 +8738,13 @@
       <c r="AB40" s="131"/>
       <c r="AC40" s="131"/>
       <c r="AD40" s="136" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AE40" s="137"/>
       <c r="AF40" s="138"/>
       <c r="AG40" s="139"/>
       <c r="AH40" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="140">
@@ -8901,7 +8798,7 @@
       <c r="AF41" s="138"/>
       <c r="AG41" s="139"/>
       <c r="AH41" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="141"/>
@@ -8952,7 +8849,7 @@
       <c r="AF42" s="138"/>
       <c r="AG42" s="139"/>
       <c r="AH42" s="75" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI42" s="142">
         <f>BB39</f>
@@ -9009,7 +8906,7 @@
       <c r="AF43" s="138"/>
       <c r="AG43" s="139"/>
       <c r="AH43" s="75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AI43" s="146">
         <f>BC39</f>
@@ -9063,7 +8960,7 @@
       <c r="AF44" s="138"/>
       <c r="AG44" s="139"/>
       <c r="AH44" s="75" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AI44" s="146">
         <f>BD39</f>
@@ -9075,14 +8972,14 @@
       </c>
       <c r="AL44" s="14"/>
       <c r="AM44" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AN44" s="14"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
       <c r="AQ44" s="14"/>
       <c r="AR44" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AS44" s="14"/>
       <c r="AT44" s="14"/>
@@ -9123,7 +9020,7 @@
       <c r="AF45" s="138"/>
       <c r="AG45" s="139"/>
       <c r="AH45" s="75" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI45" s="149">
         <f>BE39</f>
@@ -9131,11 +9028,11 @@
       </c>
       <c r="AJ45" s="14"/>
       <c r="AM45" s="150" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AN45" s="150"/>
       <c r="AS45" s="151" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AT45" s="151"/>
       <c r="AU45" s="151"/>
@@ -9230,56 +9127,79 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="AH47:AU47"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AJ36:AS36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AH1:AU1"/>
     <mergeCell ref="AH2:AU2"/>
     <mergeCell ref="S4:S7"/>
@@ -9304,15 +9224,3387 @@
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="N4:N7"/>
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AJ8:AS8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AJ30:AS30"/>
+    <mergeCell ref="AJ31:AS31"/>
+    <mergeCell ref="AJ20:AS20"/>
+    <mergeCell ref="AJ9:AS9"/>
+    <mergeCell ref="AJ10:AS10"/>
+    <mergeCell ref="AJ11:AS11"/>
+    <mergeCell ref="AJ12:AS12"/>
+    <mergeCell ref="AJ13:AS13"/>
+    <mergeCell ref="AJ14:AS14"/>
+    <mergeCell ref="AJ15:AS15"/>
+    <mergeCell ref="AJ16:AS16"/>
+    <mergeCell ref="AJ17:AS17"/>
+    <mergeCell ref="AJ18:AS18"/>
+    <mergeCell ref="AJ19:AS19"/>
+    <mergeCell ref="AJ21:AS21"/>
+    <mergeCell ref="AJ22:AS22"/>
+    <mergeCell ref="AJ23:AS23"/>
+    <mergeCell ref="AJ24:AS24"/>
+    <mergeCell ref="AJ25:AS25"/>
+    <mergeCell ref="AJ26:AS26"/>
+    <mergeCell ref="AJ27:AS27"/>
+    <mergeCell ref="AJ28:AS28"/>
+    <mergeCell ref="AJ29:AS29"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AJ33:AS33"/>
+    <mergeCell ref="AJ34:AS34"/>
+    <mergeCell ref="AJ35:AS35"/>
+    <mergeCell ref="AJ37:AS37"/>
+    <mergeCell ref="AJ38:AS38"/>
+    <mergeCell ref="AH39:AS39"/>
+    <mergeCell ref="AJ32:AS32"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BJ47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="5.42578125" customWidth="1" style="90"/>
+    <col min="2" max="7" bestFit="1" width="2.140625" customWidth="1" style="90"/>
+    <col min="8" max="8" width="2.140625" customWidth="1" style="90"/>
+    <col min="9" max="19" bestFit="1" width="2.140625" customWidth="1" style="90"/>
+    <col min="20" max="20" bestFit="1" width="2.5703125" customWidth="1" style="90"/>
+    <col min="21" max="29" bestFit="1" width="2.140625" customWidth="1" style="90"/>
+    <col min="30" max="30" bestFit="1" width="8.7109375" customWidth="1" style="90"/>
+    <col min="31" max="32" width="7.42578125" customWidth="1" style="90"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1" style="90"/>
+    <col min="34" max="34" width="12.42578125" customWidth="1" style="90"/>
+    <col min="35" max="39" width="8.85546875" customWidth="1" style="90"/>
+    <col min="40" max="40" width="7.42578125" customWidth="1" style="90"/>
+    <col min="41" max="41" hidden="1" width="1.42578125" customWidth="1" style="90"/>
+    <col min="42" max="42" hidden="1" width="10.7109375" customWidth="1" style="90"/>
+    <col min="43" max="43" hidden="1" width="5.28515625" customWidth="1" style="90"/>
+    <col min="44" max="44" width="5.85546875" customWidth="1" style="90"/>
+    <col min="45" max="45" width="3.7109375" customWidth="1" style="90"/>
+    <col min="46" max="46" width="8.85546875" customWidth="1" style="90"/>
+    <col min="47" max="47" width="14.7109375" customWidth="1" style="90"/>
+    <col min="48" max="50" width="8.85546875" customWidth="1" style="90"/>
+    <col min="51" max="51" width="8.85546875" customWidth="1" style="90"/>
+    <col min="52" max="52" bestFit="1" width="10.5703125" customWidth="1" style="90"/>
+    <col min="53" max="53" width="8.85546875" customWidth="1" style="90"/>
+    <col min="54" max="54" bestFit="1" width="10.5703125" customWidth="1" style="90"/>
+    <col min="55" max="16384" width="8.85546875" customWidth="1" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" s="3" customFormat="1">
+      <c r="A1" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="95"/>
+      <c r="AS1" s="95"/>
+      <c r="AT1" s="95"/>
+      <c r="AU1" s="95"/>
+      <c r="AW1" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ1" s="96"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="3" customFormat="1">
+      <c r="A2" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AW2" s="90">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="96"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="3" customFormat="1">
+      <c r="A3" s="99">
+        <v>2</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="BJ3" s="96"/>
+    </row>
+    <row r="4" ht="17.45" customHeight="1" s="3" customFormat="1">
+      <c r="A4" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU4" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ4" s="96"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="107"/>
+      <c r="BJ5" s="96"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="107"/>
+      <c r="BJ6" s="96"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="107"/>
+      <c r="AY7" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB7" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC7" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD7" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE7" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ7" s="96"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A8" s="114">
+        <v>1</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="117">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="117">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="118"/>
+      <c r="AI8" s="118"/>
+      <c r="AJ8" s="118"/>
+      <c r="AK8" s="118"/>
+      <c r="AL8" s="118"/>
+      <c r="AM8" s="118"/>
+      <c r="AN8" s="118"/>
+      <c r="AO8" s="118"/>
+      <c r="AP8" s="118"/>
+      <c r="AQ8" s="118"/>
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="118"/>
+      <c r="AT8" s="119">
+        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="118"/>
+      <c r="AY8" s="90" t="str">
+        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
+      </c>
+      <c r="BB8" s="90">
+        <f>IF( AI8="л", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="90">
+        <f>IF( AI8="пз", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="90">
+        <f>IF( AI8="лр", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="90">
+        <f>IF( AI8="кср", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="96"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A9" s="120">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="122">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="118"/>
+      <c r="AL9" s="118"/>
+      <c r="AM9" s="118"/>
+      <c r="AN9" s="118"/>
+      <c r="AO9" s="118"/>
+      <c r="AP9" s="118"/>
+      <c r="AQ9" s="118"/>
+      <c r="AR9" s="118"/>
+      <c r="AS9" s="118"/>
+      <c r="AT9" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="118"/>
+      <c r="AY9" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB9" s="90">
+        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="90">
+        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="90">
+        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="90">
+        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="96"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A10" s="120">
+        <f ref="A10:A36" t="shared" si="6">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="122">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="118"/>
+      <c r="AM10" s="118"/>
+      <c r="AN10" s="118"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="118"/>
+      <c r="AT10" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="118"/>
+      <c r="AY10" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB10" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC10" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE10" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="96"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A11" s="123">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="126">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="118"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="118"/>
+      <c r="AS11" s="118"/>
+      <c r="AT11" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="118"/>
+      <c r="AY11" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB11" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="96"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A12" s="120">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="118"/>
+      <c r="AI12" s="118"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="118"/>
+      <c r="AL12" s="118"/>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="118"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="118"/>
+      <c r="AQ12" s="118"/>
+      <c r="AR12" s="118"/>
+      <c r="AS12" s="118"/>
+      <c r="AT12" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="118"/>
+      <c r="AY12" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB12" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="96"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A13" s="120">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="118"/>
+      <c r="AN13" s="118"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="118"/>
+      <c r="AY13" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB13" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="96"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A14" s="120">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="118"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="118"/>
+      <c r="AK14" s="118"/>
+      <c r="AL14" s="118"/>
+      <c r="AM14" s="118"/>
+      <c r="AN14" s="118"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="118"/>
+      <c r="AT14" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="118"/>
+      <c r="AY14" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB14" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="96"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A15" s="120">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="122"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="118"/>
+      <c r="AY15" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB15" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="96"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A16" s="120">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="118"/>
+      <c r="AY16" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB16" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="96"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A17" s="120">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="122"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="118"/>
+      <c r="AY17" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB17" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="96"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A18" s="120">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="122"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="118"/>
+      <c r="AY18" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB18" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="96"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A19" s="120">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="122"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="118"/>
+      <c r="AY19" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB19" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="96"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A20" s="120">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="118"/>
+      <c r="AY20" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB20" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="96"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A21" s="120">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
+      <c r="AJ21" s="118"/>
+      <c r="AK21" s="118"/>
+      <c r="AL21" s="118"/>
+      <c r="AM21" s="118"/>
+      <c r="AN21" s="118"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="118"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="118"/>
+      <c r="AY21" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB21" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="96"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A22" s="120">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="122"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="118"/>
+      <c r="AJ22" s="118"/>
+      <c r="AK22" s="118"/>
+      <c r="AL22" s="118"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
+      <c r="AS22" s="118"/>
+      <c r="AT22" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="118"/>
+      <c r="AY22" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB22" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="96"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A23" s="120">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="122"/>
+      <c r="AE23" s="122"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="122"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
+      <c r="AJ23" s="118"/>
+      <c r="AK23" s="118"/>
+      <c r="AL23" s="118"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="118"/>
+      <c r="AQ23" s="118"/>
+      <c r="AR23" s="118"/>
+      <c r="AS23" s="118"/>
+      <c r="AT23" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="118"/>
+      <c r="AY23" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB23" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="96"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A24" s="120">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="118"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="118"/>
+      <c r="AR24" s="118"/>
+      <c r="AS24" s="118"/>
+      <c r="AT24" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="118"/>
+      <c r="AY24" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB24" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="96"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A25" s="120">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="118"/>
+      <c r="AJ25" s="118"/>
+      <c r="AK25" s="118"/>
+      <c r="AL25" s="118"/>
+      <c r="AM25" s="118"/>
+      <c r="AN25" s="118"/>
+      <c r="AO25" s="118"/>
+      <c r="AP25" s="118"/>
+      <c r="AQ25" s="118"/>
+      <c r="AR25" s="118"/>
+      <c r="AS25" s="118"/>
+      <c r="AT25" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="118"/>
+      <c r="AY25" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB25" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="96"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A26" s="120">
+        <f>A25+1</f>
+        <v>19</v>
+      </c>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="122"/>
+      <c r="AG26" s="122"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="118"/>
+      <c r="AL26" s="118"/>
+      <c r="AM26" s="118"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="118"/>
+      <c r="AQ26" s="118"/>
+      <c r="AR26" s="118"/>
+      <c r="AS26" s="118"/>
+      <c r="AT26" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="118"/>
+      <c r="AY26" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB26" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="96"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A27" s="120">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="122"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="118"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="118"/>
+      <c r="AL27" s="118"/>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="118"/>
+      <c r="AP27" s="118"/>
+      <c r="AQ27" s="118"/>
+      <c r="AR27" s="118"/>
+      <c r="AS27" s="118"/>
+      <c r="AT27" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="118"/>
+      <c r="AY27" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB27" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="96"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A28" s="120">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="118"/>
+      <c r="AJ28" s="118"/>
+      <c r="AK28" s="118"/>
+      <c r="AL28" s="118"/>
+      <c r="AM28" s="118"/>
+      <c r="AN28" s="118"/>
+      <c r="AO28" s="118"/>
+      <c r="AP28" s="118"/>
+      <c r="AQ28" s="118"/>
+      <c r="AR28" s="118"/>
+      <c r="AS28" s="118"/>
+      <c r="AT28" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="118"/>
+      <c r="AY28" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB28" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC28" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="96"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A29" s="120">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="118"/>
+      <c r="AK29" s="118"/>
+      <c r="AL29" s="118"/>
+      <c r="AM29" s="118"/>
+      <c r="AN29" s="118"/>
+      <c r="AO29" s="118"/>
+      <c r="AP29" s="118"/>
+      <c r="AQ29" s="118"/>
+      <c r="AR29" s="118"/>
+      <c r="AS29" s="118"/>
+      <c r="AT29" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="118"/>
+      <c r="AY29" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB29" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="96"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A30" s="120">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="118"/>
+      <c r="AI30" s="118"/>
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="118"/>
+      <c r="AL30" s="118"/>
+      <c r="AM30" s="118"/>
+      <c r="AN30" s="118"/>
+      <c r="AO30" s="118"/>
+      <c r="AP30" s="118"/>
+      <c r="AQ30" s="118"/>
+      <c r="AR30" s="118"/>
+      <c r="AS30" s="118"/>
+      <c r="AT30" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="118"/>
+      <c r="AY30" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB30" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC30" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE30" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="96"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A31" s="120">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="118"/>
+      <c r="AI31" s="118"/>
+      <c r="AJ31" s="118"/>
+      <c r="AK31" s="118"/>
+      <c r="AL31" s="118"/>
+      <c r="AM31" s="118"/>
+      <c r="AN31" s="118"/>
+      <c r="AO31" s="118"/>
+      <c r="AP31" s="118"/>
+      <c r="AQ31" s="118"/>
+      <c r="AR31" s="118"/>
+      <c r="AS31" s="118"/>
+      <c r="AT31" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="118"/>
+      <c r="AY31" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB31" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC31" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD31" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE31" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="96"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A32" s="120">
+        <f>A31+1</f>
+        <v>25</v>
+      </c>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="122"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="122"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="118"/>
+      <c r="AO32" s="118"/>
+      <c r="AP32" s="118"/>
+      <c r="AQ32" s="118"/>
+      <c r="AR32" s="118"/>
+      <c r="AS32" s="118"/>
+      <c r="AT32" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU32" s="118"/>
+      <c r="AY32" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB32" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD32" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE32" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="96"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A33" s="120">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="122"/>
+      <c r="AF33" s="122"/>
+      <c r="AG33" s="122"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="118"/>
+      <c r="AN33" s="118"/>
+      <c r="AO33" s="118"/>
+      <c r="AP33" s="118"/>
+      <c r="AQ33" s="118"/>
+      <c r="AR33" s="118"/>
+      <c r="AS33" s="118"/>
+      <c r="AT33" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="118"/>
+      <c r="AY33" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB33" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC33" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE33" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="96"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A34" s="120">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="127"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="122"/>
+      <c r="AH34" s="118"/>
+      <c r="AI34" s="118"/>
+      <c r="AJ34" s="118"/>
+      <c r="AK34" s="118"/>
+      <c r="AL34" s="118"/>
+      <c r="AM34" s="118"/>
+      <c r="AN34" s="118"/>
+      <c r="AO34" s="118"/>
+      <c r="AP34" s="118"/>
+      <c r="AQ34" s="118"/>
+      <c r="AR34" s="118"/>
+      <c r="AS34" s="118"/>
+      <c r="AT34" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU34" s="118"/>
+      <c r="AY34" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB34" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE34" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="96"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A35" s="120">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
+      <c r="Y35" s="121"/>
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="121"/>
+      <c r="AB35" s="121"/>
+      <c r="AC35" s="127"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="122"/>
+      <c r="AF35" s="122"/>
+      <c r="AG35" s="122"/>
+      <c r="AH35" s="118"/>
+      <c r="AI35" s="118"/>
+      <c r="AJ35" s="118"/>
+      <c r="AK35" s="118"/>
+      <c r="AL35" s="118"/>
+      <c r="AM35" s="118"/>
+      <c r="AN35" s="118"/>
+      <c r="AO35" s="118"/>
+      <c r="AP35" s="118"/>
+      <c r="AQ35" s="118"/>
+      <c r="AR35" s="118"/>
+      <c r="AS35" s="118"/>
+      <c r="AT35" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="118"/>
+      <c r="AY35" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB35" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="96"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A36" s="120">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="121"/>
+      <c r="AC36" s="127"/>
+      <c r="AD36" s="122"/>
+      <c r="AE36" s="122"/>
+      <c r="AF36" s="122"/>
+      <c r="AG36" s="122"/>
+      <c r="AH36" s="118"/>
+      <c r="AI36" s="118"/>
+      <c r="AJ36" s="118"/>
+      <c r="AK36" s="118"/>
+      <c r="AL36" s="118"/>
+      <c r="AM36" s="118"/>
+      <c r="AN36" s="118"/>
+      <c r="AO36" s="118"/>
+      <c r="AP36" s="118"/>
+      <c r="AQ36" s="118"/>
+      <c r="AR36" s="118"/>
+      <c r="AS36" s="118"/>
+      <c r="AT36" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="118"/>
+      <c r="AY36" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB36" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="96"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" s="3" customFormat="1">
+      <c r="A37" s="120">
+        <v>30</v>
+      </c>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="121"/>
+      <c r="AC37" s="127"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="122"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="122"/>
+      <c r="AH37" s="118"/>
+      <c r="AI37" s="118"/>
+      <c r="AJ37" s="118"/>
+      <c r="AK37" s="118"/>
+      <c r="AL37" s="118"/>
+      <c r="AM37" s="118"/>
+      <c r="AN37" s="118"/>
+      <c r="AO37" s="118"/>
+      <c r="AP37" s="118"/>
+      <c r="AQ37" s="118"/>
+      <c r="AR37" s="118"/>
+      <c r="AS37" s="118"/>
+      <c r="AT37" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="118"/>
+      <c r="AY37" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB37" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="96"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A38" s="128"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="129"/>
+      <c r="V38" s="129"/>
+      <c r="W38" s="129"/>
+      <c r="X38" s="129"/>
+      <c r="Y38" s="129"/>
+      <c r="Z38" s="129"/>
+      <c r="AA38" s="129"/>
+      <c r="AB38" s="129"/>
+      <c r="AC38" s="130"/>
+      <c r="AD38" s="122"/>
+      <c r="AE38" s="122"/>
+      <c r="AF38" s="122"/>
+      <c r="AG38" s="122"/>
+      <c r="AH38" s="118"/>
+      <c r="AI38" s="118"/>
+      <c r="AJ38" s="118"/>
+      <c r="AK38" s="118"/>
+      <c r="AL38" s="118"/>
+      <c r="AM38" s="118"/>
+      <c r="AN38" s="118"/>
+      <c r="AO38" s="118"/>
+      <c r="AP38" s="118"/>
+      <c r="AQ38" s="118"/>
+      <c r="AR38" s="118"/>
+      <c r="AS38" s="118"/>
+      <c r="AT38" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU38" s="118"/>
+      <c r="AY38" s="90" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB38" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC38" s="90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="96"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" s="3" customFormat="1">
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="131"/>
+      <c r="U39" s="131"/>
+      <c r="V39" s="131"/>
+      <c r="W39" s="131"/>
+      <c r="X39" s="131"/>
+      <c r="Y39" s="131"/>
+      <c r="Z39" s="131"/>
+      <c r="AA39" s="131"/>
+      <c r="AB39" s="131"/>
+      <c r="AC39" s="132"/>
+      <c r="AD39" s="122"/>
+      <c r="AE39" s="122"/>
+      <c r="AF39" s="122"/>
+      <c r="AG39" s="122"/>
+      <c r="AH39" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI39" s="133"/>
+      <c r="AJ39" s="133"/>
+      <c r="AK39" s="133"/>
+      <c r="AL39" s="133"/>
+      <c r="AM39" s="133"/>
+      <c r="AN39" s="133"/>
+      <c r="AO39" s="133"/>
+      <c r="AP39" s="133"/>
+      <c r="AQ39" s="133"/>
+      <c r="AR39" s="133"/>
+      <c r="AS39" s="133"/>
+      <c r="AT39" s="134">
+        <f>SUM(AT8:AT38)</f>
+        <v>0</v>
+      </c>
+      <c r="AU39" s="135"/>
+      <c r="AY39" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ39" s="90" t="e">
+        <f>AVERAGE(AY8:AY38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA39" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB39" s="90">
+        <f>SUM(BB8:BB38)</f>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="90">
+        <f>SUM(BC8:BC38)</f>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="90">
+        <f>SUM(BD8:BD38)</f>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="90">
+        <f>SUM(BE8:BE38)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="96"/>
+    </row>
+    <row r="40" ht="18" customHeight="1" s="3" customFormat="1">
+      <c r="A40" s="131"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="131"/>
+      <c r="V40" s="131"/>
+      <c r="W40" s="131"/>
+      <c r="X40" s="131"/>
+      <c r="Y40" s="131"/>
+      <c r="Z40" s="131"/>
+      <c r="AA40" s="131"/>
+      <c r="AB40" s="131"/>
+      <c r="AC40" s="131"/>
+      <c r="AD40" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE40" s="137"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="139"/>
+      <c r="AH40" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="140">
+        <f>AT39</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="140"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A41" s="131"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="131"/>
+      <c r="S41" s="131"/>
+      <c r="T41" s="131"/>
+      <c r="U41" s="131"/>
+      <c r="V41" s="131"/>
+      <c r="W41" s="131"/>
+      <c r="X41" s="131"/>
+      <c r="Y41" s="131"/>
+      <c r="Z41" s="131"/>
+      <c r="AA41" s="131"/>
+      <c r="AB41" s="131"/>
+      <c r="AC41" s="131"/>
+      <c r="AD41" s="136"/>
+      <c r="AE41" s="137"/>
+      <c r="AF41" s="138"/>
+      <c r="AG41" s="139"/>
+      <c r="AH41" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="141"/>
+      <c r="AK41" s="141"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A42" s="131"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131"/>
+      <c r="R42" s="131"/>
+      <c r="S42" s="131"/>
+      <c r="T42" s="131"/>
+      <c r="U42" s="131"/>
+      <c r="V42" s="131"/>
+      <c r="W42" s="131"/>
+      <c r="X42" s="131"/>
+      <c r="Y42" s="131"/>
+      <c r="Z42" s="131"/>
+      <c r="AA42" s="131"/>
+      <c r="AB42" s="131"/>
+      <c r="AC42" s="131"/>
+      <c r="AD42" s="136"/>
+      <c r="AE42" s="137"/>
+      <c r="AF42" s="138"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI42" s="142">
+        <f>BB39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A43" s="143"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="143"/>
+      <c r="N43" s="143"/>
+      <c r="O43" s="143"/>
+      <c r="P43" s="143"/>
+      <c r="Q43" s="143"/>
+      <c r="R43" s="143"/>
+      <c r="S43" s="143"/>
+      <c r="T43" s="143"/>
+      <c r="U43" s="143"/>
+      <c r="V43" s="143"/>
+      <c r="W43" s="143"/>
+      <c r="X43" s="143"/>
+      <c r="Y43" s="143"/>
+      <c r="Z43" s="143"/>
+      <c r="AA43" s="143"/>
+      <c r="AB43" s="143"/>
+      <c r="AC43" s="143"/>
+      <c r="AD43" s="144" t="e">
+        <f>AZ39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE43" s="145"/>
+      <c r="AF43" s="138"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI43" s="146">
+        <f>BC39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A44" s="147"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="147"/>
+      <c r="R44" s="147"/>
+      <c r="S44" s="147"/>
+      <c r="T44" s="147"/>
+      <c r="U44" s="147"/>
+      <c r="V44" s="147"/>
+      <c r="W44" s="147"/>
+      <c r="X44" s="147"/>
+      <c r="Y44" s="147"/>
+      <c r="Z44" s="147"/>
+      <c r="AA44" s="147"/>
+      <c r="AB44" s="147"/>
+      <c r="AC44" s="147"/>
+      <c r="AD44" s="148"/>
+      <c r="AE44" s="138"/>
+      <c r="AF44" s="138"/>
+      <c r="AG44" s="139"/>
+      <c r="AH44" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI44" s="146">
+        <f>BD39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A45" s="147"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="147"/>
+      <c r="R45" s="147"/>
+      <c r="S45" s="147"/>
+      <c r="T45" s="147"/>
+      <c r="U45" s="147"/>
+      <c r="V45" s="147"/>
+      <c r="W45" s="147"/>
+      <c r="X45" s="147"/>
+      <c r="Y45" s="147"/>
+      <c r="Z45" s="147"/>
+      <c r="AA45" s="147"/>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="147"/>
+      <c r="AD45" s="148"/>
+      <c r="AE45" s="138"/>
+      <c r="AF45" s="138"/>
+      <c r="AG45" s="139"/>
+      <c r="AH45" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI45" s="149">
+        <f>BE39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="14"/>
+      <c r="AM45" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN45" s="150"/>
+      <c r="AS45" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT45" s="151"/>
+      <c r="AU45" s="151"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A46" s="152"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="152"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="152"/>
+      <c r="R46" s="152"/>
+      <c r="S46" s="152"/>
+      <c r="T46" s="152"/>
+      <c r="U46" s="152"/>
+      <c r="V46" s="152"/>
+      <c r="W46" s="152"/>
+      <c r="X46" s="152"/>
+      <c r="Y46" s="152"/>
+      <c r="Z46" s="152"/>
+      <c r="AA46" s="152"/>
+      <c r="AB46" s="152"/>
+      <c r="AC46" s="152"/>
+      <c r="AD46" s="152"/>
+      <c r="AE46" s="152"/>
+      <c r="AF46" s="152"/>
+      <c r="AG46" s="152"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="3" customFormat="1">
+      <c r="A47" s="153">
+        <v>10</v>
+      </c>
+      <c r="B47" s="153"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
+      <c r="N47" s="153"/>
+      <c r="O47" s="153"/>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="153"/>
+      <c r="R47" s="153"/>
+      <c r="S47" s="153"/>
+      <c r="T47" s="153"/>
+      <c r="U47" s="153"/>
+      <c r="V47" s="153"/>
+      <c r="W47" s="153"/>
+      <c r="X47" s="153"/>
+      <c r="Y47" s="153"/>
+      <c r="Z47" s="153"/>
+      <c r="AA47" s="153"/>
+      <c r="AB47" s="153"/>
+      <c r="AC47" s="153"/>
+      <c r="AD47" s="153"/>
+      <c r="AE47" s="153"/>
+      <c r="AF47" s="153"/>
+      <c r="AG47" s="153"/>
+      <c r="AH47" s="154">
+        <v>11</v>
+      </c>
+      <c r="AI47" s="154"/>
+      <c r="AJ47" s="154"/>
+      <c r="AK47" s="154"/>
+      <c r="AL47" s="154"/>
+      <c r="AM47" s="154"/>
+      <c r="AN47" s="154"/>
+      <c r="AO47" s="154"/>
+      <c r="AP47" s="154"/>
+      <c r="AQ47" s="154"/>
+      <c r="AR47" s="154"/>
+      <c r="AS47" s="154"/>
+      <c r="AT47" s="154"/>
+      <c r="AU47" s="154"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="AH47:AU47"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AJ36:AS36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="AF38:AG38"/>
@@ -9337,44 +12629,89 @@
     <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH1:AU1"/>
+    <mergeCell ref="AH2:AU2"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AJ4:AS7"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AD6:AE7"/>
+    <mergeCell ref="AF6:AG7"/>
+    <mergeCell ref="AD4:AG5"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AJ8:AS8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AJ30:AS30"/>
+    <mergeCell ref="AJ31:AS31"/>
+    <mergeCell ref="AJ20:AS20"/>
+    <mergeCell ref="AJ9:AS9"/>
+    <mergeCell ref="AJ10:AS10"/>
+    <mergeCell ref="AJ11:AS11"/>
+    <mergeCell ref="AJ12:AS12"/>
+    <mergeCell ref="AJ13:AS13"/>
+    <mergeCell ref="AJ14:AS14"/>
+    <mergeCell ref="AJ15:AS15"/>
+    <mergeCell ref="AJ16:AS16"/>
+    <mergeCell ref="AJ17:AS17"/>
+    <mergeCell ref="AJ18:AS18"/>
+    <mergeCell ref="AJ19:AS19"/>
+    <mergeCell ref="AJ21:AS21"/>
+    <mergeCell ref="AJ22:AS22"/>
+    <mergeCell ref="AJ23:AS23"/>
+    <mergeCell ref="AJ24:AS24"/>
+    <mergeCell ref="AJ25:AS25"/>
+    <mergeCell ref="AJ26:AS26"/>
+    <mergeCell ref="AJ27:AS27"/>
+    <mergeCell ref="AJ28:AS28"/>
+    <mergeCell ref="AJ29:AS29"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AJ33:AS33"/>
+    <mergeCell ref="AJ34:AS34"/>
+    <mergeCell ref="AJ35:AS35"/>
+    <mergeCell ref="AJ37:AS37"/>
+    <mergeCell ref="AJ38:AS38"/>
+    <mergeCell ref="AH39:AS39"/>
+    <mergeCell ref="AJ32:AS32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
@@ -9383,7 +12720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -9404,12 +12741,12 @@
   <sheetData>
     <row r="1" ht="22.9" customHeight="1" s="3" customFormat="1">
       <c r="A1" s="155" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" s="155"/>
       <c r="C1" s="11"/>
       <c r="D1" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -9421,20 +12758,20 @@
     </row>
     <row r="2" ht="19.9" customHeight="1" s="3" customFormat="1">
       <c r="A2" s="156" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
@@ -10029,47 +13366,23 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E41:E43"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E11:E13"/>
@@ -10086,23 +13399,47 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -230,12 +230,6 @@
     <t>КСР</t>
   </si>
   <si>
-    <t>НБ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Итого часов:</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>Ф.И.О.</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Замечания преподавателей</t>
@@ -6286,9 +6286,7 @@
       <c r="A8" s="114">
         <v>1</v>
       </c>
-      <c r="B8" s="115" t="s">
-        <v>62</v>
-      </c>
+      <c r="B8" s="115"/>
       <c r="C8" s="115"/>
       <c r="D8" s="115"/>
       <c r="E8" s="115"/>
@@ -6321,7 +6319,7 @@
       </c>
       <c r="AE8" s="117"/>
       <c r="AF8" s="117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="117"/>
       <c r="AH8" s="118"/>
@@ -6367,9 +6365,7 @@
         <f>A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
@@ -6448,9 +6444,7 @@
         <f ref="A10:A36" t="shared" si="6">A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>63</v>
-      </c>
+      <c r="B10" s="121"/>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
       <c r="E10" s="121"/>
@@ -6529,9 +6523,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B11" s="124" t="s">
-        <v>63</v>
-      </c>
+      <c r="B11" s="124"/>
       <c r="C11" s="124"/>
       <c r="D11" s="124"/>
       <c r="E11" s="124"/>
@@ -8661,7 +8653,7 @@
       <c r="AF39" s="122"/>
       <c r="AG39" s="122"/>
       <c r="AH39" s="133" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI39" s="133"/>
       <c r="AJ39" s="133"/>
@@ -8680,14 +8672,14 @@
       </c>
       <c r="AU39" s="135"/>
       <c r="AY39" s="90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AZ39" s="90" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BB39" s="90">
         <f>SUM(BB8:BB38)</f>
@@ -8738,13 +8730,13 @@
       <c r="AB40" s="131"/>
       <c r="AC40" s="131"/>
       <c r="AD40" s="136" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AE40" s="137"/>
       <c r="AF40" s="138"/>
       <c r="AG40" s="139"/>
       <c r="AH40" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="140">
@@ -8798,7 +8790,7 @@
       <c r="AF41" s="138"/>
       <c r="AG41" s="139"/>
       <c r="AH41" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="141"/>
@@ -8849,7 +8841,7 @@
       <c r="AF42" s="138"/>
       <c r="AG42" s="139"/>
       <c r="AH42" s="75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AI42" s="142">
         <f>BB39</f>
@@ -8906,7 +8898,7 @@
       <c r="AF43" s="138"/>
       <c r="AG43" s="139"/>
       <c r="AH43" s="75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI43" s="146">
         <f>BC39</f>
@@ -8960,7 +8952,7 @@
       <c r="AF44" s="138"/>
       <c r="AG44" s="139"/>
       <c r="AH44" s="75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AI44" s="146">
         <f>BD39</f>
@@ -8972,14 +8964,14 @@
       </c>
       <c r="AL44" s="14"/>
       <c r="AM44" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN44" s="14"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
       <c r="AQ44" s="14"/>
       <c r="AR44" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS44" s="14"/>
       <c r="AT44" s="14"/>
@@ -9020,7 +9012,7 @@
       <c r="AF45" s="138"/>
       <c r="AG45" s="139"/>
       <c r="AH45" s="75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI45" s="149">
         <f>BE39</f>
@@ -9028,11 +9020,11 @@
       </c>
       <c r="AJ45" s="14"/>
       <c r="AM45" s="150" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN45" s="150"/>
       <c r="AS45" s="151" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AT45" s="151"/>
       <c r="AU45" s="151"/>
@@ -9725,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="115"/>
       <c r="D8" s="115"/>
@@ -9755,7 +9747,7 @@
       <c r="AB8" s="115"/>
       <c r="AC8" s="116"/>
       <c r="AD8" s="117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="117"/>
       <c r="AF8" s="117">
@@ -9806,7 +9798,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
@@ -9887,7 +9879,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="121" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
@@ -9968,7 +9960,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C11" s="124"/>
       <c r="D11" s="124"/>
@@ -10002,7 +9994,7 @@
       </c>
       <c r="AE11" s="126"/>
       <c r="AF11" s="126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="126"/>
       <c r="AH11" s="118"/>
@@ -12099,7 +12091,7 @@
       <c r="AF39" s="122"/>
       <c r="AG39" s="122"/>
       <c r="AH39" s="133" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI39" s="133"/>
       <c r="AJ39" s="133"/>
@@ -12118,14 +12110,14 @@
       </c>
       <c r="AU39" s="135"/>
       <c r="AY39" s="90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AZ39" s="90" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BB39" s="90">
         <f>SUM(BB8:BB38)</f>
@@ -12176,13 +12168,13 @@
       <c r="AB40" s="131"/>
       <c r="AC40" s="131"/>
       <c r="AD40" s="136" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AE40" s="137"/>
       <c r="AF40" s="138"/>
       <c r="AG40" s="139"/>
       <c r="AH40" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="140">
@@ -12236,7 +12228,7 @@
       <c r="AF41" s="138"/>
       <c r="AG41" s="139"/>
       <c r="AH41" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="141"/>
@@ -12287,7 +12279,7 @@
       <c r="AF42" s="138"/>
       <c r="AG42" s="139"/>
       <c r="AH42" s="75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AI42" s="142">
         <f>BB39</f>
@@ -12344,7 +12336,7 @@
       <c r="AF43" s="138"/>
       <c r="AG43" s="139"/>
       <c r="AH43" s="75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI43" s="146">
         <f>BC39</f>
@@ -12398,7 +12390,7 @@
       <c r="AF44" s="138"/>
       <c r="AG44" s="139"/>
       <c r="AH44" s="75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AI44" s="146">
         <f>BD39</f>
@@ -12410,14 +12402,14 @@
       </c>
       <c r="AL44" s="14"/>
       <c r="AM44" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN44" s="14"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
       <c r="AQ44" s="14"/>
       <c r="AR44" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS44" s="14"/>
       <c r="AT44" s="14"/>
@@ -12458,7 +12450,7 @@
       <c r="AF45" s="138"/>
       <c r="AG45" s="139"/>
       <c r="AH45" s="75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI45" s="149">
         <f>BE39</f>
@@ -12466,11 +12458,11 @@
       </c>
       <c r="AJ45" s="14"/>
       <c r="AM45" s="150" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN45" s="150"/>
       <c r="AS45" s="151" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AT45" s="151"/>
       <c r="AU45" s="151"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -7,22 +7,18 @@
   <sheets>
     <sheet name="Начало" sheetId="1" r:id="rId1"/>
     <sheet name="Высшая математика Cеместр №1" sheetId="2" r:id="rId3"/>
-    <sheet name="Программирование Cеместр №1" sheetId="3" r:id="rId4"/>
-    <sheet name="Философия Cеместр №1" sheetId="4" r:id="rId5"/>
-    <sheet name="Конец" sheetId="5" r:id="rId6"/>
+    <sheet name="Конец" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика Cеместр №1'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Программирование Cеместр №1'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Философия Cеместр №1'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Конец!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Конец!$A$1:$K$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Министерство образования и науки РФ</t>
   </si>
@@ -99,22 +95,22 @@
     <t>Подпись препода-вателя</t>
   </si>
   <si>
-    <t>Дроздова М. Г.</t>
+    <t>Дроздов Михаил Григорьевич</t>
   </si>
   <si>
     <t>Особая метка Особая отметка 2</t>
   </si>
   <si>
-    <t>Кузьмин К. А.</t>
+    <t>Кузьмин Николай Петрович</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Нечаева М. И.</t>
+    <t>Нечаева Марина Игоревна</t>
   </si>
   <si>
-    <t>Пирогова А. Я.</t>
+    <t>Пирогова Анастасия Яковлева</t>
   </si>
   <si>
     <t xml:space="preserve">Нарушения </t>
@@ -132,7 +128,7 @@
     <t>учебный год</t>
   </si>
   <si>
-    <t>Очное</t>
+    <t>очная</t>
   </si>
   <si>
     <t>форма обучения</t>
@@ -220,6 +216,9 @@
     </r>
   </si>
   <si>
+    <t>03.09.2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
   </si>
   <si>
@@ -257,6 +256,18 @@
   </si>
   <si>
     <t>КСР</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>лр</t>
+  </si>
+  <si>
+    <t>Вводная</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -299,12 +310,6 @@
   </si>
   <si>
     <t>Ф.И.О.</t>
-  </si>
-  <si>
-    <t>Программирование</t>
-  </si>
-  <si>
-    <t>Философия</t>
   </si>
   <si>
     <t>Замечания преподавателей</t>
@@ -3563,13 +3568,13 @@
     </row>
     <row r="21" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A21" s="48">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="49">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>35</v>
@@ -7436,7 +7441,9 @@
       <c r="A4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="89" t="s">
+        <v>58</v>
+      </c>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
@@ -7465,19 +7472,19 @@
       <c r="AB4" s="90"/>
       <c r="AC4" s="91"/>
       <c r="AD4" s="92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE4" s="92"/>
       <c r="AF4" s="92"/>
       <c r="AG4" s="92"/>
       <c r="AH4" s="92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI4" s="92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ4" s="92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" s="92"/>
       <c r="AL4" s="92"/>
@@ -7489,10 +7496,10 @@
       <c r="AR4" s="92"/>
       <c r="AS4" s="92"/>
       <c r="AT4" s="93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU4" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BJ4" s="80"/>
     </row>
@@ -7577,11 +7584,11 @@
       <c r="AB6" s="89"/>
       <c r="AC6" s="94"/>
       <c r="AD6" s="95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE6" s="95"/>
       <c r="AF6" s="95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG6" s="95"/>
       <c r="AH6" s="92"/>
@@ -7649,19 +7656,19 @@
       <c r="AT7" s="93"/>
       <c r="AU7" s="92"/>
       <c r="AY7" s="76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BB7" s="76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BC7" s="76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BD7" s="76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BE7" s="76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BJ7" s="80"/>
     </row>
@@ -7669,7 +7676,9 @@
       <c r="A8" s="99">
         <v>1</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="100" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="100"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
@@ -7698,16 +7707,22 @@
       <c r="AB8" s="100"/>
       <c r="AC8" s="101"/>
       <c r="AD8" s="102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="102"/>
       <c r="AF8" s="102">
         <v>0</v>
       </c>
       <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
+      <c r="AH8" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI8" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="103" t="s">
+        <v>74</v>
+      </c>
       <c r="AK8" s="103"/>
       <c r="AL8" s="103"/>
       <c r="AM8" s="103"/>
@@ -7718,8 +7733,7 @@
       <c r="AR8" s="103"/>
       <c r="AS8" s="103"/>
       <c r="AT8" s="104">
-        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" s="103"/>
       <c r="AY8" s="76" t="str">
@@ -7748,7 +7762,9 @@
         <f>A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="106"/>
+      <c r="B9" s="106" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="106"/>
       <c r="D9" s="106"/>
       <c r="E9" s="106"/>
@@ -7797,7 +7813,7 @@
       <c r="AR9" s="103"/>
       <c r="AS9" s="103"/>
       <c r="AT9" s="104">
-        <f t="shared" si="0"/>
+        <f ref="AT9:AT38" t="shared" si="0">IF(AJ9="",0,$AW$2)</f>
         <v>0</v>
       </c>
       <c r="AU9" s="103"/>
@@ -7827,7 +7843,9 @@
         <f ref="A10:A36" t="shared" si="6">A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="106"/>
+      <c r="B10" s="106" t="s">
+        <v>75</v>
+      </c>
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
@@ -7906,7 +7924,9 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="109" t="s">
+        <v>75</v>
+      </c>
       <c r="C11" s="109"/>
       <c r="D11" s="109"/>
       <c r="E11" s="109"/>
@@ -10036,7 +10056,7 @@
       <c r="AF39" s="107"/>
       <c r="AG39" s="107"/>
       <c r="AH39" s="118" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AI39" s="118"/>
       <c r="AJ39" s="118"/>
@@ -10055,14 +10075,14 @@
       </c>
       <c r="AU39" s="120"/>
       <c r="AY39" s="76" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AZ39" s="76" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="76" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="BB39" s="76">
         <f>SUM(BB8:BB38)</f>
@@ -10113,13 +10133,13 @@
       <c r="AB40" s="116"/>
       <c r="AC40" s="116"/>
       <c r="AD40" s="121" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AE40" s="122"/>
       <c r="AF40" s="123"/>
       <c r="AG40" s="124"/>
       <c r="AH40" s="87" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI40" s="87"/>
       <c r="AJ40" s="125">
@@ -10173,7 +10193,7 @@
       <c r="AF41" s="123"/>
       <c r="AG41" s="124"/>
       <c r="AH41" s="87" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI41" s="87"/>
       <c r="AJ41" s="126"/>
@@ -10224,7 +10244,7 @@
       <c r="AF42" s="123"/>
       <c r="AG42" s="124"/>
       <c r="AH42" s="127" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI42" s="128">
         <f>BB39</f>
@@ -10281,7 +10301,7 @@
       <c r="AF43" s="123"/>
       <c r="AG43" s="124"/>
       <c r="AH43" s="127" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AI43" s="132">
         <f>BC39</f>
@@ -10335,7 +10355,7 @@
       <c r="AF44" s="123"/>
       <c r="AG44" s="124"/>
       <c r="AH44" s="127" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AI44" s="132">
         <f>BD39</f>
@@ -10347,14 +10367,14 @@
       </c>
       <c r="AL44" s="87"/>
       <c r="AM44" s="87" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN44" s="87"/>
       <c r="AO44" s="87"/>
       <c r="AP44" s="87"/>
       <c r="AQ44" s="87"/>
       <c r="AR44" s="87" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AS44" s="87"/>
       <c r="AT44" s="87"/>
@@ -10395,7 +10415,7 @@
       <c r="AF45" s="123"/>
       <c r="AG45" s="124"/>
       <c r="AH45" s="127" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI45" s="135">
         <f>BE39</f>
@@ -10403,11 +10423,11 @@
       </c>
       <c r="AJ45" s="87"/>
       <c r="AM45" s="136" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AN45" s="136"/>
       <c r="AS45" s="137" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AT45" s="137"/>
       <c r="AU45" s="137"/>
@@ -10658,6866 +10678,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ47"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="5.44140625" customWidth="1" style="76"/>
-    <col min="2" max="7" bestFit="1" width="2.109375" customWidth="1" style="76"/>
-    <col min="8" max="8" width="2.109375" customWidth="1" style="76"/>
-    <col min="9" max="19" bestFit="1" width="2.109375" customWidth="1" style="76"/>
-    <col min="20" max="20" bestFit="1" width="2.5546875" customWidth="1" style="76"/>
-    <col min="21" max="29" bestFit="1" width="2.109375" customWidth="1" style="76"/>
-    <col min="30" max="30" bestFit="1" width="8.6640625" customWidth="1" style="76"/>
-    <col min="31" max="32" width="7.44140625" customWidth="1" style="76"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1" style="76"/>
-    <col min="34" max="34" width="12.44140625" customWidth="1" style="76"/>
-    <col min="35" max="39" width="8.88671875" customWidth="1" style="76"/>
-    <col min="40" max="40" width="7.44140625" customWidth="1" style="76"/>
-    <col min="41" max="41" hidden="1" width="1.44140625" customWidth="1" style="76"/>
-    <col min="42" max="42" hidden="1" width="10.6640625" customWidth="1" style="76"/>
-    <col min="43" max="43" hidden="1" width="5.33203125" customWidth="1" style="76"/>
-    <col min="44" max="44" width="5.88671875" customWidth="1" style="76"/>
-    <col min="45" max="45" width="3.6640625" customWidth="1" style="76"/>
-    <col min="46" max="46" width="8.88671875" customWidth="1" style="76"/>
-    <col min="47" max="47" width="14.6640625" customWidth="1" style="76"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1" style="76"/>
-    <col min="51" max="51" width="8.88671875" customWidth="1" style="76"/>
-    <col min="52" max="52" bestFit="1" width="10.5546875" customWidth="1" style="76"/>
-    <col min="53" max="53" width="8.88671875" customWidth="1" style="76"/>
-    <col min="54" max="54" bestFit="1" width="10.5546875" customWidth="1" style="76"/>
-    <col min="55" max="16384" width="8.88671875" customWidth="1" style="76"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A1" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AW1" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ1" s="80"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A2" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AW2" s="76">
-        <v>2</v>
-      </c>
-      <c r="BJ2" s="80"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A3" s="83">
-        <v>1</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="87"/>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="87"/>
-      <c r="BJ3" s="80"/>
-    </row>
-    <row r="4" ht="17.4" customHeight="1" s="77" customFormat="1">
-      <c r="A4" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI4" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ4" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU4" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ4" s="80"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="92"/>
-      <c r="BJ5" s="80"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="92"/>
-      <c r="BJ6" s="80"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="92"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="92"/>
-      <c r="AY7" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB7" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC7" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD7" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ7" s="80"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A8" s="99">
-        <v>1</v>
-      </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="104">
-        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="103"/>
-      <c r="AY8" s="76" t="str">
-        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
-      </c>
-      <c r="BB8" s="76">
-        <f>IF( AI8="л", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="76">
-        <f>IF( AI8="пз", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="76">
-        <f>IF( AI8="лр", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="76">
-        <f>IF( AI8="кср", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="80"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A9" s="105">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="107">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="103"/>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="103"/>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="103"/>
-      <c r="AY9" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB9" s="76">
-        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="76">
-        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="76">
-        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="76">
-        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="80"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A10" s="105">
-        <f ref="A10:A36" t="shared" si="6">A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="107">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="103"/>
-      <c r="AY10" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB10" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="80"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A11" s="108">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="111">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="103"/>
-      <c r="AY11" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB11" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="80"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A12" s="105">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="103"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="103"/>
-      <c r="AO12" s="103"/>
-      <c r="AP12" s="103"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="103"/>
-      <c r="AS12" s="103"/>
-      <c r="AT12" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="103"/>
-      <c r="AY12" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB12" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD12" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="80"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A13" s="105">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU13" s="103"/>
-      <c r="AY13" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB13" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD13" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="80"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A14" s="105">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="112"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="103"/>
-      <c r="AO14" s="103"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="103"/>
-      <c r="AY14" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB14" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="80"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A15" s="105">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="112"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="103"/>
-      <c r="AY15" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB15" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="80"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A16" s="105">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="112"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="103"/>
-      <c r="AY16" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB16" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="80"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A17" s="105">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="103"/>
-      <c r="AY17" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB17" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="80"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A18" s="105">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="103"/>
-      <c r="AM18" s="103"/>
-      <c r="AN18" s="103"/>
-      <c r="AO18" s="103"/>
-      <c r="AP18" s="103"/>
-      <c r="AQ18" s="103"/>
-      <c r="AR18" s="103"/>
-      <c r="AS18" s="103"/>
-      <c r="AT18" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="103"/>
-      <c r="AY18" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB18" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="80"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A19" s="105">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="103"/>
-      <c r="AY19" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB19" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC19" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD19" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="80"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A20" s="105">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="112"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="103"/>
-      <c r="AO20" s="103"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="103"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="103"/>
-      <c r="AY20" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB20" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD20" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="80"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A21" s="105">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="112"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="103"/>
-      <c r="AY21" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB21" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE21" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="80"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A22" s="105">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="112"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="103"/>
-      <c r="AY22" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB22" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="80"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A23" s="105">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="112"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="107"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="103"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103"/>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="103"/>
-      <c r="AY23" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB23" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE23" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="80"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A24" s="105">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="112"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="103"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="103"/>
-      <c r="AO24" s="103"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="103"/>
-      <c r="AT24" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="103"/>
-      <c r="AY24" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB24" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="80"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A25" s="105">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="103"/>
-      <c r="AM25" s="103"/>
-      <c r="AN25" s="103"/>
-      <c r="AO25" s="103"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="103"/>
-      <c r="AY25" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB25" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="80"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A26" s="105">
-        <f>A25+1</f>
-        <v>19</v>
-      </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="103"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="103"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="103"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="103"/>
-      <c r="AY26" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB26" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD26" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="80"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A27" s="105">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="107"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="103"/>
-      <c r="AY27" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB27" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="80"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A28" s="105">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="107"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="103"/>
-      <c r="AK28" s="103"/>
-      <c r="AL28" s="103"/>
-      <c r="AM28" s="103"/>
-      <c r="AN28" s="103"/>
-      <c r="AO28" s="103"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="103"/>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="103"/>
-      <c r="AY28" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB28" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD28" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="80"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A29" s="105">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="103"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="103"/>
-      <c r="AO29" s="103"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="103"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU29" s="103"/>
-      <c r="AY29" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB29" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC29" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD29" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="80"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A30" s="105">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="103"/>
-      <c r="AL30" s="103"/>
-      <c r="AM30" s="103"/>
-      <c r="AN30" s="103"/>
-      <c r="AO30" s="103"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="103"/>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="103"/>
-      <c r="AT30" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="103"/>
-      <c r="AY30" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB30" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD30" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="80"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A31" s="105">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="107"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="103"/>
-      <c r="AJ31" s="103"/>
-      <c r="AK31" s="103"/>
-      <c r="AL31" s="103"/>
-      <c r="AM31" s="103"/>
-      <c r="AN31" s="103"/>
-      <c r="AO31" s="103"/>
-      <c r="AP31" s="103"/>
-      <c r="AQ31" s="103"/>
-      <c r="AR31" s="103"/>
-      <c r="AS31" s="103"/>
-      <c r="AT31" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="103"/>
-      <c r="AY31" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB31" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC31" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD31" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="80"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A32" s="105">
-        <f>A31+1</f>
-        <v>25</v>
-      </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="107"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="103"/>
-      <c r="AJ32" s="103"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="103"/>
-      <c r="AO32" s="103"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="103"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU32" s="103"/>
-      <c r="AY32" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB32" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD32" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="80"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A33" s="105">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="103"/>
-      <c r="AJ33" s="103"/>
-      <c r="AK33" s="103"/>
-      <c r="AL33" s="103"/>
-      <c r="AM33" s="103"/>
-      <c r="AN33" s="103"/>
-      <c r="AO33" s="103"/>
-      <c r="AP33" s="103"/>
-      <c r="AQ33" s="103"/>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU33" s="103"/>
-      <c r="AY33" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB33" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD33" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="80"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A34" s="105">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="103"/>
-      <c r="AJ34" s="103"/>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="103"/>
-      <c r="AO34" s="103"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="103"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="103"/>
-      <c r="AT34" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="103"/>
-      <c r="AY34" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB34" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD34" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="80"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A35" s="105">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="103"/>
-      <c r="AI35" s="103"/>
-      <c r="AJ35" s="103"/>
-      <c r="AK35" s="103"/>
-      <c r="AL35" s="103"/>
-      <c r="AM35" s="103"/>
-      <c r="AN35" s="103"/>
-      <c r="AO35" s="103"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="103"/>
-      <c r="AR35" s="103"/>
-      <c r="AS35" s="103"/>
-      <c r="AT35" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="103"/>
-      <c r="AY35" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB35" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="80"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A36" s="105">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="112"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="103"/>
-      <c r="AJ36" s="103"/>
-      <c r="AK36" s="103"/>
-      <c r="AL36" s="103"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="103"/>
-      <c r="AO36" s="103"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="103"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="103"/>
-      <c r="AT36" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="103"/>
-      <c r="AY36" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB36" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="80"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A37" s="105">
-        <v>30</v>
-      </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="106"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="112"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="103"/>
-      <c r="AI37" s="103"/>
-      <c r="AJ37" s="103"/>
-      <c r="AK37" s="103"/>
-      <c r="AL37" s="103"/>
-      <c r="AM37" s="103"/>
-      <c r="AN37" s="103"/>
-      <c r="AO37" s="103"/>
-      <c r="AP37" s="103"/>
-      <c r="AQ37" s="103"/>
-      <c r="AR37" s="103"/>
-      <c r="AS37" s="103"/>
-      <c r="AT37" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="103"/>
-      <c r="AY37" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB37" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="80"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A38" s="113"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="114"/>
-      <c r="AA38" s="114"/>
-      <c r="AB38" s="114"/>
-      <c r="AC38" s="115"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="103"/>
-      <c r="AI38" s="103"/>
-      <c r="AJ38" s="103"/>
-      <c r="AK38" s="103"/>
-      <c r="AL38" s="103"/>
-      <c r="AM38" s="103"/>
-      <c r="AN38" s="103"/>
-      <c r="AO38" s="103"/>
-      <c r="AP38" s="103"/>
-      <c r="AQ38" s="103"/>
-      <c r="AR38" s="103"/>
-      <c r="AS38" s="103"/>
-      <c r="AT38" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="103"/>
-      <c r="AY38" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB38" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC38" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD38" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="80"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="116"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-      <c r="AG39" s="107"/>
-      <c r="AH39" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI39" s="118"/>
-      <c r="AJ39" s="118"/>
-      <c r="AK39" s="118"/>
-      <c r="AL39" s="118"/>
-      <c r="AM39" s="118"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="118"/>
-      <c r="AP39" s="118"/>
-      <c r="AQ39" s="118"/>
-      <c r="AR39" s="118"/>
-      <c r="AS39" s="118"/>
-      <c r="AT39" s="119">
-        <f>SUM(AT8:AT38)</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="120"/>
-      <c r="AY39" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ39" s="76" t="e">
-        <f>AVERAGE(AY8:AY38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA39" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB39" s="76">
-        <f>SUM(BB8:BB38)</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="76">
-        <f>SUM(BC8:BC38)</f>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="76">
-        <f>SUM(BD8:BD38)</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="76">
-        <f>SUM(BE8:BE38)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="80"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE40" s="122"/>
-      <c r="AF40" s="123"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="125">
-        <f>AT39</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="125"/>
-      <c r="AL40" s="87"/>
-      <c r="AM40" s="87"/>
-      <c r="AN40" s="87"/>
-      <c r="AO40" s="87"/>
-      <c r="AP40" s="87"/>
-      <c r="AQ40" s="87"/>
-      <c r="AR40" s="87"/>
-      <c r="AS40" s="87"/>
-      <c r="AT40" s="87"/>
-      <c r="AU40" s="87"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="116"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="116"/>
-      <c r="AD41" s="121"/>
-      <c r="AE41" s="122"/>
-      <c r="AF41" s="123"/>
-      <c r="AG41" s="124"/>
-      <c r="AH41" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI41" s="87"/>
-      <c r="AJ41" s="126"/>
-      <c r="AK41" s="126"/>
-      <c r="AL41" s="87"/>
-      <c r="AM41" s="87"/>
-      <c r="AN41" s="87"/>
-      <c r="AO41" s="87"/>
-      <c r="AP41" s="87"/>
-      <c r="AQ41" s="87"/>
-      <c r="AR41" s="87"/>
-      <c r="AS41" s="87"/>
-      <c r="AT41" s="87"/>
-      <c r="AU41" s="87"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="116"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="121"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="123"/>
-      <c r="AG42" s="124"/>
-      <c r="AH42" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI42" s="128">
-        <f>BB39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="87"/>
-      <c r="AK42" s="87"/>
-      <c r="AL42" s="87"/>
-      <c r="AM42" s="87"/>
-      <c r="AN42" s="87"/>
-      <c r="AO42" s="87"/>
-      <c r="AP42" s="87"/>
-      <c r="AQ42" s="87"/>
-      <c r="AR42" s="87"/>
-      <c r="AS42" s="87"/>
-      <c r="AT42" s="87"/>
-      <c r="AU42" s="87"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A43" s="129"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
-      <c r="Y43" s="129"/>
-      <c r="Z43" s="129"/>
-      <c r="AA43" s="129"/>
-      <c r="AB43" s="129"/>
-      <c r="AC43" s="129"/>
-      <c r="AD43" s="130" t="e">
-        <f>AZ39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43" s="131"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="127" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI43" s="132">
-        <f>BC39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="87"/>
-      <c r="AK43" s="87"/>
-      <c r="AL43" s="87"/>
-      <c r="AM43" s="87"/>
-      <c r="AN43" s="87"/>
-      <c r="AO43" s="87"/>
-      <c r="AP43" s="87"/>
-      <c r="AQ43" s="87"/>
-      <c r="AR43" s="87"/>
-      <c r="AS43" s="87"/>
-      <c r="AT43" s="87"/>
-      <c r="AU43" s="87"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133"/>
-      <c r="P44" s="133"/>
-      <c r="Q44" s="133"/>
-      <c r="R44" s="133"/>
-      <c r="S44" s="133"/>
-      <c r="T44" s="133"/>
-      <c r="U44" s="133"/>
-      <c r="V44" s="133"/>
-      <c r="W44" s="133"/>
-      <c r="X44" s="133"/>
-      <c r="Y44" s="133"/>
-      <c r="Z44" s="133"/>
-      <c r="AA44" s="133"/>
-      <c r="AB44" s="133"/>
-      <c r="AC44" s="133"/>
-      <c r="AD44" s="134"/>
-      <c r="AE44" s="123"/>
-      <c r="AF44" s="123"/>
-      <c r="AG44" s="124"/>
-      <c r="AH44" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI44" s="132">
-        <f>BD39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="87"/>
-      <c r="AK44" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL44" s="87"/>
-      <c r="AM44" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN44" s="87"/>
-      <c r="AO44" s="87"/>
-      <c r="AP44" s="87"/>
-      <c r="AQ44" s="87"/>
-      <c r="AR44" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS44" s="87"/>
-      <c r="AT44" s="87"/>
-      <c r="AU44" s="87"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A45" s="133"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="133"/>
-      <c r="U45" s="133"/>
-      <c r="V45" s="133"/>
-      <c r="W45" s="133"/>
-      <c r="X45" s="133"/>
-      <c r="Y45" s="133"/>
-      <c r="Z45" s="133"/>
-      <c r="AA45" s="133"/>
-      <c r="AB45" s="133"/>
-      <c r="AC45" s="133"/>
-      <c r="AD45" s="134"/>
-      <c r="AE45" s="123"/>
-      <c r="AF45" s="123"/>
-      <c r="AG45" s="124"/>
-      <c r="AH45" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI45" s="135">
-        <f>BE39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="87"/>
-      <c r="AM45" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN45" s="136"/>
-      <c r="AS45" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT45" s="137"/>
-      <c r="AU45" s="137"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A46" s="138"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="138"/>
-      <c r="V46" s="138"/>
-      <c r="W46" s="138"/>
-      <c r="X46" s="138"/>
-      <c r="Y46" s="138"/>
-      <c r="Z46" s="138"/>
-      <c r="AA46" s="138"/>
-      <c r="AB46" s="138"/>
-      <c r="AC46" s="138"/>
-      <c r="AD46" s="138"/>
-      <c r="AE46" s="138"/>
-      <c r="AF46" s="138"/>
-      <c r="AG46" s="138"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A47" s="139">
-        <v>10</v>
-      </c>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="139"/>
-      <c r="P47" s="139"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="139"/>
-      <c r="S47" s="139"/>
-      <c r="T47" s="139"/>
-      <c r="U47" s="139"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="139"/>
-      <c r="X47" s="139"/>
-      <c r="Y47" s="139"/>
-      <c r="Z47" s="139"/>
-      <c r="AA47" s="139"/>
-      <c r="AB47" s="139"/>
-      <c r="AC47" s="139"/>
-      <c r="AD47" s="139"/>
-      <c r="AE47" s="139"/>
-      <c r="AF47" s="139"/>
-      <c r="AG47" s="139"/>
-      <c r="AH47" s="140">
-        <v>11</v>
-      </c>
-      <c r="AI47" s="140"/>
-      <c r="AJ47" s="140"/>
-      <c r="AK47" s="140"/>
-      <c r="AL47" s="140"/>
-      <c r="AM47" s="140"/>
-      <c r="AN47" s="140"/>
-      <c r="AO47" s="140"/>
-      <c r="AP47" s="140"/>
-      <c r="AQ47" s="140"/>
-      <c r="AR47" s="140"/>
-      <c r="AS47" s="140"/>
-      <c r="AT47" s="140"/>
-      <c r="AU47" s="140"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AJ4:AS7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AD4:AG5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ47"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="5.44140625" customWidth="1" style="76"/>
-    <col min="2" max="7" bestFit="1" width="2.109375" customWidth="1" style="76"/>
-    <col min="8" max="8" width="2.109375" customWidth="1" style="76"/>
-    <col min="9" max="19" bestFit="1" width="2.109375" customWidth="1" style="76"/>
-    <col min="20" max="20" bestFit="1" width="2.5546875" customWidth="1" style="76"/>
-    <col min="21" max="29" bestFit="1" width="2.109375" customWidth="1" style="76"/>
-    <col min="30" max="30" bestFit="1" width="8.6640625" customWidth="1" style="76"/>
-    <col min="31" max="32" width="7.44140625" customWidth="1" style="76"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1" style="76"/>
-    <col min="34" max="34" width="12.44140625" customWidth="1" style="76"/>
-    <col min="35" max="39" width="8.88671875" customWidth="1" style="76"/>
-    <col min="40" max="40" width="7.44140625" customWidth="1" style="76"/>
-    <col min="41" max="41" hidden="1" width="1.44140625" customWidth="1" style="76"/>
-    <col min="42" max="42" hidden="1" width="10.6640625" customWidth="1" style="76"/>
-    <col min="43" max="43" hidden="1" width="5.33203125" customWidth="1" style="76"/>
-    <col min="44" max="44" width="5.88671875" customWidth="1" style="76"/>
-    <col min="45" max="45" width="3.6640625" customWidth="1" style="76"/>
-    <col min="46" max="46" width="8.88671875" customWidth="1" style="76"/>
-    <col min="47" max="47" width="14.6640625" customWidth="1" style="76"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1" style="76"/>
-    <col min="51" max="51" width="8.88671875" customWidth="1" style="76"/>
-    <col min="52" max="52" bestFit="1" width="10.5546875" customWidth="1" style="76"/>
-    <col min="53" max="53" width="8.88671875" customWidth="1" style="76"/>
-    <col min="54" max="54" bestFit="1" width="10.5546875" customWidth="1" style="76"/>
-    <col min="55" max="16384" width="8.88671875" customWidth="1" style="76"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A1" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AW1" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ1" s="80"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A2" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AW2" s="76">
-        <v>2</v>
-      </c>
-      <c r="BJ2" s="80"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A3" s="83">
-        <v>1</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="87"/>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="87"/>
-      <c r="BJ3" s="80"/>
-    </row>
-    <row r="4" ht="17.4" customHeight="1" s="77" customFormat="1">
-      <c r="A4" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI4" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ4" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU4" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ4" s="80"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="92"/>
-      <c r="BJ5" s="80"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="92"/>
-      <c r="BJ6" s="80"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="92"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="92"/>
-      <c r="AY7" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB7" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC7" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD7" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ7" s="80"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A8" s="99">
-        <v>1</v>
-      </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="102">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="104">
-        <f ref="AT8:AT38" t="shared" si="0">IF( AJ8 ="", 0, $AW$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="103"/>
-      <c r="AY8" s="76" t="str">
-        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
-      </c>
-      <c r="BB8" s="76">
-        <f>IF( AI8="л", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="76">
-        <f>IF( AI8="пз", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="76">
-        <f>IF( AI8="лр", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="76">
-        <f>IF( AI8="кср", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="80"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A9" s="105">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="107">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="103"/>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="103"/>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="103"/>
-      <c r="AY9" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB9" s="76">
-        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="76">
-        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="76">
-        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="76">
-        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="80"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A10" s="105">
-        <f ref="A10:A36" t="shared" si="6">A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="107">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="103"/>
-      <c r="AY10" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB10" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="80"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A11" s="108">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="111">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="103"/>
-      <c r="AY11" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB11" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="80"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A12" s="105">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="103"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="103"/>
-      <c r="AO12" s="103"/>
-      <c r="AP12" s="103"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="103"/>
-      <c r="AS12" s="103"/>
-      <c r="AT12" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="103"/>
-      <c r="AY12" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB12" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD12" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="80"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A13" s="105">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU13" s="103"/>
-      <c r="AY13" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB13" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD13" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="80"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A14" s="105">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="112"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="103"/>
-      <c r="AO14" s="103"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="103"/>
-      <c r="AY14" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB14" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="80"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A15" s="105">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="112"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="103"/>
-      <c r="AY15" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB15" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="80"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A16" s="105">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="112"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="103"/>
-      <c r="AY16" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB16" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="80"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A17" s="105">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="103"/>
-      <c r="AY17" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB17" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="80"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A18" s="105">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="103"/>
-      <c r="AM18" s="103"/>
-      <c r="AN18" s="103"/>
-      <c r="AO18" s="103"/>
-      <c r="AP18" s="103"/>
-      <c r="AQ18" s="103"/>
-      <c r="AR18" s="103"/>
-      <c r="AS18" s="103"/>
-      <c r="AT18" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="103"/>
-      <c r="AY18" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB18" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="80"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A19" s="105">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="103"/>
-      <c r="AY19" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB19" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC19" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD19" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="80"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A20" s="105">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="112"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="103"/>
-      <c r="AO20" s="103"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="103"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="103"/>
-      <c r="AY20" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB20" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD20" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="80"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A21" s="105">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="112"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="103"/>
-      <c r="AY21" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB21" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE21" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="80"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A22" s="105">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="112"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="103"/>
-      <c r="AY22" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB22" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="80"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A23" s="105">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="112"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="107"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="103"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103"/>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="103"/>
-      <c r="AY23" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB23" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE23" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="80"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A24" s="105">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="112"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="103"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="103"/>
-      <c r="AO24" s="103"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="103"/>
-      <c r="AT24" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="103"/>
-      <c r="AY24" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB24" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="80"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A25" s="105">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="103"/>
-      <c r="AM25" s="103"/>
-      <c r="AN25" s="103"/>
-      <c r="AO25" s="103"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="103"/>
-      <c r="AY25" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB25" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="80"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A26" s="105">
-        <f>A25+1</f>
-        <v>19</v>
-      </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="103"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="103"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="103"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="103"/>
-      <c r="AY26" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB26" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD26" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="80"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A27" s="105">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="107"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="103"/>
-      <c r="AY27" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB27" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="80"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A28" s="105">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="107"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="103"/>
-      <c r="AK28" s="103"/>
-      <c r="AL28" s="103"/>
-      <c r="AM28" s="103"/>
-      <c r="AN28" s="103"/>
-      <c r="AO28" s="103"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="103"/>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="103"/>
-      <c r="AY28" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB28" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD28" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="80"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A29" s="105">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="103"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="103"/>
-      <c r="AO29" s="103"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="103"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU29" s="103"/>
-      <c r="AY29" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB29" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC29" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD29" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="80"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A30" s="105">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="103"/>
-      <c r="AL30" s="103"/>
-      <c r="AM30" s="103"/>
-      <c r="AN30" s="103"/>
-      <c r="AO30" s="103"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="103"/>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="103"/>
-      <c r="AT30" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="103"/>
-      <c r="AY30" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB30" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD30" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="80"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A31" s="105">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="107"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="103"/>
-      <c r="AJ31" s="103"/>
-      <c r="AK31" s="103"/>
-      <c r="AL31" s="103"/>
-      <c r="AM31" s="103"/>
-      <c r="AN31" s="103"/>
-      <c r="AO31" s="103"/>
-      <c r="AP31" s="103"/>
-      <c r="AQ31" s="103"/>
-      <c r="AR31" s="103"/>
-      <c r="AS31" s="103"/>
-      <c r="AT31" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="103"/>
-      <c r="AY31" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB31" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC31" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD31" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="80"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A32" s="105">
-        <f>A31+1</f>
-        <v>25</v>
-      </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="107"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="103"/>
-      <c r="AJ32" s="103"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="103"/>
-      <c r="AO32" s="103"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="103"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU32" s="103"/>
-      <c r="AY32" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB32" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD32" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="80"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A33" s="105">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="103"/>
-      <c r="AJ33" s="103"/>
-      <c r="AK33" s="103"/>
-      <c r="AL33" s="103"/>
-      <c r="AM33" s="103"/>
-      <c r="AN33" s="103"/>
-      <c r="AO33" s="103"/>
-      <c r="AP33" s="103"/>
-      <c r="AQ33" s="103"/>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU33" s="103"/>
-      <c r="AY33" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB33" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD33" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="80"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A34" s="105">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="103"/>
-      <c r="AJ34" s="103"/>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="103"/>
-      <c r="AO34" s="103"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="103"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="103"/>
-      <c r="AT34" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="103"/>
-      <c r="AY34" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB34" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD34" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="80"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A35" s="105">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="103"/>
-      <c r="AI35" s="103"/>
-      <c r="AJ35" s="103"/>
-      <c r="AK35" s="103"/>
-      <c r="AL35" s="103"/>
-      <c r="AM35" s="103"/>
-      <c r="AN35" s="103"/>
-      <c r="AO35" s="103"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="103"/>
-      <c r="AR35" s="103"/>
-      <c r="AS35" s="103"/>
-      <c r="AT35" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="103"/>
-      <c r="AY35" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB35" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="80"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A36" s="105">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="112"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="103"/>
-      <c r="AJ36" s="103"/>
-      <c r="AK36" s="103"/>
-      <c r="AL36" s="103"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="103"/>
-      <c r="AO36" s="103"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="103"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="103"/>
-      <c r="AT36" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="103"/>
-      <c r="AY36" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB36" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="80"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A37" s="105">
-        <v>30</v>
-      </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="106"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="112"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="103"/>
-      <c r="AI37" s="103"/>
-      <c r="AJ37" s="103"/>
-      <c r="AK37" s="103"/>
-      <c r="AL37" s="103"/>
-      <c r="AM37" s="103"/>
-      <c r="AN37" s="103"/>
-      <c r="AO37" s="103"/>
-      <c r="AP37" s="103"/>
-      <c r="AQ37" s="103"/>
-      <c r="AR37" s="103"/>
-      <c r="AS37" s="103"/>
-      <c r="AT37" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="103"/>
-      <c r="AY37" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB37" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="80"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A38" s="113"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="114"/>
-      <c r="AA38" s="114"/>
-      <c r="AB38" s="114"/>
-      <c r="AC38" s="115"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="103"/>
-      <c r="AI38" s="103"/>
-      <c r="AJ38" s="103"/>
-      <c r="AK38" s="103"/>
-      <c r="AL38" s="103"/>
-      <c r="AM38" s="103"/>
-      <c r="AN38" s="103"/>
-      <c r="AO38" s="103"/>
-      <c r="AP38" s="103"/>
-      <c r="AQ38" s="103"/>
-      <c r="AR38" s="103"/>
-      <c r="AS38" s="103"/>
-      <c r="AT38" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="103"/>
-      <c r="AY38" s="76" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB38" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC38" s="76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD38" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="80"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="116"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-      <c r="AG39" s="107"/>
-      <c r="AH39" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI39" s="118"/>
-      <c r="AJ39" s="118"/>
-      <c r="AK39" s="118"/>
-      <c r="AL39" s="118"/>
-      <c r="AM39" s="118"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="118"/>
-      <c r="AP39" s="118"/>
-      <c r="AQ39" s="118"/>
-      <c r="AR39" s="118"/>
-      <c r="AS39" s="118"/>
-      <c r="AT39" s="119">
-        <f>SUM(AT8:AT38)</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="120"/>
-      <c r="AY39" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ39" s="76" t="e">
-        <f>AVERAGE(AY8:AY38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA39" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB39" s="76">
-        <f>SUM(BB8:BB38)</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="76">
-        <f>SUM(BC8:BC38)</f>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="76">
-        <f>SUM(BD8:BD38)</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="76">
-        <f>SUM(BE8:BE38)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="80"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" s="77" customFormat="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE40" s="122"/>
-      <c r="AF40" s="123"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="125">
-        <f>AT39</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="125"/>
-      <c r="AL40" s="87"/>
-      <c r="AM40" s="87"/>
-      <c r="AN40" s="87"/>
-      <c r="AO40" s="87"/>
-      <c r="AP40" s="87"/>
-      <c r="AQ40" s="87"/>
-      <c r="AR40" s="87"/>
-      <c r="AS40" s="87"/>
-      <c r="AT40" s="87"/>
-      <c r="AU40" s="87"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="116"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="116"/>
-      <c r="AD41" s="121"/>
-      <c r="AE41" s="122"/>
-      <c r="AF41" s="123"/>
-      <c r="AG41" s="124"/>
-      <c r="AH41" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI41" s="87"/>
-      <c r="AJ41" s="126"/>
-      <c r="AK41" s="126"/>
-      <c r="AL41" s="87"/>
-      <c r="AM41" s="87"/>
-      <c r="AN41" s="87"/>
-      <c r="AO41" s="87"/>
-      <c r="AP41" s="87"/>
-      <c r="AQ41" s="87"/>
-      <c r="AR41" s="87"/>
-      <c r="AS41" s="87"/>
-      <c r="AT41" s="87"/>
-      <c r="AU41" s="87"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="116"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="121"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="123"/>
-      <c r="AG42" s="124"/>
-      <c r="AH42" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI42" s="128">
-        <f>BB39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="87"/>
-      <c r="AK42" s="87"/>
-      <c r="AL42" s="87"/>
-      <c r="AM42" s="87"/>
-      <c r="AN42" s="87"/>
-      <c r="AO42" s="87"/>
-      <c r="AP42" s="87"/>
-      <c r="AQ42" s="87"/>
-      <c r="AR42" s="87"/>
-      <c r="AS42" s="87"/>
-      <c r="AT42" s="87"/>
-      <c r="AU42" s="87"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A43" s="129"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
-      <c r="Y43" s="129"/>
-      <c r="Z43" s="129"/>
-      <c r="AA43" s="129"/>
-      <c r="AB43" s="129"/>
-      <c r="AC43" s="129"/>
-      <c r="AD43" s="130" t="e">
-        <f>AZ39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43" s="131"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="127" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI43" s="132">
-        <f>BC39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="87"/>
-      <c r="AK43" s="87"/>
-      <c r="AL43" s="87"/>
-      <c r="AM43" s="87"/>
-      <c r="AN43" s="87"/>
-      <c r="AO43" s="87"/>
-      <c r="AP43" s="87"/>
-      <c r="AQ43" s="87"/>
-      <c r="AR43" s="87"/>
-      <c r="AS43" s="87"/>
-      <c r="AT43" s="87"/>
-      <c r="AU43" s="87"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133"/>
-      <c r="P44" s="133"/>
-      <c r="Q44" s="133"/>
-      <c r="R44" s="133"/>
-      <c r="S44" s="133"/>
-      <c r="T44" s="133"/>
-      <c r="U44" s="133"/>
-      <c r="V44" s="133"/>
-      <c r="W44" s="133"/>
-      <c r="X44" s="133"/>
-      <c r="Y44" s="133"/>
-      <c r="Z44" s="133"/>
-      <c r="AA44" s="133"/>
-      <c r="AB44" s="133"/>
-      <c r="AC44" s="133"/>
-      <c r="AD44" s="134"/>
-      <c r="AE44" s="123"/>
-      <c r="AF44" s="123"/>
-      <c r="AG44" s="124"/>
-      <c r="AH44" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI44" s="132">
-        <f>BD39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="87"/>
-      <c r="AK44" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL44" s="87"/>
-      <c r="AM44" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN44" s="87"/>
-      <c r="AO44" s="87"/>
-      <c r="AP44" s="87"/>
-      <c r="AQ44" s="87"/>
-      <c r="AR44" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS44" s="87"/>
-      <c r="AT44" s="87"/>
-      <c r="AU44" s="87"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A45" s="133"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="133"/>
-      <c r="U45" s="133"/>
-      <c r="V45" s="133"/>
-      <c r="W45" s="133"/>
-      <c r="X45" s="133"/>
-      <c r="Y45" s="133"/>
-      <c r="Z45" s="133"/>
-      <c r="AA45" s="133"/>
-      <c r="AB45" s="133"/>
-      <c r="AC45" s="133"/>
-      <c r="AD45" s="134"/>
-      <c r="AE45" s="123"/>
-      <c r="AF45" s="123"/>
-      <c r="AG45" s="124"/>
-      <c r="AH45" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI45" s="135">
-        <f>BE39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="87"/>
-      <c r="AM45" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN45" s="136"/>
-      <c r="AS45" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT45" s="137"/>
-      <c r="AU45" s="137"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A46" s="138"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="138"/>
-      <c r="V46" s="138"/>
-      <c r="W46" s="138"/>
-      <c r="X46" s="138"/>
-      <c r="Y46" s="138"/>
-      <c r="Z46" s="138"/>
-      <c r="AA46" s="138"/>
-      <c r="AB46" s="138"/>
-      <c r="AC46" s="138"/>
-      <c r="AD46" s="138"/>
-      <c r="AE46" s="138"/>
-      <c r="AF46" s="138"/>
-      <c r="AG46" s="138"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="77" customFormat="1">
-      <c r="A47" s="139">
-        <v>12</v>
-      </c>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="139"/>
-      <c r="P47" s="139"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="139"/>
-      <c r="S47" s="139"/>
-      <c r="T47" s="139"/>
-      <c r="U47" s="139"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="139"/>
-      <c r="X47" s="139"/>
-      <c r="Y47" s="139"/>
-      <c r="Z47" s="139"/>
-      <c r="AA47" s="139"/>
-      <c r="AB47" s="139"/>
-      <c r="AC47" s="139"/>
-      <c r="AD47" s="139"/>
-      <c r="AE47" s="139"/>
-      <c r="AF47" s="139"/>
-      <c r="AG47" s="139"/>
-      <c r="AH47" s="140">
-        <v>13</v>
-      </c>
-      <c r="AI47" s="140"/>
-      <c r="AJ47" s="140"/>
-      <c r="AK47" s="140"/>
-      <c r="AL47" s="140"/>
-      <c r="AM47" s="140"/>
-      <c r="AN47" s="140"/>
-      <c r="AO47" s="140"/>
-      <c r="AP47" s="140"/>
-      <c r="AQ47" s="140"/>
-      <c r="AR47" s="140"/>
-      <c r="AS47" s="140"/>
-      <c r="AT47" s="140"/>
-      <c r="AU47" s="140"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AJ4:AS7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AD4:AG5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D13F6-67BB-466D-AEC8-8E09EA45C017}">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -17543,56 +10703,56 @@
   <sheetData>
     <row r="1" ht="22.95" customHeight="1" s="5" customFormat="1">
       <c r="A1" s="141" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="14"/>
       <c r="D1" s="141" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="141"/>
       <c r="F1" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" ht="19.95" customHeight="1" s="5" customFormat="1">
       <c r="A2" s="142" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="142" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="142" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" s="5" customFormat="1">

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Министерство образования и науки РФ</t>
   </si>
@@ -332,6 +332,27 @@
   <si>
     <t>Подпись декана факультета (зам. декана по учебной работе)</t>
   </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>solution 1</t>
+  </si>
+  <si>
+    <t>Семестр 2</t>
+  </si>
+  <si>
+    <t>06.02.2021</t>
+  </si>
+  <si>
+    <t>Ошибок не обнаружено</t>
+  </si>
+  <si>
+    <t>10.02.2021</t>
+  </si>
+  <si>
+    <t>Проверка 2</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -566,14 +587,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1289,20 +1302,20 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="32" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="32" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1329,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D85535-87E3-468A-826C-34903E37DA01}">
   <dimension ref="A1:CN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J39"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6194,6 +6207,996 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="BY1:CI1"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="BH2:BH7"/>
+    <mergeCell ref="BI2:BX2"/>
+    <mergeCell ref="BY2:CN2"/>
+    <mergeCell ref="P3:AK4"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:G4"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BR1:BX1"/>
+    <mergeCell ref="AL3:BG4"/>
+    <mergeCell ref="BI3:BJ5"/>
+    <mergeCell ref="BK3:BL5"/>
+    <mergeCell ref="BM3:BN5"/>
+    <mergeCell ref="CM3:CN5"/>
+    <mergeCell ref="A4:D9"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="CA3:CB5"/>
+    <mergeCell ref="CC3:CD5"/>
+    <mergeCell ref="CE3:CF5"/>
+    <mergeCell ref="CG3:CH5"/>
+    <mergeCell ref="CI3:CJ5"/>
+    <mergeCell ref="CK3:CL5"/>
+    <mergeCell ref="BO3:BP5"/>
+    <mergeCell ref="BQ3:BR5"/>
+    <mergeCell ref="BS3:BT5"/>
+    <mergeCell ref="BU3:BV5"/>
+    <mergeCell ref="BW3:BX5"/>
+    <mergeCell ref="BY3:BZ5"/>
+    <mergeCell ref="BT6:BT7"/>
+    <mergeCell ref="BU6:BU7"/>
+    <mergeCell ref="BV6:BV7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:BE6"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:AI6"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="CI6:CI7"/>
+    <mergeCell ref="CJ6:CJ7"/>
+    <mergeCell ref="CK6:CK7"/>
+    <mergeCell ref="CL6:CL7"/>
+    <mergeCell ref="CM6:CM7"/>
+    <mergeCell ref="CN6:CN7"/>
+    <mergeCell ref="CC6:CC7"/>
+    <mergeCell ref="CD6:CD7"/>
+    <mergeCell ref="CE6:CE7"/>
+    <mergeCell ref="CF6:CF7"/>
+    <mergeCell ref="CG6:CG7"/>
+    <mergeCell ref="CH6:CH7"/>
+    <mergeCell ref="BW6:BW7"/>
+    <mergeCell ref="BX6:BX7"/>
+    <mergeCell ref="BY6:BY7"/>
+    <mergeCell ref="BZ6:BZ7"/>
+    <mergeCell ref="CA6:CA7"/>
+    <mergeCell ref="CB6:CB7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BS6:BS7"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="A10:D14"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BA10:BA11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="BC10:BC11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AU10:AU11"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="BG12:BG13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="BA12:BA13"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AV14:AV15"/>
+    <mergeCell ref="AW14:AW15"/>
+    <mergeCell ref="AX14:AX15"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="BF14:BF15"/>
+    <mergeCell ref="BG14:BG15"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="AZ14:AZ15"/>
+    <mergeCell ref="BA14:BA15"/>
+    <mergeCell ref="BB14:BB15"/>
+    <mergeCell ref="BC14:BC15"/>
+    <mergeCell ref="BD14:BD15"/>
+    <mergeCell ref="BE14:BE15"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BF16:BF17"/>
+    <mergeCell ref="BG16:BG17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="BF18:BF19"/>
+    <mergeCell ref="BG18:BG19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AR20:AR21"/>
+    <mergeCell ref="AS20:AS21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="BF20:BF21"/>
+    <mergeCell ref="BG20:BG21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="AZ20:AZ21"/>
+    <mergeCell ref="BA20:BA21"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="BC20:BC21"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="AV20:AV21"/>
+    <mergeCell ref="AW20:AW21"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AQ20:AQ21"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="BB22:BB23"/>
+    <mergeCell ref="BC22:BC23"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="BF22:BF23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AW22:AW23"/>
+    <mergeCell ref="AX22:AX23"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="BD24:BD25"/>
+    <mergeCell ref="BE24:BE25"/>
+    <mergeCell ref="BF24:BF25"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="AX24:AX25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="AZ24:AZ25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="BB24:BB25"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="AR24:AR25"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AN24:AN25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="BD26:BD27"/>
+    <mergeCell ref="BE26:BE27"/>
+    <mergeCell ref="BF26:BF27"/>
+    <mergeCell ref="BG26:BG27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="AX26:AX27"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="AZ26:AZ27"/>
+    <mergeCell ref="BA26:BA27"/>
+    <mergeCell ref="BB26:BB27"/>
+    <mergeCell ref="BC26:BC27"/>
+    <mergeCell ref="AR26:AR27"/>
+    <mergeCell ref="AS26:AS27"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AU26:AU27"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="AW26:AW27"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AM26:AM27"/>
+    <mergeCell ref="AN26:AN27"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AQ26:AQ27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AM28:AM29"/>
+    <mergeCell ref="AN28:AN29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="BG28:BG29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="BA28:BA29"/>
+    <mergeCell ref="BB28:BB29"/>
+    <mergeCell ref="BC28:BC29"/>
+    <mergeCell ref="BD28:BD29"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="BF28:BF29"/>
+    <mergeCell ref="AU28:AU29"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="AW28:AW29"/>
+    <mergeCell ref="AX28:AX29"/>
+    <mergeCell ref="AY28:AY29"/>
+    <mergeCell ref="AZ28:AZ29"/>
+    <mergeCell ref="AO28:AO29"/>
+    <mergeCell ref="AP28:AP29"/>
+    <mergeCell ref="AQ28:AQ29"/>
+    <mergeCell ref="AR28:AR29"/>
+    <mergeCell ref="AS28:AS29"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="BE30:BE31"/>
+    <mergeCell ref="BF30:BF31"/>
+    <mergeCell ref="BG30:BG31"/>
+    <mergeCell ref="A31:D36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AZ30:AZ31"/>
+    <mergeCell ref="BA30:BA31"/>
+    <mergeCell ref="BB30:BB31"/>
+    <mergeCell ref="BC30:BC31"/>
+    <mergeCell ref="BD30:BD31"/>
+    <mergeCell ref="AS30:AS31"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AU30:AU31"/>
+    <mergeCell ref="AV30:AV31"/>
+    <mergeCell ref="AW30:AW31"/>
+    <mergeCell ref="AX30:AX31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="AQ30:AQ31"/>
+    <mergeCell ref="AR30:AR31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AM32:AM33"/>
+    <mergeCell ref="AN32:AN33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="BG32:BG33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="BA32:BA33"/>
+    <mergeCell ref="BB32:BB33"/>
+    <mergeCell ref="BC32:BC33"/>
+    <mergeCell ref="BD32:BD33"/>
+    <mergeCell ref="BE32:BE33"/>
+    <mergeCell ref="BF32:BF33"/>
+    <mergeCell ref="AU32:AU33"/>
+    <mergeCell ref="AV32:AV33"/>
+    <mergeCell ref="AW32:AW33"/>
+    <mergeCell ref="AX32:AX33"/>
+    <mergeCell ref="AY32:AY33"/>
+    <mergeCell ref="AZ32:AZ33"/>
+    <mergeCell ref="AO32:AO33"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AQ32:AQ33"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AS32:AS33"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AM34:AM35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="BF34:BF35"/>
+    <mergeCell ref="BG34:BG35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="AZ34:AZ35"/>
+    <mergeCell ref="BA34:BA35"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="BC34:BC35"/>
+    <mergeCell ref="BD34:BD35"/>
+    <mergeCell ref="BE34:BE35"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AW34:AW35"/>
+    <mergeCell ref="AX34:AX35"/>
+    <mergeCell ref="AY34:AY35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AS34:AS35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="BE36:BE37"/>
+    <mergeCell ref="BF36:BF37"/>
+    <mergeCell ref="BG36:BG37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="AY36:AY37"/>
+    <mergeCell ref="AZ36:AZ37"/>
+    <mergeCell ref="BA36:BA37"/>
+    <mergeCell ref="BB36:BB37"/>
+    <mergeCell ref="BC36:BC37"/>
+    <mergeCell ref="BD36:BD37"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AV36:AV37"/>
+    <mergeCell ref="AW36:AW37"/>
+    <mergeCell ref="AX36:AX37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AN36:AN37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="BD38:BD39"/>
+    <mergeCell ref="BE38:BE39"/>
+    <mergeCell ref="BF38:BF39"/>
+    <mergeCell ref="BG38:BG39"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="AX38:AX39"/>
+    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="AZ38:AZ39"/>
+    <mergeCell ref="BA38:BA39"/>
+    <mergeCell ref="BB38:BB39"/>
+    <mergeCell ref="BC38:BC39"/>
+    <mergeCell ref="AR38:AR39"/>
+    <mergeCell ref="AS38:AS39"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AV38:AV39"/>
+    <mergeCell ref="AW38:AW39"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AM38:AM39"/>
+    <mergeCell ref="AN38:AN39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AH40:AH41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="AV40:AV41"/>
+    <mergeCell ref="AW40:AW41"/>
+    <mergeCell ref="AX40:AX41"/>
+    <mergeCell ref="AY40:AY41"/>
+    <mergeCell ref="AZ40:AZ41"/>
+    <mergeCell ref="AO40:AO41"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="AQ40:AQ41"/>
+    <mergeCell ref="AR40:AR41"/>
+    <mergeCell ref="AS40:AS41"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AI40:AI41"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AK40:AK41"/>
+    <mergeCell ref="AL40:AL41"/>
+    <mergeCell ref="AM40:AM41"/>
+    <mergeCell ref="AN40:AN41"/>
     <mergeCell ref="AL47:BG47"/>
     <mergeCell ref="BH47:BX47"/>
     <mergeCell ref="BY47:CN47"/>
@@ -6226,996 +7229,6 @@
     <mergeCell ref="BE40:BE41"/>
     <mergeCell ref="BF40:BF41"/>
     <mergeCell ref="AU40:AU41"/>
-    <mergeCell ref="AV40:AV41"/>
-    <mergeCell ref="AW40:AW41"/>
-    <mergeCell ref="AX40:AX41"/>
-    <mergeCell ref="AY40:AY41"/>
-    <mergeCell ref="AZ40:AZ41"/>
-    <mergeCell ref="AO40:AO41"/>
-    <mergeCell ref="AP40:AP41"/>
-    <mergeCell ref="AQ40:AQ41"/>
-    <mergeCell ref="AR40:AR41"/>
-    <mergeCell ref="AS40:AS41"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AI40:AI41"/>
-    <mergeCell ref="AJ40:AJ41"/>
-    <mergeCell ref="AK40:AK41"/>
-    <mergeCell ref="AL40:AL41"/>
-    <mergeCell ref="AM40:AM41"/>
-    <mergeCell ref="AN40:AN41"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AF40:AF41"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AH40:AH41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="BD38:BD39"/>
-    <mergeCell ref="BE38:BE39"/>
-    <mergeCell ref="BF38:BF39"/>
-    <mergeCell ref="BG38:BG39"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="AX38:AX39"/>
-    <mergeCell ref="AY38:AY39"/>
-    <mergeCell ref="AZ38:AZ39"/>
-    <mergeCell ref="BA38:BA39"/>
-    <mergeCell ref="BB38:BB39"/>
-    <mergeCell ref="BC38:BC39"/>
-    <mergeCell ref="AR38:AR39"/>
-    <mergeCell ref="AS38:AS39"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AV38:AV39"/>
-    <mergeCell ref="AW38:AW39"/>
-    <mergeCell ref="AL38:AL39"/>
-    <mergeCell ref="AM38:AM39"/>
-    <mergeCell ref="AN38:AN39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AH38:AH39"/>
-    <mergeCell ref="AI38:AI39"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="BE36:BE37"/>
-    <mergeCell ref="BF36:BF37"/>
-    <mergeCell ref="BG36:BG37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="AY36:AY37"/>
-    <mergeCell ref="AZ36:AZ37"/>
-    <mergeCell ref="BA36:BA37"/>
-    <mergeCell ref="BB36:BB37"/>
-    <mergeCell ref="BC36:BC37"/>
-    <mergeCell ref="BD36:BD37"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AV36:AV37"/>
-    <mergeCell ref="AW36:AW37"/>
-    <mergeCell ref="AX36:AX37"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AN36:AN37"/>
-    <mergeCell ref="AO36:AO37"/>
-    <mergeCell ref="AP36:AP37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AH36:AH37"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="BF34:BF35"/>
-    <mergeCell ref="BG34:BG35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="AZ34:AZ35"/>
-    <mergeCell ref="BA34:BA35"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="BC34:BC35"/>
-    <mergeCell ref="BD34:BD35"/>
-    <mergeCell ref="BE34:BE35"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AW34:AW35"/>
-    <mergeCell ref="AX34:AX35"/>
-    <mergeCell ref="AY34:AY35"/>
-    <mergeCell ref="AN34:AN35"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AS34:AS35"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AM34:AM35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="BG32:BG33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="BA32:BA33"/>
-    <mergeCell ref="BB32:BB33"/>
-    <mergeCell ref="BC32:BC33"/>
-    <mergeCell ref="BD32:BD33"/>
-    <mergeCell ref="BE32:BE33"/>
-    <mergeCell ref="BF32:BF33"/>
-    <mergeCell ref="AU32:AU33"/>
-    <mergeCell ref="AV32:AV33"/>
-    <mergeCell ref="AW32:AW33"/>
-    <mergeCell ref="AX32:AX33"/>
-    <mergeCell ref="AY32:AY33"/>
-    <mergeCell ref="AZ32:AZ33"/>
-    <mergeCell ref="AO32:AO33"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AQ32:AQ33"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AS32:AS33"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="AM32:AM33"/>
-    <mergeCell ref="AN32:AN33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="BE30:BE31"/>
-    <mergeCell ref="BF30:BF31"/>
-    <mergeCell ref="BG30:BG31"/>
-    <mergeCell ref="A31:D36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AZ30:AZ31"/>
-    <mergeCell ref="BA30:BA31"/>
-    <mergeCell ref="BB30:BB31"/>
-    <mergeCell ref="BC30:BC31"/>
-    <mergeCell ref="BD30:BD31"/>
-    <mergeCell ref="AS30:AS31"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AU30:AU31"/>
-    <mergeCell ref="AV30:AV31"/>
-    <mergeCell ref="AW30:AW31"/>
-    <mergeCell ref="AX30:AX31"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AQ30:AQ31"/>
-    <mergeCell ref="AR30:AR31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="BG28:BG29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="BA28:BA29"/>
-    <mergeCell ref="BB28:BB29"/>
-    <mergeCell ref="BC28:BC29"/>
-    <mergeCell ref="BD28:BD29"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="BF28:BF29"/>
-    <mergeCell ref="AU28:AU29"/>
-    <mergeCell ref="AV28:AV29"/>
-    <mergeCell ref="AW28:AW29"/>
-    <mergeCell ref="AX28:AX29"/>
-    <mergeCell ref="AY28:AY29"/>
-    <mergeCell ref="AZ28:AZ29"/>
-    <mergeCell ref="AO28:AO29"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="AQ28:AQ29"/>
-    <mergeCell ref="AR28:AR29"/>
-    <mergeCell ref="AS28:AS29"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="AI28:AI29"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="AL28:AL29"/>
-    <mergeCell ref="AM28:AM29"/>
-    <mergeCell ref="AN28:AN29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="BD26:BD27"/>
-    <mergeCell ref="BE26:BE27"/>
-    <mergeCell ref="BF26:BF27"/>
-    <mergeCell ref="BG26:BG27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="AX26:AX27"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="AZ26:AZ27"/>
-    <mergeCell ref="BA26:BA27"/>
-    <mergeCell ref="BB26:BB27"/>
-    <mergeCell ref="BC26:BC27"/>
-    <mergeCell ref="AR26:AR27"/>
-    <mergeCell ref="AS26:AS27"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AU26:AU27"/>
-    <mergeCell ref="AV26:AV27"/>
-    <mergeCell ref="AW26:AW27"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AM26:AM27"/>
-    <mergeCell ref="AN26:AN27"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AQ26:AQ27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="BD24:BD25"/>
-    <mergeCell ref="BE24:BE25"/>
-    <mergeCell ref="BF24:BF25"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="AX24:AX25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="AZ24:AZ25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="BB24:BB25"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="AR24:AR25"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AN24:AN25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="BB22:BB23"/>
-    <mergeCell ref="BC22:BC23"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BF22:BF23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AW22:AW23"/>
-    <mergeCell ref="AX22:AX23"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AM22:AM23"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="BF20:BF21"/>
-    <mergeCell ref="BG20:BG21"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="AZ20:AZ21"/>
-    <mergeCell ref="BA20:BA21"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="BC20:BC21"/>
-    <mergeCell ref="BD20:BD21"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="AV20:AV21"/>
-    <mergeCell ref="AW20:AW21"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AO20:AO21"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="AQ20:AQ21"/>
-    <mergeCell ref="AR20:AR21"/>
-    <mergeCell ref="AS20:AS21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="BF18:BF19"/>
-    <mergeCell ref="BG18:BG19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="AX18:AX19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BF16:BF17"/>
-    <mergeCell ref="BG16:BG17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="BF14:BF15"/>
-    <mergeCell ref="BG14:BG15"/>
-    <mergeCell ref="A15:D17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="AZ14:AZ15"/>
-    <mergeCell ref="BA14:BA15"/>
-    <mergeCell ref="BB14:BB15"/>
-    <mergeCell ref="BC14:BC15"/>
-    <mergeCell ref="BD14:BD15"/>
-    <mergeCell ref="BE14:BE15"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AV14:AV15"/>
-    <mergeCell ref="AW14:AW15"/>
-    <mergeCell ref="AX14:AX15"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="BG12:BG13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="BA12:BA13"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="BD10:BD11"/>
-    <mergeCell ref="BE10:BE11"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BG10:BG11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BA10:BA11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="BC10:BC11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AU10:AU11"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="A10:D14"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="CI6:CI7"/>
-    <mergeCell ref="CJ6:CJ7"/>
-    <mergeCell ref="CK6:CK7"/>
-    <mergeCell ref="CL6:CL7"/>
-    <mergeCell ref="CM6:CM7"/>
-    <mergeCell ref="CN6:CN7"/>
-    <mergeCell ref="CC6:CC7"/>
-    <mergeCell ref="CD6:CD7"/>
-    <mergeCell ref="CE6:CE7"/>
-    <mergeCell ref="CF6:CF7"/>
-    <mergeCell ref="CG6:CG7"/>
-    <mergeCell ref="CH6:CH7"/>
-    <mergeCell ref="BW6:BW7"/>
-    <mergeCell ref="BX6:BX7"/>
-    <mergeCell ref="BY6:BY7"/>
-    <mergeCell ref="BZ6:BZ7"/>
-    <mergeCell ref="CA6:CA7"/>
-    <mergeCell ref="CB6:CB7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BS6:BS7"/>
-    <mergeCell ref="BT6:BT7"/>
-    <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="BV6:BV7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:BE6"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:AI6"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="CM3:CN5"/>
-    <mergeCell ref="A4:D9"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="CA3:CB5"/>
-    <mergeCell ref="CC3:CD5"/>
-    <mergeCell ref="CE3:CF5"/>
-    <mergeCell ref="CG3:CH5"/>
-    <mergeCell ref="CI3:CJ5"/>
-    <mergeCell ref="CK3:CL5"/>
-    <mergeCell ref="BO3:BP5"/>
-    <mergeCell ref="BQ3:BR5"/>
-    <mergeCell ref="BS3:BT5"/>
-    <mergeCell ref="BU3:BV5"/>
-    <mergeCell ref="BW3:BX5"/>
-    <mergeCell ref="BY3:BZ5"/>
-    <mergeCell ref="BY1:CI1"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="BH2:BH7"/>
-    <mergeCell ref="BI2:BX2"/>
-    <mergeCell ref="BY2:CN2"/>
-    <mergeCell ref="P3:AK4"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:G4"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BR1:BX1"/>
-    <mergeCell ref="AL3:BG4"/>
-    <mergeCell ref="BI3:BJ5"/>
-    <mergeCell ref="BK3:BL5"/>
-    <mergeCell ref="BM3:BN5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
@@ -10522,58 +10535,77 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="AH47:AU47"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AJ36:AS36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
     <mergeCell ref="AF36:AG36"/>
     <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AH1:AU1"/>
@@ -10598,77 +10630,58 @@
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="L4:L7"/>
     <mergeCell ref="M4:M7"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AJ8:AS8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AJ30:AS30"/>
+    <mergeCell ref="AJ31:AS31"/>
+    <mergeCell ref="AJ20:AS20"/>
+    <mergeCell ref="AJ9:AS9"/>
+    <mergeCell ref="AJ10:AS10"/>
+    <mergeCell ref="AJ11:AS11"/>
+    <mergeCell ref="AJ12:AS12"/>
+    <mergeCell ref="AJ13:AS13"/>
+    <mergeCell ref="AJ14:AS14"/>
+    <mergeCell ref="AJ15:AS15"/>
+    <mergeCell ref="AJ16:AS16"/>
+    <mergeCell ref="AJ17:AS17"/>
+    <mergeCell ref="AJ18:AS18"/>
+    <mergeCell ref="AJ19:AS19"/>
+    <mergeCell ref="AJ21:AS21"/>
+    <mergeCell ref="AJ22:AS22"/>
+    <mergeCell ref="AJ23:AS23"/>
+    <mergeCell ref="AJ24:AS24"/>
+    <mergeCell ref="AJ25:AS25"/>
+    <mergeCell ref="AJ26:AS26"/>
+    <mergeCell ref="AJ27:AS27"/>
+    <mergeCell ref="AJ28:AS28"/>
+    <mergeCell ref="AJ29:AS29"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AJ33:AS33"/>
+    <mergeCell ref="AJ34:AS34"/>
+    <mergeCell ref="AJ35:AS35"/>
+    <mergeCell ref="AJ37:AS37"/>
+    <mergeCell ref="AJ38:AS38"/>
+    <mergeCell ref="AH39:AS39"/>
+    <mergeCell ref="AJ32:AS32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
@@ -10681,8 +10694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D13F6-67BB-466D-AEC8-8E09EA45C017}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10756,11 +10769,19 @@
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" s="5" customFormat="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
+      <c r="A3" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="28"/>
       <c r="H3" s="18"/>
@@ -10771,7 +10792,7 @@
     <row r="4" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A4" s="143"/>
       <c r="B4" s="143"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="143"/>
       <c r="E4" s="143"/>
       <c r="F4" s="18"/>
@@ -10784,46 +10805,56 @@
     <row r="5" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A5" s="143"/>
       <c r="B5" s="143"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="143"/>
       <c r="E5" s="143"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="31"/>
+      <c r="F5" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="143"/>
+      <c r="I5" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="143"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A6" s="143"/>
       <c r="B6" s="143"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="27"/>
       <c r="G6" s="143"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="143"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="143"/>
     </row>
     <row r="7" ht="21.6" customHeight="1" s="5" customFormat="1">
       <c r="A7" s="143"/>
       <c r="B7" s="143"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="143"/>
       <c r="E7" s="143"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="143"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="143"/>
-      <c r="K7" s="31"/>
+      <c r="K7" s="143"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A8" s="143"/>
       <c r="B8" s="143"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="143"/>
       <c r="E8" s="143"/>
       <c r="F8" s="145"/>
@@ -10836,9 +10867,11 @@
     <row r="9" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A9" s="143"/>
       <c r="B9" s="143"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
+      <c r="E9" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F9" s="145"/>
       <c r="G9" s="146"/>
       <c r="H9" s="145"/>
@@ -10849,7 +10882,7 @@
     <row r="10" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A10" s="143"/>
       <c r="B10" s="143"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="143"/>
       <c r="E10" s="143"/>
       <c r="F10" s="145"/>
@@ -10862,7 +10895,7 @@
     <row r="11" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A11" s="143"/>
       <c r="B11" s="143"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="143"/>
       <c r="E11" s="143"/>
       <c r="F11" s="145"/>
@@ -10875,9 +10908,11 @@
     <row r="12" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A12" s="143"/>
       <c r="B12" s="143"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+      <c r="E12" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F12" s="145"/>
       <c r="G12" s="146"/>
       <c r="H12" s="145"/>
@@ -10888,7 +10923,7 @@
     <row r="13" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A13" s="143"/>
       <c r="B13" s="143"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="143"/>
       <c r="E13" s="143"/>
       <c r="F13" s="145"/>
@@ -10901,7 +10936,7 @@
     <row r="14" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A14" s="143"/>
       <c r="B14" s="143"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="143"/>
       <c r="E14" s="143"/>
       <c r="F14" s="145"/>
@@ -10914,9 +10949,11 @@
     <row r="15" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A15" s="143"/>
       <c r="B15" s="143"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
+      <c r="E15" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="145"/>
       <c r="G15" s="146"/>
       <c r="H15" s="145"/>
@@ -10927,7 +10964,7 @@
     <row r="16" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A16" s="143"/>
       <c r="B16" s="143"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="143"/>
       <c r="E16" s="143"/>
       <c r="F16" s="145"/>
@@ -10940,7 +10977,7 @@
     <row r="17" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A17" s="143"/>
       <c r="B17" s="143"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="143"/>
       <c r="E17" s="143"/>
       <c r="F17" s="145"/>
@@ -10953,9 +10990,11 @@
     <row r="18" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A18" s="143"/>
       <c r="B18" s="143"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
+      <c r="E18" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F18" s="145"/>
       <c r="G18" s="146"/>
       <c r="H18" s="145"/>
@@ -10966,7 +11005,7 @@
     <row r="19" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A19" s="143"/>
       <c r="B19" s="143"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="143"/>
       <c r="E19" s="143"/>
       <c r="F19" s="145"/>
@@ -10979,7 +11018,7 @@
     <row r="20" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A20" s="143"/>
       <c r="B20" s="143"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="143"/>
       <c r="E20" s="143"/>
       <c r="F20" s="145"/>
@@ -10992,9 +11031,11 @@
     <row r="21" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A21" s="143"/>
       <c r="B21" s="143"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
+      <c r="E21" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F21" s="145"/>
       <c r="G21" s="146"/>
       <c r="H21" s="145"/>
@@ -11005,7 +11046,7 @@
     <row r="22" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A22" s="143"/>
       <c r="B22" s="143"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="143"/>
       <c r="E22" s="143"/>
       <c r="F22" s="145"/>
@@ -11018,7 +11059,7 @@
     <row r="23" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A23" s="143"/>
       <c r="B23" s="143"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="143"/>
       <c r="E23" s="143"/>
       <c r="F23" s="145"/>
@@ -11031,9 +11072,11 @@
     <row r="24" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A24" s="143"/>
       <c r="B24" s="143"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
+      <c r="E24" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F24" s="145"/>
       <c r="G24" s="146"/>
       <c r="H24" s="145"/>
@@ -11044,7 +11087,7 @@
     <row r="25" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A25" s="143"/>
       <c r="B25" s="143"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="143"/>
       <c r="E25" s="143"/>
       <c r="F25" s="145"/>
@@ -11057,7 +11100,7 @@
     <row r="26" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A26" s="143"/>
       <c r="B26" s="143"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="143"/>
       <c r="E26" s="143"/>
       <c r="F26" s="145"/>
@@ -11070,9 +11113,11 @@
     <row r="27" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A27" s="143"/>
       <c r="B27" s="143"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
+      <c r="E27" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F27" s="145"/>
       <c r="G27" s="146"/>
       <c r="H27" s="145"/>
@@ -11083,7 +11128,7 @@
     <row r="28" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A28" s="143"/>
       <c r="B28" s="143"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="143"/>
       <c r="E28" s="143"/>
       <c r="F28" s="145"/>
@@ -11096,7 +11141,7 @@
     <row r="29" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A29" s="143"/>
       <c r="B29" s="143"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="143"/>
       <c r="E29" s="143"/>
       <c r="F29" s="145"/>
@@ -11109,9 +11154,11 @@
     <row r="30" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A30" s="143"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
+      <c r="E30" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F30" s="145"/>
       <c r="G30" s="146"/>
       <c r="H30" s="145"/>
@@ -11122,7 +11169,7 @@
     <row r="31" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A31" s="143"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="143"/>
       <c r="E31" s="143"/>
       <c r="F31" s="145"/>
@@ -11135,7 +11182,7 @@
     <row r="32" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A32" s="143"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="143"/>
       <c r="E32" s="143"/>
       <c r="F32" s="145"/>
@@ -11148,9 +11195,11 @@
     <row r="33" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A33" s="143"/>
       <c r="B33" s="143"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
+      <c r="E33" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F33" s="145"/>
       <c r="G33" s="146"/>
       <c r="H33" s="145"/>
@@ -11161,7 +11210,7 @@
     <row r="34" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A34" s="143"/>
       <c r="B34" s="143"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="143"/>
       <c r="E34" s="143"/>
       <c r="F34" s="145"/>
@@ -11174,7 +11223,7 @@
     <row r="35" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A35" s="143"/>
       <c r="B35" s="143"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="143"/>
       <c r="E35" s="143"/>
       <c r="F35" s="145"/>
@@ -11187,9 +11236,11 @@
     <row r="36" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A36" s="143"/>
       <c r="B36" s="143"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
+      <c r="E36" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F36" s="145"/>
       <c r="G36" s="146"/>
       <c r="H36" s="145"/>
@@ -11200,7 +11251,7 @@
     <row r="37" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A37" s="143"/>
       <c r="B37" s="143"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="143"/>
       <c r="E37" s="143"/>
       <c r="F37" s="145"/>
@@ -11213,7 +11264,7 @@
     <row r="38" ht="15.6" customHeight="1" s="5" customFormat="1">
       <c r="A38" s="143"/>
       <c r="B38" s="143"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="143"/>
       <c r="E38" s="143"/>
       <c r="F38" s="145"/>
@@ -11226,9 +11277,11 @@
     <row r="39" ht="18.75" customHeight="1" s="5" customFormat="1">
       <c r="A39" s="143"/>
       <c r="B39" s="143"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="143"/>
-      <c r="E39" s="143"/>
+      <c r="E39" s="143" t="s">
+        <v>75</v>
+      </c>
       <c r="F39" s="145"/>
       <c r="G39" s="146"/>
       <c r="H39" s="145"/>
@@ -11239,7 +11292,7 @@
     <row r="40" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="A40" s="143"/>
       <c r="B40" s="143"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="143"/>
       <c r="E40" s="143"/>
       <c r="F40" s="145"/>
@@ -11252,7 +11305,7 @@
     <row r="41" ht="14.4" customHeight="1" s="5" customFormat="1">
       <c r="A41" s="143"/>
       <c r="B41" s="143"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="143"/>
       <c r="E41" s="143"/>
       <c r="F41" s="145"/>
@@ -11265,9 +11318,11 @@
     <row r="42" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="A42" s="147"/>
       <c r="B42" s="147"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
+      <c r="E42" s="147" t="s">
+        <v>75</v>
+      </c>
       <c r="F42" s="145"/>
       <c r="G42" s="146"/>
       <c r="H42" s="145"/>
@@ -11278,7 +11333,7 @@
     <row r="43" ht="18.75" customHeight="1" s="5" customFormat="1">
       <c r="A43" s="147"/>
       <c r="B43" s="147"/>
-      <c r="C43" s="14"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="147"/>
       <c r="E43" s="147"/>
       <c r="F43" s="145"/>
@@ -11291,7 +11346,7 @@
     <row r="44" ht="18.75" customHeight="1" s="5" customFormat="1">
       <c r="A44" s="147"/>
       <c r="B44" s="147"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="147"/>
       <c r="E44" s="147"/>
       <c r="F44" s="148"/>
@@ -11342,126 +11397,16 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
@@ -11478,16 +11423,126 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -5,22 +5,20 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Начало" sheetId="3" r:id="rId4"/>
-    <sheet name="Высшая математика Cеместр №1" sheetId="1" r:id="rId1"/>
-    <sheet name="Высшая математика Cеместр №2" sheetId="2" r:id="rId3"/>
-    <sheet name="Конец" sheetId="4" r:id="rId5"/>
+    <sheet name="Начало" sheetId="2" r:id="rId3"/>
+    <sheet name="Высшая математика Cеместр №2" sheetId="1" r:id="rId1"/>
+    <sheet name="Конец" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика Cеместр №1'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Высшая математика Cеместр №2'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Конец!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика Cеместр №2'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Конец!$A$1:$K$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -65,7 +63,7 @@
     </r>
   </si>
   <si>
-    <t>03.09.2020</t>
+    <t>13.02.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -107,16 +105,16 @@
     <t>КСР</t>
   </si>
   <si>
-    <t>Б</t>
+    <t/>
   </si>
   <si>
     <t>лр</t>
   </si>
   <si>
-    <t>Вводная</t>
+    <t>Вводная 1</t>
   </si>
   <si>
-    <t/>
+    <t>Б</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -162,12 +160,6 @@
   </si>
   <si>
     <t>Ф.И.О.</t>
-  </si>
-  <si>
-    <t>13.02.2021</t>
-  </si>
-  <si>
-    <t>Вводная 1</t>
   </si>
   <si>
     <t>Министерство образования и науки РФ</t>
@@ -227,7 +219,7 @@
     <t>Иванов И.И.</t>
   </si>
   <si>
-    <t>8 - 11</t>
+    <t>8 - 9</t>
   </si>
   <si>
     <t>Дисциплина</t>
@@ -254,22 +246,16 @@
     <t>Дроздов Михаил Григорьевич</t>
   </si>
   <si>
-    <t>Особая метка Особая отметка 2</t>
+    <t>Особая отметка 2</t>
   </si>
   <si>
     <t>Кузьмин Николай Петрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Нечаева Марина Игоревна</t>
   </si>
   <si>
     <t>Пирогова Анастасия Яковлева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нарушения </t>
   </si>
   <si>
     <t>ЖУРНАЛ</t>
@@ -284,7 +270,7 @@
     <t>учебный год</t>
   </si>
   <si>
-    <t>очная</t>
+    <t>очное</t>
   </si>
   <si>
     <t>форма обучения</t>
@@ -347,19 +333,7 @@
     <t>Подпись декана факультета (зам. декана по учебной работе)</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>solution 1</t>
-  </si>
-  <si>
     <t>Семестр 2</t>
-  </si>
-  <si>
-    <t>06.02.2021</t>
-  </si>
-  <si>
-    <t>Ошибок не обнаружено</t>
   </si>
   <si>
     <t>10.02.2021</t>
@@ -1508,7 +1482,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" s="6" customFormat="1">
       <c r="A3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1830,7 +1804,7 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="31"/>
       <c r="AF8" s="31">
@@ -1856,7 +1830,7 @@
       <c r="AR8" s="32"/>
       <c r="AS8" s="32"/>
       <c r="AT8" s="33">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="32"/>
       <c r="AY8" s="5" t="str">
@@ -1886,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -1997,7 +1971,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36">
@@ -2048,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -4801,3451 +4775,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="5.42578125" customWidth="1" style="5"/>
-    <col min="2" max="7" bestFit="1" width="2.140625" customWidth="1" style="5"/>
-    <col min="8" max="8" width="2.140625" customWidth="1" style="5"/>
-    <col min="9" max="19" bestFit="1" width="2.140625" customWidth="1" style="5"/>
-    <col min="20" max="20" bestFit="1" width="2.5703125" customWidth="1" style="5"/>
-    <col min="21" max="29" bestFit="1" width="2.140625" customWidth="1" style="5"/>
-    <col min="30" max="30" bestFit="1" width="8.7109375" customWidth="1" style="5"/>
-    <col min="31" max="32" width="7.42578125" customWidth="1" style="5"/>
-    <col min="33" max="33" width="8.7109375" customWidth="1" style="5"/>
-    <col min="34" max="34" width="12.42578125" customWidth="1" style="5"/>
-    <col min="35" max="39" width="8.85546875" customWidth="1" style="5"/>
-    <col min="40" max="40" width="7.42578125" customWidth="1" style="5"/>
-    <col min="41" max="41" hidden="1" width="1.42578125" customWidth="1" style="5"/>
-    <col min="42" max="42" hidden="1" width="10.7109375" customWidth="1" style="5"/>
-    <col min="43" max="43" hidden="1" width="5.28515625" customWidth="1" style="5"/>
-    <col min="44" max="44" width="5.85546875" customWidth="1" style="5"/>
-    <col min="45" max="45" width="3.7109375" customWidth="1" style="5"/>
-    <col min="46" max="46" width="8.85546875" customWidth="1" style="5"/>
-    <col min="47" max="47" width="14.7109375" customWidth="1" style="5"/>
-    <col min="48" max="50" width="8.85546875" customWidth="1" style="5"/>
-    <col min="51" max="51" width="8.85546875" customWidth="1" style="5"/>
-    <col min="52" max="52" bestFit="1" width="10.5703125" customWidth="1" style="5"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1" style="5"/>
-    <col min="54" max="54" bestFit="1" width="10.5703125" customWidth="1" style="5"/>
-    <col min="55" max="16384" width="8.85546875" customWidth="1" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AW1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ1" s="9"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AW2" s="5">
-        <v>2</v>
-      </c>
-      <c r="BJ2" s="9"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="BJ3" s="9"/>
-    </row>
-    <row r="4" ht="17.45" customHeight="1" s="6" customFormat="1">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ4" s="9"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="21"/>
-      <c r="BJ5" s="9"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="21"/>
-      <c r="BJ6" s="9"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="21"/>
-      <c r="AY7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ7" s="9"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A8" s="28">
-        <v>1</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="33">
-        <v>2</v>
-      </c>
-      <c r="AU8" s="32"/>
-      <c r="AY8" s="5" t="str">
-        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
-      </c>
-      <c r="BB8" s="5">
-        <f>IF( AI8="л", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="5">
-        <f>IF( AI8="пз", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="5">
-        <f>IF( AI8="лр", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="5">
-        <f>IF( AI8="кср", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="9"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A9" s="34">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="33">
-        <f ref="AT9:AT38" t="shared" si="0">IF(AJ9="",0,$AW$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="32"/>
-      <c r="AY9" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB9" s="5">
-        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="5">
-        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="5">
-        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="5">
-        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="9"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A10" s="34">
-        <f ref="A10:A36" t="shared" si="6">A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="32"/>
-      <c r="AY10" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB10" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="9"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A11" s="37">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="32"/>
-      <c r="AY11" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB11" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="9"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A12" s="34">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="32"/>
-      <c r="AY12" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB12" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD12" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="9"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A13" s="34">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU13" s="32"/>
-      <c r="AY13" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB13" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD13" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="9"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A14" s="34">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="32"/>
-      <c r="AY14" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB14" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="9"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A15" s="34">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="32"/>
-      <c r="AY15" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="9"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A16" s="34">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="32"/>
-      <c r="AY16" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB16" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="9"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A17" s="34">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="32"/>
-      <c r="AY17" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="9"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A18" s="34">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="32"/>
-      <c r="AY18" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="9"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A19" s="34">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="32"/>
-      <c r="AY19" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB19" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD19" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="9"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A20" s="34">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="32"/>
-      <c r="AY20" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB20" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD20" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="9"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A21" s="34">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="32"/>
-      <c r="AY21" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB21" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE21" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="9"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A22" s="34">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="32"/>
-      <c r="AY22" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="9"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A23" s="34">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="32"/>
-      <c r="AY23" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB23" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="9"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A24" s="34">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="32"/>
-      <c r="AY24" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="9"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A25" s="34">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="32"/>
-      <c r="AY25" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB25" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="9"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A26" s="34">
-        <f>A25+1</f>
-        <v>19</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="32"/>
-      <c r="AY26" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB26" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD26" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="9"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A27" s="34">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="32"/>
-      <c r="AY27" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB27" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="9"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A28" s="34">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="32"/>
-      <c r="AY28" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB28" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD28" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="9"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A29" s="34">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU29" s="32"/>
-      <c r="AY29" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB29" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC29" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD29" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="9"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A30" s="34">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="32"/>
-      <c r="AY30" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB30" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD30" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="9"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A31" s="34">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="32"/>
-      <c r="AY31" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB31" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC31" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD31" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="9"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A32" s="34">
-        <f>A31+1</f>
-        <v>25</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU32" s="32"/>
-      <c r="AY32" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB32" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD32" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="9"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A33" s="34">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU33" s="32"/>
-      <c r="AY33" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD33" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="9"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A34" s="34">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="32"/>
-      <c r="AY34" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB34" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD34" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="9"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A35" s="34">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="32"/>
-      <c r="AY35" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB35" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="9"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A36" s="34">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="32"/>
-      <c r="AY36" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB36" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="9"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A37" s="34">
-        <v>30</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="32"/>
-      <c r="AY37" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB37" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="9"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="32"/>
-      <c r="AY38" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB38" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC38" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD38" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="9"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="48">
-        <f>SUM(AT8:AT38)</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="49"/>
-      <c r="AY39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ39" s="5" t="e">
-        <f>AVERAGE(AY8:AY38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB39" s="5">
-        <f>SUM(BB8:BB38)</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="5">
-        <f>SUM(BC8:BC38)</f>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="5">
-        <f>SUM(BD8:BD38)</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="5">
-        <f>SUM(BE8:BE38)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="9"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="53"/>
-      <c r="AH40" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="54">
-        <f>AT39</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="16"/>
-      <c r="AM40" s="16"/>
-      <c r="AN40" s="16"/>
-      <c r="AO40" s="16"/>
-      <c r="AP40" s="16"/>
-      <c r="AQ40" s="16"/>
-      <c r="AR40" s="16"/>
-      <c r="AS40" s="16"/>
-      <c r="AT40" s="16"/>
-      <c r="AU40" s="16"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="53"/>
-      <c r="AH41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="16"/>
-      <c r="AM41" s="16"/>
-      <c r="AN41" s="16"/>
-      <c r="AO41" s="16"/>
-      <c r="AP41" s="16"/>
-      <c r="AQ41" s="16"/>
-      <c r="AR41" s="16"/>
-      <c r="AS41" s="16"/>
-      <c r="AT41" s="16"/>
-      <c r="AU41" s="16"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI42" s="57">
-        <f>BB39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="16"/>
-      <c r="AK42" s="16"/>
-      <c r="AL42" s="16"/>
-      <c r="AM42" s="16"/>
-      <c r="AN42" s="16"/>
-      <c r="AO42" s="16"/>
-      <c r="AP42" s="16"/>
-      <c r="AQ42" s="16"/>
-      <c r="AR42" s="16"/>
-      <c r="AS42" s="16"/>
-      <c r="AT42" s="16"/>
-      <c r="AU42" s="16"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="59" t="e">
-        <f>AZ39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43" s="60"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI43" s="61">
-        <f>BC39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="16"/>
-      <c r="AK43" s="16"/>
-      <c r="AL43" s="16"/>
-      <c r="AM43" s="16"/>
-      <c r="AN43" s="16"/>
-      <c r="AO43" s="16"/>
-      <c r="AP43" s="16"/>
-      <c r="AQ43" s="16"/>
-      <c r="AR43" s="16"/>
-      <c r="AS43" s="16"/>
-      <c r="AT43" s="16"/>
-      <c r="AU43" s="16"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI44" s="61">
-        <f>BD39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="16"/>
-      <c r="AK44" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL44" s="16"/>
-      <c r="AM44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN44" s="16"/>
-      <c r="AO44" s="16"/>
-      <c r="AP44" s="16"/>
-      <c r="AQ44" s="16"/>
-      <c r="AR44" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS44" s="16"/>
-      <c r="AT44" s="16"/>
-      <c r="AU44" s="16"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI45" s="64">
-        <f>BE39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="16"/>
-      <c r="AM45" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN45" s="65"/>
-      <c r="AS45" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="66"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A47" s="68">
-        <v>10</v>
-      </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="68"/>
-      <c r="AB47" s="68"/>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="69">
-        <v>11</v>
-      </c>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="69"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="69"/>
-      <c r="AN47" s="69"/>
-      <c r="AO47" s="69"/>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="69"/>
-      <c r="AR47" s="69"/>
-      <c r="AS47" s="69"/>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AJ4:AS7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AD4:AG5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D85535-87E3-468A-826C-34903E37DA01}">
   <dimension ref="A1:CN47"/>
   <sheetViews>
@@ -8318,13 +4847,13 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
       <c r="E1" s="73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
@@ -8332,7 +4861,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
       <c r="K1" s="75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L1" s="75"/>
       <c r="M1" s="75"/>
@@ -8360,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AI1" s="78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AJ1" s="78"/>
       <c r="AK1" s="78"/>
@@ -8386,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="BE1" s="78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BF1" s="78"/>
       <c r="BG1" s="78"/>
@@ -8401,7 +4930,7 @@
       <c r="BP1" s="79"/>
       <c r="BQ1" s="79"/>
       <c r="BR1" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BS1" s="80"/>
       <c r="BT1" s="80"/>
@@ -8410,7 +4939,7 @@
       <c r="BW1" s="80"/>
       <c r="BX1" s="80"/>
       <c r="BY1" s="81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BZ1" s="81"/>
       <c r="CA1" s="81"/>
@@ -8440,19 +4969,19 @@
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
       <c r="K2" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="N2" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="O2" s="83" t="s">
         <v>50</v>
-      </c>
-      <c r="N2" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>52</v>
       </c>
       <c r="P2" s="76"/>
       <c r="Q2" s="76"/>
@@ -8499,10 +5028,10 @@
       <c r="BF2" s="76"/>
       <c r="BG2" s="76"/>
       <c r="BH2" s="84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BI2" s="85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BJ2" s="85"/>
       <c r="BK2" s="85"/>
@@ -8520,7 +5049,7 @@
       <c r="BW2" s="85"/>
       <c r="BX2" s="85"/>
       <c r="BY2" s="86" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BZ2" s="86"/>
       <c r="CA2" s="86"/>
@@ -8555,7 +5084,7 @@
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="87"/>
       <c r="R3" s="87"/>
@@ -8579,7 +5108,7 @@
       <c r="AJ3" s="87"/>
       <c r="AK3" s="87"/>
       <c r="AL3" s="87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM3" s="87"/>
       <c r="AN3" s="87"/>
@@ -8638,7 +5167,7 @@
     </row>
     <row r="4" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A4" s="90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -8738,15 +5267,15 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="92"/>
       <c r="K5" s="93">
@@ -8756,13 +5285,13 @@
         <v>4</v>
       </c>
       <c r="M5" s="89">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N5" s="89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5" s="89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P5" s="94"/>
       <c r="Q5" s="94"/>
@@ -8859,13 +5388,13 @@
       <c r="N6" s="89"/>
       <c r="O6" s="89"/>
       <c r="P6" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="97" t="s">
         <v>62</v>
-      </c>
-      <c r="Q6" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" s="97" t="s">
-        <v>64</v>
       </c>
       <c r="S6" s="97"/>
       <c r="T6" s="97"/>
@@ -8885,19 +5414,19 @@
       <c r="AH6" s="97"/>
       <c r="AI6" s="97"/>
       <c r="AJ6" s="95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AK6" s="96" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AL6" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM6" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN6" s="97" t="s">
         <v>62</v>
-      </c>
-      <c r="AM6" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN6" s="97" t="s">
-        <v>64</v>
       </c>
       <c r="AO6" s="97"/>
       <c r="AP6" s="97"/>
@@ -8917,107 +5446,107 @@
       <c r="BD6" s="97"/>
       <c r="BE6" s="97"/>
       <c r="BF6" s="95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BG6" s="98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BH6" s="84"/>
       <c r="BI6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BJ6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BK6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BL6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BM6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BN6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BO6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BP6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BQ6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BR6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BS6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BT6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BU6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BV6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BW6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BX6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BY6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BZ6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CA6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CB6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CC6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CD6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CE6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CF6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CG6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CH6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CI6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CJ6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CK6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CL6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CM6" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CN6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="70" customFormat="1">
@@ -9197,12 +5726,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="93"/>
@@ -9299,13 +5828,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
-      <c r="I9" s="108" t="s">
-        <v>72</v>
-      </c>
+      <c r="I9" s="108"/>
       <c r="J9" s="108"/>
       <c r="K9" s="93">
         <v>3</v>
@@ -9403,13 +5930,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
-      <c r="I10" s="108" t="s">
-        <v>72</v>
-      </c>
+      <c r="I10" s="108"/>
       <c r="J10" s="108"/>
       <c r="K10" s="93"/>
       <c r="L10" s="89"/>
@@ -9505,13 +6030,11 @@
         <v>4</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
-      <c r="I11" s="108" t="s">
-        <v>75</v>
-      </c>
+      <c r="I11" s="108"/>
       <c r="J11" s="108"/>
       <c r="K11" s="93">
         <v>4</v>
@@ -9898,7 +6421,7 @@
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="110" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
@@ -10198,7 +6721,7 @@
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="112" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
@@ -10496,16 +7019,16 @@
     </row>
     <row r="21" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A21" s="113">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C21" s="114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D21" s="114" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E21" s="100">
         <v>14</v>
@@ -10702,11 +7225,11 @@
     </row>
     <row r="23" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A23" s="113" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="115" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="115"/>
       <c r="E23" s="100">
@@ -11004,11 +7527,11 @@
     </row>
     <row r="26" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" s="117"/>
       <c r="C26" s="118" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="100">
@@ -11404,7 +7927,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="109" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B30" s="109"/>
       <c r="C30" s="109"/>
@@ -11504,7 +8027,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A31" s="109" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="109"/>
@@ -12402,7 +8925,7 @@
       <c r="E40" s="124"/>
       <c r="F40" s="82"/>
       <c r="G40" s="108" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H40" s="118"/>
       <c r="I40" s="125"/>
@@ -12493,14 +9016,14 @@
     <row r="41" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A41" s="121"/>
       <c r="B41" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="109"/>
       <c r="E41" s="124"/>
       <c r="F41" s="82"/>
       <c r="G41" s="108" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H41" s="118"/>
       <c r="I41" s="125"/>
@@ -12598,7 +9121,7 @@
       <c r="E42" s="124"/>
       <c r="F42" s="82"/>
       <c r="G42" s="102" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H42" s="78"/>
       <c r="I42" s="125"/>
@@ -12688,7 +9211,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A43" s="122" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B43" s="122"/>
       <c r="C43" s="122"/>
@@ -12707,7 +9230,7 @@
       <c r="N43" s="126"/>
       <c r="O43" s="126"/>
       <c r="P43" s="128" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q43" s="129"/>
       <c r="R43" s="129"/>
@@ -12731,7 +9254,7 @@
       <c r="AJ43" s="129"/>
       <c r="AK43" s="129"/>
       <c r="AL43" s="128" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AM43" s="129"/>
       <c r="AN43" s="129"/>
@@ -12805,7 +9328,7 @@
       <c r="N44" s="126"/>
       <c r="O44" s="126"/>
       <c r="P44" s="128" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
@@ -12829,7 +9352,7 @@
       <c r="AJ44" s="130"/>
       <c r="AK44" s="130"/>
       <c r="AL44" s="128" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AM44" s="79"/>
       <c r="AN44" s="79"/>
@@ -12898,7 +9421,7 @@
       <c r="I45" s="125"/>
       <c r="J45" s="125"/>
       <c r="P45" s="134" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q45" s="135"/>
       <c r="R45" s="135"/>
@@ -12922,7 +9445,7 @@
       <c r="AJ45" s="135"/>
       <c r="AK45" s="135"/>
       <c r="AL45" s="134" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AM45" s="135"/>
       <c r="AN45" s="135"/>
@@ -14160,7 +10683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D13F6-67BB-466D-AEC8-8E09EA45C017}">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -14186,72 +10709,68 @@
   <sheetData>
     <row r="1" ht="22.9" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="141" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="79"/>
       <c r="D1" s="141" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E1" s="141"/>
       <c r="F1" s="87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" s="70" customFormat="1">
       <c r="A2" s="142" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="83" t="s">
-        <v>100</v>
-      </c>
       <c r="I2" s="83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J2" s="93" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="19.9" customHeight="1" s="70" customFormat="1">
       <c r="A3" s="83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C3" s="75"/>
-      <c r="D3" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="83"/>
       <c r="G3" s="93"/>
       <c r="H3" s="83"/>
@@ -14279,28 +10798,24 @@
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
       <c r="F5" s="143" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H5" s="144"/>
-      <c r="I5" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>107</v>
-      </c>
+      <c r="I5" s="143"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="144"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="B6" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="75"/>
       <c r="D6" s="83"/>
-      <c r="E6" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E6" s="83"/>
       <c r="F6" s="93"/>
       <c r="G6" s="83"/>
       <c r="H6" s="144"/>
@@ -14336,12 +10851,12 @@
     </row>
     <row r="9" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="B9" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="75"/>
       <c r="D9" s="83"/>
-      <c r="E9" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="83"/>
       <c r="F9" s="145"/>
       <c r="G9" s="146"/>
       <c r="H9" s="147"/>
@@ -14377,12 +10892,12 @@
     </row>
     <row r="12" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
+      <c r="B12" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="75"/>
       <c r="D12" s="83"/>
-      <c r="E12" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E12" s="83"/>
       <c r="F12" s="145"/>
       <c r="G12" s="146"/>
       <c r="H12" s="147"/>
@@ -14418,12 +10933,12 @@
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
+      <c r="B15" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="75"/>
       <c r="D15" s="83"/>
-      <c r="E15" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E15" s="83"/>
       <c r="F15" s="145"/>
       <c r="G15" s="146"/>
       <c r="H15" s="147"/>
@@ -14459,12 +10974,12 @@
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
+      <c r="B18" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="75"/>
       <c r="D18" s="83"/>
-      <c r="E18" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E18" s="83"/>
       <c r="F18" s="145"/>
       <c r="G18" s="146"/>
       <c r="H18" s="147"/>
@@ -14500,12 +11015,12 @@
     </row>
     <row r="21" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
+      <c r="B21" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C21" s="75"/>
       <c r="D21" s="83"/>
-      <c r="E21" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E21" s="83"/>
       <c r="F21" s="145"/>
       <c r="G21" s="146"/>
       <c r="H21" s="147"/>
@@ -14541,12 +11056,12 @@
     </row>
     <row r="24" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C24" s="75"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="83"/>
       <c r="F24" s="145"/>
       <c r="G24" s="146"/>
       <c r="H24" s="147"/>
@@ -14582,12 +11097,12 @@
     </row>
     <row r="27" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
+      <c r="B27" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C27" s="75"/>
       <c r="D27" s="83"/>
-      <c r="E27" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E27" s="83"/>
       <c r="F27" s="145"/>
       <c r="G27" s="146"/>
       <c r="H27" s="147"/>
@@ -14623,12 +11138,12 @@
     </row>
     <row r="30" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
+      <c r="B30" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C30" s="75"/>
       <c r="D30" s="83"/>
-      <c r="E30" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E30" s="83"/>
       <c r="F30" s="145"/>
       <c r="G30" s="146"/>
       <c r="H30" s="147"/>
@@ -14664,12 +11179,12 @@
     </row>
     <row r="33" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
+      <c r="B33" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C33" s="75"/>
       <c r="D33" s="83"/>
-      <c r="E33" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E33" s="83"/>
       <c r="F33" s="145"/>
       <c r="G33" s="146"/>
       <c r="H33" s="147"/>
@@ -14705,12 +11220,12 @@
     </row>
     <row r="36" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
+      <c r="B36" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" s="75"/>
       <c r="D36" s="83"/>
-      <c r="E36" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E36" s="83"/>
       <c r="F36" s="145"/>
       <c r="G36" s="146"/>
       <c r="H36" s="147"/>
@@ -14746,12 +11261,12 @@
     </row>
     <row r="39" ht="18.75" customHeight="1" s="70" customFormat="1">
       <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
+      <c r="B39" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="C39" s="75"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E39" s="83"/>
       <c r="F39" s="145"/>
       <c r="G39" s="146"/>
       <c r="H39" s="147"/>
@@ -14787,12 +11302,12 @@
     </row>
     <row r="42" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A42" s="148"/>
-      <c r="B42" s="148"/>
+      <c r="B42" s="148" t="s">
+        <v>21</v>
+      </c>
       <c r="C42" s="75"/>
       <c r="D42" s="148"/>
-      <c r="E42" s="148" t="s">
-        <v>24</v>
-      </c>
+      <c r="E42" s="148"/>
       <c r="F42" s="145"/>
       <c r="G42" s="146"/>
       <c r="H42" s="147"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -6,11 +6,11 @@
   </bookViews>
   <sheets>
     <sheet name="Начало" sheetId="2" r:id="rId3"/>
-    <sheet name="Высшая математика Cеместр №2" sheetId="1" r:id="rId1"/>
+    <sheet name="Информатика Cеместр №1" sheetId="1" r:id="rId1"/>
     <sheet name="Конец" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика Cеместр №2'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Информатика Cеместр №1'!$A$1:$AU$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Конец!$A$1:$K$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Высшая математика</t>
+    <t>Информатика</t>
   </si>
   <si>
     <t>семестр</t>
@@ -63,7 +63,10 @@
     </r>
   </si>
   <si>
-    <t>13.02.2021</t>
+    <t>01.02.2021</t>
+  </si>
+  <si>
+    <t>03.02.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -108,10 +111,19 @@
     <t/>
   </si>
   <si>
+    <t>НБ</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введение </t>
+  </si>
+  <si>
     <t>лр</t>
   </si>
   <si>
-    <t>Вводная 1</t>
+    <t>Лабораторная работа №1</t>
   </si>
   <si>
     <t>Б</t>
@@ -216,7 +228,7 @@
     <t>ОСОБЫЕ ОТМЕТКИ</t>
   </si>
   <si>
-    <t>Иванов И.И.</t>
+    <t>Лабутина Т.В.</t>
   </si>
   <si>
     <t>8 - 9</t>
@@ -243,22 +255,52 @@
     <t>Подпись препода-вателя</t>
   </si>
   <si>
-    <t>Дроздов Михаил Григорьевич</t>
+    <t>Алексеева А. В.</t>
   </si>
   <si>
-    <t>Особая отметка 2</t>
+    <t>fujhfiukdxgf</t>
   </si>
   <si>
-    <t>Кузьмин Николай Петрович</t>
+    <t>Батманова Ю. А.</t>
   </si>
   <si>
-    <t>Нечаева Марина Игоревна</t>
+    <t>rgrdfdgvsrdfdg</t>
   </si>
   <si>
-    <t>Пирогова Анастасия Яковлева</t>
+    <t>Волкова А. С.</t>
+  </si>
+  <si>
+    <t>Кулигин А. В.</t>
+  </si>
+  <si>
+    <t>dgverddgvesrddgt</t>
+  </si>
+  <si>
+    <t>Наймушина С. А.</t>
+  </si>
+  <si>
+    <t>Поносов Н. И.</t>
+  </si>
+  <si>
+    <t>rdgvsdrfdgvsdrfdg</t>
+  </si>
+  <si>
+    <t>Тойкинова А. И.</t>
   </si>
   <si>
     <t>ЖУРНАЛ</t>
+  </si>
+  <si>
+    <t>Фатихов Р. Э.</t>
+  </si>
+  <si>
+    <t>rddgverddgtfcesrdtgserdd</t>
+  </si>
+  <si>
+    <t>Хованов Д. А.</t>
+  </si>
+  <si>
+    <t>Яруллин А. А.</t>
   </si>
   <si>
     <t>учета занятий</t>
@@ -270,7 +312,7 @@
     <t>учебный год</t>
   </si>
   <si>
-    <t>очное</t>
+    <t>очная</t>
   </si>
   <si>
     <t>форма обучения</t>
@@ -279,13 +321,13 @@
     <t>Группа №</t>
   </si>
   <si>
-    <t>ВМ-20</t>
+    <t>АСУ-17-1б</t>
   </si>
   <si>
     <t>Направление (специальность)</t>
   </si>
   <si>
-    <t>Машинное обучение [2020]</t>
+    <t>ИВТ</t>
   </si>
   <si>
     <t>Колличество присутствующих</t>
@@ -331,15 +373,6 @@
   </si>
   <si>
     <t>Подпись декана факультета (зам. декана по учебной работе)</t>
-  </si>
-  <si>
-    <t>Семестр 2</t>
-  </si>
-  <si>
-    <t>10.02.2021</t>
-  </si>
-  <si>
-    <t>Проверка 2</t>
   </si>
 </sst>
 </file>
@@ -1333,37 +1366,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC9" sqref="B9:AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="5.42578125" customWidth="1" style="5"/>
-    <col min="2" max="7" bestFit="1" width="2.140625" customWidth="1" style="5"/>
-    <col min="8" max="8" width="2.140625" customWidth="1" style="5"/>
-    <col min="9" max="19" bestFit="1" width="2.140625" customWidth="1" style="5"/>
-    <col min="20" max="20" bestFit="1" width="2.5703125" customWidth="1" style="5"/>
-    <col min="21" max="29" bestFit="1" width="2.140625" customWidth="1" style="5"/>
-    <col min="30" max="30" bestFit="1" width="8.7109375" customWidth="1" style="5"/>
-    <col min="31" max="32" width="7.42578125" customWidth="1" style="5"/>
-    <col min="33" max="33" width="8.7109375" customWidth="1" style="5"/>
-    <col min="34" max="34" width="12.42578125" customWidth="1" style="5"/>
-    <col min="35" max="39" width="8.85546875" customWidth="1" style="5"/>
-    <col min="40" max="40" width="7.42578125" customWidth="1" style="5"/>
-    <col min="41" max="41" hidden="1" width="1.42578125" customWidth="1" style="5"/>
-    <col min="42" max="42" hidden="1" width="10.7109375" customWidth="1" style="5"/>
-    <col min="43" max="43" hidden="1" width="5.28515625" customWidth="1" style="5"/>
-    <col min="44" max="44" width="5.85546875" customWidth="1" style="5"/>
-    <col min="45" max="45" width="3.7109375" customWidth="1" style="5"/>
-    <col min="46" max="46" width="8.85546875" customWidth="1" style="5"/>
-    <col min="47" max="47" width="14.7109375" customWidth="1" style="5"/>
-    <col min="48" max="50" width="8.85546875" customWidth="1" style="5"/>
-    <col min="51" max="51" width="8.85546875" customWidth="1" style="5"/>
-    <col min="52" max="52" bestFit="1" width="10.5703125" customWidth="1" style="5"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1" style="5"/>
-    <col min="54" max="54" bestFit="1" width="10.5703125" customWidth="1" style="5"/>
-    <col min="55" max="16384" width="8.85546875" customWidth="1" style="5"/>
+    <col min="1" max="1" bestFit="1" width="5.44140625" customWidth="1" style="5"/>
+    <col min="2" max="7" bestFit="1" width="2.109375" customWidth="1" style="5"/>
+    <col min="8" max="8" width="2.109375" customWidth="1" style="5"/>
+    <col min="9" max="19" bestFit="1" width="2.109375" customWidth="1" style="5"/>
+    <col min="20" max="20" bestFit="1" width="2.5546875" customWidth="1" style="5"/>
+    <col min="21" max="29" bestFit="1" width="2.109375" customWidth="1" style="5"/>
+    <col min="30" max="30" bestFit="1" width="8.6640625" customWidth="1" style="5"/>
+    <col min="31" max="32" width="7.44140625" customWidth="1" style="5"/>
+    <col min="33" max="33" width="8.6640625" customWidth="1" style="5"/>
+    <col min="34" max="34" width="12.44140625" customWidth="1" style="5"/>
+    <col min="35" max="39" width="8.88671875" customWidth="1" style="5"/>
+    <col min="40" max="40" width="7.44140625" customWidth="1" style="5"/>
+    <col min="41" max="41" hidden="1" width="1.44140625" customWidth="1" style="5"/>
+    <col min="42" max="42" hidden="1" width="10.6640625" customWidth="1" style="5"/>
+    <col min="43" max="43" hidden="1" width="5.33203125" customWidth="1" style="5"/>
+    <col min="44" max="44" width="5.88671875" customWidth="1" style="5"/>
+    <col min="45" max="45" width="3.6640625" customWidth="1" style="5"/>
+    <col min="46" max="46" width="8.88671875" customWidth="1" style="5"/>
+    <col min="47" max="47" width="14.6640625" customWidth="1" style="5"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1" style="5"/>
+    <col min="51" max="51" width="8.88671875" customWidth="1" style="5"/>
+    <col min="52" max="52" bestFit="1" width="10.5546875" customWidth="1" style="5"/>
+    <col min="53" max="53" width="8.88671875" customWidth="1" style="5"/>
+    <col min="54" max="54" bestFit="1" width="10.5546875" customWidth="1" style="5"/>
+    <col min="55" max="16384" width="8.88671875" customWidth="1" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="6" customFormat="1">
@@ -1482,7 +1515,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" s="6" customFormat="1">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1534,14 +1567,16 @@
       <c r="AU3" s="16"/>
       <c r="BJ3" s="9"/>
     </row>
-    <row r="4" ht="17.45" customHeight="1" s="6" customFormat="1">
+    <row r="4" ht="17.4" customHeight="1" s="6" customFormat="1">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
@@ -1569,19 +1604,19 @@
       <c r="AB4" s="19"/>
       <c r="AC4" s="20"/>
       <c r="AD4" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
@@ -1593,10 +1628,10 @@
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
       <c r="AT4" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU4" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ4" s="9"/>
     </row>
@@ -1681,11 +1716,11 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE6" s="24"/>
       <c r="AF6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG6" s="24"/>
       <c r="AH6" s="21"/>
@@ -1753,19 +1788,19 @@
       <c r="AT7" s="22"/>
       <c r="AU7" s="21"/>
       <c r="AY7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ7" s="9"/>
     </row>
@@ -1774,9 +1809,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1808,17 +1845,17 @@
       </c>
       <c r="AE8" s="31"/>
       <c r="AF8" s="31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG8" s="31"/>
       <c r="AH8" s="32" t="s">
         <v>7</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32"/>
@@ -1860,9 +1897,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="35"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -1894,12 +1933,18 @@
       </c>
       <c r="AE9" s="36"/>
       <c r="AF9" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="36"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
+      <c r="AH9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="AK9" s="32"/>
       <c r="AL9" s="32"/>
       <c r="AM9" s="32"/>
@@ -1910,8 +1955,7 @@
       <c r="AR9" s="32"/>
       <c r="AS9" s="32"/>
       <c r="AT9" s="33">
-        <f ref="AT9:AT38" t="shared" si="0">IF(AJ9="",0,$AW$2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" s="32"/>
       <c r="AY9" s="5" t="str">
@@ -1941,9 +1985,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -1971,7 +2017,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36">
@@ -1991,7 +2037,7 @@
       <c r="AR10" s="32"/>
       <c r="AS10" s="32"/>
       <c r="AT10" s="33">
-        <f t="shared" si="0"/>
+        <f ref="AT10:AT38" t="shared" si="0">IF(AJ10="",0,$AW$2)</f>
         <v>0</v>
       </c>
       <c r="AU10" s="32"/>
@@ -2022,9 +2068,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -2102,8 +2150,12 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -2130,9 +2182,13 @@
       <c r="AA12" s="35"/>
       <c r="AB12" s="35"/>
       <c r="AC12" s="41"/>
-      <c r="AD12" s="36"/>
+      <c r="AD12" s="36">
+        <v>0</v>
+      </c>
       <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
+      <c r="AF12" s="36">
+        <v>2</v>
+      </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
@@ -2177,8 +2233,12 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -2205,9 +2265,13 @@
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="41"/>
-      <c r="AD13" s="36"/>
+      <c r="AD13" s="36">
+        <v>0.5</v>
+      </c>
       <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
+      <c r="AF13" s="36">
+        <v>0</v>
+      </c>
       <c r="AG13" s="36"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
@@ -2252,8 +2316,12 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -2280,9 +2348,13 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="36"/>
+      <c r="AD14" s="36">
+        <v>0</v>
+      </c>
       <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
+      <c r="AF14" s="36">
+        <v>0</v>
+      </c>
       <c r="AG14" s="36"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
@@ -2327,8 +2399,12 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -2355,9 +2431,13 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="36"/>
+      <c r="AD15" s="36">
+        <v>0</v>
+      </c>
       <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
+      <c r="AF15" s="36">
+        <v>2</v>
+      </c>
       <c r="AG15" s="36"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
@@ -2402,8 +2482,12 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -2430,9 +2514,13 @@
       <c r="AA16" s="35"/>
       <c r="AB16" s="35"/>
       <c r="AC16" s="41"/>
-      <c r="AD16" s="36"/>
+      <c r="AD16" s="36">
+        <v>0</v>
+      </c>
       <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
+      <c r="AF16" s="36">
+        <v>0.5</v>
+      </c>
       <c r="AG16" s="36"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
@@ -2477,8 +2565,12 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -2505,9 +2597,13 @@
       <c r="AA17" s="35"/>
       <c r="AB17" s="35"/>
       <c r="AC17" s="41"/>
-      <c r="AD17" s="36"/>
+      <c r="AD17" s="36">
+        <v>0.5</v>
+      </c>
       <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
+      <c r="AF17" s="36">
+        <v>0</v>
+      </c>
       <c r="AG17" s="36"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
@@ -4153,7 +4249,7 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="36"/>
       <c r="AH39" s="47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
@@ -4172,14 +4268,14 @@
       </c>
       <c r="AU39" s="49"/>
       <c r="AY39" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AZ39" s="5" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BB39" s="5">
         <f>SUM(BB8:BB38)</f>
@@ -4230,13 +4326,13 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="50" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE40" s="51"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="53"/>
       <c r="AH40" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AI40" s="16"/>
       <c r="AJ40" s="54">
@@ -4290,7 +4386,7 @@
       <c r="AF41" s="52"/>
       <c r="AG41" s="53"/>
       <c r="AH41" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI41" s="16"/>
       <c r="AJ41" s="55"/>
@@ -4341,7 +4437,7 @@
       <c r="AF42" s="52"/>
       <c r="AG42" s="53"/>
       <c r="AH42" s="56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AI42" s="57">
         <f>BB39</f>
@@ -4398,7 +4494,7 @@
       <c r="AF43" s="52"/>
       <c r="AG43" s="53"/>
       <c r="AH43" s="56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI43" s="61">
         <f>BC39</f>
@@ -4452,7 +4548,7 @@
       <c r="AF44" s="52"/>
       <c r="AG44" s="53"/>
       <c r="AH44" s="56" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AI44" s="61">
         <f>BD39</f>
@@ -4460,18 +4556,18 @@
       </c>
       <c r="AJ44" s="16"/>
       <c r="AK44" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL44" s="16"/>
       <c r="AM44" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AN44" s="16"/>
       <c r="AO44" s="16"/>
       <c r="AP44" s="16"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
@@ -4512,7 +4608,7 @@
       <c r="AF45" s="52"/>
       <c r="AG45" s="53"/>
       <c r="AH45" s="56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AI45" s="64">
         <f>BE39</f>
@@ -4520,11 +4616,11 @@
       </c>
       <c r="AJ45" s="16"/>
       <c r="AM45" s="65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AN45" s="65"/>
       <c r="AS45" s="66" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AT45" s="66"/>
       <c r="AU45" s="66"/>
@@ -4619,58 +4715,77 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="AH47:AU47"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AJ36:AS36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
     <mergeCell ref="AF36:AG36"/>
     <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AH1:AU1"/>
@@ -4695,77 +4810,58 @@
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="L4:L7"/>
     <mergeCell ref="M4:M7"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AJ8:AS8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AJ30:AS30"/>
+    <mergeCell ref="AJ31:AS31"/>
+    <mergeCell ref="AJ20:AS20"/>
+    <mergeCell ref="AJ9:AS9"/>
+    <mergeCell ref="AJ10:AS10"/>
+    <mergeCell ref="AJ11:AS11"/>
+    <mergeCell ref="AJ12:AS12"/>
+    <mergeCell ref="AJ13:AS13"/>
+    <mergeCell ref="AJ14:AS14"/>
+    <mergeCell ref="AJ15:AS15"/>
+    <mergeCell ref="AJ16:AS16"/>
+    <mergeCell ref="AJ17:AS17"/>
+    <mergeCell ref="AJ18:AS18"/>
+    <mergeCell ref="AJ19:AS19"/>
+    <mergeCell ref="AJ21:AS21"/>
+    <mergeCell ref="AJ22:AS22"/>
+    <mergeCell ref="AJ23:AS23"/>
+    <mergeCell ref="AJ24:AS24"/>
+    <mergeCell ref="AJ25:AS25"/>
+    <mergeCell ref="AJ26:AS26"/>
+    <mergeCell ref="AJ27:AS27"/>
+    <mergeCell ref="AJ28:AS28"/>
+    <mergeCell ref="AJ29:AS29"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AJ33:AS33"/>
+    <mergeCell ref="AJ34:AS34"/>
+    <mergeCell ref="AJ35:AS35"/>
+    <mergeCell ref="AJ37:AS37"/>
+    <mergeCell ref="AJ38:AS38"/>
+    <mergeCell ref="AH39:AS39"/>
+    <mergeCell ref="AJ32:AS32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
@@ -4778,82 +4874,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D85535-87E3-468A-826C-34903E37DA01}">
   <dimension ref="A1:CN47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N7" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AX18" sqref="AX18:AX19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1" style="70"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1" style="70"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1" style="70"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1" style="70"/>
     <col min="3" max="3" width="20" customWidth="1" style="70"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1" style="70"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1" style="70"/>
     <col min="5" max="5" width="4" customWidth="1" style="70"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1" style="70"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" style="70"/>
-    <col min="8" max="8" hidden="1" width="1.140625" customWidth="1" style="70"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1" style="70"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1" style="70"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1" style="70"/>
-    <col min="12" max="12" width="35.5703125" customWidth="1" style="70"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1" style="70"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1" style="70"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" style="70"/>
+    <col min="8" max="8" hidden="1" width="1.109375" customWidth="1" style="70"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1" style="70"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1" style="70"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1" style="70"/>
+    <col min="12" max="12" width="35.5546875" customWidth="1" style="70"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1" style="70"/>
     <col min="14" max="14" width="32" customWidth="1" style="70"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1" style="70"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1" style="70"/>
-    <col min="17" max="17" width="5.5703125" customWidth="1" style="70"/>
-    <col min="18" max="35" width="3.140625" customWidth="1" style="70"/>
-    <col min="36" max="36" width="4.85546875" customWidth="1" style="70"/>
-    <col min="37" max="37" width="4.85546875" customWidth="1" style="70"/>
-    <col min="38" max="38" width="25.28515625" customWidth="1" style="70"/>
-    <col min="39" max="39" width="5.5703125" customWidth="1" style="70"/>
-    <col min="40" max="57" width="3.140625" customWidth="1" style="70"/>
-    <col min="58" max="58" width="4.85546875" customWidth="1" style="70"/>
-    <col min="59" max="59" width="4.85546875" customWidth="1" style="70"/>
-    <col min="60" max="60" width="3.7109375" customWidth="1" style="70"/>
-    <col min="61" max="61" width="5.7109375" customWidth="1" style="70"/>
-    <col min="62" max="62" width="6.140625" customWidth="1" style="70"/>
-    <col min="63" max="63" width="5.7109375" customWidth="1" style="70"/>
-    <col min="64" max="64" width="6.140625" customWidth="1" style="70"/>
-    <col min="65" max="65" width="5.7109375" customWidth="1" style="70"/>
-    <col min="66" max="66" width="6.140625" customWidth="1" style="70"/>
-    <col min="67" max="67" width="5.7109375" customWidth="1" style="70"/>
-    <col min="68" max="68" width="6.140625" customWidth="1" style="70"/>
-    <col min="69" max="69" width="5.7109375" customWidth="1" style="70"/>
-    <col min="70" max="70" width="6.140625" customWidth="1" style="70"/>
-    <col min="71" max="71" width="5.7109375" customWidth="1" style="70"/>
-    <col min="72" max="72" width="6.140625" customWidth="1" style="70"/>
-    <col min="73" max="73" width="5.7109375" customWidth="1" style="70"/>
-    <col min="74" max="74" width="6.140625" customWidth="1" style="70"/>
-    <col min="75" max="75" width="5.7109375" customWidth="1" style="70"/>
-    <col min="76" max="76" width="6.140625" customWidth="1" style="70"/>
-    <col min="77" max="77" width="5.7109375" customWidth="1" style="70"/>
-    <col min="78" max="78" width="6.140625" customWidth="1" style="70"/>
-    <col min="79" max="79" width="5.7109375" customWidth="1" style="70"/>
-    <col min="80" max="80" width="6.140625" customWidth="1" style="70"/>
-    <col min="81" max="81" width="5.7109375" customWidth="1" style="70"/>
-    <col min="82" max="82" width="6.140625" customWidth="1" style="70"/>
-    <col min="83" max="83" width="5.7109375" customWidth="1" style="70"/>
-    <col min="84" max="84" width="6.140625" customWidth="1" style="70"/>
-    <col min="85" max="85" width="5.7109375" customWidth="1" style="70"/>
-    <col min="86" max="86" width="6.140625" customWidth="1" style="70"/>
-    <col min="87" max="87" width="5.7109375" customWidth="1" style="70"/>
-    <col min="88" max="88" width="6.140625" customWidth="1" style="70"/>
-    <col min="89" max="89" width="5.7109375" customWidth="1" style="70"/>
-    <col min="90" max="90" width="6.140625" customWidth="1" style="70"/>
-    <col min="91" max="91" width="5.7109375" customWidth="1" style="70"/>
-    <col min="92" max="92" width="6.140625" customWidth="1" style="70"/>
-    <col min="93" max="16384" width="8.85546875" customWidth="1" style="71"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1" style="70"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1" style="70"/>
+    <col min="17" max="17" width="5.5546875" customWidth="1" style="70"/>
+    <col min="18" max="35" width="3.109375" customWidth="1" style="70"/>
+    <col min="36" max="36" width="4.88671875" customWidth="1" style="70"/>
+    <col min="37" max="37" width="4.88671875" customWidth="1" style="70"/>
+    <col min="38" max="38" width="25.33203125" customWidth="1" style="70"/>
+    <col min="39" max="39" width="5.5546875" customWidth="1" style="70"/>
+    <col min="40" max="57" width="3.109375" customWidth="1" style="70"/>
+    <col min="58" max="58" width="4.88671875" customWidth="1" style="70"/>
+    <col min="59" max="59" width="4.88671875" customWidth="1" style="70"/>
+    <col min="60" max="60" width="3.6640625" customWidth="1" style="70"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1" style="70"/>
+    <col min="62" max="62" width="6.109375" customWidth="1" style="70"/>
+    <col min="63" max="63" width="5.6640625" customWidth="1" style="70"/>
+    <col min="64" max="64" width="6.109375" customWidth="1" style="70"/>
+    <col min="65" max="65" width="5.6640625" customWidth="1" style="70"/>
+    <col min="66" max="66" width="6.109375" customWidth="1" style="70"/>
+    <col min="67" max="67" width="5.6640625" customWidth="1" style="70"/>
+    <col min="68" max="68" width="6.109375" customWidth="1" style="70"/>
+    <col min="69" max="69" width="5.6640625" customWidth="1" style="70"/>
+    <col min="70" max="70" width="6.109375" customWidth="1" style="70"/>
+    <col min="71" max="71" width="5.6640625" customWidth="1" style="70"/>
+    <col min="72" max="72" width="6.109375" customWidth="1" style="70"/>
+    <col min="73" max="73" width="5.6640625" customWidth="1" style="70"/>
+    <col min="74" max="74" width="6.109375" customWidth="1" style="70"/>
+    <col min="75" max="75" width="5.6640625" customWidth="1" style="70"/>
+    <col min="76" max="76" width="6.109375" customWidth="1" style="70"/>
+    <col min="77" max="77" width="5.6640625" customWidth="1" style="70"/>
+    <col min="78" max="78" width="6.109375" customWidth="1" style="70"/>
+    <col min="79" max="79" width="5.6640625" customWidth="1" style="70"/>
+    <col min="80" max="80" width="6.109375" customWidth="1" style="70"/>
+    <col min="81" max="81" width="5.6640625" customWidth="1" style="70"/>
+    <col min="82" max="82" width="6.109375" customWidth="1" style="70"/>
+    <col min="83" max="83" width="5.6640625" customWidth="1" style="70"/>
+    <col min="84" max="84" width="6.109375" customWidth="1" style="70"/>
+    <col min="85" max="85" width="5.6640625" customWidth="1" style="70"/>
+    <col min="86" max="86" width="6.109375" customWidth="1" style="70"/>
+    <col min="87" max="87" width="5.6640625" customWidth="1" style="70"/>
+    <col min="88" max="88" width="6.109375" customWidth="1" style="70"/>
+    <col min="89" max="89" width="5.6640625" customWidth="1" style="70"/>
+    <col min="90" max="90" width="6.109375" customWidth="1" style="70"/>
+    <col min="91" max="91" width="5.6640625" customWidth="1" style="70"/>
+    <col min="92" max="92" width="6.109375" customWidth="1" style="70"/>
+    <col min="93" max="16384" width="8.88671875" customWidth="1" style="71"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
       <c r="E1" s="73" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
@@ -4861,7 +4957,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
       <c r="K1" s="75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L1" s="75"/>
       <c r="M1" s="75"/>
@@ -4889,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="AI1" s="78" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AJ1" s="78"/>
       <c r="AK1" s="78"/>
@@ -4915,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="BE1" s="78" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="BF1" s="78"/>
       <c r="BG1" s="78"/>
@@ -4930,7 +5026,7 @@
       <c r="BP1" s="79"/>
       <c r="BQ1" s="79"/>
       <c r="BR1" s="80" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="BS1" s="80"/>
       <c r="BT1" s="80"/>
@@ -4939,7 +5035,7 @@
       <c r="BW1" s="80"/>
       <c r="BX1" s="80"/>
       <c r="BY1" s="81" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BZ1" s="81"/>
       <c r="CA1" s="81"/>
@@ -4957,7 +5053,7 @@
       <c r="CM1" s="82"/>
       <c r="CN1" s="82"/>
     </row>
-    <row r="2" ht="17.45" customHeight="1" s="70" customFormat="1">
+    <row r="2" ht="17.4" customHeight="1" s="70" customFormat="1">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -4969,19 +5065,19 @@
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
       <c r="K2" s="83" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P2" s="76"/>
       <c r="Q2" s="76"/>
@@ -5028,10 +5124,10 @@
       <c r="BF2" s="76"/>
       <c r="BG2" s="76"/>
       <c r="BH2" s="84" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BI2" s="85" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BJ2" s="85"/>
       <c r="BK2" s="85"/>
@@ -5049,7 +5145,7 @@
       <c r="BW2" s="85"/>
       <c r="BX2" s="85"/>
       <c r="BY2" s="86" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BZ2" s="86"/>
       <c r="CA2" s="86"/>
@@ -5084,7 +5180,7 @@
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="87" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="87"/>
       <c r="R3" s="87"/>
@@ -5108,7 +5204,7 @@
       <c r="AJ3" s="87"/>
       <c r="AK3" s="87"/>
       <c r="AL3" s="87" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AM3" s="87"/>
       <c r="AN3" s="87"/>
@@ -5167,7 +5263,7 @@
     </row>
     <row r="4" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A4" s="90" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -5267,15 +5363,15 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="92" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" s="92"/>
       <c r="K5" s="93">
@@ -5285,13 +5381,13 @@
         <v>4</v>
       </c>
       <c r="M5" s="89">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N5" s="89" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O5" s="89" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P5" s="94"/>
       <c r="Q5" s="94"/>
@@ -5388,13 +5484,13 @@
       <c r="N6" s="89"/>
       <c r="O6" s="89"/>
       <c r="P6" s="95" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="96" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S6" s="97"/>
       <c r="T6" s="97"/>
@@ -5414,19 +5510,19 @@
       <c r="AH6" s="97"/>
       <c r="AI6" s="97"/>
       <c r="AJ6" s="95" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AK6" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="95" t="s">
-        <v>60</v>
-      </c>
       <c r="AM6" s="96" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AN6" s="97" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AO6" s="97"/>
       <c r="AP6" s="97"/>
@@ -5446,107 +5542,107 @@
       <c r="BD6" s="97"/>
       <c r="BE6" s="97"/>
       <c r="BF6" s="95" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="BG6" s="98" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BH6" s="84"/>
       <c r="BI6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BJ6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BK6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BL6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BM6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BN6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BO6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BP6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BQ6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BR6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BS6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BT6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BU6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BV6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BW6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BX6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BY6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BZ6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CA6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CB6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CC6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CD6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CE6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CF6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CG6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CH6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CI6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CJ6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CK6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CL6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="CM6" s="88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CN6" s="88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="70" customFormat="1">
@@ -5726,12 +5822,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="102" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="93"/>
@@ -5828,11 +5924,13 @@
         <v>2</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
-      <c r="I9" s="108"/>
+      <c r="I9" s="108" t="s">
+        <v>74</v>
+      </c>
       <c r="J9" s="108"/>
       <c r="K9" s="93">
         <v>3</v>
@@ -5930,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
@@ -6030,11 +6128,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
-      <c r="I11" s="108"/>
+      <c r="I11" s="108" t="s">
+        <v>77</v>
+      </c>
       <c r="J11" s="108"/>
       <c r="K11" s="93">
         <v>4</v>
@@ -6131,7 +6231,9 @@
       <c r="E12" s="100">
         <v>5</v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="101" t="s">
+        <v>78</v>
+      </c>
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
       <c r="I12" s="108"/>
@@ -6229,10 +6331,14 @@
       <c r="E13" s="100">
         <v>6</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="101" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
-      <c r="I13" s="108"/>
+      <c r="I13" s="108" t="s">
+        <v>80</v>
+      </c>
       <c r="J13" s="108"/>
       <c r="K13" s="93">
         <v>5</v>
@@ -6329,7 +6435,9 @@
       <c r="E14" s="100">
         <v>7</v>
       </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="101" t="s">
+        <v>81</v>
+      </c>
       <c r="G14" s="101"/>
       <c r="H14" s="101"/>
       <c r="I14" s="108"/>
@@ -6421,7 +6529,7 @@
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="110" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
@@ -6429,10 +6537,14 @@
       <c r="E15" s="100">
         <v>8</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="101" t="s">
+        <v>83</v>
+      </c>
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
-      <c r="I15" s="108"/>
+      <c r="I15" s="108" t="s">
+        <v>84</v>
+      </c>
       <c r="J15" s="108"/>
       <c r="K15" s="93">
         <v>6</v>
@@ -6529,7 +6641,9 @@
       <c r="E16" s="100">
         <v>9</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="101" t="s">
+        <v>85</v>
+      </c>
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
       <c r="I16" s="108"/>
@@ -6627,7 +6741,9 @@
       <c r="E17" s="100">
         <v>10</v>
       </c>
-      <c r="F17" s="101"/>
+      <c r="F17" s="101" t="s">
+        <v>86</v>
+      </c>
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
       <c r="I17" s="108"/>
@@ -6721,7 +6837,7 @@
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="112" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
@@ -7022,13 +7138,13 @@
         <v>2021</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C21" s="114">
         <v>2022</v>
       </c>
       <c r="D21" s="114" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E21" s="100">
         <v>14</v>
@@ -7225,11 +7341,11 @@
     </row>
     <row r="23" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A23" s="113" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="115" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D23" s="115"/>
       <c r="E23" s="100">
@@ -7527,11 +7643,11 @@
     </row>
     <row r="26" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B26" s="117"/>
       <c r="C26" s="118" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="100">
@@ -7927,7 +8043,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="109" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B30" s="109"/>
       <c r="C30" s="109"/>
@@ -8027,7 +8143,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A31" s="109" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="109"/>
@@ -8820,7 +8936,7 @@
     <row r="39" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A39" s="121"/>
       <c r="B39" s="122" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C39" s="122"/>
       <c r="D39" s="109"/>
@@ -8925,7 +9041,7 @@
       <c r="E40" s="124"/>
       <c r="F40" s="82"/>
       <c r="G40" s="108" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H40" s="118"/>
       <c r="I40" s="125"/>
@@ -9016,14 +9132,14 @@
     <row r="41" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A41" s="121"/>
       <c r="B41" s="117" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="109"/>
       <c r="E41" s="124"/>
       <c r="F41" s="82"/>
       <c r="G41" s="108" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H41" s="118"/>
       <c r="I41" s="125"/>
@@ -9121,7 +9237,7 @@
       <c r="E42" s="124"/>
       <c r="F42" s="82"/>
       <c r="G42" s="102" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H42" s="78"/>
       <c r="I42" s="125"/>
@@ -9211,7 +9327,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A43" s="122" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B43" s="122"/>
       <c r="C43" s="122"/>
@@ -9230,7 +9346,7 @@
       <c r="N43" s="126"/>
       <c r="O43" s="126"/>
       <c r="P43" s="128" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="Q43" s="129"/>
       <c r="R43" s="129"/>
@@ -9254,7 +9370,7 @@
       <c r="AJ43" s="129"/>
       <c r="AK43" s="129"/>
       <c r="AL43" s="128" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AM43" s="129"/>
       <c r="AN43" s="129"/>
@@ -9328,7 +9444,7 @@
       <c r="N44" s="126"/>
       <c r="O44" s="126"/>
       <c r="P44" s="128" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
@@ -9352,7 +9468,7 @@
       <c r="AJ44" s="130"/>
       <c r="AK44" s="130"/>
       <c r="AL44" s="128" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AM44" s="79"/>
       <c r="AN44" s="79"/>
@@ -9421,7 +9537,7 @@
       <c r="I45" s="125"/>
       <c r="J45" s="125"/>
       <c r="P45" s="134" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="Q45" s="135"/>
       <c r="R45" s="135"/>
@@ -9445,7 +9561,7 @@
       <c r="AJ45" s="135"/>
       <c r="AK45" s="135"/>
       <c r="AL45" s="134" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AM45" s="135"/>
       <c r="AN45" s="135"/>
@@ -9645,6 +9761,996 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="BY1:CI1"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="BH2:BH7"/>
+    <mergeCell ref="BI2:BX2"/>
+    <mergeCell ref="BY2:CN2"/>
+    <mergeCell ref="P3:AK4"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:G4"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BR1:BX1"/>
+    <mergeCell ref="AL3:BG4"/>
+    <mergeCell ref="BI3:BJ5"/>
+    <mergeCell ref="BK3:BL5"/>
+    <mergeCell ref="BM3:BN5"/>
+    <mergeCell ref="CM3:CN5"/>
+    <mergeCell ref="A4:D9"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="CA3:CB5"/>
+    <mergeCell ref="CC3:CD5"/>
+    <mergeCell ref="CE3:CF5"/>
+    <mergeCell ref="CG3:CH5"/>
+    <mergeCell ref="CI3:CJ5"/>
+    <mergeCell ref="CK3:CL5"/>
+    <mergeCell ref="BO3:BP5"/>
+    <mergeCell ref="BQ3:BR5"/>
+    <mergeCell ref="BS3:BT5"/>
+    <mergeCell ref="BU3:BV5"/>
+    <mergeCell ref="BW3:BX5"/>
+    <mergeCell ref="BY3:BZ5"/>
+    <mergeCell ref="BT6:BT7"/>
+    <mergeCell ref="BU6:BU7"/>
+    <mergeCell ref="BV6:BV7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:BE6"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BI6:BI7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:AI6"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="CI6:CI7"/>
+    <mergeCell ref="CJ6:CJ7"/>
+    <mergeCell ref="CK6:CK7"/>
+    <mergeCell ref="CL6:CL7"/>
+    <mergeCell ref="CM6:CM7"/>
+    <mergeCell ref="CN6:CN7"/>
+    <mergeCell ref="CC6:CC7"/>
+    <mergeCell ref="CD6:CD7"/>
+    <mergeCell ref="CE6:CE7"/>
+    <mergeCell ref="CF6:CF7"/>
+    <mergeCell ref="CG6:CG7"/>
+    <mergeCell ref="CH6:CH7"/>
+    <mergeCell ref="BW6:BW7"/>
+    <mergeCell ref="BX6:BX7"/>
+    <mergeCell ref="BY6:BY7"/>
+    <mergeCell ref="BZ6:BZ7"/>
+    <mergeCell ref="CA6:CA7"/>
+    <mergeCell ref="CB6:CB7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BS6:BS7"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="A10:D14"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BA10:BA11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="BC10:BC11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AU10:AU11"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="BG12:BG13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="BA12:BA13"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AV14:AV15"/>
+    <mergeCell ref="AW14:AW15"/>
+    <mergeCell ref="AX14:AX15"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="BF14:BF15"/>
+    <mergeCell ref="BG14:BG15"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="AZ14:AZ15"/>
+    <mergeCell ref="BA14:BA15"/>
+    <mergeCell ref="BB14:BB15"/>
+    <mergeCell ref="BC14:BC15"/>
+    <mergeCell ref="BD14:BD15"/>
+    <mergeCell ref="BE14:BE15"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BF16:BF17"/>
+    <mergeCell ref="BG16:BG17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="BF18:BF19"/>
+    <mergeCell ref="BG18:BG19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AR20:AR21"/>
+    <mergeCell ref="AS20:AS21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="BF20:BF21"/>
+    <mergeCell ref="BG20:BG21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="AZ20:AZ21"/>
+    <mergeCell ref="BA20:BA21"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="BC20:BC21"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="AV20:AV21"/>
+    <mergeCell ref="AW20:AW21"/>
+    <mergeCell ref="AX20:AX21"/>
+    <mergeCell ref="AY20:AY21"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AQ20:AQ21"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="BB22:BB23"/>
+    <mergeCell ref="BC22:BC23"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="BF22:BF23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AW22:AW23"/>
+    <mergeCell ref="AX22:AX23"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="BD24:BD25"/>
+    <mergeCell ref="BE24:BE25"/>
+    <mergeCell ref="BF24:BF25"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="AX24:AX25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="AZ24:AZ25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="BB24:BB25"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="AR24:AR25"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AN24:AN25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="BD26:BD27"/>
+    <mergeCell ref="AN28:AN29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="BE26:BE27"/>
+    <mergeCell ref="BF26:BF27"/>
+    <mergeCell ref="BG26:BG27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="AX26:AX27"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="AZ26:AZ27"/>
+    <mergeCell ref="BA26:BA27"/>
+    <mergeCell ref="BB26:BB27"/>
+    <mergeCell ref="BC26:BC27"/>
+    <mergeCell ref="AR26:AR27"/>
+    <mergeCell ref="AS26:AS27"/>
+    <mergeCell ref="AT26:AT27"/>
+    <mergeCell ref="AU26:AU27"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="AW26:AW27"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AM26:AM27"/>
+    <mergeCell ref="AN26:AN27"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AQ26:AQ27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AM28:AM29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="BG28:BG29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="BA28:BA29"/>
+    <mergeCell ref="BB28:BB29"/>
+    <mergeCell ref="BC28:BC29"/>
+    <mergeCell ref="BD28:BD29"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="BF28:BF29"/>
+    <mergeCell ref="AU28:AU29"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="AW28:AW29"/>
+    <mergeCell ref="AX28:AX29"/>
+    <mergeCell ref="AY28:AY29"/>
+    <mergeCell ref="AZ28:AZ29"/>
+    <mergeCell ref="AO28:AO29"/>
+    <mergeCell ref="AP28:AP29"/>
+    <mergeCell ref="AQ28:AQ29"/>
+    <mergeCell ref="AR28:AR29"/>
+    <mergeCell ref="AS28:AS29"/>
+    <mergeCell ref="AT28:AT29"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="BE30:BE31"/>
+    <mergeCell ref="BF30:BF31"/>
+    <mergeCell ref="BG30:BG31"/>
+    <mergeCell ref="A31:D36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="AZ30:AZ31"/>
+    <mergeCell ref="BA30:BA31"/>
+    <mergeCell ref="BB30:BB31"/>
+    <mergeCell ref="BC30:BC31"/>
+    <mergeCell ref="BD30:BD31"/>
+    <mergeCell ref="AS30:AS31"/>
+    <mergeCell ref="AT30:AT31"/>
+    <mergeCell ref="AU30:AU31"/>
+    <mergeCell ref="AV30:AV31"/>
+    <mergeCell ref="AW30:AW31"/>
+    <mergeCell ref="AX30:AX31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="AQ30:AQ31"/>
+    <mergeCell ref="AR30:AR31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AM32:AM33"/>
+    <mergeCell ref="AN32:AN33"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="BG32:BG33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="BA32:BA33"/>
+    <mergeCell ref="BB32:BB33"/>
+    <mergeCell ref="BC32:BC33"/>
+    <mergeCell ref="BD32:BD33"/>
+    <mergeCell ref="BE32:BE33"/>
+    <mergeCell ref="BF32:BF33"/>
+    <mergeCell ref="AU32:AU33"/>
+    <mergeCell ref="AV32:AV33"/>
+    <mergeCell ref="AW32:AW33"/>
+    <mergeCell ref="AX32:AX33"/>
+    <mergeCell ref="AY32:AY33"/>
+    <mergeCell ref="AZ32:AZ33"/>
+    <mergeCell ref="AO32:AO33"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AQ32:AQ33"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AS32:AS33"/>
+    <mergeCell ref="AT32:AT33"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AM34:AM35"/>
+    <mergeCell ref="AX34:AX35"/>
+    <mergeCell ref="AY34:AY35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AS34:AS35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="BF34:BF35"/>
+    <mergeCell ref="BG34:BG35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="AZ34:AZ35"/>
+    <mergeCell ref="BA34:BA35"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="BC34:BC35"/>
+    <mergeCell ref="BD34:BD35"/>
+    <mergeCell ref="BE34:BE35"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AW34:AW35"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="BE36:BE37"/>
+    <mergeCell ref="BF36:BF37"/>
+    <mergeCell ref="BG36:BG37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="AY36:AY37"/>
+    <mergeCell ref="AZ36:AZ37"/>
+    <mergeCell ref="BA36:BA37"/>
+    <mergeCell ref="BB36:BB37"/>
+    <mergeCell ref="BC36:BC37"/>
+    <mergeCell ref="BD36:BD37"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="AT36:AT37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AV36:AV37"/>
+    <mergeCell ref="AW36:AW37"/>
+    <mergeCell ref="AX36:AX37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AN36:AN37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AH40:AH41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="BD38:BD39"/>
+    <mergeCell ref="BE38:BE39"/>
+    <mergeCell ref="BF38:BF39"/>
+    <mergeCell ref="BG38:BG39"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="AX38:AX39"/>
+    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="AZ38:AZ39"/>
+    <mergeCell ref="BA38:BA39"/>
+    <mergeCell ref="BB38:BB39"/>
+    <mergeCell ref="BC38:BC39"/>
+    <mergeCell ref="AR38:AR39"/>
+    <mergeCell ref="AS38:AS39"/>
+    <mergeCell ref="AT38:AT39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AV38:AV39"/>
+    <mergeCell ref="AW38:AW39"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AM38:AM39"/>
+    <mergeCell ref="AN38:AN39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="AV40:AV41"/>
+    <mergeCell ref="AW40:AW41"/>
+    <mergeCell ref="AX40:AX41"/>
+    <mergeCell ref="AY40:AY41"/>
+    <mergeCell ref="AZ40:AZ41"/>
+    <mergeCell ref="AO40:AO41"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="AQ40:AQ41"/>
+    <mergeCell ref="AR40:AR41"/>
+    <mergeCell ref="AS40:AS41"/>
+    <mergeCell ref="AT40:AT41"/>
+    <mergeCell ref="AI40:AI41"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AK40:AK41"/>
+    <mergeCell ref="AL40:AL41"/>
+    <mergeCell ref="AM40:AM41"/>
+    <mergeCell ref="AN40:AN41"/>
     <mergeCell ref="AL47:BG47"/>
     <mergeCell ref="BH47:BX47"/>
     <mergeCell ref="BY47:CN47"/>
@@ -9677,996 +10783,6 @@
     <mergeCell ref="BE40:BE41"/>
     <mergeCell ref="BF40:BF41"/>
     <mergeCell ref="AU40:AU41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="AV40:AV41"/>
-    <mergeCell ref="AW40:AW41"/>
-    <mergeCell ref="AX40:AX41"/>
-    <mergeCell ref="AY40:AY41"/>
-    <mergeCell ref="AZ40:AZ41"/>
-    <mergeCell ref="AO40:AO41"/>
-    <mergeCell ref="AP40:AP41"/>
-    <mergeCell ref="AQ40:AQ41"/>
-    <mergeCell ref="AR40:AR41"/>
-    <mergeCell ref="AS40:AS41"/>
-    <mergeCell ref="AT40:AT41"/>
-    <mergeCell ref="AI40:AI41"/>
-    <mergeCell ref="AJ40:AJ41"/>
-    <mergeCell ref="AK40:AK41"/>
-    <mergeCell ref="AL40:AL41"/>
-    <mergeCell ref="AM40:AM41"/>
-    <mergeCell ref="AN40:AN41"/>
-    <mergeCell ref="BD38:BD39"/>
-    <mergeCell ref="BE38:BE39"/>
-    <mergeCell ref="BF38:BF39"/>
-    <mergeCell ref="BG38:BG39"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="AX38:AX39"/>
-    <mergeCell ref="AY38:AY39"/>
-    <mergeCell ref="AZ38:AZ39"/>
-    <mergeCell ref="BA38:BA39"/>
-    <mergeCell ref="BB38:BB39"/>
-    <mergeCell ref="BC38:BC39"/>
-    <mergeCell ref="AR38:AR39"/>
-    <mergeCell ref="AS38:AS39"/>
-    <mergeCell ref="AT38:AT39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AV38:AV39"/>
-    <mergeCell ref="AW38:AW39"/>
-    <mergeCell ref="AL38:AL39"/>
-    <mergeCell ref="AM38:AM39"/>
-    <mergeCell ref="AN38:AN39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AH38:AH39"/>
-    <mergeCell ref="AI38:AI39"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AF40:AF41"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AH40:AH41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="BE36:BE37"/>
-    <mergeCell ref="BF36:BF37"/>
-    <mergeCell ref="BG36:BG37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="AY36:AY37"/>
-    <mergeCell ref="AZ36:AZ37"/>
-    <mergeCell ref="BA36:BA37"/>
-    <mergeCell ref="BB36:BB37"/>
-    <mergeCell ref="BC36:BC37"/>
-    <mergeCell ref="BD36:BD37"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="AT36:AT37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AV36:AV37"/>
-    <mergeCell ref="AW36:AW37"/>
-    <mergeCell ref="AX36:AX37"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AN36:AN37"/>
-    <mergeCell ref="AO36:AO37"/>
-    <mergeCell ref="AP36:AP37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AH36:AH37"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="BF34:BF35"/>
-    <mergeCell ref="BG34:BG35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="AZ34:AZ35"/>
-    <mergeCell ref="BA34:BA35"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="BC34:BC35"/>
-    <mergeCell ref="BD34:BD35"/>
-    <mergeCell ref="BE34:BE35"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AW34:AW35"/>
-    <mergeCell ref="AY32:AY33"/>
-    <mergeCell ref="AZ32:AZ33"/>
-    <mergeCell ref="AO32:AO33"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AQ32:AQ33"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AS32:AS33"/>
-    <mergeCell ref="AT32:AT33"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AM34:AM35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AX34:AX35"/>
-    <mergeCell ref="AY34:AY35"/>
-    <mergeCell ref="AN34:AN35"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AS34:AS35"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="BG32:BG33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="BA32:BA33"/>
-    <mergeCell ref="BB32:BB33"/>
-    <mergeCell ref="BC32:BC33"/>
-    <mergeCell ref="BD32:BD33"/>
-    <mergeCell ref="BE32:BE33"/>
-    <mergeCell ref="BF32:BF33"/>
-    <mergeCell ref="AU32:AU33"/>
-    <mergeCell ref="AV32:AV33"/>
-    <mergeCell ref="AW32:AW33"/>
-    <mergeCell ref="AX32:AX33"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AQ30:AQ31"/>
-    <mergeCell ref="AR30:AR31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AM32:AM33"/>
-    <mergeCell ref="AN32:AN33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="BE30:BE31"/>
-    <mergeCell ref="BF30:BF31"/>
-    <mergeCell ref="BG30:BG31"/>
-    <mergeCell ref="A31:D36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="AZ30:AZ31"/>
-    <mergeCell ref="BA30:BA31"/>
-    <mergeCell ref="BB30:BB31"/>
-    <mergeCell ref="BC30:BC31"/>
-    <mergeCell ref="BD30:BD31"/>
-    <mergeCell ref="AS30:AS31"/>
-    <mergeCell ref="AT30:AT31"/>
-    <mergeCell ref="AU30:AU31"/>
-    <mergeCell ref="AV30:AV31"/>
-    <mergeCell ref="AW30:AW31"/>
-    <mergeCell ref="AX30:AX31"/>
-    <mergeCell ref="AI28:AI29"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="AL28:AL29"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="BG28:BG29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="BA28:BA29"/>
-    <mergeCell ref="BB28:BB29"/>
-    <mergeCell ref="BC28:BC29"/>
-    <mergeCell ref="BD28:BD29"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="BF28:BF29"/>
-    <mergeCell ref="AU28:AU29"/>
-    <mergeCell ref="AV28:AV29"/>
-    <mergeCell ref="AW28:AW29"/>
-    <mergeCell ref="AX28:AX29"/>
-    <mergeCell ref="AY28:AY29"/>
-    <mergeCell ref="AZ28:AZ29"/>
-    <mergeCell ref="AO28:AO29"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="AQ28:AQ29"/>
-    <mergeCell ref="AR28:AR29"/>
-    <mergeCell ref="AS28:AS29"/>
-    <mergeCell ref="AT28:AT29"/>
-    <mergeCell ref="BE26:BE27"/>
-    <mergeCell ref="BF26:BF27"/>
-    <mergeCell ref="BG26:BG27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="AX26:AX27"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="AZ26:AZ27"/>
-    <mergeCell ref="BA26:BA27"/>
-    <mergeCell ref="BB26:BB27"/>
-    <mergeCell ref="BC26:BC27"/>
-    <mergeCell ref="AR26:AR27"/>
-    <mergeCell ref="AS26:AS27"/>
-    <mergeCell ref="AT26:AT27"/>
-    <mergeCell ref="AU26:AU27"/>
-    <mergeCell ref="AV26:AV27"/>
-    <mergeCell ref="AW26:AW27"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AM26:AM27"/>
-    <mergeCell ref="AN26:AN27"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AQ26:AQ27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AM28:AM29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="BD26:BD27"/>
-    <mergeCell ref="AN28:AN29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="BD24:BD25"/>
-    <mergeCell ref="BE24:BE25"/>
-    <mergeCell ref="BF24:BF25"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="AX24:AX25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="AZ24:AZ25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="BB24:BB25"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="AR24:AR25"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AN24:AN25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="BB22:BB23"/>
-    <mergeCell ref="BC22:BC23"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BF22:BF23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AW22:AW23"/>
-    <mergeCell ref="AX22:AX23"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AM22:AM23"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="BF20:BF21"/>
-    <mergeCell ref="BG20:BG21"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="AZ20:AZ21"/>
-    <mergeCell ref="BA20:BA21"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="BC20:BC21"/>
-    <mergeCell ref="BD20:BD21"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="AV20:AV21"/>
-    <mergeCell ref="AW20:AW21"/>
-    <mergeCell ref="AX20:AX21"/>
-    <mergeCell ref="AY20:AY21"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AO20:AO21"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="AQ20:AQ21"/>
-    <mergeCell ref="AR20:AR21"/>
-    <mergeCell ref="AS20:AS21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="BF18:BF19"/>
-    <mergeCell ref="BG18:BG19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="AX18:AX19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BF16:BF17"/>
-    <mergeCell ref="BG16:BG17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="BF14:BF15"/>
-    <mergeCell ref="BG14:BG15"/>
-    <mergeCell ref="A15:D17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="AZ14:AZ15"/>
-    <mergeCell ref="BA14:BA15"/>
-    <mergeCell ref="BB14:BB15"/>
-    <mergeCell ref="BC14:BC15"/>
-    <mergeCell ref="BD14:BD15"/>
-    <mergeCell ref="BE14:BE15"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AV14:AV15"/>
-    <mergeCell ref="AW14:AW15"/>
-    <mergeCell ref="AX14:AX15"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="BG12:BG13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="BA12:BA13"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="BD10:BD11"/>
-    <mergeCell ref="BE10:BE11"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BG10:BG11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BA10:BA11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="BC10:BC11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AU10:AU11"/>
-    <mergeCell ref="A10:D14"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="CI6:CI7"/>
-    <mergeCell ref="CJ6:CJ7"/>
-    <mergeCell ref="CK6:CK7"/>
-    <mergeCell ref="CL6:CL7"/>
-    <mergeCell ref="CM6:CM7"/>
-    <mergeCell ref="CN6:CN7"/>
-    <mergeCell ref="CC6:CC7"/>
-    <mergeCell ref="CD6:CD7"/>
-    <mergeCell ref="CE6:CE7"/>
-    <mergeCell ref="CF6:CF7"/>
-    <mergeCell ref="CG6:CG7"/>
-    <mergeCell ref="CH6:CH7"/>
-    <mergeCell ref="BW6:BW7"/>
-    <mergeCell ref="BX6:BX7"/>
-    <mergeCell ref="BY6:BY7"/>
-    <mergeCell ref="BZ6:BZ7"/>
-    <mergeCell ref="CA6:CA7"/>
-    <mergeCell ref="CB6:CB7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BS6:BS7"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:BE6"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BI6:BI7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:AI6"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="CE3:CF5"/>
-    <mergeCell ref="CG3:CH5"/>
-    <mergeCell ref="CI3:CJ5"/>
-    <mergeCell ref="CK3:CL5"/>
-    <mergeCell ref="BO3:BP5"/>
-    <mergeCell ref="BQ3:BR5"/>
-    <mergeCell ref="BS3:BT5"/>
-    <mergeCell ref="BU3:BV5"/>
-    <mergeCell ref="BW3:BX5"/>
-    <mergeCell ref="BY3:BZ5"/>
-    <mergeCell ref="BT6:BT7"/>
-    <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="BV6:BV7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BY1:CI1"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="BH2:BH7"/>
-    <mergeCell ref="BI2:BX2"/>
-    <mergeCell ref="BY2:CN2"/>
-    <mergeCell ref="P3:AK4"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:G4"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BR1:BX1"/>
-    <mergeCell ref="AL3:BG4"/>
-    <mergeCell ref="BI3:BJ5"/>
-    <mergeCell ref="BK3:BL5"/>
-    <mergeCell ref="BM3:BN5"/>
-    <mergeCell ref="CM3:CN5"/>
-    <mergeCell ref="A4:D9"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="CA3:CB5"/>
-    <mergeCell ref="CC3:CD5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
@@ -10691,83 +10807,79 @@
       <selection activeCell="G8" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1" style="70"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1" style="70"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1" style="70"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1" style="70"/>
     <col min="3" max="3" hidden="1" width="0" customWidth="1" style="70"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1" style="70"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1" style="70"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" style="70"/>
-    <col min="7" max="7" width="71.85546875" customWidth="1" style="70"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1" style="70"/>
-    <col min="9" max="9" width="11.140625" customWidth="1" style="70"/>
-    <col min="10" max="10" width="71.85546875" customWidth="1" style="71"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" style="71"/>
-    <col min="12" max="16384" width="8.85546875" customWidth="1" style="71"/>
+    <col min="4" max="4" width="48.88671875" customWidth="1" style="70"/>
+    <col min="5" max="5" width="48.88671875" customWidth="1" style="70"/>
+    <col min="6" max="6" width="11.109375" customWidth="1" style="70"/>
+    <col min="7" max="7" width="71.88671875" customWidth="1" style="70"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1" style="70"/>
+    <col min="9" max="9" width="11.109375" customWidth="1" style="70"/>
+    <col min="10" max="10" width="71.88671875" customWidth="1" style="71"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1" style="71"/>
+    <col min="12" max="16384" width="8.88671875" customWidth="1" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.9" customHeight="1" s="70" customFormat="1">
+    <row r="1" ht="22.95" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="141" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="79"/>
       <c r="D1" s="141" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E1" s="141"/>
       <c r="F1" s="87" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" ht="19.9" customHeight="1" s="70" customFormat="1">
+    <row r="2" ht="19.95" customHeight="1" s="70" customFormat="1">
       <c r="A2" s="142" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="142" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E2" s="142" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="J2" s="93" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" ht="19.9" customHeight="1" s="70" customFormat="1">
-      <c r="A3" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>21</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" ht="19.95" customHeight="1" s="70" customFormat="1">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="75"/>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
@@ -10797,12 +10909,8 @@
       <c r="C5" s="75"/>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
-      <c r="F5" s="143" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>99</v>
-      </c>
+      <c r="F5" s="143"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="144"/>
       <c r="I5" s="143"/>
       <c r="J5" s="83"/>
@@ -10810,9 +10918,7 @@
     </row>
     <row r="6" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A6" s="83"/>
-      <c r="B6" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B6" s="83"/>
       <c r="C6" s="75"/>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
@@ -10851,9 +10957,7 @@
     </row>
     <row r="9" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A9" s="83"/>
-      <c r="B9" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" s="83"/>
       <c r="C9" s="75"/>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
@@ -10892,9 +10996,7 @@
     </row>
     <row r="12" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A12" s="83"/>
-      <c r="B12" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B12" s="83"/>
       <c r="C12" s="75"/>
       <c r="D12" s="83"/>
       <c r="E12" s="83"/>
@@ -10933,9 +11035,7 @@
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="83"/>
-      <c r="B15" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="83"/>
       <c r="C15" s="75"/>
       <c r="D15" s="83"/>
       <c r="E15" s="83"/>
@@ -10974,9 +11074,7 @@
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="83"/>
-      <c r="B18" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18" s="83"/>
       <c r="C18" s="75"/>
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
@@ -11015,9 +11113,7 @@
     </row>
     <row r="21" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A21" s="83"/>
-      <c r="B21" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B21" s="83"/>
       <c r="C21" s="75"/>
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
@@ -11056,9 +11152,7 @@
     </row>
     <row r="24" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A24" s="83"/>
-      <c r="B24" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B24" s="83"/>
       <c r="C24" s="75"/>
       <c r="D24" s="83"/>
       <c r="E24" s="83"/>
@@ -11097,9 +11191,7 @@
     </row>
     <row r="27" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B27" s="83"/>
       <c r="C27" s="75"/>
       <c r="D27" s="83"/>
       <c r="E27" s="83"/>
@@ -11138,9 +11230,7 @@
     </row>
     <row r="30" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="83"/>
-      <c r="B30" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B30" s="83"/>
       <c r="C30" s="75"/>
       <c r="D30" s="83"/>
       <c r="E30" s="83"/>
@@ -11179,9 +11269,7 @@
     </row>
     <row r="33" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A33" s="83"/>
-      <c r="B33" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B33" s="83"/>
       <c r="C33" s="75"/>
       <c r="D33" s="83"/>
       <c r="E33" s="83"/>
@@ -11220,9 +11308,7 @@
     </row>
     <row r="36" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A36" s="83"/>
-      <c r="B36" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B36" s="83"/>
       <c r="C36" s="75"/>
       <c r="D36" s="83"/>
       <c r="E36" s="83"/>
@@ -11261,9 +11347,7 @@
     </row>
     <row r="39" ht="18.75" customHeight="1" s="70" customFormat="1">
       <c r="A39" s="83"/>
-      <c r="B39" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="B39" s="83"/>
       <c r="C39" s="75"/>
       <c r="D39" s="83"/>
       <c r="E39" s="83"/>
@@ -11287,7 +11371,7 @@
       <c r="J40" s="146"/>
       <c r="K40" s="147"/>
     </row>
-    <row r="41" ht="14.45" customHeight="1" s="70" customFormat="1">
+    <row r="41" ht="14.4" customHeight="1" s="70" customFormat="1">
       <c r="A41" s="83"/>
       <c r="B41" s="83"/>
       <c r="C41" s="75"/>
@@ -11302,9 +11386,7 @@
     </row>
     <row r="42" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A42" s="148"/>
-      <c r="B42" s="148" t="s">
-        <v>21</v>
-      </c>
+      <c r="B42" s="148"/>
       <c r="C42" s="75"/>
       <c r="D42" s="148"/>
       <c r="E42" s="148"/>
@@ -11382,19 +11464,112 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="H41:H43"/>
@@ -11419,115 +11594,22 @@
     <mergeCell ref="F38:F40"/>
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
     <mergeCell ref="I38:I40"/>
     <mergeCell ref="J38:J40"/>
     <mergeCell ref="K38:K40"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -5,20 +5,22 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Начало" sheetId="2" r:id="rId3"/>
+    <sheet name="Начало" sheetId="3" r:id="rId4"/>
     <sheet name="Информатика Cеместр №1" sheetId="1" r:id="rId1"/>
-    <sheet name="Конец" sheetId="3" r:id="rId4"/>
+    <sheet name="Философия Cеместр №2" sheetId="2" r:id="rId3"/>
+    <sheet name="Конец" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Информатика Cеместр №1'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Конец!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Философия Cеместр №2'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Конец!$A$1:$K$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -174,6 +176,15 @@
     <t>Ф.И.О.</t>
   </si>
   <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>07.03.2021</t>
+  </si>
+  <si>
+    <t>Введение</t>
+  </si>
+  <si>
     <t>Министерство образования и науки РФ</t>
   </si>
   <si>
@@ -255,25 +266,43 @@
     <t>Подпись препода-вателя</t>
   </si>
   <si>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>10 - 11</t>
+  </si>
+  <si>
     <t>Алексеева А. В.</t>
   </si>
   <si>
-    <t>fujhfiukdxgf</t>
+    <t xml:space="preserve">fujhfiukdxgf </t>
+  </si>
+  <si>
+    <t>Р</t>
+  </si>
+  <si>
+    <t>КР</t>
+  </si>
+  <si>
+    <t>КП</t>
   </si>
   <si>
     <t>Батманова Ю. А.</t>
   </si>
   <si>
-    <t>rgrdfdgvsrdfdg</t>
+    <t xml:space="preserve">rgrdfdgvsrdfdg </t>
   </si>
   <si>
     <t>Волкова А. С.</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Кулигин А. В.</t>
   </si>
   <si>
-    <t>dgverddgvesrddgt</t>
+    <t xml:space="preserve">dgverddgvesrddgt </t>
   </si>
   <si>
     <t>Наймушина С. А.</t>
@@ -282,7 +311,7 @@
     <t>Поносов Н. И.</t>
   </si>
   <si>
-    <t>rdgvsdrfdgvsdrfdg</t>
+    <t xml:space="preserve">rdgvsdrfdgvsdrfdg </t>
   </si>
   <si>
     <t>Тойкинова А. И.</t>
@@ -294,7 +323,7 @@
     <t>Фатихов Р. Э.</t>
   </si>
   <si>
-    <t>rddgverddgtfcesrdtgserdd</t>
+    <t xml:space="preserve">rddgverddgtfcesrdtgserdd </t>
   </si>
   <si>
     <t>Хованов Д. А.</t>
@@ -382,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -542,7 +571,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="5"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -581,6 +617,13 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -941,7 +984,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
@@ -1226,19 +1269,16 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
@@ -1248,15 +1288,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
@@ -1270,6 +1313,12 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1286,14 +1335,14 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
@@ -1302,7 +1351,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="32" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
@@ -1310,7 +1359,7 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" xfId="4" applyProtection="1"/>
@@ -1367,7 +1416,7 @@
   <dimension ref="A1:BJ47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC9" sqref="B9:AC9"/>
+      <selection activeCell="AD9" sqref="AD9:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4871,11 +4920,3492 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BJ47"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9:AE9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="5.44140625" customWidth="1" style="5"/>
+    <col min="2" max="7" bestFit="1" width="2.109375" customWidth="1" style="5"/>
+    <col min="8" max="8" width="2.109375" customWidth="1" style="5"/>
+    <col min="9" max="19" bestFit="1" width="2.109375" customWidth="1" style="5"/>
+    <col min="20" max="20" bestFit="1" width="2.5546875" customWidth="1" style="5"/>
+    <col min="21" max="29" bestFit="1" width="2.109375" customWidth="1" style="5"/>
+    <col min="30" max="30" bestFit="1" width="8.6640625" customWidth="1" style="5"/>
+    <col min="31" max="32" width="7.44140625" customWidth="1" style="5"/>
+    <col min="33" max="33" width="8.6640625" customWidth="1" style="5"/>
+    <col min="34" max="34" width="12.44140625" customWidth="1" style="5"/>
+    <col min="35" max="39" width="8.88671875" customWidth="1" style="5"/>
+    <col min="40" max="40" width="7.44140625" customWidth="1" style="5"/>
+    <col min="41" max="41" hidden="1" width="1.44140625" customWidth="1" style="5"/>
+    <col min="42" max="42" hidden="1" width="10.6640625" customWidth="1" style="5"/>
+    <col min="43" max="43" hidden="1" width="5.33203125" customWidth="1" style="5"/>
+    <col min="44" max="44" width="5.88671875" customWidth="1" style="5"/>
+    <col min="45" max="45" width="3.6640625" customWidth="1" style="5"/>
+    <col min="46" max="46" width="8.88671875" customWidth="1" style="5"/>
+    <col min="47" max="47" width="14.6640625" customWidth="1" style="5"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1" style="5"/>
+    <col min="51" max="51" width="8.88671875" customWidth="1" style="5"/>
+    <col min="52" max="52" bestFit="1" width="10.5546875" customWidth="1" style="5"/>
+    <col min="53" max="53" width="8.88671875" customWidth="1" style="5"/>
+    <col min="54" max="54" bestFit="1" width="10.5546875" customWidth="1" style="5"/>
+    <col min="55" max="16384" width="8.88671875" customWidth="1" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" s="6" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ1" s="9"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="6" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AW2" s="5">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="9"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="6" customFormat="1">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="BJ3" s="9"/>
+    </row>
+    <row r="4" ht="17.4" customHeight="1" s="6" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ4" s="9"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" s="6" customFormat="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="21"/>
+      <c r="BJ5" s="9"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="21"/>
+      <c r="BJ6" s="9"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="21"/>
+      <c r="AY7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ7" s="9"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A8" s="28">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="33">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="32"/>
+      <c r="AY8" s="5" t="str">
+        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
+      </c>
+      <c r="BB8" s="5">
+        <f>IF( AI8="л", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="5">
+        <f>IF( AI8="пз", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="5">
+        <f>IF( AI8="лр", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="5">
+        <f>IF( AI8="кср", AT8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="9"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A9" s="34">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="33">
+        <f ref="AT9:AT38" t="shared" si="0">IF(AJ9="",0,$AW$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="32"/>
+      <c r="AY9" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB9" s="5">
+        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="5">
+        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="5">
+        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="5">
+        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="9"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A10" s="34">
+        <f ref="A10:A36" t="shared" si="6">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="32"/>
+      <c r="AY10" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC10" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE10" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="9"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A11" s="37">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="32"/>
+      <c r="AY11" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="9"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A12" s="34">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="32"/>
+      <c r="AY12" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="9"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A13" s="34">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="32"/>
+      <c r="AY13" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="9"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A14" s="34">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="32"/>
+      <c r="AY14" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="9"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A15" s="34">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="32"/>
+      <c r="AY15" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="9"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A16" s="34">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="32"/>
+      <c r="AY16" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="9"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A17" s="34">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="32"/>
+      <c r="AY17" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="9"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A18" s="34">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="32"/>
+      <c r="AY18" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="9"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A19" s="34">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="32"/>
+      <c r="AY19" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="9"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A20" s="34">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="32"/>
+      <c r="AY20" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="9"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A21" s="34">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="32"/>
+      <c r="AY21" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="9"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A22" s="34">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="32"/>
+      <c r="AY22" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="9"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A23" s="34">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="32"/>
+      <c r="AY23" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="9"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A24" s="34">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="32"/>
+      <c r="AY24" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="9"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A25" s="34">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="32"/>
+      <c r="AY25" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="9"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A26" s="34">
+        <f>A25+1</f>
+        <v>19</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="32"/>
+      <c r="AY26" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="9"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A27" s="34">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="32"/>
+      <c r="AY27" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="9"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A28" s="34">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="32"/>
+      <c r="AY28" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC28" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="9"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A29" s="34">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="32"/>
+      <c r="AY29" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="9"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A30" s="34">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="32"/>
+      <c r="AY30" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC30" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE30" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="9"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A31" s="34">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="32"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="32"/>
+      <c r="AY31" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE31" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="9"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A32" s="34">
+        <f>A31+1</f>
+        <v>25</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU32" s="32"/>
+      <c r="AY32" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE32" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="9"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A33" s="34">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="32"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="32"/>
+      <c r="AY33" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC33" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE33" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="9"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A34" s="34">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU34" s="32"/>
+      <c r="AY34" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE34" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="9"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A35" s="34">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="32"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="32"/>
+      <c r="AY35" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB35" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="9"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A36" s="34">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="32"/>
+      <c r="AY36" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="9"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" s="6" customFormat="1">
+      <c r="A37" s="34">
+        <v>30</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="32"/>
+      <c r="AQ37" s="32"/>
+      <c r="AR37" s="32"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="32"/>
+      <c r="AY37" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB37" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="9"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="32"/>
+      <c r="AQ38" s="32"/>
+      <c r="AR38" s="32"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU38" s="32"/>
+      <c r="AY38" s="5" t="str">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="BB38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC38" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="9"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" s="6" customFormat="1">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
+      <c r="AT39" s="48">
+        <f>SUM(AT8:AT38)</f>
+        <v>0</v>
+      </c>
+      <c r="AU39" s="49"/>
+      <c r="AY39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ39" s="5" t="e">
+        <f>AVERAGE(AY8:AY38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB39" s="5">
+        <f>SUM(BB8:BB38)</f>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="5">
+        <f>SUM(BC8:BC38)</f>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="5">
+        <f>SUM(BD8:BD38)</f>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="5">
+        <f>SUM(BE8:BE38)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="9"/>
+    </row>
+    <row r="40" ht="18" customHeight="1" s="6" customFormat="1">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="53"/>
+      <c r="AH40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="54">
+        <f>AT39</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="16"/>
+      <c r="AU40" s="16"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="53"/>
+      <c r="AH41" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="55"/>
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="16"/>
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="16"/>
+      <c r="AS41" s="16"/>
+      <c r="AT41" s="16"/>
+      <c r="AU41" s="16"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI42" s="57">
+        <f>BB39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="16"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="16"/>
+      <c r="AP42" s="16"/>
+      <c r="AQ42" s="16"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="16"/>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="59" t="e">
+        <f>AZ39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI43" s="61">
+        <f>BC39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="16"/>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="16"/>
+      <c r="AQ43" s="16"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="16"/>
+      <c r="AT43" s="16"/>
+      <c r="AU43" s="16"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="63"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI44" s="61">
+        <f>BD39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN44" s="16"/>
+      <c r="AO44" s="16"/>
+      <c r="AP44" s="16"/>
+      <c r="AQ44" s="16"/>
+      <c r="AR44" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS44" s="16"/>
+      <c r="AT44" s="16"/>
+      <c r="AU44" s="16"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI45" s="64">
+        <f>BE39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="16"/>
+      <c r="AM45" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN45" s="65"/>
+      <c r="AS45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT45" s="66"/>
+      <c r="AU45" s="66"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="67"/>
+      <c r="AB46" s="67"/>
+      <c r="AC46" s="67"/>
+      <c r="AD46" s="67"/>
+      <c r="AE46" s="67"/>
+      <c r="AF46" s="67"/>
+      <c r="AG46" s="67"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A47" s="68">
+        <v>10</v>
+      </c>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="68"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="69">
+        <v>11</v>
+      </c>
+      <c r="AI47" s="69"/>
+      <c r="AJ47" s="69"/>
+      <c r="AK47" s="69"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="69"/>
+      <c r="AO47" s="69"/>
+      <c r="AP47" s="69"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="69"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="AH47:AU47"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AJ36:AS36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH1:AU1"/>
+    <mergeCell ref="AH2:AU2"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AJ4:AS7"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AD6:AE7"/>
+    <mergeCell ref="AF6:AG7"/>
+    <mergeCell ref="AD4:AG5"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AJ8:AS8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AJ30:AS30"/>
+    <mergeCell ref="AJ31:AS31"/>
+    <mergeCell ref="AJ20:AS20"/>
+    <mergeCell ref="AJ9:AS9"/>
+    <mergeCell ref="AJ10:AS10"/>
+    <mergeCell ref="AJ11:AS11"/>
+    <mergeCell ref="AJ12:AS12"/>
+    <mergeCell ref="AJ13:AS13"/>
+    <mergeCell ref="AJ14:AS14"/>
+    <mergeCell ref="AJ15:AS15"/>
+    <mergeCell ref="AJ16:AS16"/>
+    <mergeCell ref="AJ17:AS17"/>
+    <mergeCell ref="AJ18:AS18"/>
+    <mergeCell ref="AJ19:AS19"/>
+    <mergeCell ref="AJ21:AS21"/>
+    <mergeCell ref="AJ22:AS22"/>
+    <mergeCell ref="AJ23:AS23"/>
+    <mergeCell ref="AJ24:AS24"/>
+    <mergeCell ref="AJ25:AS25"/>
+    <mergeCell ref="AJ26:AS26"/>
+    <mergeCell ref="AJ27:AS27"/>
+    <mergeCell ref="AJ28:AS28"/>
+    <mergeCell ref="AJ29:AS29"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AJ33:AS33"/>
+    <mergeCell ref="AJ34:AS34"/>
+    <mergeCell ref="AJ35:AS35"/>
+    <mergeCell ref="AJ37:AS37"/>
+    <mergeCell ref="AJ38:AS38"/>
+    <mergeCell ref="AH39:AS39"/>
+    <mergeCell ref="AJ32:AS32"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D85535-87E3-468A-826C-34903E37DA01}">
   <dimension ref="A1:CN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N7" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AX18" sqref="AX18:AX19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BI8" sqref="BI8:CN37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4943,13 +8473,13 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="72" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
       <c r="E1" s="73" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
@@ -4957,7 +8487,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
       <c r="K1" s="75" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="75"/>
       <c r="M1" s="75"/>
@@ -4985,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="AI1" s="78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AJ1" s="78"/>
       <c r="AK1" s="78"/>
@@ -5011,7 +8541,7 @@
         <v>2</v>
       </c>
       <c r="BE1" s="78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BF1" s="78"/>
       <c r="BG1" s="78"/>
@@ -5026,7 +8556,7 @@
       <c r="BP1" s="79"/>
       <c r="BQ1" s="79"/>
       <c r="BR1" s="80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BS1" s="80"/>
       <c r="BT1" s="80"/>
@@ -5035,7 +8565,7 @@
       <c r="BW1" s="80"/>
       <c r="BX1" s="80"/>
       <c r="BY1" s="81" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BZ1" s="81"/>
       <c r="CA1" s="81"/>
@@ -5065,19 +8595,19 @@
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
       <c r="K2" s="83" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P2" s="76"/>
       <c r="Q2" s="76"/>
@@ -5124,10 +8654,10 @@
       <c r="BF2" s="76"/>
       <c r="BG2" s="76"/>
       <c r="BH2" s="84" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BI2" s="85" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BJ2" s="85"/>
       <c r="BK2" s="85"/>
@@ -5145,7 +8675,7 @@
       <c r="BW2" s="85"/>
       <c r="BX2" s="85"/>
       <c r="BY2" s="86" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BZ2" s="86"/>
       <c r="CA2" s="86"/>
@@ -5180,7 +8710,7 @@
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="87" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="87"/>
       <c r="R3" s="87"/>
@@ -5204,7 +8734,7 @@
       <c r="AJ3" s="87"/>
       <c r="AK3" s="87"/>
       <c r="AL3" s="87" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AM3" s="87"/>
       <c r="AN3" s="87"/>
@@ -5228,9 +8758,13 @@
       <c r="BF3" s="87"/>
       <c r="BG3" s="87"/>
       <c r="BH3" s="84"/>
-      <c r="BI3" s="88"/>
+      <c r="BI3" s="88" t="s">
+        <v>4</v>
+      </c>
       <c r="BJ3" s="88"/>
-      <c r="BK3" s="89"/>
+      <c r="BK3" s="89" t="s">
+        <v>44</v>
+      </c>
       <c r="BL3" s="89"/>
       <c r="BM3" s="89"/>
       <c r="BN3" s="89"/>
@@ -5263,7 +8797,7 @@
     </row>
     <row r="4" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A4" s="90" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -5363,15 +8897,15 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="91" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="92" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" s="92"/>
       <c r="K5" s="93">
@@ -5384,10 +8918,10 @@
         <v>2.5</v>
       </c>
       <c r="N5" s="89" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O5" s="89" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P5" s="94"/>
       <c r="Q5" s="94"/>
@@ -5484,13 +9018,13 @@
       <c r="N6" s="89"/>
       <c r="O6" s="89"/>
       <c r="P6" s="95" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="96" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S6" s="97"/>
       <c r="T6" s="97"/>
@@ -5510,19 +9044,19 @@
       <c r="AH6" s="97"/>
       <c r="AI6" s="97"/>
       <c r="AJ6" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="AK6" s="96" t="s">
+      <c r="AM6" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="AL6" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM6" s="96" t="s">
-        <v>65</v>
-      </c>
       <c r="AN6" s="97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AO6" s="97"/>
       <c r="AP6" s="97"/>
@@ -5542,107 +9076,107 @@
       <c r="BD6" s="97"/>
       <c r="BE6" s="97"/>
       <c r="BF6" s="95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BG6" s="98" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BH6" s="84"/>
       <c r="BI6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BJ6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BK6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BL6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BM6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BN6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BO6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BP6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BQ6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BR6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BS6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BT6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BU6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BV6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BW6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BX6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BY6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BZ6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CA6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CB6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CC6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CD6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CE6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CF6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CG6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CH6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CI6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CJ6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CK6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CL6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CM6" s="88" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CN6" s="88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="70" customFormat="1">
@@ -5659,10 +9193,18 @@
       <c r="K7" s="93">
         <v>2</v>
       </c>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
+      <c r="L7" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="89">
+        <v>1</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="89" t="s">
+        <v>75</v>
+      </c>
       <c r="P7" s="95"/>
       <c r="Q7" s="96"/>
       <c r="R7" s="99">
@@ -5822,12 +9364,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="102" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="93"/>
@@ -5835,28 +9377,72 @@
       <c r="M8" s="89"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
+      <c r="P8" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="103">
+        <v>4.5</v>
+      </c>
+      <c r="R8" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ8" s="103">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="103">
+        <v>2</v>
+      </c>
       <c r="AL8" s="89"/>
       <c r="AM8" s="103"/>
       <c r="AN8" s="103"/>
@@ -5882,9 +9468,13 @@
       <c r="BH8" s="105">
         <v>1</v>
       </c>
-      <c r="BI8" s="106"/>
+      <c r="BI8" s="106" t="s">
+        <v>45</v>
+      </c>
       <c r="BJ8" s="106"/>
-      <c r="BK8" s="106"/>
+      <c r="BK8" s="106" t="s">
+        <v>45</v>
+      </c>
       <c r="BL8" s="106"/>
       <c r="BM8" s="106"/>
       <c r="BN8" s="106"/>
@@ -5924,12 +9514,12 @@
         <v>2</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="108" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J9" s="108"/>
       <c r="K9" s="93">
@@ -5986,9 +9576,13 @@
       <c r="BH9" s="105">
         <v>2</v>
       </c>
-      <c r="BI9" s="106"/>
+      <c r="BI9" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ9" s="106"/>
-      <c r="BK9" s="106"/>
+      <c r="BK9" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL9" s="106"/>
       <c r="BM9" s="106"/>
       <c r="BN9" s="106"/>
@@ -6028,11 +9622,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
-      <c r="I10" s="108"/>
+      <c r="I10" s="108" t="s">
+        <v>84</v>
+      </c>
       <c r="J10" s="108"/>
       <c r="K10" s="93"/>
       <c r="L10" s="89"/>
@@ -6086,9 +9682,13 @@
       <c r="BH10" s="105">
         <v>3</v>
       </c>
-      <c r="BI10" s="106"/>
+      <c r="BI10" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ10" s="106"/>
-      <c r="BK10" s="106"/>
+      <c r="BK10" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL10" s="106"/>
       <c r="BM10" s="106"/>
       <c r="BN10" s="106"/>
@@ -6128,12 +9728,12 @@
         <v>4</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="108" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J11" s="108"/>
       <c r="K11" s="93">
@@ -6190,9 +9790,13 @@
       <c r="BH11" s="105">
         <v>4</v>
       </c>
-      <c r="BI11" s="106"/>
+      <c r="BI11" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ11" s="106"/>
-      <c r="BK11" s="106"/>
+      <c r="BK11" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL11" s="106"/>
       <c r="BM11" s="106"/>
       <c r="BN11" s="106"/>
@@ -6232,11 +9836,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
-      <c r="I12" s="108"/>
+      <c r="I12" s="108" t="s">
+        <v>84</v>
+      </c>
       <c r="J12" s="108"/>
       <c r="K12" s="93"/>
       <c r="L12" s="89"/>
@@ -6290,9 +9896,13 @@
       <c r="BH12" s="105">
         <v>5</v>
       </c>
-      <c r="BI12" s="106"/>
+      <c r="BI12" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ12" s="106"/>
-      <c r="BK12" s="106"/>
+      <c r="BK12" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL12" s="106"/>
       <c r="BM12" s="106"/>
       <c r="BN12" s="106"/>
@@ -6332,12 +9942,12 @@
         <v>6</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
       <c r="I13" s="108" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J13" s="108"/>
       <c r="K13" s="93">
@@ -6394,9 +10004,13 @@
       <c r="BH13" s="105">
         <v>6</v>
       </c>
-      <c r="BI13" s="106"/>
+      <c r="BI13" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ13" s="106"/>
-      <c r="BK13" s="106"/>
+      <c r="BK13" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL13" s="106"/>
       <c r="BM13" s="106"/>
       <c r="BN13" s="106"/>
@@ -6436,11 +10050,13 @@
         <v>7</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G14" s="101"/>
       <c r="H14" s="101"/>
-      <c r="I14" s="108"/>
+      <c r="I14" s="108" t="s">
+        <v>84</v>
+      </c>
       <c r="J14" s="108"/>
       <c r="K14" s="93"/>
       <c r="L14" s="89"/>
@@ -6494,9 +10110,13 @@
       <c r="BH14" s="105">
         <v>7</v>
       </c>
-      <c r="BI14" s="106"/>
+      <c r="BI14" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ14" s="106"/>
-      <c r="BK14" s="106"/>
+      <c r="BK14" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL14" s="106"/>
       <c r="BM14" s="106"/>
       <c r="BN14" s="106"/>
@@ -6529,7 +10149,7 @@
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="110" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
@@ -6538,12 +10158,12 @@
         <v>8</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
       <c r="I15" s="108" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J15" s="108"/>
       <c r="K15" s="93">
@@ -6600,9 +10220,13 @@
       <c r="BH15" s="105">
         <v>8</v>
       </c>
-      <c r="BI15" s="106"/>
+      <c r="BI15" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ15" s="106"/>
-      <c r="BK15" s="106"/>
+      <c r="BK15" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL15" s="106"/>
       <c r="BM15" s="106"/>
       <c r="BN15" s="106"/>
@@ -6642,11 +10266,13 @@
         <v>9</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
-      <c r="I16" s="108"/>
+      <c r="I16" s="108" t="s">
+        <v>84</v>
+      </c>
       <c r="J16" s="108"/>
       <c r="K16" s="93"/>
       <c r="L16" s="89"/>
@@ -6700,9 +10326,13 @@
       <c r="BH16" s="105">
         <v>9</v>
       </c>
-      <c r="BI16" s="106"/>
+      <c r="BI16" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ16" s="106"/>
-      <c r="BK16" s="106"/>
+      <c r="BK16" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="BL16" s="106"/>
       <c r="BM16" s="106"/>
       <c r="BN16" s="106"/>
@@ -6742,11 +10372,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="101" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
-      <c r="I17" s="108"/>
+      <c r="I17" s="108" t="s">
+        <v>84</v>
+      </c>
       <c r="J17" s="108"/>
       <c r="K17" s="93">
         <v>7</v>
@@ -6802,9 +10434,13 @@
       <c r="BH17" s="105">
         <v>10</v>
       </c>
-      <c r="BI17" s="106"/>
+      <c r="BI17" s="106" t="s">
+        <v>45</v>
+      </c>
       <c r="BJ17" s="106"/>
-      <c r="BK17" s="106"/>
+      <c r="BK17" s="106" t="s">
+        <v>45</v>
+      </c>
       <c r="BL17" s="106"/>
       <c r="BM17" s="106"/>
       <c r="BN17" s="106"/>
@@ -6837,7 +10473,7 @@
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="112" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
@@ -7138,13 +10774,13 @@
         <v>2021</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C21" s="114">
         <v>2022</v>
       </c>
       <c r="D21" s="114" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E21" s="100">
         <v>14</v>
@@ -7341,11 +10977,11 @@
     </row>
     <row r="23" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A23" s="113" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="115" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D23" s="115"/>
       <c r="E23" s="100">
@@ -7643,11 +11279,11 @@
     </row>
     <row r="26" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B26" s="117"/>
       <c r="C26" s="118" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="100">
@@ -8043,7 +11679,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="109" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B30" s="109"/>
       <c r="C30" s="109"/>
@@ -8143,7 +11779,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A31" s="109" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="109"/>
@@ -8900,45 +12536,45 @@
       <c r="BF38" s="103"/>
       <c r="BG38" s="104"/>
       <c r="BH38" s="120"/>
-      <c r="BI38" s="106"/>
-      <c r="BJ38" s="106"/>
-      <c r="BK38" s="106"/>
-      <c r="BL38" s="106"/>
-      <c r="BM38" s="106"/>
-      <c r="BN38" s="106"/>
-      <c r="BO38" s="106"/>
-      <c r="BP38" s="106"/>
-      <c r="BQ38" s="106"/>
-      <c r="BR38" s="106"/>
-      <c r="BS38" s="106"/>
-      <c r="BT38" s="106"/>
-      <c r="BU38" s="106"/>
-      <c r="BV38" s="106"/>
-      <c r="BW38" s="106"/>
-      <c r="BX38" s="106"/>
-      <c r="BY38" s="106"/>
-      <c r="BZ38" s="106"/>
-      <c r="CA38" s="106"/>
-      <c r="CB38" s="106"/>
-      <c r="CC38" s="106"/>
-      <c r="CD38" s="107"/>
-      <c r="CE38" s="106"/>
-      <c r="CF38" s="106"/>
-      <c r="CG38" s="106"/>
-      <c r="CH38" s="106"/>
-      <c r="CI38" s="106"/>
-      <c r="CJ38" s="106"/>
-      <c r="CK38" s="106"/>
-      <c r="CL38" s="106"/>
-      <c r="CM38" s="106"/>
-      <c r="CN38" s="106"/>
+      <c r="BI38" s="121"/>
+      <c r="BJ38" s="121"/>
+      <c r="BK38" s="121"/>
+      <c r="BL38" s="121"/>
+      <c r="BM38" s="121"/>
+      <c r="BN38" s="121"/>
+      <c r="BO38" s="121"/>
+      <c r="BP38" s="121"/>
+      <c r="BQ38" s="121"/>
+      <c r="BR38" s="121"/>
+      <c r="BS38" s="121"/>
+      <c r="BT38" s="121"/>
+      <c r="BU38" s="121"/>
+      <c r="BV38" s="121"/>
+      <c r="BW38" s="121"/>
+      <c r="BX38" s="121"/>
+      <c r="BY38" s="121"/>
+      <c r="BZ38" s="121"/>
+      <c r="CA38" s="121"/>
+      <c r="CB38" s="121"/>
+      <c r="CC38" s="121"/>
+      <c r="CD38" s="122"/>
+      <c r="CE38" s="121"/>
+      <c r="CF38" s="121"/>
+      <c r="CG38" s="121"/>
+      <c r="CH38" s="121"/>
+      <c r="CI38" s="121"/>
+      <c r="CJ38" s="121"/>
+      <c r="CK38" s="121"/>
+      <c r="CL38" s="121"/>
+      <c r="CM38" s="121"/>
+      <c r="CN38" s="121"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="70" customFormat="1">
-      <c r="A39" s="121"/>
-      <c r="B39" s="122" t="s">
+      <c r="A39" s="123"/>
+      <c r="B39" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="122"/>
+      <c r="C39" s="124"/>
       <c r="D39" s="109"/>
       <c r="E39" s="100">
         <v>32</v>
@@ -8946,8 +12582,8 @@
       <c r="F39" s="101"/>
       <c r="G39" s="101"/>
       <c r="H39" s="101"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
       <c r="K39" s="93">
         <v>18</v>
       </c>
@@ -9000,52 +12636,52 @@
       <c r="BF39" s="103"/>
       <c r="BG39" s="104"/>
       <c r="BH39" s="120"/>
-      <c r="BI39" s="106"/>
-      <c r="BJ39" s="106"/>
-      <c r="BK39" s="106"/>
-      <c r="BL39" s="106"/>
-      <c r="BM39" s="106"/>
-      <c r="BN39" s="106"/>
-      <c r="BO39" s="106"/>
-      <c r="BP39" s="106"/>
-      <c r="BQ39" s="106"/>
-      <c r="BR39" s="106"/>
-      <c r="BS39" s="106"/>
-      <c r="BT39" s="106"/>
-      <c r="BU39" s="106"/>
-      <c r="BV39" s="106"/>
-      <c r="BW39" s="106"/>
-      <c r="BX39" s="106"/>
-      <c r="BY39" s="106"/>
-      <c r="BZ39" s="106"/>
-      <c r="CA39" s="106"/>
-      <c r="CB39" s="106"/>
-      <c r="CC39" s="106"/>
-      <c r="CD39" s="107"/>
-      <c r="CE39" s="106"/>
-      <c r="CF39" s="106"/>
-      <c r="CG39" s="106"/>
-      <c r="CH39" s="106"/>
-      <c r="CI39" s="106"/>
-      <c r="CJ39" s="106"/>
-      <c r="CK39" s="106"/>
-      <c r="CL39" s="106"/>
-      <c r="CM39" s="106"/>
-      <c r="CN39" s="106"/>
+      <c r="BI39" s="121"/>
+      <c r="BJ39" s="121"/>
+      <c r="BK39" s="121"/>
+      <c r="BL39" s="121"/>
+      <c r="BM39" s="121"/>
+      <c r="BN39" s="121"/>
+      <c r="BO39" s="121"/>
+      <c r="BP39" s="121"/>
+      <c r="BQ39" s="121"/>
+      <c r="BR39" s="121"/>
+      <c r="BS39" s="121"/>
+      <c r="BT39" s="121"/>
+      <c r="BU39" s="121"/>
+      <c r="BV39" s="121"/>
+      <c r="BW39" s="121"/>
+      <c r="BX39" s="121"/>
+      <c r="BY39" s="121"/>
+      <c r="BZ39" s="121"/>
+      <c r="CA39" s="121"/>
+      <c r="CB39" s="121"/>
+      <c r="CC39" s="121"/>
+      <c r="CD39" s="122"/>
+      <c r="CE39" s="121"/>
+      <c r="CF39" s="121"/>
+      <c r="CG39" s="121"/>
+      <c r="CH39" s="121"/>
+      <c r="CI39" s="121"/>
+      <c r="CJ39" s="121"/>
+      <c r="CK39" s="121"/>
+      <c r="CL39" s="121"/>
+      <c r="CM39" s="121"/>
+      <c r="CN39" s="121"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="70" customFormat="1">
-      <c r="A40" s="121"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
       <c r="D40" s="109"/>
-      <c r="E40" s="124"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="82"/>
       <c r="G40" s="108" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H40" s="118"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
       <c r="K40" s="93"/>
       <c r="L40" s="89"/>
       <c r="M40" s="89"/>
@@ -9096,61 +12732,61 @@
       <c r="BF40" s="103"/>
       <c r="BG40" s="104"/>
       <c r="BH40" s="120"/>
-      <c r="BI40" s="106"/>
-      <c r="BJ40" s="106"/>
-      <c r="BK40" s="106"/>
-      <c r="BL40" s="106"/>
-      <c r="BM40" s="106"/>
-      <c r="BN40" s="106"/>
-      <c r="BO40" s="106"/>
-      <c r="BP40" s="106"/>
-      <c r="BQ40" s="106"/>
-      <c r="BR40" s="106"/>
-      <c r="BS40" s="106"/>
-      <c r="BT40" s="106"/>
-      <c r="BU40" s="106"/>
-      <c r="BV40" s="106"/>
-      <c r="BW40" s="106"/>
-      <c r="BX40" s="106"/>
-      <c r="BY40" s="106"/>
-      <c r="BZ40" s="106"/>
-      <c r="CA40" s="106"/>
-      <c r="CB40" s="106"/>
-      <c r="CC40" s="106"/>
-      <c r="CD40" s="106"/>
-      <c r="CE40" s="106"/>
-      <c r="CF40" s="106"/>
-      <c r="CG40" s="106"/>
-      <c r="CH40" s="106"/>
-      <c r="CI40" s="106"/>
-      <c r="CJ40" s="106"/>
-      <c r="CK40" s="106"/>
-      <c r="CL40" s="106"/>
-      <c r="CM40" s="106"/>
-      <c r="CN40" s="106"/>
+      <c r="BI40" s="121"/>
+      <c r="BJ40" s="121"/>
+      <c r="BK40" s="121"/>
+      <c r="BL40" s="121"/>
+      <c r="BM40" s="121"/>
+      <c r="BN40" s="121"/>
+      <c r="BO40" s="121"/>
+      <c r="BP40" s="121"/>
+      <c r="BQ40" s="121"/>
+      <c r="BR40" s="121"/>
+      <c r="BS40" s="121"/>
+      <c r="BT40" s="121"/>
+      <c r="BU40" s="121"/>
+      <c r="BV40" s="121"/>
+      <c r="BW40" s="121"/>
+      <c r="BX40" s="121"/>
+      <c r="BY40" s="121"/>
+      <c r="BZ40" s="121"/>
+      <c r="CA40" s="121"/>
+      <c r="CB40" s="121"/>
+      <c r="CC40" s="121"/>
+      <c r="CD40" s="121"/>
+      <c r="CE40" s="121"/>
+      <c r="CF40" s="121"/>
+      <c r="CG40" s="121"/>
+      <c r="CH40" s="121"/>
+      <c r="CI40" s="121"/>
+      <c r="CJ40" s="121"/>
+      <c r="CK40" s="121"/>
+      <c r="CL40" s="121"/>
+      <c r="CM40" s="121"/>
+      <c r="CN40" s="121"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="70" customFormat="1">
-      <c r="A41" s="121"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="117" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="109"/>
-      <c r="E41" s="124"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="82"/>
       <c r="G41" s="108" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H41" s="118"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
       <c r="K41" s="93">
         <v>19</v>
       </c>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
       <c r="P41" s="89"/>
       <c r="Q41" s="103"/>
       <c r="R41" s="103"/>
@@ -9196,255 +12832,255 @@
       <c r="BF41" s="103"/>
       <c r="BG41" s="104"/>
       <c r="BH41" s="120"/>
-      <c r="BI41" s="106"/>
-      <c r="BJ41" s="106"/>
-      <c r="BK41" s="106"/>
-      <c r="BL41" s="106"/>
-      <c r="BM41" s="106"/>
-      <c r="BN41" s="106"/>
-      <c r="BO41" s="106"/>
-      <c r="BP41" s="106"/>
-      <c r="BQ41" s="106"/>
-      <c r="BR41" s="106"/>
-      <c r="BS41" s="106"/>
-      <c r="BT41" s="106"/>
-      <c r="BU41" s="106"/>
-      <c r="BV41" s="106"/>
-      <c r="BW41" s="106"/>
-      <c r="BX41" s="106"/>
-      <c r="BY41" s="106"/>
-      <c r="BZ41" s="106"/>
-      <c r="CA41" s="106"/>
-      <c r="CB41" s="106"/>
-      <c r="CC41" s="106"/>
-      <c r="CD41" s="106"/>
-      <c r="CE41" s="106"/>
-      <c r="CF41" s="106"/>
-      <c r="CG41" s="106"/>
-      <c r="CH41" s="106"/>
-      <c r="CI41" s="106"/>
-      <c r="CJ41" s="106"/>
-      <c r="CK41" s="106"/>
-      <c r="CL41" s="106"/>
-      <c r="CM41" s="106"/>
-      <c r="CN41" s="106"/>
+      <c r="BI41" s="121"/>
+      <c r="BJ41" s="121"/>
+      <c r="BK41" s="121"/>
+      <c r="BL41" s="121"/>
+      <c r="BM41" s="121"/>
+      <c r="BN41" s="121"/>
+      <c r="BO41" s="121"/>
+      <c r="BP41" s="121"/>
+      <c r="BQ41" s="121"/>
+      <c r="BR41" s="121"/>
+      <c r="BS41" s="121"/>
+      <c r="BT41" s="121"/>
+      <c r="BU41" s="121"/>
+      <c r="BV41" s="121"/>
+      <c r="BW41" s="121"/>
+      <c r="BX41" s="121"/>
+      <c r="BY41" s="121"/>
+      <c r="BZ41" s="121"/>
+      <c r="CA41" s="121"/>
+      <c r="CB41" s="121"/>
+      <c r="CC41" s="121"/>
+      <c r="CD41" s="121"/>
+      <c r="CE41" s="121"/>
+      <c r="CF41" s="121"/>
+      <c r="CG41" s="121"/>
+      <c r="CH41" s="121"/>
+      <c r="CI41" s="121"/>
+      <c r="CJ41" s="121"/>
+      <c r="CK41" s="121"/>
+      <c r="CL41" s="121"/>
+      <c r="CM41" s="121"/>
+      <c r="CN41" s="121"/>
     </row>
     <row r="42" ht="15.6" customHeight="1" s="70" customFormat="1">
-      <c r="A42" s="121"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="117"/>
       <c r="C42" s="117"/>
       <c r="D42" s="109"/>
-      <c r="E42" s="124"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="82"/>
       <c r="G42" s="102" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H42" s="78"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
       <c r="K42" s="93"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="127"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="127"/>
-      <c r="W42" s="127"/>
-      <c r="X42" s="127"/>
-      <c r="Y42" s="127"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="127"/>
-      <c r="AB42" s="127"/>
-      <c r="AC42" s="127"/>
-      <c r="AD42" s="127"/>
-      <c r="AE42" s="127"/>
-      <c r="AF42" s="127"/>
-      <c r="AG42" s="127"/>
-      <c r="AH42" s="127"/>
-      <c r="AI42" s="127"/>
-      <c r="AJ42" s="127"/>
-      <c r="AK42" s="127"/>
-      <c r="AL42" s="127"/>
-      <c r="AM42" s="127"/>
-      <c r="AN42" s="127"/>
-      <c r="AO42" s="127"/>
-      <c r="AP42" s="127"/>
-      <c r="AQ42" s="127"/>
-      <c r="AR42" s="127"/>
-      <c r="AS42" s="127"/>
-      <c r="AT42" s="127"/>
-      <c r="AU42" s="127"/>
-      <c r="AV42" s="127"/>
-      <c r="AW42" s="127"/>
-      <c r="AX42" s="127"/>
-      <c r="AY42" s="127"/>
-      <c r="AZ42" s="127"/>
-      <c r="BA42" s="127"/>
-      <c r="BB42" s="127"/>
-      <c r="BC42" s="127"/>
-      <c r="BD42" s="127"/>
-      <c r="BE42" s="127"/>
-      <c r="BF42" s="127"/>
-      <c r="BG42" s="127"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="129"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="129"/>
+      <c r="T42" s="129"/>
+      <c r="U42" s="129"/>
+      <c r="V42" s="129"/>
+      <c r="W42" s="129"/>
+      <c r="X42" s="129"/>
+      <c r="Y42" s="129"/>
+      <c r="Z42" s="129"/>
+      <c r="AA42" s="129"/>
+      <c r="AB42" s="129"/>
+      <c r="AC42" s="129"/>
+      <c r="AD42" s="129"/>
+      <c r="AE42" s="129"/>
+      <c r="AF42" s="129"/>
+      <c r="AG42" s="129"/>
+      <c r="AH42" s="129"/>
+      <c r="AI42" s="129"/>
+      <c r="AJ42" s="129"/>
+      <c r="AK42" s="129"/>
+      <c r="AL42" s="129"/>
+      <c r="AM42" s="129"/>
+      <c r="AN42" s="129"/>
+      <c r="AO42" s="129"/>
+      <c r="AP42" s="129"/>
+      <c r="AQ42" s="129"/>
+      <c r="AR42" s="129"/>
+      <c r="AS42" s="129"/>
+      <c r="AT42" s="129"/>
+      <c r="AU42" s="129"/>
+      <c r="AV42" s="129"/>
+      <c r="AW42" s="129"/>
+      <c r="AX42" s="129"/>
+      <c r="AY42" s="129"/>
+      <c r="AZ42" s="129"/>
+      <c r="BA42" s="129"/>
+      <c r="BB42" s="129"/>
+      <c r="BC42" s="129"/>
+      <c r="BD42" s="129"/>
+      <c r="BE42" s="129"/>
+      <c r="BF42" s="129"/>
+      <c r="BG42" s="129"/>
       <c r="BH42" s="120"/>
-      <c r="BI42" s="106"/>
-      <c r="BJ42" s="106"/>
-      <c r="BK42" s="106"/>
-      <c r="BL42" s="106"/>
-      <c r="BM42" s="106"/>
-      <c r="BN42" s="106"/>
-      <c r="BO42" s="106"/>
-      <c r="BP42" s="106"/>
-      <c r="BQ42" s="106"/>
-      <c r="BR42" s="106"/>
-      <c r="BS42" s="106"/>
-      <c r="BT42" s="106"/>
-      <c r="BU42" s="106"/>
-      <c r="BV42" s="106"/>
-      <c r="BW42" s="106"/>
-      <c r="BX42" s="106"/>
-      <c r="BY42" s="106"/>
-      <c r="BZ42" s="106"/>
-      <c r="CA42" s="106"/>
-      <c r="CB42" s="106"/>
-      <c r="CC42" s="106"/>
-      <c r="CD42" s="106"/>
-      <c r="CE42" s="106"/>
-      <c r="CF42" s="106"/>
-      <c r="CG42" s="106"/>
-      <c r="CH42" s="106"/>
-      <c r="CI42" s="106"/>
-      <c r="CJ42" s="106"/>
-      <c r="CK42" s="106"/>
-      <c r="CL42" s="106"/>
-      <c r="CM42" s="106"/>
-      <c r="CN42" s="106"/>
+      <c r="BI42" s="121"/>
+      <c r="BJ42" s="121"/>
+      <c r="BK42" s="121"/>
+      <c r="BL42" s="121"/>
+      <c r="BM42" s="121"/>
+      <c r="BN42" s="121"/>
+      <c r="BO42" s="121"/>
+      <c r="BP42" s="121"/>
+      <c r="BQ42" s="121"/>
+      <c r="BR42" s="121"/>
+      <c r="BS42" s="121"/>
+      <c r="BT42" s="121"/>
+      <c r="BU42" s="121"/>
+      <c r="BV42" s="121"/>
+      <c r="BW42" s="121"/>
+      <c r="BX42" s="121"/>
+      <c r="BY42" s="121"/>
+      <c r="BZ42" s="121"/>
+      <c r="CA42" s="121"/>
+      <c r="CB42" s="121"/>
+      <c r="CC42" s="121"/>
+      <c r="CD42" s="121"/>
+      <c r="CE42" s="121"/>
+      <c r="CF42" s="121"/>
+      <c r="CG42" s="121"/>
+      <c r="CH42" s="121"/>
+      <c r="CI42" s="121"/>
+      <c r="CJ42" s="121"/>
+      <c r="CK42" s="121"/>
+      <c r="CL42" s="121"/>
+      <c r="CM42" s="121"/>
+      <c r="CN42" s="121"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="70" customFormat="1">
-      <c r="A43" s="122" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="122"/>
-      <c r="C43" s="122"/>
+      <c r="A43" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="109"/>
-      <c r="E43" s="124"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="82"/>
       <c r="G43" s="102"/>
       <c r="H43" s="78"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
       <c r="K43" s="93">
         <v>20</v>
       </c>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
-      <c r="Y43" s="129"/>
-      <c r="Z43" s="129"/>
-      <c r="AA43" s="129"/>
-      <c r="AB43" s="129"/>
-      <c r="AC43" s="129"/>
-      <c r="AD43" s="129"/>
-      <c r="AE43" s="129"/>
-      <c r="AF43" s="129"/>
-      <c r="AG43" s="129"/>
-      <c r="AH43" s="129"/>
-      <c r="AI43" s="129"/>
-      <c r="AJ43" s="129"/>
-      <c r="AK43" s="129"/>
-      <c r="AL43" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM43" s="129"/>
-      <c r="AN43" s="129"/>
-      <c r="AO43" s="129"/>
-      <c r="AP43" s="129"/>
-      <c r="AQ43" s="129"/>
-      <c r="AR43" s="129"/>
-      <c r="AS43" s="129"/>
-      <c r="AT43" s="129"/>
-      <c r="AU43" s="129"/>
-      <c r="AV43" s="129"/>
-      <c r="AW43" s="129"/>
-      <c r="AX43" s="129"/>
-      <c r="AY43" s="129"/>
-      <c r="AZ43" s="129"/>
-      <c r="BA43" s="129"/>
-      <c r="BB43" s="129"/>
-      <c r="BC43" s="129"/>
-      <c r="BD43" s="129"/>
-      <c r="BE43" s="129"/>
-      <c r="BF43" s="129"/>
-      <c r="BG43" s="129"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q43" s="131"/>
+      <c r="R43" s="131"/>
+      <c r="S43" s="131"/>
+      <c r="T43" s="131"/>
+      <c r="U43" s="131"/>
+      <c r="V43" s="131"/>
+      <c r="W43" s="131"/>
+      <c r="X43" s="131"/>
+      <c r="Y43" s="131"/>
+      <c r="Z43" s="131"/>
+      <c r="AA43" s="131"/>
+      <c r="AB43" s="131"/>
+      <c r="AC43" s="131"/>
+      <c r="AD43" s="131"/>
+      <c r="AE43" s="131"/>
+      <c r="AF43" s="131"/>
+      <c r="AG43" s="131"/>
+      <c r="AH43" s="131"/>
+      <c r="AI43" s="131"/>
+      <c r="AJ43" s="131"/>
+      <c r="AK43" s="131"/>
+      <c r="AL43" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM43" s="131"/>
+      <c r="AN43" s="131"/>
+      <c r="AO43" s="131"/>
+      <c r="AP43" s="131"/>
+      <c r="AQ43" s="131"/>
+      <c r="AR43" s="131"/>
+      <c r="AS43" s="131"/>
+      <c r="AT43" s="131"/>
+      <c r="AU43" s="131"/>
+      <c r="AV43" s="131"/>
+      <c r="AW43" s="131"/>
+      <c r="AX43" s="131"/>
+      <c r="AY43" s="131"/>
+      <c r="AZ43" s="131"/>
+      <c r="BA43" s="131"/>
+      <c r="BB43" s="131"/>
+      <c r="BC43" s="131"/>
+      <c r="BD43" s="131"/>
+      <c r="BE43" s="131"/>
+      <c r="BF43" s="131"/>
+      <c r="BG43" s="131"/>
       <c r="BH43" s="120"/>
-      <c r="BI43" s="106"/>
-      <c r="BJ43" s="106"/>
-      <c r="BK43" s="106"/>
-      <c r="BL43" s="106"/>
-      <c r="BM43" s="106"/>
-      <c r="BN43" s="106"/>
-      <c r="BO43" s="106"/>
-      <c r="BP43" s="106"/>
-      <c r="BQ43" s="106"/>
-      <c r="BR43" s="106"/>
-      <c r="BS43" s="106"/>
-      <c r="BT43" s="106"/>
-      <c r="BU43" s="106"/>
-      <c r="BV43" s="106"/>
-      <c r="BW43" s="106"/>
-      <c r="BX43" s="106"/>
-      <c r="BY43" s="106"/>
-      <c r="BZ43" s="106"/>
-      <c r="CA43" s="106"/>
-      <c r="CB43" s="106"/>
-      <c r="CC43" s="106"/>
-      <c r="CD43" s="106"/>
-      <c r="CE43" s="106"/>
-      <c r="CF43" s="106"/>
-      <c r="CG43" s="106"/>
-      <c r="CH43" s="106"/>
-      <c r="CI43" s="106"/>
-      <c r="CJ43" s="106"/>
-      <c r="CK43" s="106"/>
-      <c r="CL43" s="106"/>
-      <c r="CM43" s="106"/>
-      <c r="CN43" s="106"/>
+      <c r="BI43" s="121"/>
+      <c r="BJ43" s="121"/>
+      <c r="BK43" s="121"/>
+      <c r="BL43" s="121"/>
+      <c r="BM43" s="121"/>
+      <c r="BN43" s="121"/>
+      <c r="BO43" s="121"/>
+      <c r="BP43" s="121"/>
+      <c r="BQ43" s="121"/>
+      <c r="BR43" s="121"/>
+      <c r="BS43" s="121"/>
+      <c r="BT43" s="121"/>
+      <c r="BU43" s="121"/>
+      <c r="BV43" s="121"/>
+      <c r="BW43" s="121"/>
+      <c r="BX43" s="121"/>
+      <c r="BY43" s="121"/>
+      <c r="BZ43" s="121"/>
+      <c r="CA43" s="121"/>
+      <c r="CB43" s="121"/>
+      <c r="CC43" s="121"/>
+      <c r="CD43" s="121"/>
+      <c r="CE43" s="121"/>
+      <c r="CF43" s="121"/>
+      <c r="CG43" s="121"/>
+      <c r="CH43" s="121"/>
+      <c r="CI43" s="121"/>
+      <c r="CJ43" s="121"/>
+      <c r="CK43" s="121"/>
+      <c r="CL43" s="121"/>
+      <c r="CM43" s="121"/>
+      <c r="CN43" s="121"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="70" customFormat="1">
-      <c r="A44" s="122"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="122"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="109"/>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="102"/>
       <c r="H44" s="78"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
       <c r="K44" s="93"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="126"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="126"/>
-      <c r="P44" s="128" t="s">
-        <v>102</v>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="130" t="s">
+        <v>111</v>
       </c>
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
@@ -9464,11 +13100,11 @@
       <c r="AF44" s="79"/>
       <c r="AG44" s="79"/>
       <c r="AH44" s="79"/>
-      <c r="AI44" s="130"/>
-      <c r="AJ44" s="130"/>
-      <c r="AK44" s="130"/>
-      <c r="AL44" s="128" t="s">
-        <v>102</v>
+      <c r="AI44" s="132"/>
+      <c r="AJ44" s="132"/>
+      <c r="AK44" s="132"/>
+      <c r="AL44" s="130" t="s">
+        <v>111</v>
       </c>
       <c r="AM44" s="79"/>
       <c r="AN44" s="79"/>
@@ -9488,276 +13124,276 @@
       <c r="BB44" s="79"/>
       <c r="BC44" s="79"/>
       <c r="BD44" s="79"/>
-      <c r="BE44" s="130"/>
-      <c r="BF44" s="130"/>
-      <c r="BG44" s="130"/>
+      <c r="BE44" s="132"/>
+      <c r="BF44" s="132"/>
+      <c r="BG44" s="132"/>
       <c r="BH44" s="120"/>
-      <c r="BI44" s="106"/>
-      <c r="BJ44" s="106"/>
-      <c r="BK44" s="106"/>
-      <c r="BL44" s="106"/>
-      <c r="BM44" s="106"/>
-      <c r="BN44" s="106"/>
-      <c r="BO44" s="106"/>
-      <c r="BP44" s="106"/>
-      <c r="BQ44" s="106"/>
-      <c r="BR44" s="106"/>
-      <c r="BS44" s="106"/>
-      <c r="BT44" s="106"/>
-      <c r="BU44" s="106"/>
-      <c r="BV44" s="106"/>
-      <c r="BW44" s="106"/>
-      <c r="BX44" s="106"/>
-      <c r="BY44" s="106"/>
-      <c r="BZ44" s="106"/>
-      <c r="CA44" s="106"/>
-      <c r="CB44" s="106"/>
-      <c r="CC44" s="106"/>
-      <c r="CD44" s="106"/>
-      <c r="CE44" s="106"/>
-      <c r="CF44" s="106"/>
-      <c r="CG44" s="106"/>
-      <c r="CH44" s="106"/>
-      <c r="CI44" s="106"/>
-      <c r="CJ44" s="106"/>
-      <c r="CK44" s="106"/>
-      <c r="CL44" s="106"/>
-      <c r="CM44" s="106"/>
-      <c r="CN44" s="106"/>
+      <c r="BI44" s="121"/>
+      <c r="BJ44" s="121"/>
+      <c r="BK44" s="121"/>
+      <c r="BL44" s="121"/>
+      <c r="BM44" s="121"/>
+      <c r="BN44" s="121"/>
+      <c r="BO44" s="121"/>
+      <c r="BP44" s="121"/>
+      <c r="BQ44" s="121"/>
+      <c r="BR44" s="121"/>
+      <c r="BS44" s="121"/>
+      <c r="BT44" s="121"/>
+      <c r="BU44" s="121"/>
+      <c r="BV44" s="121"/>
+      <c r="BW44" s="121"/>
+      <c r="BX44" s="121"/>
+      <c r="BY44" s="121"/>
+      <c r="BZ44" s="121"/>
+      <c r="CA44" s="121"/>
+      <c r="CB44" s="121"/>
+      <c r="CC44" s="121"/>
+      <c r="CD44" s="121"/>
+      <c r="CE44" s="121"/>
+      <c r="CF44" s="121"/>
+      <c r="CG44" s="121"/>
+      <c r="CH44" s="121"/>
+      <c r="CI44" s="121"/>
+      <c r="CJ44" s="121"/>
+      <c r="CK44" s="121"/>
+      <c r="CL44" s="121"/>
+      <c r="CM44" s="121"/>
+      <c r="CN44" s="121"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="70" customFormat="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="109"/>
-      <c r="E45" s="133"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="82"/>
       <c r="G45" s="102"/>
       <c r="H45" s="78"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="P45" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="135"/>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="135"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="135"/>
-      <c r="Y45" s="135"/>
-      <c r="Z45" s="135"/>
-      <c r="AA45" s="135"/>
-      <c r="AB45" s="135"/>
-      <c r="AC45" s="135"/>
-      <c r="AD45" s="135"/>
-      <c r="AE45" s="135"/>
-      <c r="AF45" s="135"/>
-      <c r="AG45" s="135"/>
-      <c r="AH45" s="135"/>
-      <c r="AI45" s="135"/>
-      <c r="AJ45" s="135"/>
-      <c r="AK45" s="135"/>
-      <c r="AL45" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM45" s="135"/>
-      <c r="AN45" s="135"/>
-      <c r="AO45" s="135"/>
-      <c r="AP45" s="135"/>
-      <c r="AQ45" s="135"/>
-      <c r="AR45" s="135"/>
-      <c r="AS45" s="135"/>
-      <c r="AT45" s="135"/>
-      <c r="AU45" s="135"/>
-      <c r="AV45" s="135"/>
-      <c r="AW45" s="135"/>
-      <c r="AX45" s="135"/>
-      <c r="AY45" s="135"/>
-      <c r="AZ45" s="135"/>
-      <c r="BA45" s="135"/>
-      <c r="BB45" s="135"/>
-      <c r="BC45" s="135"/>
-      <c r="BD45" s="135"/>
-      <c r="BE45" s="135"/>
-      <c r="BF45" s="135"/>
-      <c r="BG45" s="135"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="P45" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="137"/>
+      <c r="W45" s="137"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="137"/>
+      <c r="Z45" s="137"/>
+      <c r="AA45" s="137"/>
+      <c r="AB45" s="137"/>
+      <c r="AC45" s="137"/>
+      <c r="AD45" s="137"/>
+      <c r="AE45" s="137"/>
+      <c r="AF45" s="137"/>
+      <c r="AG45" s="137"/>
+      <c r="AH45" s="137"/>
+      <c r="AI45" s="137"/>
+      <c r="AJ45" s="137"/>
+      <c r="AK45" s="137"/>
+      <c r="AL45" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM45" s="137"/>
+      <c r="AN45" s="137"/>
+      <c r="AO45" s="137"/>
+      <c r="AP45" s="137"/>
+      <c r="AQ45" s="137"/>
+      <c r="AR45" s="137"/>
+      <c r="AS45" s="137"/>
+      <c r="AT45" s="137"/>
+      <c r="AU45" s="137"/>
+      <c r="AV45" s="137"/>
+      <c r="AW45" s="137"/>
+      <c r="AX45" s="137"/>
+      <c r="AY45" s="137"/>
+      <c r="AZ45" s="137"/>
+      <c r="BA45" s="137"/>
+      <c r="BB45" s="137"/>
+      <c r="BC45" s="137"/>
+      <c r="BD45" s="137"/>
+      <c r="BE45" s="137"/>
+      <c r="BF45" s="137"/>
+      <c r="BG45" s="137"/>
       <c r="BH45" s="120"/>
-      <c r="BI45" s="106"/>
-      <c r="BJ45" s="106"/>
-      <c r="BK45" s="106"/>
-      <c r="BL45" s="106"/>
-      <c r="BM45" s="106"/>
-      <c r="BN45" s="106"/>
-      <c r="BO45" s="106"/>
-      <c r="BP45" s="106"/>
-      <c r="BQ45" s="106"/>
-      <c r="BR45" s="106"/>
-      <c r="BS45" s="106"/>
-      <c r="BT45" s="106"/>
-      <c r="BU45" s="106"/>
-      <c r="BV45" s="106"/>
-      <c r="BW45" s="106"/>
-      <c r="BX45" s="106"/>
-      <c r="BY45" s="106"/>
-      <c r="BZ45" s="106"/>
-      <c r="CA45" s="106"/>
-      <c r="CB45" s="106"/>
-      <c r="CC45" s="106"/>
-      <c r="CD45" s="106"/>
-      <c r="CE45" s="106"/>
-      <c r="CF45" s="106"/>
-      <c r="CG45" s="106"/>
-      <c r="CH45" s="106"/>
-      <c r="CI45" s="106"/>
-      <c r="CJ45" s="106"/>
-      <c r="CK45" s="106"/>
-      <c r="CL45" s="106"/>
-      <c r="CM45" s="106"/>
-      <c r="CN45" s="106"/>
+      <c r="BI45" s="121"/>
+      <c r="BJ45" s="121"/>
+      <c r="BK45" s="121"/>
+      <c r="BL45" s="121"/>
+      <c r="BM45" s="121"/>
+      <c r="BN45" s="121"/>
+      <c r="BO45" s="121"/>
+      <c r="BP45" s="121"/>
+      <c r="BQ45" s="121"/>
+      <c r="BR45" s="121"/>
+      <c r="BS45" s="121"/>
+      <c r="BT45" s="121"/>
+      <c r="BU45" s="121"/>
+      <c r="BV45" s="121"/>
+      <c r="BW45" s="121"/>
+      <c r="BX45" s="121"/>
+      <c r="BY45" s="121"/>
+      <c r="BZ45" s="121"/>
+      <c r="CA45" s="121"/>
+      <c r="CB45" s="121"/>
+      <c r="CC45" s="121"/>
+      <c r="CD45" s="121"/>
+      <c r="CE45" s="121"/>
+      <c r="CF45" s="121"/>
+      <c r="CG45" s="121"/>
+      <c r="CH45" s="121"/>
+      <c r="CI45" s="121"/>
+      <c r="CJ45" s="121"/>
+      <c r="CK45" s="121"/>
+      <c r="CL45" s="121"/>
+      <c r="CM45" s="121"/>
+      <c r="CN45" s="121"/>
     </row>
     <row r="46" ht="18.75" customHeight="1" s="70" customFormat="1">
-      <c r="A46" s="136"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="P46" s="138"/>
-      <c r="AL46" s="138"/>
-      <c r="BH46" s="139"/>
-      <c r="BI46" s="139"/>
-      <c r="BJ46" s="139"/>
-      <c r="BK46" s="139"/>
-      <c r="BL46" s="139"/>
-      <c r="BM46" s="139"/>
-      <c r="BN46" s="139"/>
-      <c r="BO46" s="139"/>
-      <c r="BP46" s="139"/>
-      <c r="BQ46" s="139"/>
-      <c r="BR46" s="139"/>
-      <c r="BS46" s="139"/>
-      <c r="BT46" s="139"/>
-      <c r="BU46" s="139"/>
-      <c r="BV46" s="139"/>
-      <c r="BW46" s="139"/>
-      <c r="BX46" s="139"/>
-      <c r="BY46" s="131"/>
-      <c r="BZ46" s="131"/>
-      <c r="CA46" s="131"/>
-      <c r="CB46" s="131"/>
-      <c r="CC46" s="131"/>
-      <c r="CD46" s="131"/>
-      <c r="CE46" s="131"/>
-      <c r="CF46" s="131"/>
-      <c r="CG46" s="131"/>
-      <c r="CH46" s="131"/>
-      <c r="CI46" s="131"/>
-      <c r="CJ46" s="131"/>
-      <c r="CK46" s="131"/>
-      <c r="CL46" s="131"/>
-      <c r="CM46" s="131"/>
-      <c r="CN46" s="131"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="P46" s="140"/>
+      <c r="AL46" s="140"/>
+      <c r="BH46" s="141"/>
+      <c r="BI46" s="141"/>
+      <c r="BJ46" s="141"/>
+      <c r="BK46" s="141"/>
+      <c r="BL46" s="141"/>
+      <c r="BM46" s="141"/>
+      <c r="BN46" s="141"/>
+      <c r="BO46" s="141"/>
+      <c r="BP46" s="141"/>
+      <c r="BQ46" s="141"/>
+      <c r="BR46" s="141"/>
+      <c r="BS46" s="141"/>
+      <c r="BT46" s="141"/>
+      <c r="BU46" s="141"/>
+      <c r="BV46" s="141"/>
+      <c r="BW46" s="141"/>
+      <c r="BX46" s="141"/>
+      <c r="BY46" s="133"/>
+      <c r="BZ46" s="133"/>
+      <c r="CA46" s="133"/>
+      <c r="CB46" s="133"/>
+      <c r="CC46" s="133"/>
+      <c r="CD46" s="133"/>
+      <c r="CE46" s="133"/>
+      <c r="CF46" s="133"/>
+      <c r="CG46" s="133"/>
+      <c r="CH46" s="133"/>
+      <c r="CI46" s="133"/>
+      <c r="CJ46" s="133"/>
+      <c r="CK46" s="133"/>
+      <c r="CL46" s="133"/>
+      <c r="CM46" s="133"/>
+      <c r="CN46" s="133"/>
     </row>
     <row r="47" ht="15" customHeight="1" s="70" customFormat="1">
-      <c r="A47" s="140"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="140"/>
-      <c r="P47" s="140"/>
-      <c r="Q47" s="140"/>
-      <c r="R47" s="140"/>
-      <c r="S47" s="140"/>
-      <c r="T47" s="140"/>
-      <c r="U47" s="140"/>
-      <c r="V47" s="140"/>
-      <c r="W47" s="140"/>
-      <c r="X47" s="140"/>
-      <c r="Y47" s="140"/>
-      <c r="Z47" s="140"/>
-      <c r="AA47" s="140"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="140"/>
-      <c r="AF47" s="140"/>
-      <c r="AG47" s="140"/>
-      <c r="AH47" s="140"/>
-      <c r="AI47" s="140"/>
-      <c r="AJ47" s="140"/>
-      <c r="AK47" s="140"/>
-      <c r="AL47" s="140"/>
-      <c r="AM47" s="140"/>
-      <c r="AN47" s="140"/>
-      <c r="AO47" s="140"/>
-      <c r="AP47" s="140"/>
-      <c r="AQ47" s="140"/>
-      <c r="AR47" s="140"/>
-      <c r="AS47" s="140"/>
-      <c r="AT47" s="140"/>
-      <c r="AU47" s="140"/>
-      <c r="AV47" s="140"/>
-      <c r="AW47" s="140"/>
-      <c r="AX47" s="140"/>
-      <c r="AY47" s="140"/>
-      <c r="AZ47" s="140"/>
-      <c r="BA47" s="140"/>
-      <c r="BB47" s="140"/>
-      <c r="BC47" s="140"/>
-      <c r="BD47" s="140"/>
-      <c r="BE47" s="140"/>
-      <c r="BF47" s="140"/>
-      <c r="BG47" s="140"/>
-      <c r="BH47" s="140"/>
-      <c r="BI47" s="140"/>
-      <c r="BJ47" s="140"/>
-      <c r="BK47" s="140"/>
-      <c r="BL47" s="140"/>
-      <c r="BM47" s="140"/>
-      <c r="BN47" s="140"/>
-      <c r="BO47" s="140"/>
-      <c r="BP47" s="140"/>
-      <c r="BQ47" s="140"/>
-      <c r="BR47" s="140"/>
-      <c r="BS47" s="140"/>
-      <c r="BT47" s="140"/>
-      <c r="BU47" s="140"/>
-      <c r="BV47" s="140"/>
-      <c r="BW47" s="140"/>
-      <c r="BX47" s="140"/>
-      <c r="BY47" s="140"/>
-      <c r="BZ47" s="140"/>
-      <c r="CA47" s="140"/>
-      <c r="CB47" s="140"/>
-      <c r="CC47" s="140"/>
-      <c r="CD47" s="140"/>
-      <c r="CE47" s="140"/>
-      <c r="CF47" s="140"/>
-      <c r="CG47" s="140"/>
-      <c r="CH47" s="140"/>
-      <c r="CI47" s="140"/>
-      <c r="CJ47" s="140"/>
-      <c r="CK47" s="140"/>
-      <c r="CL47" s="140"/>
-      <c r="CM47" s="140"/>
-      <c r="CN47" s="140"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="142"/>
+      <c r="R47" s="142"/>
+      <c r="S47" s="142"/>
+      <c r="T47" s="142"/>
+      <c r="U47" s="142"/>
+      <c r="V47" s="142"/>
+      <c r="W47" s="142"/>
+      <c r="X47" s="142"/>
+      <c r="Y47" s="142"/>
+      <c r="Z47" s="142"/>
+      <c r="AA47" s="142"/>
+      <c r="AB47" s="142"/>
+      <c r="AC47" s="142"/>
+      <c r="AD47" s="142"/>
+      <c r="AE47" s="142"/>
+      <c r="AF47" s="142"/>
+      <c r="AG47" s="142"/>
+      <c r="AH47" s="142"/>
+      <c r="AI47" s="142"/>
+      <c r="AJ47" s="142"/>
+      <c r="AK47" s="142"/>
+      <c r="AL47" s="142"/>
+      <c r="AM47" s="142"/>
+      <c r="AN47" s="142"/>
+      <c r="AO47" s="142"/>
+      <c r="AP47" s="142"/>
+      <c r="AQ47" s="142"/>
+      <c r="AR47" s="142"/>
+      <c r="AS47" s="142"/>
+      <c r="AT47" s="142"/>
+      <c r="AU47" s="142"/>
+      <c r="AV47" s="142"/>
+      <c r="AW47" s="142"/>
+      <c r="AX47" s="142"/>
+      <c r="AY47" s="142"/>
+      <c r="AZ47" s="142"/>
+      <c r="BA47" s="142"/>
+      <c r="BB47" s="142"/>
+      <c r="BC47" s="142"/>
+      <c r="BD47" s="142"/>
+      <c r="BE47" s="142"/>
+      <c r="BF47" s="142"/>
+      <c r="BG47" s="142"/>
+      <c r="BH47" s="142"/>
+      <c r="BI47" s="142"/>
+      <c r="BJ47" s="142"/>
+      <c r="BK47" s="142"/>
+      <c r="BL47" s="142"/>
+      <c r="BM47" s="142"/>
+      <c r="BN47" s="142"/>
+      <c r="BO47" s="142"/>
+      <c r="BP47" s="142"/>
+      <c r="BQ47" s="142"/>
+      <c r="BR47" s="142"/>
+      <c r="BS47" s="142"/>
+      <c r="BT47" s="142"/>
+      <c r="BU47" s="142"/>
+      <c r="BV47" s="142"/>
+      <c r="BW47" s="142"/>
+      <c r="BX47" s="142"/>
+      <c r="BY47" s="142"/>
+      <c r="BZ47" s="142"/>
+      <c r="CA47" s="142"/>
+      <c r="CB47" s="142"/>
+      <c r="CC47" s="142"/>
+      <c r="CD47" s="142"/>
+      <c r="CE47" s="142"/>
+      <c r="CF47" s="142"/>
+      <c r="CG47" s="142"/>
+      <c r="CH47" s="142"/>
+      <c r="CI47" s="142"/>
+      <c r="CJ47" s="142"/>
+      <c r="CK47" s="142"/>
+      <c r="CL47" s="142"/>
+      <c r="CM47" s="142"/>
+      <c r="CN47" s="142"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -10799,7 +14435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D13F6-67BB-466D-AEC8-8E09EA45C017}">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -10824,57 +14460,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.95" customHeight="1" s="70" customFormat="1">
-      <c r="A1" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="141"/>
+      <c r="A1" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="143"/>
       <c r="C1" s="79"/>
-      <c r="D1" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="141"/>
+      <c r="D1" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="143"/>
       <c r="F1" s="87" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
     <row r="2" ht="19.95" customHeight="1" s="70" customFormat="1">
-      <c r="A2" s="142" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="142" t="s">
-        <v>107</v>
+      <c r="A2" s="144" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="79"/>
-      <c r="D2" s="142" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="142" t="s">
-        <v>107</v>
+      <c r="D2" s="144" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="144" t="s">
+        <v>116</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J2" s="93" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" s="70" customFormat="1">
@@ -10909,12 +14545,12 @@
       <c r="C5" s="75"/>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
-      <c r="F5" s="143"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="83"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="143"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="145"/>
       <c r="J5" s="83"/>
-      <c r="K5" s="144"/>
+      <c r="K5" s="146"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A6" s="83"/>
@@ -10924,10 +14560,10 @@
       <c r="E6" s="83"/>
       <c r="F6" s="93"/>
       <c r="G6" s="83"/>
-      <c r="H6" s="144"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="93"/>
       <c r="J6" s="83"/>
-      <c r="K6" s="144"/>
+      <c r="K6" s="146"/>
     </row>
     <row r="7" ht="21.6" customHeight="1" s="70" customFormat="1">
       <c r="A7" s="83"/>
@@ -10937,10 +14573,10 @@
       <c r="E7" s="83"/>
       <c r="F7" s="93"/>
       <c r="G7" s="83"/>
-      <c r="H7" s="144"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="93"/>
       <c r="J7" s="83"/>
-      <c r="K7" s="144"/>
+      <c r="K7" s="146"/>
     </row>
     <row r="8" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A8" s="83"/>
@@ -10948,12 +14584,12 @@
       <c r="C8" s="75"/>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="149"/>
     </row>
     <row r="9" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A9" s="83"/>
@@ -10961,12 +14597,12 @@
       <c r="C9" s="75"/>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
     </row>
     <row r="10" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A10" s="83"/>
@@ -10974,12 +14610,12 @@
       <c r="C10" s="75"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149"/>
     </row>
     <row r="11" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A11" s="83"/>
@@ -10987,12 +14623,12 @@
       <c r="C11" s="75"/>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A12" s="83"/>
@@ -11000,12 +14636,12 @@
       <c r="C12" s="75"/>
       <c r="D12" s="83"/>
       <c r="E12" s="83"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A13" s="83"/>
@@ -11013,12 +14649,12 @@
       <c r="C13" s="75"/>
       <c r="D13" s="83"/>
       <c r="E13" s="83"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="149"/>
     </row>
     <row r="14" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A14" s="83"/>
@@ -11026,12 +14662,12 @@
       <c r="C14" s="75"/>
       <c r="D14" s="83"/>
       <c r="E14" s="83"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="83"/>
@@ -11039,12 +14675,12 @@
       <c r="C15" s="75"/>
       <c r="D15" s="83"/>
       <c r="E15" s="83"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
     </row>
     <row r="16" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A16" s="83"/>
@@ -11052,12 +14688,12 @@
       <c r="C16" s="75"/>
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A17" s="83"/>
@@ -11065,12 +14701,12 @@
       <c r="C17" s="75"/>
       <c r="D17" s="83"/>
       <c r="E17" s="83"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="149"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="83"/>
@@ -11078,12 +14714,12 @@
       <c r="C18" s="75"/>
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
     </row>
     <row r="19" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A19" s="83"/>
@@ -11091,12 +14727,12 @@
       <c r="C19" s="75"/>
       <c r="D19" s="83"/>
       <c r="E19" s="83"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="149"/>
     </row>
     <row r="20" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A20" s="83"/>
@@ -11104,12 +14740,12 @@
       <c r="C20" s="75"/>
       <c r="D20" s="83"/>
       <c r="E20" s="83"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="149"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A21" s="83"/>
@@ -11117,12 +14753,12 @@
       <c r="C21" s="75"/>
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="149"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A22" s="83"/>
@@ -11130,12 +14766,12 @@
       <c r="C22" s="75"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="149"/>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A23" s="83"/>
@@ -11143,12 +14779,12 @@
       <c r="C23" s="75"/>
       <c r="D23" s="83"/>
       <c r="E23" s="83"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="149"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A24" s="83"/>
@@ -11156,12 +14792,12 @@
       <c r="C24" s="75"/>
       <c r="D24" s="83"/>
       <c r="E24" s="83"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="149"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A25" s="83"/>
@@ -11169,12 +14805,12 @@
       <c r="C25" s="75"/>
       <c r="D25" s="83"/>
       <c r="E25" s="83"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="149"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A26" s="83"/>
@@ -11182,12 +14818,12 @@
       <c r="C26" s="75"/>
       <c r="D26" s="83"/>
       <c r="E26" s="83"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="149"/>
     </row>
     <row r="27" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A27" s="83"/>
@@ -11195,12 +14831,12 @@
       <c r="C27" s="75"/>
       <c r="D27" s="83"/>
       <c r="E27" s="83"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="149"/>
     </row>
     <row r="28" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A28" s="83"/>
@@ -11208,12 +14844,12 @@
       <c r="C28" s="75"/>
       <c r="D28" s="83"/>
       <c r="E28" s="83"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="149"/>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A29" s="83"/>
@@ -11221,12 +14857,12 @@
       <c r="C29" s="75"/>
       <c r="D29" s="83"/>
       <c r="E29" s="83"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="149"/>
     </row>
     <row r="30" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="83"/>
@@ -11234,12 +14870,12 @@
       <c r="C30" s="75"/>
       <c r="D30" s="83"/>
       <c r="E30" s="83"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A31" s="83"/>
@@ -11247,12 +14883,12 @@
       <c r="C31" s="75"/>
       <c r="D31" s="83"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="149"/>
     </row>
     <row r="32" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A32" s="83"/>
@@ -11260,12 +14896,12 @@
       <c r="C32" s="75"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="149"/>
     </row>
     <row r="33" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A33" s="83"/>
@@ -11273,12 +14909,12 @@
       <c r="C33" s="75"/>
       <c r="D33" s="83"/>
       <c r="E33" s="83"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="149"/>
     </row>
     <row r="34" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A34" s="83"/>
@@ -11286,12 +14922,12 @@
       <c r="C34" s="75"/>
       <c r="D34" s="83"/>
       <c r="E34" s="83"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="149"/>
     </row>
     <row r="35" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A35" s="83"/>
@@ -11299,12 +14935,12 @@
       <c r="C35" s="75"/>
       <c r="D35" s="83"/>
       <c r="E35" s="83"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="149"/>
     </row>
     <row r="36" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A36" s="83"/>
@@ -11312,12 +14948,12 @@
       <c r="C36" s="75"/>
       <c r="D36" s="83"/>
       <c r="E36" s="83"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="149"/>
     </row>
     <row r="37" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A37" s="83"/>
@@ -11325,12 +14961,12 @@
       <c r="C37" s="75"/>
       <c r="D37" s="83"/>
       <c r="E37" s="83"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
     </row>
     <row r="38" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A38" s="83"/>
@@ -11338,12 +14974,12 @@
       <c r="C38" s="75"/>
       <c r="D38" s="83"/>
       <c r="E38" s="83"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="149"/>
     </row>
     <row r="39" ht="18.75" customHeight="1" s="70" customFormat="1">
       <c r="A39" s="83"/>
@@ -11351,12 +14987,12 @@
       <c r="C39" s="75"/>
       <c r="D39" s="83"/>
       <c r="E39" s="83"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="149"/>
     </row>
     <row r="40" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A40" s="83"/>
@@ -11364,12 +15000,12 @@
       <c r="C40" s="75"/>
       <c r="D40" s="83"/>
       <c r="E40" s="83"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="146"/>
-      <c r="K40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="149"/>
     </row>
     <row r="41" ht="14.4" customHeight="1" s="70" customFormat="1">
       <c r="A41" s="83"/>
@@ -11377,71 +15013,71 @@
       <c r="C41" s="75"/>
       <c r="D41" s="83"/>
       <c r="E41" s="83"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="149"/>
     </row>
     <row r="42" ht="18" customHeight="1" s="70" customFormat="1">
-      <c r="A42" s="148"/>
-      <c r="B42" s="148"/>
+      <c r="A42" s="150"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="75"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="147"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="149"/>
     </row>
     <row r="43" ht="18.75" customHeight="1" s="70" customFormat="1">
-      <c r="A43" s="148"/>
-      <c r="B43" s="148"/>
+      <c r="A43" s="150"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="75"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="147"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
     </row>
     <row r="44" ht="18.75" customHeight="1" s="70" customFormat="1">
-      <c r="A44" s="148"/>
-      <c r="B44" s="148"/>
+      <c r="A44" s="150"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="75"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="149"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
     </row>
     <row r="45" ht="18.75" customHeight="1" s="70" customFormat="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="137"/>
+      <c r="A45" s="139"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="79"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
     </row>
     <row r="46" ht="18.75" customHeight="1" s="70" customFormat="1">
-      <c r="A46" s="137"/>
-      <c r="B46" s="137"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="79"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
       <c r="F46" s="79"/>
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
@@ -11450,17 +15086,17 @@
       <c r="K46" s="79"/>
     </row>
     <row r="47" ht="18.75" customHeight="1" s="70" customFormat="1">
-      <c r="A47" s="150"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -6,13 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Начало" sheetId="3" r:id="rId4"/>
-    <sheet name="Информатика Cеместр №1" sheetId="1" r:id="rId1"/>
-    <sheet name="Философия Cеместр №2" sheetId="2" r:id="rId3"/>
+    <sheet name="Высшая математика Cеместр №1" sheetId="1" r:id="rId1"/>
+    <sheet name="Высшая математика Cеместр №2" sheetId="2" r:id="rId3"/>
     <sheet name="Конец" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Информатика Cеместр №1'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Философия Cеместр №2'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика Cеместр №1'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Высшая математика Cеместр №2'!$A$1:$AU$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Конец!$A$1:$K$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Информатика</t>
+    <t>Высшая математика</t>
   </si>
   <si>
     <t>семестр</t>
@@ -65,10 +65,7 @@
     </r>
   </si>
   <si>
-    <t>01.02.2021</t>
-  </si>
-  <si>
-    <t>03.02.2021</t>
+    <t>03.09.2020</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -110,25 +107,16 @@
     <t>КСР</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>НБ</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введение </t>
+    <t>Б</t>
   </si>
   <si>
     <t>лр</t>
   </si>
   <si>
-    <t>Лабораторная работа №1</t>
+    <t>Вводная</t>
   </si>
   <si>
-    <t>Б</t>
+    <t/>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -176,13 +164,10 @@
     <t>Ф.И.О.</t>
   </si>
   <si>
-    <t>Философия</t>
+    <t>13.02.2021</t>
   </si>
   <si>
-    <t>07.03.2021</t>
-  </si>
-  <si>
-    <t>Введение</t>
+    <t>Вводная 1</t>
   </si>
   <si>
     <t>Министерство образования и науки РФ</t>
@@ -239,10 +224,10 @@
     <t>ОСОБЫЕ ОТМЕТКИ</t>
   </si>
   <si>
-    <t>Лабутина Т.В.</t>
+    <t>Иванов И.И.</t>
   </si>
   <si>
-    <t>8 - 9</t>
+    <t>8 - 11</t>
   </si>
   <si>
     <t>Дисциплина</t>
@@ -266,70 +251,37 @@
     <t>Подпись препода-вателя</t>
   </si>
   <si>
-    <t>Иванов И.И.</t>
+    <t>Дроздов Михаил Григорьевич</t>
   </si>
   <si>
-    <t>10 - 11</t>
+    <t>Особая метка Особая отметка 2</t>
   </si>
   <si>
-    <t>Алексеева А. В.</t>
+    <t>Тр</t>
   </si>
   <si>
-    <t xml:space="preserve">fujhfiukdxgf </t>
+    <t>ИЗ</t>
   </si>
   <si>
-    <t>Р</t>
+    <t>Кр</t>
   </si>
   <si>
-    <t>КР</t>
-  </si>
-  <si>
-    <t>КП</t>
-  </si>
-  <si>
-    <t>Батманова Ю. А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rgrdfdgvsrdfdg </t>
-  </si>
-  <si>
-    <t>Волкова А. С.</t>
+    <t>Кузьмин Николай Петрович</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Кулигин А. В.</t>
+    <t>Нечаева Марина Игоревна</t>
   </si>
   <si>
-    <t xml:space="preserve">dgverddgvesrddgt </t>
+    <t>Пирогова Анастасия Яковлева</t>
   </si>
   <si>
-    <t>Наймушина С. А.</t>
-  </si>
-  <si>
-    <t>Поносов Н. И.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdgvsdrfdgvsdrfdg </t>
-  </si>
-  <si>
-    <t>Тойкинова А. И.</t>
+    <t xml:space="preserve">Нарушения </t>
   </si>
   <si>
     <t>ЖУРНАЛ</t>
-  </si>
-  <si>
-    <t>Фатихов Р. Э.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rddgverddgtfcesrdtgserdd </t>
-  </si>
-  <si>
-    <t>Хованов Д. А.</t>
-  </si>
-  <si>
-    <t>Яруллин А. А.</t>
   </si>
   <si>
     <t>учета занятий</t>
@@ -341,7 +293,7 @@
     <t>учебный год</t>
   </si>
   <si>
-    <t>очная</t>
+    <t>очное</t>
   </si>
   <si>
     <t>форма обучения</t>
@@ -350,13 +302,13 @@
     <t>Группа №</t>
   </si>
   <si>
-    <t>АСУ-17-1б</t>
+    <t>ВМ-20</t>
   </si>
   <si>
     <t>Направление (специальность)</t>
   </si>
   <si>
-    <t>ИВТ</t>
+    <t>Машинное обучение [2020]</t>
   </si>
   <si>
     <t>Колличество присутствующих</t>
@@ -402,6 +354,27 @@
   </si>
   <si>
     <t>Подпись декана факультета (зам. декана по учебной работе)</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>solution 1</t>
+  </si>
+  <si>
+    <t>Семестр 2</t>
+  </si>
+  <si>
+    <t>06.02.2021</t>
+  </si>
+  <si>
+    <t>Ошибок не обнаружено</t>
+  </si>
+  <si>
+    <t>10.02.2021</t>
+  </si>
+  <si>
+    <t>Проверка 2</t>
   </si>
 </sst>
 </file>
@@ -1623,9 +1596,7 @@
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
@@ -1653,19 +1624,19 @@
       <c r="AB4" s="19"/>
       <c r="AC4" s="20"/>
       <c r="AD4" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AJ4" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>12</v>
       </c>
       <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
@@ -1677,10 +1648,10 @@
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
       <c r="AT4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU4" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="AU4" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="BJ4" s="9"/>
     </row>
@@ -1765,11 +1736,11 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE6" s="24"/>
       <c r="AF6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG6" s="24"/>
       <c r="AH6" s="21"/>
@@ -1837,19 +1808,19 @@
       <c r="AT7" s="22"/>
       <c r="AU7" s="21"/>
       <c r="AY7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="BB7" s="5" t="s">
+      <c r="BC7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BC7" s="5" t="s">
+      <c r="BD7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="BD7" s="5" t="s">
+      <c r="BE7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="BJ7" s="9"/>
     </row>
@@ -1858,11 +1829,9 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1890,21 +1859,21 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE8" s="31"/>
       <c r="AF8" s="31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="31"/>
       <c r="AH8" s="32" t="s">
         <v>7</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32"/>
@@ -1916,7 +1885,7 @@
       <c r="AR8" s="32"/>
       <c r="AS8" s="32"/>
       <c r="AT8" s="33">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" s="32"/>
       <c r="AY8" s="5" t="str">
@@ -1946,11 +1915,9 @@
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -1982,18 +1949,12 @@
       </c>
       <c r="AE9" s="36"/>
       <c r="AF9" s="36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="36"/>
-      <c r="AH9" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI9" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ9" s="32" t="s">
-        <v>27</v>
-      </c>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
       <c r="AL9" s="32"/>
       <c r="AM9" s="32"/>
@@ -2004,7 +1965,8 @@
       <c r="AR9" s="32"/>
       <c r="AS9" s="32"/>
       <c r="AT9" s="33">
-        <v>0.5</v>
+        <f ref="AT9:AT38" t="shared" si="0">IF(AJ9="",0,$AW$2)</f>
+        <v>0</v>
       </c>
       <c r="AU9" s="32"/>
       <c r="AY9" s="5" t="str">
@@ -2034,11 +1996,9 @@
         <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -2086,7 +2046,7 @@
       <c r="AR10" s="32"/>
       <c r="AS10" s="32"/>
       <c r="AT10" s="33">
-        <f ref="AT10:AT38" t="shared" si="0">IF(AJ10="",0,$AW$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU10" s="32"/>
@@ -2117,11 +2077,9 @@
         <v>4</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -2199,12 +2157,8 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -2231,13 +2185,9 @@
       <c r="AA12" s="35"/>
       <c r="AB12" s="35"/>
       <c r="AC12" s="41"/>
-      <c r="AD12" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
-      <c r="AF12" s="36">
-        <v>2</v>
-      </c>
+      <c r="AF12" s="36"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
@@ -2282,12 +2232,8 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>28</v>
-      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -2314,13 +2260,9 @@
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="41"/>
-      <c r="AD13" s="36">
-        <v>0.5</v>
-      </c>
+      <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
-      <c r="AF13" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
@@ -2365,12 +2307,8 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -2397,13 +2335,9 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="36"/>
       <c r="AE14" s="36"/>
-      <c r="AF14" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF14" s="36"/>
       <c r="AG14" s="36"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
@@ -2448,12 +2382,8 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -2480,13 +2410,9 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD15" s="36"/>
       <c r="AE15" s="36"/>
-      <c r="AF15" s="36">
-        <v>2</v>
-      </c>
+      <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
@@ -2531,12 +2457,8 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>23</v>
-      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -2563,13 +2485,9 @@
       <c r="AA16" s="35"/>
       <c r="AB16" s="35"/>
       <c r="AC16" s="41"/>
-      <c r="AD16" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="36"/>
       <c r="AE16" s="36"/>
-      <c r="AF16" s="36">
-        <v>0.5</v>
-      </c>
+      <c r="AF16" s="36"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
@@ -2614,12 +2532,8 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>28</v>
-      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -2646,13 +2560,9 @@
       <c r="AA17" s="35"/>
       <c r="AB17" s="35"/>
       <c r="AC17" s="41"/>
-      <c r="AD17" s="36">
-        <v>0.5</v>
-      </c>
+      <c r="AD17" s="36"/>
       <c r="AE17" s="36"/>
-      <c r="AF17" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
@@ -4298,7 +4208,7 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="36"/>
       <c r="AH39" s="47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
@@ -4317,14 +4227,14 @@
       </c>
       <c r="AU39" s="49"/>
       <c r="AY39" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ39" s="5" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BB39" s="5">
         <f>SUM(BB8:BB38)</f>
@@ -4375,13 +4285,13 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE40" s="51"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="53"/>
       <c r="AH40" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AI40" s="16"/>
       <c r="AJ40" s="54">
@@ -4435,7 +4345,7 @@
       <c r="AF41" s="52"/>
       <c r="AG41" s="53"/>
       <c r="AH41" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI41" s="16"/>
       <c r="AJ41" s="55"/>
@@ -4486,7 +4396,7 @@
       <c r="AF42" s="52"/>
       <c r="AG42" s="53"/>
       <c r="AH42" s="56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AI42" s="57">
         <f>BB39</f>
@@ -4543,7 +4453,7 @@
       <c r="AF43" s="52"/>
       <c r="AG43" s="53"/>
       <c r="AH43" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI43" s="61">
         <f>BC39</f>
@@ -4597,7 +4507,7 @@
       <c r="AF44" s="52"/>
       <c r="AG44" s="53"/>
       <c r="AH44" s="56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AI44" s="61">
         <f>BD39</f>
@@ -4605,18 +4515,18 @@
       </c>
       <c r="AJ44" s="16"/>
       <c r="AK44" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL44" s="16"/>
       <c r="AM44" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AN44" s="16"/>
       <c r="AO44" s="16"/>
       <c r="AP44" s="16"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
@@ -4657,7 +4567,7 @@
       <c r="AF45" s="52"/>
       <c r="AG45" s="53"/>
       <c r="AH45" s="56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AI45" s="64">
         <f>BE39</f>
@@ -4665,11 +4575,11 @@
       </c>
       <c r="AJ45" s="16"/>
       <c r="AM45" s="65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AN45" s="65"/>
       <c r="AS45" s="66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AT45" s="66"/>
       <c r="AU45" s="66"/>
@@ -5029,7 +4939,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -5129,7 +5039,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -5159,19 +5069,19 @@
       <c r="AB4" s="19"/>
       <c r="AC4" s="20"/>
       <c r="AD4" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AJ4" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>12</v>
       </c>
       <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
@@ -5183,10 +5093,10 @@
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
       <c r="AT4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU4" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="AU4" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="BJ4" s="9"/>
     </row>
@@ -5271,11 +5181,11 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE6" s="24"/>
       <c r="AF6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG6" s="24"/>
       <c r="AH6" s="21"/>
@@ -5343,19 +5253,19 @@
       <c r="AT7" s="22"/>
       <c r="AU7" s="21"/>
       <c r="AY7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="BB7" s="5" t="s">
+      <c r="BC7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BC7" s="5" t="s">
+      <c r="BD7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="BD7" s="5" t="s">
+      <c r="BE7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="BJ7" s="9"/>
     </row>
@@ -5364,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5402,13 +5312,13 @@
       </c>
       <c r="AG8" s="31"/>
       <c r="AH8" s="32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32"/>
@@ -5420,7 +5330,7 @@
       <c r="AR8" s="32"/>
       <c r="AS8" s="32"/>
       <c r="AT8" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="32"/>
       <c r="AY8" s="5" t="str">
@@ -5450,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -5531,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -5561,7 +5471,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36">
@@ -5612,7 +5522,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -5692,9 +5602,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -5722,13 +5630,9 @@
       <c r="AA12" s="35"/>
       <c r="AB12" s="35"/>
       <c r="AC12" s="41"/>
-      <c r="AD12" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
-      <c r="AF12" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF12" s="36"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
@@ -5773,9 +5677,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -5803,13 +5705,9 @@
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="41"/>
-      <c r="AD13" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
-      <c r="AF13" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
@@ -5854,9 +5752,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -5884,13 +5780,9 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="36"/>
       <c r="AE14" s="36"/>
-      <c r="AF14" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF14" s="36"/>
       <c r="AG14" s="36"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
@@ -5935,9 +5827,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>28</v>
-      </c>
+      <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -5965,13 +5855,9 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="36">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="36"/>
       <c r="AE15" s="36"/>
-      <c r="AF15" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
@@ -6016,9 +5902,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -6046,13 +5930,9 @@
       <c r="AA16" s="35"/>
       <c r="AB16" s="35"/>
       <c r="AC16" s="41"/>
-      <c r="AD16" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="36"/>
       <c r="AE16" s="36"/>
-      <c r="AF16" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF16" s="36"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
@@ -6097,9 +5977,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -6127,13 +6005,9 @@
       <c r="AA17" s="35"/>
       <c r="AB17" s="35"/>
       <c r="AC17" s="41"/>
-      <c r="AD17" s="36">
-        <v>0</v>
-      </c>
+      <c r="AD17" s="36"/>
       <c r="AE17" s="36"/>
-      <c r="AF17" s="36">
-        <v>0</v>
-      </c>
+      <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
@@ -7779,7 +7653,7 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="36"/>
       <c r="AH39" s="47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
@@ -7798,14 +7672,14 @@
       </c>
       <c r="AU39" s="49"/>
       <c r="AY39" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ39" s="5" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BB39" s="5">
         <f>SUM(BB8:BB38)</f>
@@ -7856,13 +7730,13 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE40" s="51"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="53"/>
       <c r="AH40" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AI40" s="16"/>
       <c r="AJ40" s="54">
@@ -7916,7 +7790,7 @@
       <c r="AF41" s="52"/>
       <c r="AG41" s="53"/>
       <c r="AH41" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI41" s="16"/>
       <c r="AJ41" s="55"/>
@@ -7967,7 +7841,7 @@
       <c r="AF42" s="52"/>
       <c r="AG42" s="53"/>
       <c r="AH42" s="56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AI42" s="57">
         <f>BB39</f>
@@ -8024,7 +7898,7 @@
       <c r="AF43" s="52"/>
       <c r="AG43" s="53"/>
       <c r="AH43" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI43" s="61">
         <f>BC39</f>
@@ -8078,7 +7952,7 @@
       <c r="AF44" s="52"/>
       <c r="AG44" s="53"/>
       <c r="AH44" s="56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AI44" s="61">
         <f>BD39</f>
@@ -8086,18 +7960,18 @@
       </c>
       <c r="AJ44" s="16"/>
       <c r="AK44" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL44" s="16"/>
       <c r="AM44" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AN44" s="16"/>
       <c r="AO44" s="16"/>
       <c r="AP44" s="16"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
@@ -8138,7 +8012,7 @@
       <c r="AF45" s="52"/>
       <c r="AG45" s="53"/>
       <c r="AH45" s="56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AI45" s="64">
         <f>BE39</f>
@@ -8146,11 +8020,11 @@
       </c>
       <c r="AJ45" s="16"/>
       <c r="AM45" s="65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AN45" s="65"/>
       <c r="AS45" s="66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AT45" s="66"/>
       <c r="AU45" s="66"/>
@@ -8473,13 +8347,13 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="72" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
       <c r="E1" s="73" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
@@ -8487,7 +8361,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
       <c r="K1" s="75" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L1" s="75"/>
       <c r="M1" s="75"/>
@@ -8515,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="AI1" s="78" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ1" s="78"/>
       <c r="AK1" s="78"/>
@@ -8541,7 +8415,7 @@
         <v>2</v>
       </c>
       <c r="BE1" s="78" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BF1" s="78"/>
       <c r="BG1" s="78"/>
@@ -8556,7 +8430,7 @@
       <c r="BP1" s="79"/>
       <c r="BQ1" s="79"/>
       <c r="BR1" s="80" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BS1" s="80"/>
       <c r="BT1" s="80"/>
@@ -8565,7 +8439,7 @@
       <c r="BW1" s="80"/>
       <c r="BX1" s="80"/>
       <c r="BY1" s="81" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="BZ1" s="81"/>
       <c r="CA1" s="81"/>
@@ -8595,19 +8469,19 @@
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
       <c r="K2" s="83" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P2" s="76"/>
       <c r="Q2" s="76"/>
@@ -8654,10 +8528,10 @@
       <c r="BF2" s="76"/>
       <c r="BG2" s="76"/>
       <c r="BH2" s="84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BI2" s="85" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="BJ2" s="85"/>
       <c r="BK2" s="85"/>
@@ -8675,7 +8549,7 @@
       <c r="BW2" s="85"/>
       <c r="BX2" s="85"/>
       <c r="BY2" s="86" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BZ2" s="86"/>
       <c r="CA2" s="86"/>
@@ -8710,7 +8584,7 @@
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="87" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="87"/>
       <c r="R3" s="87"/>
@@ -8734,7 +8608,7 @@
       <c r="AJ3" s="87"/>
       <c r="AK3" s="87"/>
       <c r="AL3" s="87" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AM3" s="87"/>
       <c r="AN3" s="87"/>
@@ -8762,9 +8636,7 @@
         <v>4</v>
       </c>
       <c r="BJ3" s="88"/>
-      <c r="BK3" s="89" t="s">
-        <v>44</v>
-      </c>
+      <c r="BK3" s="89"/>
       <c r="BL3" s="89"/>
       <c r="BM3" s="89"/>
       <c r="BN3" s="89"/>
@@ -8797,7 +8669,7 @@
     </row>
     <row r="4" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A4" s="90" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -8897,15 +8769,15 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="91" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="92" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J5" s="92"/>
       <c r="K5" s="93">
@@ -8918,10 +8790,10 @@
         <v>2.5</v>
       </c>
       <c r="N5" s="89" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O5" s="89" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P5" s="94"/>
       <c r="Q5" s="94"/>
@@ -9018,13 +8890,13 @@
       <c r="N6" s="89"/>
       <c r="O6" s="89"/>
       <c r="P6" s="95" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="96" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S6" s="97"/>
       <c r="T6" s="97"/>
@@ -9044,19 +8916,19 @@
       <c r="AH6" s="97"/>
       <c r="AI6" s="97"/>
       <c r="AJ6" s="95" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="96" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AL6" s="95" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AM6" s="96" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AN6" s="97" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AO6" s="97"/>
       <c r="AP6" s="97"/>
@@ -9076,107 +8948,107 @@
       <c r="BD6" s="97"/>
       <c r="BE6" s="97"/>
       <c r="BF6" s="95" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BG6" s="98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="BH6" s="84"/>
       <c r="BI6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BJ6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BK6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BL6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BM6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BN6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BO6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BP6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BQ6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BR6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BS6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BT6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BU6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BV6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BW6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BX6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BY6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BZ6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="CA6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="CB6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="CC6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="CD6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="CE6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="CF6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="CG6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="CH6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="CI6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="CJ6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="CK6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="CL6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="CM6" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="CN6" s="88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="70" customFormat="1">
@@ -9193,18 +9065,10 @@
       <c r="K7" s="93">
         <v>2</v>
       </c>
-      <c r="L7" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="89">
-        <v>1</v>
-      </c>
-      <c r="N7" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>75</v>
-      </c>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
       <c r="P7" s="95"/>
       <c r="Q7" s="96"/>
       <c r="R7" s="99">
@@ -9364,12 +9228,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="102" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="93"/>
@@ -9381,61 +9245,61 @@
         <v>4</v>
       </c>
       <c r="Q8" s="103">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R8" s="103" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="S8" s="103" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="T8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U8" s="103" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="V8" s="89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH8" s="103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI8" s="103" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="AJ8" s="103">
         <v>0</v>
@@ -9443,38 +9307,80 @@
       <c r="AK8" s="103">
         <v>2</v>
       </c>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="103"/>
-      <c r="BB8" s="103"/>
-      <c r="BC8" s="103"/>
-      <c r="BD8" s="103"/>
-      <c r="BE8" s="103"/>
-      <c r="BF8" s="103"/>
-      <c r="BG8" s="104"/>
+      <c r="AL8" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="103">
+        <v>4.5</v>
+      </c>
+      <c r="AN8" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR8" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD8" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE8" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF8" s="103">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="104">
+        <v>2.5</v>
+      </c>
       <c r="BH8" s="105">
         <v>1</v>
       </c>
       <c r="BI8" s="106" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="BJ8" s="106"/>
-      <c r="BK8" s="106" t="s">
-        <v>45</v>
-      </c>
+      <c r="BK8" s="106"/>
       <c r="BL8" s="106"/>
       <c r="BM8" s="106"/>
       <c r="BN8" s="106"/>
@@ -9514,12 +9420,12 @@
         <v>2</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="108" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J9" s="108"/>
       <c r="K9" s="93">
@@ -9577,12 +9483,10 @@
         <v>2</v>
       </c>
       <c r="BI9" s="106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BJ9" s="106"/>
-      <c r="BK9" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK9" s="106"/>
       <c r="BL9" s="106"/>
       <c r="BM9" s="106"/>
       <c r="BN9" s="106"/>
@@ -9622,12 +9526,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="108" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J10" s="108"/>
       <c r="K10" s="93"/>
@@ -9683,12 +9587,10 @@
         <v>3</v>
       </c>
       <c r="BI10" s="106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BJ10" s="106"/>
-      <c r="BK10" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK10" s="106"/>
       <c r="BL10" s="106"/>
       <c r="BM10" s="106"/>
       <c r="BN10" s="106"/>
@@ -9728,12 +9630,12 @@
         <v>4</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="108" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J11" s="108"/>
       <c r="K11" s="93">
@@ -9791,12 +9693,10 @@
         <v>4</v>
       </c>
       <c r="BI11" s="106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BJ11" s="106"/>
-      <c r="BK11" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK11" s="106"/>
       <c r="BL11" s="106"/>
       <c r="BM11" s="106"/>
       <c r="BN11" s="106"/>
@@ -9835,14 +9735,10 @@
       <c r="E12" s="100">
         <v>5</v>
       </c>
-      <c r="F12" s="101" t="s">
-        <v>87</v>
-      </c>
+      <c r="F12" s="101"/>
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
-      <c r="I12" s="108" t="s">
-        <v>84</v>
-      </c>
+      <c r="I12" s="108"/>
       <c r="J12" s="108"/>
       <c r="K12" s="93"/>
       <c r="L12" s="89"/>
@@ -9896,13 +9792,9 @@
       <c r="BH12" s="105">
         <v>5</v>
       </c>
-      <c r="BI12" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BI12" s="106"/>
       <c r="BJ12" s="106"/>
-      <c r="BK12" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK12" s="106"/>
       <c r="BL12" s="106"/>
       <c r="BM12" s="106"/>
       <c r="BN12" s="106"/>
@@ -9941,14 +9833,10 @@
       <c r="E13" s="100">
         <v>6</v>
       </c>
-      <c r="F13" s="101" t="s">
-        <v>88</v>
-      </c>
+      <c r="F13" s="101"/>
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
-      <c r="I13" s="108" t="s">
-        <v>89</v>
-      </c>
+      <c r="I13" s="108"/>
       <c r="J13" s="108"/>
       <c r="K13" s="93">
         <v>5</v>
@@ -10004,13 +9892,9 @@
       <c r="BH13" s="105">
         <v>6</v>
       </c>
-      <c r="BI13" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BI13" s="106"/>
       <c r="BJ13" s="106"/>
-      <c r="BK13" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK13" s="106"/>
       <c r="BL13" s="106"/>
       <c r="BM13" s="106"/>
       <c r="BN13" s="106"/>
@@ -10049,14 +9933,10 @@
       <c r="E14" s="100">
         <v>7</v>
       </c>
-      <c r="F14" s="101" t="s">
-        <v>90</v>
-      </c>
+      <c r="F14" s="101"/>
       <c r="G14" s="101"/>
       <c r="H14" s="101"/>
-      <c r="I14" s="108" t="s">
-        <v>84</v>
-      </c>
+      <c r="I14" s="108"/>
       <c r="J14" s="108"/>
       <c r="K14" s="93"/>
       <c r="L14" s="89"/>
@@ -10110,13 +9990,9 @@
       <c r="BH14" s="105">
         <v>7</v>
       </c>
-      <c r="BI14" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BI14" s="106"/>
       <c r="BJ14" s="106"/>
-      <c r="BK14" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK14" s="106"/>
       <c r="BL14" s="106"/>
       <c r="BM14" s="106"/>
       <c r="BN14" s="106"/>
@@ -10149,7 +10025,7 @@
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="110" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
@@ -10157,14 +10033,10 @@
       <c r="E15" s="100">
         <v>8</v>
       </c>
-      <c r="F15" s="101" t="s">
-        <v>92</v>
-      </c>
+      <c r="F15" s="101"/>
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
-      <c r="I15" s="108" t="s">
-        <v>93</v>
-      </c>
+      <c r="I15" s="108"/>
       <c r="J15" s="108"/>
       <c r="K15" s="93">
         <v>6</v>
@@ -10220,13 +10092,9 @@
       <c r="BH15" s="105">
         <v>8</v>
       </c>
-      <c r="BI15" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BI15" s="106"/>
       <c r="BJ15" s="106"/>
-      <c r="BK15" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK15" s="106"/>
       <c r="BL15" s="106"/>
       <c r="BM15" s="106"/>
       <c r="BN15" s="106"/>
@@ -10265,14 +10133,10 @@
       <c r="E16" s="100">
         <v>9</v>
       </c>
-      <c r="F16" s="101" t="s">
-        <v>94</v>
-      </c>
+      <c r="F16" s="101"/>
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
-      <c r="I16" s="108" t="s">
-        <v>84</v>
-      </c>
+      <c r="I16" s="108"/>
       <c r="J16" s="108"/>
       <c r="K16" s="93"/>
       <c r="L16" s="89"/>
@@ -10326,13 +10190,9 @@
       <c r="BH16" s="105">
         <v>9</v>
       </c>
-      <c r="BI16" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BI16" s="106"/>
       <c r="BJ16" s="106"/>
-      <c r="BK16" s="106" t="s">
-        <v>22</v>
-      </c>
+      <c r="BK16" s="106"/>
       <c r="BL16" s="106"/>
       <c r="BM16" s="106"/>
       <c r="BN16" s="106"/>
@@ -10371,14 +10231,10 @@
       <c r="E17" s="100">
         <v>10</v>
       </c>
-      <c r="F17" s="101" t="s">
-        <v>95</v>
-      </c>
+      <c r="F17" s="101"/>
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
-      <c r="I17" s="108" t="s">
-        <v>84</v>
-      </c>
+      <c r="I17" s="108"/>
       <c r="J17" s="108"/>
       <c r="K17" s="93">
         <v>7</v>
@@ -10434,13 +10290,9 @@
       <c r="BH17" s="105">
         <v>10</v>
       </c>
-      <c r="BI17" s="106" t="s">
-        <v>45</v>
-      </c>
+      <c r="BI17" s="106"/>
       <c r="BJ17" s="106"/>
-      <c r="BK17" s="106" t="s">
-        <v>45</v>
-      </c>
+      <c r="BK17" s="106"/>
       <c r="BL17" s="106"/>
       <c r="BM17" s="106"/>
       <c r="BN17" s="106"/>
@@ -10473,7 +10325,7 @@
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="112" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
@@ -10771,16 +10623,16 @@
     </row>
     <row r="21" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A21" s="113">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="114">
         <v>2021</v>
       </c>
-      <c r="B21" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="114">
-        <v>2022</v>
-      </c>
       <c r="D21" s="114" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E21" s="100">
         <v>14</v>
@@ -10977,11 +10829,11 @@
     </row>
     <row r="23" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A23" s="113" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="115" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D23" s="115"/>
       <c r="E23" s="100">
@@ -11279,11 +11131,11 @@
     </row>
     <row r="26" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B26" s="117"/>
       <c r="C26" s="118" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="100">
@@ -11679,7 +11531,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="109" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B30" s="109"/>
       <c r="C30" s="109"/>
@@ -11779,7 +11631,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A31" s="109" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="109"/>
@@ -12572,7 +12424,7 @@
     <row r="39" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A39" s="123"/>
       <c r="B39" s="124" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C39" s="124"/>
       <c r="D39" s="109"/>
@@ -12677,7 +12529,7 @@
       <c r="E40" s="126"/>
       <c r="F40" s="82"/>
       <c r="G40" s="108" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H40" s="118"/>
       <c r="I40" s="127"/>
@@ -12768,14 +12620,14 @@
     <row r="41" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A41" s="123"/>
       <c r="B41" s="117" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="109"/>
       <c r="E41" s="126"/>
       <c r="F41" s="82"/>
       <c r="G41" s="108" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H41" s="118"/>
       <c r="I41" s="127"/>
@@ -12873,7 +12725,7 @@
       <c r="E42" s="126"/>
       <c r="F42" s="82"/>
       <c r="G42" s="102" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H42" s="78"/>
       <c r="I42" s="127"/>
@@ -12963,7 +12815,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A43" s="124" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B43" s="124"/>
       <c r="C43" s="124"/>
@@ -12982,7 +12834,7 @@
       <c r="N43" s="128"/>
       <c r="O43" s="128"/>
       <c r="P43" s="130" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q43" s="131"/>
       <c r="R43" s="131"/>
@@ -13006,7 +12858,7 @@
       <c r="AJ43" s="131"/>
       <c r="AK43" s="131"/>
       <c r="AL43" s="130" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AM43" s="131"/>
       <c r="AN43" s="131"/>
@@ -13080,7 +12932,7 @@
       <c r="N44" s="128"/>
       <c r="O44" s="128"/>
       <c r="P44" s="130" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
@@ -13104,7 +12956,7 @@
       <c r="AJ44" s="132"/>
       <c r="AK44" s="132"/>
       <c r="AL44" s="130" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AM44" s="79"/>
       <c r="AN44" s="79"/>
@@ -13173,7 +13025,7 @@
       <c r="I45" s="127"/>
       <c r="J45" s="127"/>
       <c r="P45" s="136" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q45" s="137"/>
       <c r="R45" s="137"/>
@@ -13197,7 +13049,7 @@
       <c r="AJ45" s="137"/>
       <c r="AK45" s="137"/>
       <c r="AL45" s="136" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AM45" s="137"/>
       <c r="AN45" s="137"/>
@@ -14461,64 +14313,72 @@
   <sheetData>
     <row r="1" ht="22.95" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="143" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B1" s="143"/>
       <c r="C1" s="79"/>
       <c r="D1" s="143" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E1" s="143"/>
       <c r="F1" s="87" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
     <row r="2" ht="19.95" customHeight="1" s="70" customFormat="1">
       <c r="A2" s="144" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="144" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E2" s="144" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J2" s="93" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" s="70" customFormat="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>105</v>
+      </c>
       <c r="C3" s="75"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="D3" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="83"/>
       <c r="G3" s="93"/>
       <c r="H3" s="83"/>
@@ -14545,11 +14405,19 @@
       <c r="C5" s="75"/>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="83"/>
+      <c r="F5" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>108</v>
+      </c>
       <c r="H5" s="146"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="83"/>
+      <c r="I5" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>110</v>
+      </c>
       <c r="K5" s="146"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="70" customFormat="1">
@@ -14557,7 +14425,9 @@
       <c r="B6" s="83"/>
       <c r="C6" s="75"/>
       <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="E6" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="93"/>
       <c r="G6" s="83"/>
       <c r="H6" s="146"/>
@@ -14596,7 +14466,9 @@
       <c r="B9" s="83"/>
       <c r="C9" s="75"/>
       <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="E9" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="147"/>
       <c r="G9" s="148"/>
       <c r="H9" s="149"/>
@@ -14635,7 +14507,9 @@
       <c r="B12" s="83"/>
       <c r="C12" s="75"/>
       <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
+      <c r="E12" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F12" s="147"/>
       <c r="G12" s="148"/>
       <c r="H12" s="149"/>
@@ -14674,7 +14548,9 @@
       <c r="B15" s="83"/>
       <c r="C15" s="75"/>
       <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
+      <c r="E15" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="147"/>
       <c r="G15" s="148"/>
       <c r="H15" s="149"/>
@@ -14713,7 +14589,9 @@
       <c r="B18" s="83"/>
       <c r="C18" s="75"/>
       <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
+      <c r="E18" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F18" s="147"/>
       <c r="G18" s="148"/>
       <c r="H18" s="149"/>
@@ -14752,7 +14630,9 @@
       <c r="B21" s="83"/>
       <c r="C21" s="75"/>
       <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
+      <c r="E21" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F21" s="147"/>
       <c r="G21" s="148"/>
       <c r="H21" s="149"/>
@@ -14791,7 +14671,9 @@
       <c r="B24" s="83"/>
       <c r="C24" s="75"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F24" s="147"/>
       <c r="G24" s="148"/>
       <c r="H24" s="149"/>
@@ -14830,7 +14712,9 @@
       <c r="B27" s="83"/>
       <c r="C27" s="75"/>
       <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
+      <c r="E27" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F27" s="147"/>
       <c r="G27" s="148"/>
       <c r="H27" s="149"/>
@@ -14869,7 +14753,9 @@
       <c r="B30" s="83"/>
       <c r="C30" s="75"/>
       <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="E30" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F30" s="147"/>
       <c r="G30" s="148"/>
       <c r="H30" s="149"/>
@@ -14908,7 +14794,9 @@
       <c r="B33" s="83"/>
       <c r="C33" s="75"/>
       <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
+      <c r="E33" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F33" s="147"/>
       <c r="G33" s="148"/>
       <c r="H33" s="149"/>
@@ -14947,7 +14835,9 @@
       <c r="B36" s="83"/>
       <c r="C36" s="75"/>
       <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
+      <c r="E36" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F36" s="147"/>
       <c r="G36" s="148"/>
       <c r="H36" s="149"/>
@@ -14986,7 +14876,9 @@
       <c r="B39" s="83"/>
       <c r="C39" s="75"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
+      <c r="E39" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="F39" s="147"/>
       <c r="G39" s="148"/>
       <c r="H39" s="149"/>
@@ -15025,7 +14917,9 @@
       <c r="B42" s="150"/>
       <c r="C42" s="75"/>
       <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
+      <c r="E42" s="150" t="s">
+        <v>24</v>
+      </c>
       <c r="F42" s="147"/>
       <c r="G42" s="148"/>
       <c r="H42" s="149"/>

--- a/Eljur/file.xlsx
+++ b/Eljur/file.xlsx
@@ -5,22 +5,20 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Начало" sheetId="3" r:id="rId4"/>
-    <sheet name="Высшая математика Cеместр №1" sheetId="1" r:id="rId1"/>
-    <sheet name="Высшая математика Cеместр №2" sheetId="2" r:id="rId3"/>
-    <sheet name="Конец" sheetId="4" r:id="rId5"/>
+    <sheet name="Начало" sheetId="2" r:id="rId3"/>
+    <sheet name="Философия Cеместр №1" sheetId="1" r:id="rId1"/>
+    <sheet name="Конец" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Высшая математика Cеместр №1'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Высшая математика Cеместр №2'!$A$1:$AU$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Конец!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Философия Cеместр №1'!$A$1:$AU$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Конец!$A$1:$K$47</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -34,7 +32,7 @@
     <t xml:space="preserve">Наименование дисциплины </t>
   </si>
   <si>
-    <t>Высшая математика</t>
+    <t>Философия</t>
   </si>
   <si>
     <t>семестр</t>
@@ -65,7 +63,7 @@
     </r>
   </si>
   <si>
-    <t>03.09.2020</t>
+    <t>29.03.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Кол-во пропущенных занятий                        за   ____ семестр (в часах)</t>
@@ -107,7 +105,7 @@
     <t>КСР</t>
   </si>
   <si>
-    <t>Б</t>
+    <t>НБ</t>
   </si>
   <si>
     <t>лр</t>
@@ -117,6 +115,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
   <si>
     <t>Итого часов:</t>
@@ -162,12 +163,6 @@
   </si>
   <si>
     <t>Ф.И.О.</t>
-  </si>
-  <si>
-    <t>13.02.2021</t>
-  </si>
-  <si>
-    <t>Вводная 1</t>
   </si>
   <si>
     <t>Министерство образования и науки РФ</t>
@@ -224,10 +219,10 @@
     <t>ОСОБЫЕ ОТМЕТКИ</t>
   </si>
   <si>
-    <t>Иванов И.И.</t>
+    <t>Сидоров</t>
   </si>
   <si>
-    <t>8 - 11</t>
+    <t>8 - 9</t>
   </si>
   <si>
     <t>Дисциплина</t>
@@ -251,34 +246,22 @@
     <t>Подпись препода-вателя</t>
   </si>
   <si>
-    <t>Дроздов Михаил Григорьевич</t>
+    <t>Иванов</t>
   </si>
   <si>
-    <t>Особая метка Особая отметка 2</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Тр</t>
+    <t>КП</t>
   </si>
   <si>
-    <t>ИЗ</t>
+    <t>Петров</t>
   </si>
   <si>
-    <t>Кр</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Кузьмин Николай Петрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Нечаева Марина Игоревна</t>
-  </si>
-  <si>
-    <t>Пирогова Анастасия Яковлева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нарушения </t>
+    <t>3</t>
   </si>
   <si>
     <t>ЖУРНАЛ</t>
@@ -293,7 +276,7 @@
     <t>учебный год</t>
   </si>
   <si>
-    <t>очное</t>
+    <t>Очное</t>
   </si>
   <si>
     <t>форма обучения</t>
@@ -302,13 +285,13 @@
     <t>Группа №</t>
   </si>
   <si>
-    <t>ВМ-20</t>
+    <t>ИВТ-20</t>
   </si>
   <si>
     <t>Направление (специальность)</t>
   </si>
   <si>
-    <t>Машинное обучение [2020]</t>
+    <t>Машинное обучение</t>
   </si>
   <si>
     <t>Колличество присутствующих</t>
@@ -356,25 +339,13 @@
     <t>Подпись декана факультета (зам. декана по учебной работе)</t>
   </si>
   <si>
-    <t>comments</t>
+    <t>5</t>
   </si>
   <si>
-    <t>solution 1</t>
+    <t>6</t>
   </si>
   <si>
-    <t>Семестр 2</t>
-  </si>
-  <si>
-    <t>06.02.2021</t>
-  </si>
-  <si>
-    <t>Ошибок не обнаружено</t>
-  </si>
-  <si>
-    <t>10.02.2021</t>
-  </si>
-  <si>
-    <t>Проверка 2</t>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1859,11 +1830,11 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="31"/>
       <c r="AF8" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="31"/>
       <c r="AH8" s="32" t="s">
@@ -1885,7 +1856,7 @@
       <c r="AR8" s="32"/>
       <c r="AS8" s="32"/>
       <c r="AT8" s="33">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="32"/>
       <c r="AY8" s="5" t="str">
@@ -1996,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -2026,7 +1997,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36">
@@ -2076,9 +2047,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -2106,13 +2075,9 @@
       <c r="AA11" s="38"/>
       <c r="AB11" s="38"/>
       <c r="AC11" s="39"/>
-      <c r="AD11" s="40">
-        <v>0</v>
-      </c>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="40">
-        <v>0</v>
-      </c>
+      <c r="AF11" s="40"/>
       <c r="AG11" s="40"/>
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
@@ -4208,7 +4173,7 @@
       <c r="AF39" s="36"/>
       <c r="AG39" s="36"/>
       <c r="AH39" s="47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI39" s="47"/>
       <c r="AJ39" s="47"/>
@@ -4227,14 +4192,14 @@
       </c>
       <c r="AU39" s="49"/>
       <c r="AY39" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ39" s="5" t="e">
         <f>AVERAGE(AY8:AY38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB39" s="5">
         <f>SUM(BB8:BB38)</f>
@@ -4285,13 +4250,13 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE40" s="51"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="53"/>
       <c r="AH40" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI40" s="16"/>
       <c r="AJ40" s="54">
@@ -4345,7 +4310,7 @@
       <c r="AF41" s="52"/>
       <c r="AG41" s="53"/>
       <c r="AH41" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI41" s="16"/>
       <c r="AJ41" s="55"/>
@@ -4396,7 +4361,7 @@
       <c r="AF42" s="52"/>
       <c r="AG42" s="53"/>
       <c r="AH42" s="56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI42" s="57">
         <f>BB39</f>
@@ -4453,7 +4418,7 @@
       <c r="AF43" s="52"/>
       <c r="AG43" s="53"/>
       <c r="AH43" s="56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI43" s="61">
         <f>BC39</f>
@@ -4507,7 +4472,7 @@
       <c r="AF44" s="52"/>
       <c r="AG44" s="53"/>
       <c r="AH44" s="56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI44" s="61">
         <f>BD39</f>
@@ -4515,18 +4480,18 @@
       </c>
       <c r="AJ44" s="16"/>
       <c r="AK44" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL44" s="16"/>
       <c r="AM44" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN44" s="16"/>
       <c r="AO44" s="16"/>
       <c r="AP44" s="16"/>
       <c r="AQ44" s="16"/>
       <c r="AR44" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
@@ -4567,7 +4532,7 @@
       <c r="AF45" s="52"/>
       <c r="AG45" s="53"/>
       <c r="AH45" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI45" s="64">
         <f>BE39</f>
@@ -4575,11 +4540,11 @@
       </c>
       <c r="AJ45" s="16"/>
       <c r="AM45" s="65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN45" s="65"/>
       <c r="AS45" s="66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AT45" s="66"/>
       <c r="AU45" s="66"/>
@@ -4830,3451 +4795,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ47"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9:AE9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="5.44140625" customWidth="1" style="5"/>
-    <col min="2" max="7" bestFit="1" width="2.109375" customWidth="1" style="5"/>
-    <col min="8" max="8" width="2.109375" customWidth="1" style="5"/>
-    <col min="9" max="19" bestFit="1" width="2.109375" customWidth="1" style="5"/>
-    <col min="20" max="20" bestFit="1" width="2.5546875" customWidth="1" style="5"/>
-    <col min="21" max="29" bestFit="1" width="2.109375" customWidth="1" style="5"/>
-    <col min="30" max="30" bestFit="1" width="8.6640625" customWidth="1" style="5"/>
-    <col min="31" max="32" width="7.44140625" customWidth="1" style="5"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1" style="5"/>
-    <col min="34" max="34" width="12.44140625" customWidth="1" style="5"/>
-    <col min="35" max="39" width="8.88671875" customWidth="1" style="5"/>
-    <col min="40" max="40" width="7.44140625" customWidth="1" style="5"/>
-    <col min="41" max="41" hidden="1" width="1.44140625" customWidth="1" style="5"/>
-    <col min="42" max="42" hidden="1" width="10.6640625" customWidth="1" style="5"/>
-    <col min="43" max="43" hidden="1" width="5.33203125" customWidth="1" style="5"/>
-    <col min="44" max="44" width="5.88671875" customWidth="1" style="5"/>
-    <col min="45" max="45" width="3.6640625" customWidth="1" style="5"/>
-    <col min="46" max="46" width="8.88671875" customWidth="1" style="5"/>
-    <col min="47" max="47" width="14.6640625" customWidth="1" style="5"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1" style="5"/>
-    <col min="51" max="51" width="8.88671875" customWidth="1" style="5"/>
-    <col min="52" max="52" bestFit="1" width="10.5546875" customWidth="1" style="5"/>
-    <col min="53" max="53" width="8.88671875" customWidth="1" style="5"/>
-    <col min="54" max="54" bestFit="1" width="10.5546875" customWidth="1" style="5"/>
-    <col min="55" max="16384" width="8.88671875" customWidth="1" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AW1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ1" s="9"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AW2" s="5">
-        <v>2</v>
-      </c>
-      <c r="BJ2" s="9"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="BJ3" s="9"/>
-    </row>
-    <row r="4" ht="17.4" customHeight="1" s="6" customFormat="1">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ4" s="9"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="21"/>
-      <c r="BJ5" s="9"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="21"/>
-      <c r="BJ6" s="9"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="21"/>
-      <c r="AY7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ7" s="9"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A8" s="28">
-        <v>1</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="33">
-        <v>2</v>
-      </c>
-      <c r="AU8" s="32"/>
-      <c r="AY8" s="5" t="str">
-        <f ref="AY8:AY38" t="shared" si="1">IF( AD8="", "",((($AT$39-(AD8+AF8))/$AT$39)))</f>
-      </c>
-      <c r="BB8" s="5">
-        <f>IF( AI8="л", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="5">
-        <f>IF( AI8="пз", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="5">
-        <f>IF( AI8="лр", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="5">
-        <f>IF( AI8="кср", AT8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="9"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A9" s="34">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="33">
-        <f ref="AT9:AT38" t="shared" si="0">IF(AJ9="",0,$AW$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="32"/>
-      <c r="AY9" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB9" s="5">
-        <f ref="BB9:BB38" t="shared" si="2">IF( AI9="л", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="5">
-        <f ref="BC9:BC38" t="shared" si="3">IF( AI9="пз", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="5">
-        <f ref="BD9:BD38" t="shared" si="4">IF( AI9="лр", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="5">
-        <f ref="BE9:BE38" t="shared" si="5">IF( AI9="кср", AT9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="9"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A10" s="34">
-        <f ref="A10:A36" t="shared" si="6">A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="32"/>
-      <c r="AY10" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB10" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="9"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A11" s="37">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="32"/>
-      <c r="AY11" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB11" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="9"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A12" s="34">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="32"/>
-      <c r="AY12" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB12" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD12" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="9"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A13" s="34">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU13" s="32"/>
-      <c r="AY13" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB13" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD13" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="9"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A14" s="34">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="32"/>
-      <c r="AY14" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB14" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="9"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A15" s="34">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="32"/>
-      <c r="AY15" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="9"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A16" s="34">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="32"/>
-      <c r="AY16" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB16" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="9"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A17" s="34">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="32"/>
-      <c r="AY17" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="9"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A18" s="34">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="32"/>
-      <c r="AY18" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="9"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A19" s="34">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="32"/>
-      <c r="AY19" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB19" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD19" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="9"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A20" s="34">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="32"/>
-      <c r="AY20" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB20" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD20" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="9"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A21" s="34">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="32"/>
-      <c r="AY21" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB21" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE21" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="9"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A22" s="34">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="32"/>
-      <c r="AY22" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="9"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A23" s="34">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="32"/>
-      <c r="AY23" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB23" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="9"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A24" s="34">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="32"/>
-      <c r="AY24" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="9"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A25" s="34">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="32"/>
-      <c r="AY25" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB25" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="9"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A26" s="34">
-        <f>A25+1</f>
-        <v>19</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="32"/>
-      <c r="AY26" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB26" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD26" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="9"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A27" s="34">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="32"/>
-      <c r="AY27" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB27" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="9"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A28" s="34">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="32"/>
-      <c r="AY28" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB28" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD28" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="9"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A29" s="34">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU29" s="32"/>
-      <c r="AY29" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB29" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC29" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD29" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="9"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A30" s="34">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="32"/>
-      <c r="AY30" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB30" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD30" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="9"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A31" s="34">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU31" s="32"/>
-      <c r="AY31" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB31" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC31" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD31" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="9"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A32" s="34">
-        <f>A31+1</f>
-        <v>25</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU32" s="32"/>
-      <c r="AY32" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB32" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD32" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="9"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A33" s="34">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU33" s="32"/>
-      <c r="AY33" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD33" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="9"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A34" s="34">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="32"/>
-      <c r="AY34" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB34" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD34" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="9"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A35" s="34">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="32"/>
-      <c r="AY35" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB35" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="9"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A36" s="34">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="32"/>
-      <c r="AY36" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB36" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="9"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A37" s="34">
-        <v>30</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="32"/>
-      <c r="AY37" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB37" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="9"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="32"/>
-      <c r="AY38" s="5" t="str">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="BB38" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC38" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD38" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="9"/>
-    </row>
-    <row r="39" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="48">
-        <f>SUM(AT8:AT38)</f>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="49"/>
-      <c r="AY39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ39" s="5" t="e">
-        <f>AVERAGE(AY8:AY38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB39" s="5">
-        <f>SUM(BB8:BB38)</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="5">
-        <f>SUM(BC8:BC38)</f>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="5">
-        <f>SUM(BD8:BD38)</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="5">
-        <f>SUM(BE8:BE38)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="9"/>
-    </row>
-    <row r="40" ht="18" customHeight="1" s="6" customFormat="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="53"/>
-      <c r="AH40" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="54">
-        <f>AT39</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="16"/>
-      <c r="AM40" s="16"/>
-      <c r="AN40" s="16"/>
-      <c r="AO40" s="16"/>
-      <c r="AP40" s="16"/>
-      <c r="AQ40" s="16"/>
-      <c r="AR40" s="16"/>
-      <c r="AS40" s="16"/>
-      <c r="AT40" s="16"/>
-      <c r="AU40" s="16"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="53"/>
-      <c r="AH41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="16"/>
-      <c r="AM41" s="16"/>
-      <c r="AN41" s="16"/>
-      <c r="AO41" s="16"/>
-      <c r="AP41" s="16"/>
-      <c r="AQ41" s="16"/>
-      <c r="AR41" s="16"/>
-      <c r="AS41" s="16"/>
-      <c r="AT41" s="16"/>
-      <c r="AU41" s="16"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI42" s="57">
-        <f>BB39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="16"/>
-      <c r="AK42" s="16"/>
-      <c r="AL42" s="16"/>
-      <c r="AM42" s="16"/>
-      <c r="AN42" s="16"/>
-      <c r="AO42" s="16"/>
-      <c r="AP42" s="16"/>
-      <c r="AQ42" s="16"/>
-      <c r="AR42" s="16"/>
-      <c r="AS42" s="16"/>
-      <c r="AT42" s="16"/>
-      <c r="AU42" s="16"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="59" t="e">
-        <f>AZ39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43" s="60"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI43" s="61">
-        <f>BC39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="16"/>
-      <c r="AK43" s="16"/>
-      <c r="AL43" s="16"/>
-      <c r="AM43" s="16"/>
-      <c r="AN43" s="16"/>
-      <c r="AO43" s="16"/>
-      <c r="AP43" s="16"/>
-      <c r="AQ43" s="16"/>
-      <c r="AR43" s="16"/>
-      <c r="AS43" s="16"/>
-      <c r="AT43" s="16"/>
-      <c r="AU43" s="16"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI44" s="61">
-        <f>BD39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="16"/>
-      <c r="AK44" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL44" s="16"/>
-      <c r="AM44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN44" s="16"/>
-      <c r="AO44" s="16"/>
-      <c r="AP44" s="16"/>
-      <c r="AQ44" s="16"/>
-      <c r="AR44" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS44" s="16"/>
-      <c r="AT44" s="16"/>
-      <c r="AU44" s="16"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI45" s="64">
-        <f>BE39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="16"/>
-      <c r="AM45" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN45" s="65"/>
-      <c r="AS45" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="66"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A47" s="68">
-        <v>10</v>
-      </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="68"/>
-      <c r="AB47" s="68"/>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="69">
-        <v>11</v>
-      </c>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="69"/>
-      <c r="AK47" s="69"/>
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="69"/>
-      <c r="AN47" s="69"/>
-      <c r="AO47" s="69"/>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="69"/>
-      <c r="AR47" s="69"/>
-      <c r="AS47" s="69"/>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="AH47:AU47"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AJ36:AS36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH1:AU1"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AJ4:AS7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AD4:AG5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AJ8:AS8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="AJ30:AS30"/>
-    <mergeCell ref="AJ31:AS31"/>
-    <mergeCell ref="AJ20:AS20"/>
-    <mergeCell ref="AJ9:AS9"/>
-    <mergeCell ref="AJ10:AS10"/>
-    <mergeCell ref="AJ11:AS11"/>
-    <mergeCell ref="AJ12:AS12"/>
-    <mergeCell ref="AJ13:AS13"/>
-    <mergeCell ref="AJ14:AS14"/>
-    <mergeCell ref="AJ15:AS15"/>
-    <mergeCell ref="AJ16:AS16"/>
-    <mergeCell ref="AJ17:AS17"/>
-    <mergeCell ref="AJ18:AS18"/>
-    <mergeCell ref="AJ19:AS19"/>
-    <mergeCell ref="AJ21:AS21"/>
-    <mergeCell ref="AJ22:AS22"/>
-    <mergeCell ref="AJ23:AS23"/>
-    <mergeCell ref="AJ24:AS24"/>
-    <mergeCell ref="AJ25:AS25"/>
-    <mergeCell ref="AJ26:AS26"/>
-    <mergeCell ref="AJ27:AS27"/>
-    <mergeCell ref="AJ28:AS28"/>
-    <mergeCell ref="AJ29:AS29"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AJ33:AS33"/>
-    <mergeCell ref="AJ34:AS34"/>
-    <mergeCell ref="AJ35:AS35"/>
-    <mergeCell ref="AJ37:AS37"/>
-    <mergeCell ref="AJ38:AS38"/>
-    <mergeCell ref="AH39:AS39"/>
-    <mergeCell ref="AJ32:AS32"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967293"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D85535-87E3-468A-826C-34903E37DA01}">
   <dimension ref="A1:CN47"/>
   <sheetViews>
@@ -8347,13 +4867,13 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
       <c r="E1" s="73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
@@ -8361,7 +4881,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
       <c r="K1" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="75"/>
       <c r="M1" s="75"/>
@@ -8389,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="AI1" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ1" s="78"/>
       <c r="AK1" s="78"/>
@@ -8415,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="BE1" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF1" s="78"/>
       <c r="BG1" s="78"/>
@@ -8430,7 +4950,7 @@
       <c r="BP1" s="79"/>
       <c r="BQ1" s="79"/>
       <c r="BR1" s="80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BS1" s="80"/>
       <c r="BT1" s="80"/>
@@ -8439,7 +4959,7 @@
       <c r="BW1" s="80"/>
       <c r="BX1" s="80"/>
       <c r="BY1" s="81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BZ1" s="81"/>
       <c r="CA1" s="81"/>
@@ -8469,19 +4989,19 @@
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
       <c r="K2" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="N2" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="O2" s="83" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>52</v>
       </c>
       <c r="P2" s="76"/>
       <c r="Q2" s="76"/>
@@ -8528,10 +5048,10 @@
       <c r="BF2" s="76"/>
       <c r="BG2" s="76"/>
       <c r="BH2" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI2" s="85" t="s">
         <v>53</v>
-      </c>
-      <c r="BI2" s="85" t="s">
-        <v>54</v>
       </c>
       <c r="BJ2" s="85"/>
       <c r="BK2" s="85"/>
@@ -8549,7 +5069,7 @@
       <c r="BW2" s="85"/>
       <c r="BX2" s="85"/>
       <c r="BY2" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BZ2" s="86"/>
       <c r="CA2" s="86"/>
@@ -8584,7 +5104,7 @@
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="87"/>
       <c r="R3" s="87"/>
@@ -8608,7 +5128,7 @@
       <c r="AJ3" s="87"/>
       <c r="AK3" s="87"/>
       <c r="AL3" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM3" s="87"/>
       <c r="AN3" s="87"/>
@@ -8632,9 +5152,7 @@
       <c r="BF3" s="87"/>
       <c r="BG3" s="87"/>
       <c r="BH3" s="84"/>
-      <c r="BI3" s="88" t="s">
-        <v>4</v>
-      </c>
+      <c r="BI3" s="88"/>
       <c r="BJ3" s="88"/>
       <c r="BK3" s="89"/>
       <c r="BL3" s="89"/>
@@ -8669,7 +5187,7 @@
     </row>
     <row r="4" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A4" s="90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -8769,15 +5287,15 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="92"/>
       <c r="K5" s="93">
@@ -8787,13 +5305,13 @@
         <v>4</v>
       </c>
       <c r="M5" s="89">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N5" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="89" t="s">
         <v>60</v>
-      </c>
-      <c r="O5" s="89" t="s">
-        <v>61</v>
       </c>
       <c r="P5" s="94"/>
       <c r="Q5" s="94"/>
@@ -8890,13 +5408,13 @@
       <c r="N6" s="89"/>
       <c r="O6" s="89"/>
       <c r="P6" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="96" t="s">
+      <c r="R6" s="97" t="s">
         <v>63</v>
-      </c>
-      <c r="R6" s="97" t="s">
-        <v>64</v>
       </c>
       <c r="S6" s="97"/>
       <c r="T6" s="97"/>
@@ -8916,19 +5434,19 @@
       <c r="AH6" s="97"/>
       <c r="AI6" s="97"/>
       <c r="AJ6" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK6" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="AK6" s="96" t="s">
-        <v>66</v>
-      </c>
       <c r="AL6" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM6" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="AM6" s="96" t="s">
+      <c r="AN6" s="97" t="s">
         <v>63</v>
-      </c>
-      <c r="AN6" s="97" t="s">
-        <v>64</v>
       </c>
       <c r="AO6" s="97"/>
       <c r="AP6" s="97"/>
@@ -8948,107 +5466,107 @@
       <c r="BD6" s="97"/>
       <c r="BE6" s="97"/>
       <c r="BF6" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG6" s="98" t="s">
         <v>65</v>
-      </c>
-      <c r="BG6" s="98" t="s">
-        <v>66</v>
       </c>
       <c r="BH6" s="84"/>
       <c r="BI6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BJ6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BK6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BL6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BM6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BN6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BO6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BP6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BQ6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BR6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BS6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BT6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BU6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BV6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BW6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BX6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="BY6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="BZ6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="BZ6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="CA6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="CB6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="CB6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="CC6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="CD6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="CE6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="CF6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="CF6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="CG6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="CH6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="CI6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="CJ6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="CJ6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="CK6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="CL6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="CL6" s="88" t="s">
-        <v>68</v>
-      </c>
       <c r="CM6" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN6" s="88" t="s">
         <v>67</v>
-      </c>
-      <c r="CN6" s="88" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1" s="70" customFormat="1">
@@ -9228,12 +5746,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="102"/>
       <c r="K8" s="93"/>
@@ -9245,10 +5763,10 @@
         <v>4</v>
       </c>
       <c r="Q8" s="103">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="R8" s="103" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="S8" s="103" t="s">
         <v>24</v>
@@ -9299,86 +5817,40 @@
         <v>24</v>
       </c>
       <c r="AI8" s="103" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="AJ8" s="103">
         <v>0</v>
       </c>
       <c r="AK8" s="103">
-        <v>2</v>
-      </c>
-      <c r="AL8" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="103">
-        <v>4.5</v>
-      </c>
-      <c r="AN8" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR8" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD8" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF8" s="103">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="104">
-        <v>2.5</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="103"/>
+      <c r="AZ8" s="103"/>
+      <c r="BA8" s="103"/>
+      <c r="BB8" s="103"/>
+      <c r="BC8" s="103"/>
+      <c r="BD8" s="103"/>
+      <c r="BE8" s="103"/>
+      <c r="BF8" s="103"/>
+      <c r="BG8" s="104"/>
       <c r="BH8" s="105">
         <v>1</v>
       </c>
-      <c r="BI8" s="106" t="s">
-        <v>24</v>
-      </c>
+      <c r="BI8" s="106"/>
       <c r="BJ8" s="106"/>
       <c r="BK8" s="106"/>
       <c r="BL8" s="106"/>
@@ -9420,12 +5892,12 @@
         <v>2</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J9" s="108"/>
       <c r="K9" s="93">
@@ -9482,9 +5954,7 @@
       <c r="BH9" s="105">
         <v>2</v>
       </c>
-      <c r="BI9" s="106" t="s">
-        <v>24</v>
-      </c>
+      <c r="BI9" s="106"/>
       <c r="BJ9" s="106"/>
       <c r="BK9" s="106"/>
       <c r="BL9" s="106"/>
@@ -9526,12 +5996,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="108" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J10" s="108"/>
       <c r="K10" s="93"/>
@@ -9586,9 +6056,7 @@
       <c r="BH10" s="105">
         <v>3</v>
       </c>
-      <c r="BI10" s="106" t="s">
-        <v>24</v>
-      </c>
+      <c r="BI10" s="106"/>
       <c r="BJ10" s="106"/>
       <c r="BK10" s="106"/>
       <c r="BL10" s="106"/>
@@ -9629,14 +6097,10 @@
       <c r="E11" s="100">
         <v>4</v>
       </c>
-      <c r="F11" s="101" t="s">
-        <v>77</v>
-      </c>
+      <c r="F11" s="101"/>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
-      <c r="I11" s="108" t="s">
-        <v>78</v>
-      </c>
+      <c r="I11" s="108"/>
       <c r="J11" s="108"/>
       <c r="K11" s="93">
         <v>4</v>
@@ -9692,9 +6156,7 @@
       <c r="BH11" s="105">
         <v>4</v>
       </c>
-      <c r="BI11" s="106" t="s">
-        <v>24</v>
-      </c>
+      <c r="BI11" s="106"/>
       <c r="BJ11" s="106"/>
       <c r="BK11" s="106"/>
       <c r="BL11" s="106"/>
@@ -10025,7 +6487,7 @@
     </row>
     <row r="15" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A15" s="110" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
@@ -10325,7 +6787,7 @@
     </row>
     <row r="18" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A18" s="112" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
@@ -10623,16 +7085,16 @@
     </row>
     <row r="21" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A21" s="113">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D21" s="114" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" s="100">
         <v>14</v>
@@ -10829,11 +7291,11 @@
     </row>
     <row r="23" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A23" s="113" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="115" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23" s="115"/>
       <c r="E23" s="100">
@@ -11131,11 +7593,11 @@
     </row>
     <row r="26" ht="15.6" customHeight="1" s="70" customFormat="1">
       <c r="A26" s="116" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B26" s="117"/>
       <c r="C26" s="118" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="100">
@@ -11531,7 +7993,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A30" s="109" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B30" s="109"/>
       <c r="C30" s="109"/>
@@ -11631,7 +8093,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A31" s="109" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="109"/>
@@ -12424,7 +8886,7 @@
     <row r="39" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A39" s="123"/>
       <c r="B39" s="124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="124"/>
       <c r="D39" s="109"/>
@@ -12529,7 +8991,7 @@
       <c r="E40" s="126"/>
       <c r="F40" s="82"/>
       <c r="G40" s="108" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H40" s="118"/>
       <c r="I40" s="127"/>
@@ -12620,14 +9082,14 @@
     <row r="41" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A41" s="123"/>
       <c r="B41" s="117" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="109"/>
       <c r="E41" s="126"/>
       <c r="F41" s="82"/>
       <c r="G41" s="108" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H41" s="118"/>
       <c r="I41" s="127"/>
@@ -12725,7 +9187,7 @@
       <c r="E42" s="126"/>
       <c r="F42" s="82"/>
       <c r="G42" s="102" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H42" s="78"/>
       <c r="I42" s="127"/>
@@ -12815,7 +9277,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1" s="70" customFormat="1">
       <c r="A43" s="124" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B43" s="124"/>
       <c r="C43" s="124"/>
@@ -12834,7 +9296,7 @@
       <c r="N43" s="128"/>
       <c r="O43" s="128"/>
       <c r="P43" s="130" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q43" s="131"/>
       <c r="R43" s="131"/>
@@ -12858,7 +9320,7 @@
       <c r="AJ43" s="131"/>
       <c r="AK43" s="131"/>
       <c r="AL43" s="130" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AM43" s="131"/>
       <c r="AN43" s="131"/>
@@ -12932,7 +9394,7 @@
       <c r="N44" s="128"/>
       <c r="O44" s="128"/>
       <c r="P44" s="130" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
@@ -12956,7 +9418,7 @@
       <c r="AJ44" s="132"/>
       <c r="AK44" s="132"/>
       <c r="AL44" s="130" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM44" s="79"/>
       <c r="AN44" s="79"/>
@@ -13025,7 +9487,7 @@
       <c r="I45" s="127"/>
       <c r="J45" s="127"/>
       <c r="P45" s="136" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q45" s="137"/>
       <c r="R45" s="137"/>
@@ -13049,7 +9511,7 @@
       <c r="AJ45" s="137"/>
       <c r="AK45" s="137"/>
       <c r="AL45" s="136" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AM45" s="137"/>
       <c r="AN45" s="137"/>
@@ -14287,7 +10749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D13F6-67BB-466D-AEC8-8E09EA45C017}">
   <dimension ref="A1:K47"/>
   <sheetViews>
@@ -14313,72 +10775,68 @@
   <sheetData>
     <row r="1" ht="22.95" customHeight="1" s="70" customFormat="1">
       <c r="A1" s="143" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="143"/>
       <c r="C1" s="79"/>
       <c r="D1" s="143" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E1" s="143"/>
       <c r="F1" s="87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
     <row r="2" ht="19.95" customHeight="1" s="70" customFormat="1">
       <c r="A2" s="144" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="144" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E2" s="144" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J2" s="93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" s="70" customFormat="1">
       <c r="A3" s="83" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C3" s="75"/>
-      <c r="D3" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="83"/>
       <c r="G3" s="93"/>
       <c r="H3" s="83"/>
@@ -14406,18 +10864,14 @@
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
       <c r="F5" s="145" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H5" s="146"/>
-      <c r="I5" s="145" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>110</v>
-      </c>
+      <c r="I5" s="145"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="146"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" s="70" customFormat="1">
@@ -14425,9 +10879,7 @@
       <c r="B6" s="83"/>
       <c r="C6" s="75"/>
       <c r="D6" s="83"/>
-      <c r="E6" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E6" s="83"/>
       <c r="F6" s="93"/>
       <c r="G6" s="83"/>
       <c r="H6" s="146"/>
@@ -14466,9 +10918,7 @@
       <c r="B9" s="83"/>
       <c r="C9" s="75"/>
       <c r="D9" s="83"/>
-      <c r="E9" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="83"/>
       <c r="F9" s="147"/>
       <c r="G9" s="148"/>
       <c r="H9" s="149"/>
@@ -14507,9 +10957,7 @@
       <c r="B12" s="83"/>
       <c r="C12" s="75"/>
       <c r="D12" s="83"/>
-      <c r="E12" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E12" s="83"/>
       <c r="F12" s="147"/>
       <c r="G12" s="148"/>
       <c r="H12" s="149"/>
@@ -14548,9 +10996,7 @@
       <c r="B15" s="83"/>
       <c r="C15" s="75"/>
       <c r="D15" s="83"/>
-      <c r="E15" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E15" s="83"/>
       <c r="F15" s="147"/>
       <c r="G15" s="148"/>
       <c r="H15" s="149"/>
@@ -14589,9 +11035,7 @@
       <c r="B18" s="83"/>
       <c r="C18" s="75"/>
       <c r="D18" s="83"/>
-      <c r="E18" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E18" s="83"/>
       <c r="F18" s="147"/>
       <c r="G18" s="148"/>
       <c r="H18" s="149"/>
@@ -14630,9 +11074,7 @@
       <c r="B21" s="83"/>
       <c r="C21" s="75"/>
       <c r="D21" s="83"/>
-      <c r="E21" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E21" s="83"/>
       <c r="F21" s="147"/>
       <c r="G21" s="148"/>
       <c r="H21" s="149"/>
@@ -14671,9 +11113,7 @@
       <c r="B24" s="83"/>
       <c r="C24" s="75"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="83"/>
       <c r="F24" s="147"/>
       <c r="G24" s="148"/>
       <c r="H24" s="149"/>
@@ -14712,9 +11152,7 @@
       <c r="B27" s="83"/>
       <c r="C27" s="75"/>
       <c r="D27" s="83"/>
-      <c r="E27" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E27" s="83"/>
       <c r="F27" s="147"/>
       <c r="G27" s="148"/>
       <c r="H27" s="149"/>
@@ -14753,9 +11191,7 @@
       <c r="B30" s="83"/>
       <c r="C30" s="75"/>
       <c r="D30" s="83"/>
-      <c r="E30" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E30" s="83"/>
       <c r="F30" s="147"/>
       <c r="G30" s="148"/>
       <c r="H30" s="149"/>
@@ -14794,9 +11230,7 @@
       <c r="B33" s="83"/>
       <c r="C33" s="75"/>
       <c r="D33" s="83"/>
-      <c r="E33" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E33" s="83"/>
       <c r="F33" s="147"/>
       <c r="G33" s="148"/>
       <c r="H33" s="149"/>
@@ -14835,9 +11269,7 @@
       <c r="B36" s="83"/>
       <c r="C36" s="75"/>
       <c r="D36" s="83"/>
-      <c r="E36" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E36" s="83"/>
       <c r="F36" s="147"/>
       <c r="G36" s="148"/>
       <c r="H36" s="149"/>
@@ -14876,9 +11308,7 @@
       <c r="B39" s="83"/>
       <c r="C39" s="75"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="83" t="s">
-        <v>24</v>
-      </c>
+      <c r="E39" s="83"/>
       <c r="F39" s="147"/>
       <c r="G39" s="148"/>
       <c r="H39" s="149"/>
@@ -14917,9 +11347,7 @@
       <c r="B42" s="150"/>
       <c r="C42" s="75"/>
       <c r="D42" s="150"/>
-      <c r="E42" s="150" t="s">
-        <v>24</v>
-      </c>
+      <c r="E42" s="150"/>
       <c r="F42" s="147"/>
       <c r="G42" s="148"/>
       <c r="H42" s="149"/>
